--- a/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
+++ b/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="8860" windowWidth="20060" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4720" yWindow="8680" windowWidth="20060" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Maximum power density at the surface</t>
   </si>
@@ -83,9 +83,6 @@
     <t>m*m</t>
   </si>
   <si>
-    <t>maximum value of the near-field on-axis power density</t>
-  </si>
-  <si>
     <t>Snf</t>
   </si>
   <si>
@@ -96,6 +93,66 @@
   </si>
   <si>
     <t>W/(m*m)</t>
+  </si>
+  <si>
+    <t>calculated aperture efficiency</t>
+  </si>
+  <si>
+    <t>ncalc</t>
+  </si>
+  <si>
+    <t>power gain in direction of interest relative to isotropic radiator</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>numeric gain</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>calculated power gain in direction of interest relative to isotropic radiator</t>
+  </si>
+  <si>
+    <t>Gcalc</t>
+  </si>
+  <si>
+    <t>maximum value of the near-field on-axis power density with estimated n</t>
+  </si>
+  <si>
+    <t>maximum value of the near-field on-axis power density with calculated n</t>
+  </si>
+  <si>
+    <t>Snf2</t>
+  </si>
+  <si>
+    <t>frequency of operation</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>speed of light</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>GdB</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>calculated power gain in direction of interest relative to isotropic radiator (dB)</t>
   </si>
 </sst>
 </file>
@@ -145,10 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,16 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.1640625" customWidth="1"/>
+    <col min="1" max="1" width="71.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -461,10 +520,10 @@
       </c>
       <c r="C2" s="1">
         <f>(4*C3)/C4</f>
-        <v>4</v>
+        <v>3.4217671183422809</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -489,7 +548,8 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <f>PI()*(C6/2)*(C6/2)</f>
+        <v>1.168986626400762</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -503,8 +563,8 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <f>(C6*C6)/(4*C7)</f>
-        <v>2.0833333333333335</v>
+        <f>((C6*C6)/(4*C7))</f>
+        <v>7.0202866666666663</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -518,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -532,7 +592,8 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.03</v>
+        <f>C16/C15</f>
+        <v>5.3003533568904596E-2</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -540,26 +601,126 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="1">
         <f>(16*C9*C3)/(PI()*C6*C6)</f>
-        <v>10.185916357881302</v>
+        <v>1.7108835591711404</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
       <c r="C9">
         <v>0.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <f>(16*C11*C3)/(PI()*C6*C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1">
+        <f>((C12*C7*C7)/(4*PI())/((PI()*C6*C6/(4))))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <f>((4*PI()*C4*C9)/(C7*C7))</f>
+        <v>2614.4465290099415</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5660000000</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3">
+        <f>3*10^8</f>
+        <v>300000000</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
+++ b/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Maximum power density at the surface</t>
   </si>
@@ -95,15 +95,9 @@
     <t>W/(m*m)</t>
   </si>
   <si>
-    <t>calculated aperture efficiency</t>
-  </si>
-  <si>
     <t>ncalc</t>
   </si>
   <si>
-    <t>power gain in direction of interest relative to isotropic radiator</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>decimal</t>
   </si>
   <si>
-    <t>calculated power gain in direction of interest relative to isotropic radiator</t>
-  </si>
-  <si>
     <t>Gcalc</t>
   </si>
   <si>
@@ -152,7 +143,28 @@
     <t>dB</t>
   </si>
   <si>
-    <t>calculated power gain in direction of interest relative to isotropic radiator (dB)</t>
+    <t>estimated power gain in direction of interest relative to isotropic radiator</t>
+  </si>
+  <si>
+    <t>estimated power gain in direction of interest relative to isotropic radiator (dB)</t>
+  </si>
+  <si>
+    <t>GcalcdB</t>
+  </si>
+  <si>
+    <t>calculated aperture efficiency using estimated Gain G</t>
+  </si>
+  <si>
+    <t>calculated power gain in direction of interest relative to isotropic radiator using estimated n</t>
+  </si>
+  <si>
+    <t>calculated power gain in direction of interest relative to isotropic radiator using estimated n (dB)</t>
+  </si>
+  <si>
+    <t>if you now the efficiency n, then you can calculate the gain Gcalc</t>
+  </si>
+  <si>
+    <t>if  you know the Gain G, then you can calculate efficiency ncalc</t>
   </si>
 </sst>
 </file>
@@ -484,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.33203125" customWidth="1"/>
+    <col min="1" max="1" width="84.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -520,7 +532,7 @@
       </c>
       <c r="C2" s="1">
         <f>(4*C3)/C4</f>
-        <v>3.4217671183422809</v>
+        <v>25.150410760200742</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -549,7 +561,7 @@
       </c>
       <c r="C4">
         <f>PI()*(C6/2)*(C6/2)</f>
-        <v>1.168986626400762</v>
+        <v>0.15904312808798329</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -564,7 +576,7 @@
       </c>
       <c r="C5" s="1">
         <f>((C6*C6)/(4*C7))</f>
-        <v>7.0202866666666663</v>
+        <v>0.955125</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -578,37 +590,37 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1.22</v>
+        <v>0.45</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <f>C16/C15</f>
+      <c r="C7" s="1">
+        <f>C17/C16</f>
         <v>5.3003533568904596E-2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1">
         <f>(16*C9*C3)/(PI()*C6*C6)</f>
-        <v>1.7108835591711404</v>
+        <v>12.575205380100371</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -623,104 +635,133 @@
         <v>0.5</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <f>(16*C11*C3)/(PI()*C6*C6)</f>
-        <v>0</v>
+        <v>14.141319933321556</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="1">
         <f>((C12*C7*C7)/(4*PI())/((PI()*C6*C6/(4))))</f>
-        <v>0</v>
+        <v>0.5622699393721029</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
+        <f>10*LOG10(C12)</f>
+        <v>26.020599913279625</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
         <f>((4*PI()*C4*C9)/(C7*C7))</f>
-        <v>2614.4465290099415</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>355.7010360954805</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5660000000</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
+      <c r="C15" s="1">
+        <f>10*LOG10(C14)</f>
+        <v>25.510851302121917</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3">
+        <v>5660000000</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
         <f>3*10^8</f>
         <v>300000000</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
+++ b/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="8680" windowWidth="20060" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4520" yWindow="6860" windowWidth="42000" windowHeight="18980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Maximum power density at the surface</t>
   </si>
@@ -166,6 +166,36 @@
   <si>
     <t>if  you know the Gain G, then you can calculate efficiency ncalc</t>
   </si>
+  <si>
+    <t>distance to beginning of far-field</t>
+  </si>
+  <si>
+    <t>Rff</t>
+  </si>
+  <si>
+    <t>Sff</t>
+  </si>
+  <si>
+    <t>distance to point of interest</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>power density in far-field region using estimated G</t>
+  </si>
+  <si>
+    <t>power density in far-field region using calculated Gcalc</t>
+  </si>
+  <si>
+    <t>Sff2</t>
+  </si>
+  <si>
+    <t>Watts/(m*m)</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
 </sst>
 </file>
 
@@ -231,6 +261,1143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.033849928305286"/>
+          <c:y val="0.0257328447151653"/>
+          <c:w val="0.949175491791682"/>
+          <c:h val="0.933275876879026"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Far Field Power Density</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>127.3239544735163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.83098861837907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.14710605261292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.957747154594766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.092958178940651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53677651315323</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.598448050479924</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.989436788648692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.571900672512547</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.273239544735163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.052264086557986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.884194128288307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.753396180316664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.649612012619981</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.565884242104517</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.497359197162173</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.440567316517357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.392975168128137</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.352697934829685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Exposure Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1867554208"/>
+        <c:axId val="1868269392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1867554208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1868269392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1868269392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1867554208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,9 +1674,10 @@
     <col min="1" max="1" width="84.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -522,8 +1690,23 @@
       <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +1720,22 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f>($C$3*$C$12)/(4*F2*F2*PI())</f>
+        <v>127.32395447351627</v>
+      </c>
+      <c r="H2">
+        <f>($C$3*$C$14)/(4*F2*F2*PI())</f>
+        <v>113.22315631500882</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -551,8 +1748,22 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">($C$3*$C$12)/(4*F3*F3*PI())</f>
+        <v>31.830988618379067</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">($C$3*$C$14)/(4*F3*F3*PI())</f>
+        <v>28.305789078752206</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -566,8 +1777,22 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>14.147106052612919</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>12.580350701667646</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -581,8 +1806,22 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>7.9577471545947667</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>7.0764472696880514</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -595,8 +1834,22 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>5.0929581789406511</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4.5289262526003524</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -610,8 +1863,22 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3.5367765131532298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>3.1450876754169115</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -623,8 +1890,22 @@
         <v>12.575205380100371</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>3.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.5984480504799241</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>2.3106766594899759</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -637,8 +1918,22 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.9894367886486917</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.7691118174220128</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -650,8 +1945,22 @@
         <v>14.141319933321556</v>
       </c>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>4.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>1.5719006725125466</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.3978167446297385</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -665,8 +1974,22 @@
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.2732395447351628</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.1322315631500881</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -679,8 +2002,22 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>5.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1.0522640865579858</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.93572856458684972</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -694,8 +2031,22 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.88419412828830746</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.78627191885422787</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -709,8 +2060,22 @@
       <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>6.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.75339618031666433</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0.66995950482253741</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -724,8 +2089,22 @@
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.64961201261998103</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.57766916487249398</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -738,8 +2117,22 @@
       <c r="D16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>7.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.56588424210451682</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.5032140280667059</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -753,19 +2146,5081 @@
       <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.49735919716217292</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>0.44227795435550321</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>8.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.44056731651735737</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0.39177562738757377</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.39297516812813665</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.34945418615743462</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
+      </c>
+      <c r="F20">
+        <v>9.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.35269793482968498</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0.31363755211913802</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.31830988618379069</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0.28305789078752203</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>10.5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.28871645005332491</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.25674185105444181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1">
+        <f>(0.6*C6*C6)/C7</f>
+        <v>2.2923</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.26306602163949644</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0.23393214114671243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>11.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.24068800467583418</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.21403243159737018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.22104853207207686</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>0.19656797971355697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>12.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.20371832715762603</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0.18115705010401412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="1">
+        <f>(C3*C12)/(4*PI()*C26*C26)</f>
+        <v>3.1830988618379067E-3</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.18834904507916608</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.16748987620563435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1">
+        <f>(C3*C14)/(4*C26*C26*PI())</f>
+        <v>2.8305789078752206E-3</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="F28">
+        <v>13.5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.17465563027917186</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0.15531297162552651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0.16240300315499526</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.14441729121812349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>14.5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.15139590306006692</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.13462919894769182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0.14147106052612921</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>0.12580350701667647</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>15.5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0.13249110767275366</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.11781806068159086</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0.12433979929054323</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>0.1105694885888758</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>16.5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0.11691823183977619</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.10396984050964997</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>17</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0.11014182912933934</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>9.7943906846893442E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>17.5</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0.10393792201919695</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>9.2427066379599035E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>9.8243792032034163E-2</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>8.7363546539358655E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>18.5</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>9.3005079966045484E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>8.2705008265163485E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>8.8174483707421245E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>7.8409388029784505E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>19.5</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>8.3710686701851597E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>7.4439944980281947E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>7.9577471545947673E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>7.0764472696880507E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>20.5</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>7.5742983030051322E-2</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>6.7354643851879142E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>21</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>7.2179112513331228E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>6.4185462763610451E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>21.5</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>6.886098132694228E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>6.1234806011362261E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>22</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>6.576650540987411E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>5.8483035286678108E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>22.5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>6.2876026900501869E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>5.5912669785189544E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>23</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>6.0172001168958544E-2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>5.3508107899342544E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>23.5</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>5.7638729956322438E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>5.1255389911728753E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>24</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>5.5262133018019216E-2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>4.9141994928389242E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>24.5</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>5.302955205061069E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>4.7156666520203588E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>25</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>5.0929581789406507E-2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>4.5289262526003529E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>25.5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>4.895192405748415E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="1"/>
+        <v>4.3530625265285977E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>26</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>4.7087261269791521E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="1"/>
+        <v>4.1872469051408588E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>26.5</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>4.5327146483985857E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="1"/>
+        <v>4.0307282419013463E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>27</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>4.3663907569792965E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="1"/>
+        <v>3.8828242906381628E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>27.5</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>4.2090563462319423E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>3.742914258347399E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>28</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>4.0600750788748814E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="1"/>
+        <v>3.6104322804530874E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>28.5</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>3.918865942552055E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="1"/>
+        <v>3.4848616902126442E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>29</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>3.784897576501673E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="1"/>
+        <v>3.3657299736922955E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>29.5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>3.6576832655419785E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="1"/>
+        <v>3.2526043181559557E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>3.5367765131532301E-2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="1"/>
+        <v>3.1450876754169119E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>30.5</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>3.421767118342281E-2</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="1"/>
+        <v>3.0428152731794899E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>31</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>3.3122776918188414E-2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="1"/>
+        <v>2.9454515170397714E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>31.5</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>3.207960556148054E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>2.852687233938242E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>32</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>3.1084949822635807E-2</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="1"/>
+        <v>2.7642372147218951E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>32.5</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>3.0135847212666572E-2</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="1"/>
+        <v>2.6798380192901494E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>33</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G130" si="2">($C$3*$C$12)/(4*F67*F67*PI())</f>
+        <v>2.9229557959944048E-2</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="3">($C$3*$C$14)/(4*F67*F67*PI())</f>
+        <v>2.5992460127412492E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>33.5</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>2.8363545215753235E-2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>2.5222356051461087E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>34</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>2.7535457282334835E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>2.448597671172336E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>34.5</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>2.6743111630648242E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>2.3781381288596685E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>35</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>2.5984480504799238E-2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>2.3106766594899759E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>35.5</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>2.5257677935631082E-2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>2.2460455527674832E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>36</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>2.4560948008008541E-2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>2.1840886634839664E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>36.5</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>2.3892654245358653E-2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>2.1246604675362882E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>37</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>2.3251269991511371E-2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>2.0676252066290871E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>37.5</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>2.2635369684180669E-2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>2.0128561122668233E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>38</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>2.2043620926855311E-2</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>1.9602347007446126E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>38.5</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>2.1474777276693585E-2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>1.9096501318098976E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>39</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>2.0927671675462899E-2</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>1.8609986245070487E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>39.5</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>2.0401210458823309E-2</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>1.8141829244513508E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>40</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>1.9894367886486918E-2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>1.7691118174220127E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>40.5</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>1.9406181142130205E-2</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>1.7256996847280721E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>41</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>1.8935745757512831E-2</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>1.6838660962969786E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>41.5</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>1.8482211420164939E-2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>1.6435354378720977E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>42</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>1.8044778128332807E-2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>1.6046365690902613E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>42.5</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>1.7622692660694293E-2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>1.5671025095502951E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>43</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>1.721524533173557E-2</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>1.5308701502840565E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>43.5</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>1.68217670066741E-2</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>1.4958799883076869E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>44</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>1.6441626352468527E-2</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>1.4620758821669527E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>44.5</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>1.6074227303814706E-2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>1.4294048266002881E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>45</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>1.5719006725125467E-2</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>1.3978167446297386E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>45.5</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>1.5375432251360498E-2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>1.3672642955561989E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>46</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>1.5043000292239636E-2</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>1.3377026974835636E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>46.5</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>1.4721234185861519E-2</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>1.3090895631287874E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>47</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>1.4409682489080609E-2</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>1.2813847477932188E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>47.5</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>1.4107917393187399E-2</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>1.2545502084765519E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>48</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>1.3815533254504804E-2</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>1.228549873209731E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>48.5</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>1.3532145230472555E-2</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>1.2033495197684006E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>49</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>1.3257388012652672E-2</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>1.1789166630050897E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>49.5</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>1.2990914648864023E-2</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>1.155220450107222E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>50</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>1.2732395447351627E-2</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>1.1322315631500882E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <v>50.5</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>1.2481516956525466E-2</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>1.1099221283698541E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>51</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>1.2237981014371038E-2</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>1.0882656316321494E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>51.5</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>1.2001503862146882E-2</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>1.0672368396173892E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <v>52</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>1.177181531744788E-2</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>1.0468117262852147E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>52.5</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>1.1548658002132995E-2</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>1.0269674042177671E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>53</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>1.1331786620996464E-2</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>1.0076820604753366E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>53.5</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>1.1120967287406434E-2</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>9.8893489662860348E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>54</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>1.0915976892448241E-2</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>9.7070607265954071E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <v>54.5</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>1.0716602514394099E-2</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="3"/>
+        <v>9.5297665444835297E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <v>55</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>1.0522640865579856E-2</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="3"/>
+        <v>9.3572856458684975E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <v>55.5</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>1.0333897774005054E-2</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="3"/>
+        <v>9.1894453627959435E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>56</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>1.0150187697187204E-2</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="3"/>
+        <v>9.0260807011327184E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <v>56.5</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>9.9713332659970445E-3</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="3"/>
+        <v>8.8670339349212011E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <v>57</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>9.7971648563801375E-3</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="3"/>
+        <v>8.7121542255316105E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <v>57.5</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>9.6275201870333667E-3</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="3"/>
+        <v>8.5612972638948077E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>58</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>9.4622439412541826E-3</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="3"/>
+        <v>8.4143249342307387E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <v>58.5</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>9.3011874113168441E-3</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="3"/>
+        <v>8.271104997809104E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>59</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>9.1442081638549461E-3</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="3"/>
+        <v>8.1315107953898891E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <v>59.5</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>8.9911697248440271E-3</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="3"/>
+        <v>7.9954209670933425E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <v>60</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>8.8419412828830753E-3</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="3"/>
+        <v>7.8627191885422797E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <v>60.5</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>8.6963974095701294E-3</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="3"/>
+        <v>7.7332939222053698E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <v>61</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>8.5544177958557024E-3</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="3"/>
+        <v>7.6070381829487247E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <v>61.5</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>8.415887003339036E-3</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="3"/>
+        <v>7.4838493168754589E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <v>62</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>8.2806942295471034E-3</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="3"/>
+        <v>7.3636287925994285E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <v>62.5</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>8.1487330863050413E-3</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="3"/>
+        <v>7.2462820041605648E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <v>63</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>8.0199013903701349E-3</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="3"/>
+        <v>7.1317180848456049E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <v>63.5</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>7.8941009655599404E-3</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="3"/>
+        <v>7.0198497312300096E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <v>64</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>7.7712374556589518E-3</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="3"/>
+        <v>6.9105930368047377E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <v>64.5</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>7.6512201474380308E-3</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="3"/>
+        <v>6.8038673345958067E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <v>65</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G194" si="4">($C$3*$C$12)/(4*F131*F131*PI())</f>
+        <v>7.533961803166643E-3</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="5">($C$3*$C$14)/(4*F131*F131*PI())</f>
+        <v>6.6995950482253734E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <v>65.5</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="4"/>
+        <v>7.4193785020404569E-3</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="5"/>
+        <v>6.597701550900812E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <v>66</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="4"/>
+        <v>7.3073894899860119E-3</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="5"/>
+        <v>6.4981150318531231E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <v>66.5</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="4"/>
+        <v>7.1979170373405099E-3</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="5"/>
+        <v>6.4007663697783273E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <v>67</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>7.0908863039383088E-3</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="5"/>
+        <v>6.3055890128652717E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <v>67.5</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="4"/>
+        <v>6.9862252111668735E-3</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>6.2125188650210602E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <v>68</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="4"/>
+        <v>6.8838643205837088E-3</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="5"/>
+        <v>6.1214941779308401E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <v>68.5</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="4"/>
+        <v>6.7837367187125732E-3</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="5"/>
+        <v>6.0324554486125437E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <v>69</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="4"/>
+        <v>6.6857779076620605E-3</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="5"/>
+        <v>5.9453453221491714E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <v>69.5</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="4"/>
+        <v>6.589925701232663E-3</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="5"/>
+        <v>5.8601084993017355E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <v>70</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="4"/>
+        <v>6.4961201261998095E-3</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="5"/>
+        <v>5.7766916487249397E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <v>70.5</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="4"/>
+        <v>6.4043033284802708E-3</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="5"/>
+        <v>5.6950433235254169E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <v>71</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="4"/>
+        <v>6.3144194839077706E-3</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="5"/>
+        <v>5.6151138819187079E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <v>71.5</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="4"/>
+        <v>6.2264147133608621E-3</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="5"/>
+        <v>5.5368554117565076E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <v>72</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="4"/>
+        <v>6.1402370020021352E-3</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="5"/>
+        <v>5.460221658709916E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <v>72.5</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="4"/>
+        <v>6.0558361224026767E-3</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="5"/>
+        <v>5.3851679579076731E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <v>73</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="4"/>
+        <v>5.9731635613396632E-3</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="5"/>
+        <v>5.3116511688407206E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>73.5</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="4"/>
+        <v>5.8921724500678547E-3</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="5"/>
+        <v>5.2396296133559546E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <v>74</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="4"/>
+        <v>5.8128174978778428E-3</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="5"/>
+        <v>5.1690630165727178E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <v>74.5</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="4"/>
+        <v>5.7350549287652035E-3</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="5"/>
+        <v>5.0999124505656879E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <v>75</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="4"/>
+        <v>5.6588424210451673E-3</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="5"/>
+        <v>5.0321402806670582E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <v>75.5</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="4"/>
+        <v>5.5841390497573026E-3</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="5"/>
+        <v>4.9657101142497615E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F153">
+        <v>76</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="4"/>
+        <v>5.5109052317138278E-3</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="5"/>
+        <v>4.9005867518615315E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <v>76.5</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="4"/>
+        <v>5.4391026730537945E-3</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="5"/>
+        <v>4.8367361405873303E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <v>77</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="4"/>
+        <v>5.3686943191733963E-3</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="5"/>
+        <v>4.774125329524744E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F156">
+        <v>77.5</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="4"/>
+        <v>5.2996443069101467E-3</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="5"/>
+        <v>4.7127224272636341E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F157">
+        <v>78</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="4"/>
+        <v>5.2319179188657248E-3</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="5"/>
+        <v>4.6524965612676217E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F158">
+        <v>78.5</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="4"/>
+        <v>5.1654815397588648E-3</v>
+      </c>
+      <c r="H158">
+        <f t="shared" si="5"/>
+        <v>4.593417839060766E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F159">
+        <v>79</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="4"/>
+        <v>5.1003026147058272E-3</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="5"/>
+        <v>4.5354573111283771E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F160">
+        <v>79.5</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="4"/>
+        <v>5.036349609331762E-3</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="5"/>
+        <v>4.4785869354459409E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>80</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="4"/>
+        <v>4.9735919716217296E-3</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="5"/>
+        <v>4.4227795435550317E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>80.5</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="4"/>
+        <v>4.9120000954251865E-3</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="5"/>
+        <v>4.3680088081095953E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>81</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="4"/>
+        <v>4.8515452855325512E-3</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="5"/>
+        <v>4.3142492118201804E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>81.5</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="4"/>
+        <v>4.7921997242469146E-3</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="5"/>
+        <v>4.2614760177277587E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>82</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="4"/>
+        <v>4.7339364393782076E-3</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="5"/>
+        <v>4.2096652407424464E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>82.5</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="4"/>
+        <v>4.6767292735910475E-3</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="5"/>
+        <v>4.1587936203859987E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>83</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="4"/>
+        <v>4.6205528550412349E-3</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="5"/>
+        <v>4.1088385946802444E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>83.5</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="4"/>
+        <v>4.5653825692393516E-3</v>
+      </c>
+      <c r="H168">
+        <f t="shared" si="5"/>
+        <v>4.0597782751267105E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>84</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="4"/>
+        <v>4.5111945320832018E-3</v>
+      </c>
+      <c r="H169">
+        <f t="shared" si="5"/>
+        <v>4.0115914227256532E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>84.5</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="4"/>
+        <v>4.4579655640039307E-3</v>
+      </c>
+      <c r="H170">
+        <f t="shared" si="5"/>
+        <v>3.9642574249854285E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>85</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="4"/>
+        <v>4.4056731651735733E-3</v>
+      </c>
+      <c r="H171">
+        <f t="shared" si="5"/>
+        <v>3.9177562738757377E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>85.5</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="4"/>
+        <v>4.3542954917245059E-3</v>
+      </c>
+      <c r="H172">
+        <f t="shared" si="5"/>
+        <v>3.8720685446807165E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <v>86</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="4"/>
+        <v>4.3038113329338925E-3</v>
+      </c>
+      <c r="H173">
+        <f t="shared" si="5"/>
+        <v>3.8271753757101413E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <v>86.5</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="4"/>
+        <v>4.2542000893286197E-3</v>
+      </c>
+      <c r="H174">
+        <f t="shared" si="5"/>
+        <v>3.7830584488291897E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F175">
+        <v>87</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="4"/>
+        <v>4.205441751668525E-3</v>
+      </c>
+      <c r="H175">
+        <f t="shared" si="5"/>
+        <v>3.7396999707692172E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F176">
+        <v>87.5</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="4"/>
+        <v>4.1575168807678788E-3</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="5"/>
+        <v>3.6970826551839613E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F177">
+        <v>88</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="4"/>
+        <v>4.1104065881171319E-3</v>
+      </c>
+      <c r="H177">
+        <f t="shared" si="5"/>
+        <v>3.6551897054173817E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F178">
+        <v>88.5</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="4"/>
+        <v>4.0640925172688649E-3</v>
+      </c>
+      <c r="H178">
+        <f t="shared" si="5"/>
+        <v>3.6140047979510621E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F179">
+        <v>89</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="4"/>
+        <v>4.0185568259536765E-3</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="5"/>
+        <v>3.5735120665007203E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F180">
+        <v>89.5</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="4"/>
+        <v>3.973782168893489E-3</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="5"/>
+        <v>3.5336960867328989E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F181">
+        <v>90</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="4"/>
+        <v>3.9297516812813668E-3</v>
+      </c>
+      <c r="H181">
+        <f t="shared" si="5"/>
+        <v>3.4945418615743465E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F182">
+        <v>90.5</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="4"/>
+        <v>3.8864489628984544E-3</v>
+      </c>
+      <c r="H182">
+        <f t="shared" si="5"/>
+        <v>3.4560348070879648E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F183">
+        <v>91</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="4"/>
+        <v>3.8438580628401245E-3</v>
+      </c>
+      <c r="H183">
+        <f t="shared" si="5"/>
+        <v>3.4181607388904973E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F184">
+        <v>91.5</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="4"/>
+        <v>3.8019634648247566E-3</v>
+      </c>
+      <c r="H184">
+        <f t="shared" si="5"/>
+        <v>3.3809058590883222E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F185">
+        <v>92</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="4"/>
+        <v>3.760750073059909E-3</v>
+      </c>
+      <c r="H185">
+        <f t="shared" si="5"/>
+        <v>3.344256743708909E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F186">
+        <v>92.5</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="4"/>
+        <v>3.7202031986418196E-3</v>
+      </c>
+      <c r="H186">
+        <f t="shared" si="5"/>
+        <v>3.3082003306065398E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F187">
+        <v>93</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="4"/>
+        <v>3.6803085464653796E-3</v>
+      </c>
+      <c r="H187">
+        <f t="shared" si="5"/>
+        <v>3.2727239078219686E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F188">
+        <v>93.5</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="4"/>
+        <v>3.641052202622788E-3</v>
+      </c>
+      <c r="H188">
+        <f t="shared" si="5"/>
+        <v>3.237815102376643E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F189">
+        <v>94</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="4"/>
+        <v>3.6024206222701523E-3</v>
+      </c>
+      <c r="H189">
+        <f t="shared" si="5"/>
+        <v>3.2034618694830471E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F190">
+        <v>94.5</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="4"/>
+        <v>3.5644006179422825E-3</v>
+      </c>
+      <c r="H190">
+        <f t="shared" si="5"/>
+        <v>3.1696524821536024E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F191">
+        <v>95</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="4"/>
+        <v>3.5269793482968497E-3</v>
+      </c>
+      <c r="H191">
+        <f t="shared" si="5"/>
+        <v>3.1363755211913798E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F192">
+        <v>95.5</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="4"/>
+        <v>3.4901443072699835E-3</v>
+      </c>
+      <c r="H192">
+        <f t="shared" si="5"/>
+        <v>3.1036198655466905E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F193">
+        <v>96</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="4"/>
+        <v>3.453883313626201E-3</v>
+      </c>
+      <c r="H193">
+        <f t="shared" si="5"/>
+        <v>3.0713746830243276E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <v>96.5</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="4"/>
+        <v>3.4181845008863666E-3</v>
+      </c>
+      <c r="H194">
+        <f t="shared" si="5"/>
+        <v>3.0396294213269836E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F195">
+        <v>97</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ref="G195:G258" si="6">($C$3*$C$12)/(4*F195*F195*PI())</f>
+        <v>3.3830363076181387E-3</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H258" si="7">($C$3*$C$14)/(4*F195*F195*PI())</f>
+        <v>3.0083737994210016E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <v>97.5</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="6"/>
+        <v>3.3484274680740636E-3</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="7"/>
+        <v>2.9775977992112772E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F197">
+        <v>98</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="6"/>
+        <v>3.3143470031631681E-3</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="7"/>
+        <v>2.9472916575127243E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F198">
+        <v>98.5</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="6"/>
+        <v>3.2807842117425412E-3</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="7"/>
+        <v>2.9174458583062905E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F199">
+        <v>99</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="6"/>
+        <v>3.2477286622160056E-3</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="7"/>
+        <v>2.888051125268055E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F200">
+        <v>99.5</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="6"/>
+        <v>3.215170184427572E-3</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="7"/>
+        <v>2.8590984145604611E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F201">
+        <v>100</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="6"/>
+        <v>3.1830988618379067E-3</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="7"/>
+        <v>2.8305789078752206E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F202">
+        <v>100.5</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="6"/>
+        <v>3.1515050239725819E-3</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="7"/>
+        <v>2.8024840057178984E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F203">
+        <v>101</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="6"/>
+        <v>3.1203792391313666E-3</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="7"/>
+        <v>2.7748053209246354E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F204">
+        <v>101.5</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="6"/>
+        <v>3.0897123073483045E-3</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="7"/>
+        <v>2.7475346724018736E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F205">
+        <v>102</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="6"/>
+        <v>3.0594952535927594E-3</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="7"/>
+        <v>2.7206640790803736E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F206">
+        <v>102.5</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="6"/>
+        <v>3.0297193212020525E-3</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="7"/>
+        <v>2.6941857540751651E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F207">
+        <v>103</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="6"/>
+        <v>3.0003759655367205E-3</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="7"/>
+        <v>2.668092099043473E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F208">
+        <v>103.5</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="6"/>
+        <v>2.9714568478498042E-3</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="7"/>
+        <v>2.6423756987329649E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F209">
+        <v>104</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="6"/>
+        <v>2.94295382936197E-3</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="7"/>
+        <v>2.6170293157130368E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F210">
+        <v>104.5</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="6"/>
+        <v>2.9148589655345865E-3</v>
+      </c>
+      <c r="H210">
+        <f t="shared" si="7"/>
+        <v>2.5920458852821326E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F211">
+        <v>105</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="6"/>
+        <v>2.8871645005332488E-3</v>
+      </c>
+      <c r="H211">
+        <f t="shared" si="7"/>
+        <v>2.5674185105444176E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F212">
+        <v>105.5</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="6"/>
+        <v>2.8598628618745374E-3</v>
+      </c>
+      <c r="H212">
+        <f t="shared" si="7"/>
+        <v>2.5431404576493977E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F213">
+        <v>106</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="6"/>
+        <v>2.8329466552491161E-3</v>
+      </c>
+      <c r="H213">
+        <f t="shared" si="7"/>
+        <v>2.5192051511883414E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F214">
+        <v>106.5</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="6"/>
+        <v>2.8064086595145643E-3</v>
+      </c>
+      <c r="H214">
+        <f t="shared" si="7"/>
+        <v>2.4956061697416479E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F215">
+        <v>107</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="6"/>
+        <v>2.7802418218516086E-3</v>
+      </c>
+      <c r="H215">
+        <f t="shared" si="7"/>
+        <v>2.4723372415715087E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F216">
+        <v>107.5</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="6"/>
+        <v>2.7544392530776912E-3</v>
+      </c>
+      <c r="H216">
+        <f t="shared" si="7"/>
+        <v>2.4493922404544908E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F217">
+        <v>108</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="6"/>
+        <v>2.7289942231120603E-3</v>
+      </c>
+      <c r="H217">
+        <f t="shared" si="7"/>
+        <v>2.4267651816488518E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F218">
+        <v>108.5</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="6"/>
+        <v>2.7039001565868095E-3</v>
+      </c>
+      <c r="H218">
+        <f t="shared" si="7"/>
+        <v>2.4044502179916502E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F219">
+        <v>109</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="6"/>
+        <v>2.6791506285985247E-3</v>
+      </c>
+      <c r="H219">
+        <f t="shared" si="7"/>
+        <v>2.3824416361208824E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F220">
+        <v>109.5</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="6"/>
+        <v>2.6547393605954061E-3</v>
+      </c>
+      <c r="H220">
+        <f t="shared" si="7"/>
+        <v>2.3607338528180985E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F221">
+        <v>110</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="6"/>
+        <v>2.630660216394964E-3</v>
+      </c>
+      <c r="H221">
+        <f t="shared" si="7"/>
+        <v>2.3393214114671244E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F222">
+        <v>110.5</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="6"/>
+        <v>2.6069071983275583E-3</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="7"/>
+        <v>2.318198978624697E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F223">
+        <v>111</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="6"/>
+        <v>2.5834744435012636E-3</v>
+      </c>
+      <c r="H223">
+        <f t="shared" si="7"/>
+        <v>2.2973613406989859E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <v>111.5</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="6"/>
+        <v>2.5603562201837213E-3</v>
+      </c>
+      <c r="H224">
+        <f t="shared" si="7"/>
+        <v>2.2768034007321445E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F225">
+        <v>112</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="6"/>
+        <v>2.5375469242968009E-3</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="7"/>
+        <v>2.2565201752831796E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F226">
+        <v>112.5</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="6"/>
+        <v>2.5150410760200748E-3</v>
+      </c>
+      <c r="H226">
+        <f t="shared" si="7"/>
+        <v>2.2365067914075819E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F227">
+        <v>113</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="6"/>
+        <v>2.4928333164992611E-3</v>
+      </c>
+      <c r="H227">
+        <f t="shared" si="7"/>
+        <v>2.2167584837303003E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F228">
+        <v>113.5</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="6"/>
+        <v>2.4709184046559467E-3</v>
+      </c>
+      <c r="H228">
+        <f t="shared" si="7"/>
+        <v>2.1972705916087796E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F229">
+        <v>114</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="6"/>
+        <v>2.4492912140950344E-3</v>
+      </c>
+      <c r="H229">
+        <f t="shared" si="7"/>
+        <v>2.1780385563829026E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F230">
+        <v>114.5</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="6"/>
+        <v>2.427946730106525E-3</v>
+      </c>
+      <c r="H230">
+        <f t="shared" si="7"/>
+        <v>2.1590579187088124E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F231">
+        <v>115</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="6"/>
+        <v>2.4068800467583417E-3</v>
+      </c>
+      <c r="H231">
+        <f t="shared" si="7"/>
+        <v>2.1403243159737019E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F232">
+        <v>115.5</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="6"/>
+        <v>2.3860863640770653E-3</v>
+      </c>
+      <c r="H232">
+        <f t="shared" si="7"/>
+        <v>2.1218334797887752E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F233">
+        <v>116</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="6"/>
+        <v>2.3655609853135457E-3</v>
+      </c>
+      <c r="H233">
+        <f t="shared" si="7"/>
+        <v>2.1035812335576847E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F234">
+        <v>116.5</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="6"/>
+        <v>2.3452993142904872E-3</v>
+      </c>
+      <c r="H234">
+        <f t="shared" si="7"/>
+        <v>2.0855634901178659E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F235">
+        <v>117</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="6"/>
+        <v>2.325296852829211E-3</v>
+      </c>
+      <c r="H235">
+        <f t="shared" si="7"/>
+        <v>2.067776249452276E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F236">
+        <v>117.5</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="6"/>
+        <v>2.3055491982528977E-3</v>
+      </c>
+      <c r="H236">
+        <f t="shared" si="7"/>
+        <v>2.0502155964691503E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F237">
+        <v>118</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="6"/>
+        <v>2.2860520409637365E-3</v>
+      </c>
+      <c r="H237">
+        <f t="shared" si="7"/>
+        <v>2.0328776988474723E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F238">
+        <v>118.5</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="6"/>
+        <v>2.2668011620914788E-3</v>
+      </c>
+      <c r="H238">
+        <f t="shared" si="7"/>
+        <v>2.0157588049459457E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F239">
+        <v>119</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="6"/>
+        <v>2.2477924312110068E-3</v>
+      </c>
+      <c r="H239">
+        <f t="shared" si="7"/>
+        <v>1.9988552417733356E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F240">
+        <v>119.5</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="6"/>
+        <v>2.2290218041266133E-3</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="7"/>
+        <v>1.9821634130181339E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F241">
+        <v>120</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="6"/>
+        <v>2.2104853207207688E-3</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="7"/>
+        <v>1.9656797971355699E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F242">
+        <v>120.5</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="6"/>
+        <v>2.1921791028652444E-3</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="7"/>
+        <v>1.949400945490071E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F243">
+        <v>121</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="6"/>
+        <v>2.1740993523925323E-3</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="7"/>
+        <v>1.9333234805513425E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F244">
+        <v>121.5</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="6"/>
+        <v>2.1562423491255783E-3</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="7"/>
+        <v>1.9174440941423026E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F245">
+        <v>122</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="6"/>
+        <v>2.1386044489639256E-3</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="7"/>
+        <v>1.9017595457371812E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F246">
+        <v>122.5</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="6"/>
+        <v>2.1211820820244277E-3</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="7"/>
+        <v>1.8862666608081436E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F247">
+        <v>123</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="6"/>
+        <v>2.103971750834759E-3</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="7"/>
+        <v>1.8709623292188647E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F248">
+        <v>123.5</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="6"/>
+        <v>2.0869700285780176E-3</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="7"/>
+        <v>1.8558435036635384E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F249">
+        <v>124</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="6"/>
+        <v>2.0701735573867759E-3</v>
+      </c>
+      <c r="H249">
+        <f t="shared" si="7"/>
+        <v>1.8409071981498571E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F250">
+        <v>124.5</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="6"/>
+        <v>2.0535790466849934E-3</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="7"/>
+        <v>1.8261504865245532E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F251">
+        <v>125</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="6"/>
+        <v>2.0371832715762603E-3</v>
+      </c>
+      <c r="H251">
+        <f t="shared" si="7"/>
+        <v>1.8115705010401412E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F252">
+        <v>125.5</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="6"/>
+        <v>2.020983071276905E-3</v>
+      </c>
+      <c r="H252">
+        <f t="shared" si="7"/>
+        <v>1.7971644309615535E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F253">
+        <v>126</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="6"/>
+        <v>2.0049753475925337E-3</v>
+      </c>
+      <c r="H253">
+        <f t="shared" si="7"/>
+        <v>1.7829295212114012E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F254">
+        <v>126.5</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="6"/>
+        <v>1.9891570634366462E-3</v>
+      </c>
+      <c r="H254">
+        <f t="shared" si="7"/>
+        <v>1.768863071052646E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F255">
+        <v>127</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="6"/>
+        <v>1.9735252413899851E-3</v>
+      </c>
+      <c r="H255">
+        <f t="shared" si="7"/>
+        <v>1.7549624328075024E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F256">
+        <v>127.5</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="6"/>
+        <v>1.9580769622993661E-3</v>
+      </c>
+      <c r="H256">
+        <f t="shared" si="7"/>
+        <v>1.7412250106114389E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F257">
+        <v>128</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="6"/>
+        <v>1.942809363914738E-3</v>
+      </c>
+      <c r="H257">
+        <f t="shared" si="7"/>
+        <v>1.7276482592011844E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F258">
+        <v>128.5</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="6"/>
+        <v>1.9277196395632982E-3</v>
+      </c>
+      <c r="H258">
+        <f t="shared" si="7"/>
+        <v>1.7142296827356784E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F259">
+        <v>129</v>
+      </c>
+      <c r="G259">
+        <f t="shared" ref="G259:G322" si="8">($C$3*$C$12)/(4*F259*F259*PI())</f>
+        <v>1.9128050368595077E-3</v>
+      </c>
+      <c r="H259">
+        <f t="shared" ref="H259:H322" si="9">($C$3*$C$14)/(4*F259*F259*PI())</f>
+        <v>1.7009668336489517E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <v>129.5</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="8"/>
+        <v>1.898062856449908E-3</v>
+      </c>
+      <c r="H260">
+        <f t="shared" si="9"/>
+        <v>1.6878573115339489E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F261">
+        <v>130</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="8"/>
+        <v>1.8834904507916608E-3</v>
+      </c>
+      <c r="H261">
+        <f t="shared" si="9"/>
+        <v>1.6748987620563433E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F262">
+        <v>130.5</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="8"/>
+        <v>1.8690852229637891E-3</v>
+      </c>
+      <c r="H262">
+        <f t="shared" si="9"/>
+        <v>1.66208887589743E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F263">
+        <v>131</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="8"/>
+        <v>1.8548446255101142E-3</v>
+      </c>
+      <c r="H263">
+        <f t="shared" si="9"/>
+        <v>1.649425387725203E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F264">
+        <v>131.5</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="8"/>
+        <v>1.840766159312933E-3</v>
+      </c>
+      <c r="H264">
+        <f t="shared" si="9"/>
+        <v>1.6369060751927715E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F265">
+        <v>132</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="8"/>
+        <v>1.826847372496503E-3</v>
+      </c>
+      <c r="H265">
+        <f t="shared" si="9"/>
+        <v>1.6245287579632808E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F266">
+        <v>132.5</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="8"/>
+        <v>1.8130858593594344E-3</v>
+      </c>
+      <c r="H266">
+        <f t="shared" si="9"/>
+        <v>1.6122912967605385E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F267">
+        <v>133</v>
+      </c>
+      <c r="G267">
+        <f t="shared" si="8"/>
+        <v>1.7994792593351275E-3</v>
+      </c>
+      <c r="H267">
+        <f t="shared" si="9"/>
+        <v>1.6001915924445818E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F268">
+        <v>133.5</v>
+      </c>
+      <c r="G268">
+        <f t="shared" si="8"/>
+        <v>1.7860252559794116E-3</v>
+      </c>
+      <c r="H268">
+        <f t="shared" si="9"/>
+        <v>1.5882275851114313E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F269">
+        <v>134</v>
+      </c>
+      <c r="G269">
+        <f t="shared" si="8"/>
+        <v>1.7727215759845772E-3</v>
+      </c>
+      <c r="H269">
+        <f t="shared" si="9"/>
+        <v>1.5763972532163179E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F270">
+        <v>134.5</v>
+      </c>
+      <c r="G270">
+        <f t="shared" si="8"/>
+        <v>1.7595659882190169E-3</v>
+      </c>
+      <c r="H270">
+        <f t="shared" si="9"/>
+        <v>1.5646986127196808E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F271">
+        <v>135</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="8"/>
+        <v>1.7465563027917184E-3</v>
+      </c>
+      <c r="H271">
+        <f t="shared" si="9"/>
+        <v>1.553129716255265E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F272">
+        <v>135.5</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="8"/>
+        <v>1.7336903701408789E-3</v>
+      </c>
+      <c r="H272">
+        <f t="shared" si="9"/>
+        <v>1.5416886523196692E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F273">
+        <v>136</v>
+      </c>
+      <c r="G273">
+        <f t="shared" si="8"/>
+        <v>1.7209660801459272E-3</v>
+      </c>
+      <c r="H273">
+        <f t="shared" si="9"/>
+        <v>1.53037354448271E-3</v>
+      </c>
+    </row>
+    <row r="274" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F274">
+        <v>136.5</v>
+      </c>
+      <c r="G274">
+        <f t="shared" si="8"/>
+        <v>1.7083813612622774E-3</v>
+      </c>
+      <c r="H274">
+        <f t="shared" si="9"/>
+        <v>1.5191825506179987E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F275">
+        <v>137</v>
+      </c>
+      <c r="G275">
+        <f t="shared" si="8"/>
+        <v>1.6959341796781433E-3</v>
+      </c>
+      <c r="H275">
+        <f t="shared" si="9"/>
+        <v>1.5081138621531359E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F276">
+        <v>137.5</v>
+      </c>
+      <c r="G276">
+        <f t="shared" si="8"/>
+        <v>1.6836225384927771E-3</v>
+      </c>
+      <c r="H276">
+        <f t="shared" si="9"/>
+        <v>1.4971657033389597E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F277">
+        <v>138</v>
+      </c>
+      <c r="G277">
+        <f t="shared" si="8"/>
+        <v>1.6714444769155151E-3</v>
+      </c>
+      <c r="H277">
+        <f t="shared" si="9"/>
+        <v>1.4863363305372928E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F278">
+        <v>138.5</v>
+      </c>
+      <c r="G278">
+        <f t="shared" si="8"/>
+        <v>1.6593980694850222E-3</v>
+      </c>
+      <c r="H278">
+        <f t="shared" si="9"/>
+        <v>1.4756240315266563E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F279">
+        <v>139</v>
+      </c>
+      <c r="G279">
+        <f t="shared" si="8"/>
+        <v>1.6474814253081658E-3</v>
+      </c>
+      <c r="H279">
+        <f t="shared" si="9"/>
+        <v>1.4650271248254339E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F280">
+        <v>139.5</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="8"/>
+        <v>1.6356926873179467E-3</v>
+      </c>
+      <c r="H280">
+        <f t="shared" si="9"/>
+        <v>1.454543959031986E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F281">
+        <v>140</v>
+      </c>
+      <c r="G281">
+        <f t="shared" si="8"/>
+        <v>1.6240300315499524E-3</v>
+      </c>
+      <c r="H281">
+        <f t="shared" si="9"/>
+        <v>1.4441729121812349E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F282">
+        <v>140.5</v>
+      </c>
+      <c r="G282">
+        <f t="shared" si="8"/>
+        <v>1.6124916664368013E-3</v>
+      </c>
+      <c r="H282">
+        <f t="shared" si="9"/>
+        <v>1.4339123911172454E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F283">
+        <v>141</v>
+      </c>
+      <c r="G283">
+        <f t="shared" si="8"/>
+        <v>1.6010758321200677E-3</v>
+      </c>
+      <c r="H283">
+        <f t="shared" si="9"/>
+        <v>1.4237608308813542E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F284">
+        <v>141.5</v>
+      </c>
+      <c r="G284">
+        <f t="shared" si="8"/>
+        <v>1.5897807997791991E-3</v>
+      </c>
+      <c r="H284">
+        <f t="shared" si="9"/>
+        <v>1.4137166941154071E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F285">
+        <v>142</v>
+      </c>
+      <c r="G285">
+        <f t="shared" si="8"/>
+        <v>1.5786048709769426E-3</v>
+      </c>
+      <c r="H285">
+        <f t="shared" si="9"/>
+        <v>1.403778470479677E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F286">
+        <v>142.5</v>
+      </c>
+      <c r="G286">
+        <f t="shared" si="8"/>
+        <v>1.5675463770208221E-3</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="9"/>
+        <v>1.3939446760850578E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F287">
+        <v>143</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="8"/>
+        <v>1.5566036783402155E-3</v>
+      </c>
+      <c r="H287">
+        <f t="shared" si="9"/>
+        <v>1.3842138529391269E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F288">
+        <v>143.5</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="8"/>
+        <v>1.5457751638785985E-3</v>
+      </c>
+      <c r="H288">
+        <f t="shared" si="9"/>
+        <v>1.3745845684056965E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F289">
+        <v>144</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="8"/>
+        <v>1.5350592505005338E-3</v>
+      </c>
+      <c r="H289">
+        <f t="shared" si="9"/>
+        <v>1.365055414677479E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F290">
+        <v>144.5</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="8"/>
+        <v>1.5244543824130012E-3</v>
+      </c>
+      <c r="H290">
+        <f t="shared" si="9"/>
+        <v>1.3556250082615009E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F291">
+        <v>145</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="8"/>
+        <v>1.5139590306006692E-3</v>
+      </c>
+      <c r="H291">
+        <f t="shared" si="9"/>
+        <v>1.3462919894769183E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F292">
+        <v>145.5</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="8"/>
+        <v>1.5035716922747284E-3</v>
+      </c>
+      <c r="H292">
+        <f t="shared" si="9"/>
+        <v>1.3370550219648897E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F293">
+        <v>146</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="8"/>
+        <v>1.4932908903349158E-3</v>
+      </c>
+      <c r="H293">
+        <f t="shared" si="9"/>
+        <v>1.3279127922101802E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F294">
+        <v>146.5</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="8"/>
+        <v>1.4831151728443694E-3</v>
+      </c>
+      <c r="H294">
+        <f t="shared" si="9"/>
+        <v>1.3188640090741747E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F295">
+        <v>147</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="8"/>
+        <v>1.4730431125169637E-3</v>
+      </c>
+      <c r="H295">
+        <f t="shared" si="9"/>
+        <v>1.3099074033389886E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F296">
+        <v>147.5</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="8"/>
+        <v>1.4630733062167914E-3</v>
+      </c>
+      <c r="H296">
+        <f t="shared" si="9"/>
+        <v>1.3010417272623822E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F297">
+        <v>148</v>
+      </c>
+      <c r="G297">
+        <f t="shared" si="8"/>
+        <v>1.4532043744694607E-3</v>
+      </c>
+      <c r="H297">
+        <f t="shared" si="9"/>
+        <v>1.2922657541431795E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F298">
+        <v>148.5</v>
+      </c>
+      <c r="G298">
+        <f t="shared" si="8"/>
+        <v>1.4434349609848912E-3</v>
+      </c>
+      <c r="H298">
+        <f t="shared" si="9"/>
+        <v>1.2835782778969132E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F299">
+        <v>149</v>
+      </c>
+      <c r="G299">
+        <f t="shared" si="8"/>
+        <v>1.4337637321913009E-3</v>
+      </c>
+      <c r="H299">
+        <f t="shared" si="9"/>
+        <v>1.274978112641422E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F300">
+        <v>149.5</v>
+      </c>
+      <c r="G300">
+        <f t="shared" si="8"/>
+        <v>1.4241893767800839E-3</v>
+      </c>
+      <c r="H300">
+        <f t="shared" si="9"/>
+        <v>1.2664640922921311E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F301">
+        <v>150</v>
+      </c>
+      <c r="G301">
+        <f t="shared" si="8"/>
+        <v>1.4147106052612918E-3</v>
+      </c>
+      <c r="H301">
+        <f t="shared" si="9"/>
+        <v>1.2580350701667646E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F302">
+        <v>150.5</v>
+      </c>
+      <c r="G302">
+        <f t="shared" si="8"/>
+        <v>1.4053261495294341E-3</v>
+      </c>
+      <c r="H302">
+        <f t="shared" si="9"/>
+        <v>1.2496899185992297E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F303">
+        <v>151</v>
+      </c>
+      <c r="G303">
+        <f t="shared" si="8"/>
+        <v>1.3960347624393256E-3</v>
+      </c>
+      <c r="H303">
+        <f t="shared" si="9"/>
+        <v>1.2414275285624404E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F304">
+        <v>151.5</v>
+      </c>
+      <c r="G304">
+        <f t="shared" si="8"/>
+        <v>1.3868352173917184E-3</v>
+      </c>
+      <c r="H304">
+        <f t="shared" si="9"/>
+        <v>1.233246809299838E-3</v>
+      </c>
+    </row>
+    <row r="305" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F305">
+        <v>152</v>
+      </c>
+      <c r="G305">
+        <f t="shared" si="8"/>
+        <v>1.3777263079284569E-3</v>
+      </c>
+      <c r="H305">
+        <f t="shared" si="9"/>
+        <v>1.2251466879653829E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F306">
+        <v>152.5</v>
+      </c>
+      <c r="G306">
+        <f t="shared" si="8"/>
+        <v>1.3687068473369124E-3</v>
+      </c>
+      <c r="H306">
+        <f t="shared" si="9"/>
+        <v>1.2171261092717961E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F307">
+        <v>153</v>
+      </c>
+      <c r="G307">
+        <f t="shared" si="8"/>
+        <v>1.3597756682634486E-3</v>
+      </c>
+      <c r="H307">
+        <f t="shared" si="9"/>
+        <v>1.2091840351468326E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F308">
+        <v>153.5</v>
+      </c>
+      <c r="G308">
+        <f t="shared" si="8"/>
+        <v>1.3509316223356881E-3</v>
+      </c>
+      <c r="H308">
+        <f t="shared" si="9"/>
+        <v>1.2013194443973817E-3</v>
+      </c>
+    </row>
+    <row r="309" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F309">
+        <v>154</v>
+      </c>
+      <c r="G309">
+        <f t="shared" si="8"/>
+        <v>1.3421735797933491E-3</v>
+      </c>
+      <c r="H309">
+        <f t="shared" si="9"/>
+        <v>1.193531332381186E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F310">
+        <v>154.5</v>
+      </c>
+      <c r="G310">
+        <f t="shared" si="8"/>
+        <v>1.3335004291274316E-3</v>
+      </c>
+      <c r="H310">
+        <f t="shared" si="9"/>
+        <v>1.1858187106859881E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F311">
+        <v>155</v>
+      </c>
+      <c r="G311">
+        <f t="shared" si="8"/>
+        <v>1.3249110767275367E-3</v>
+      </c>
+      <c r="H311">
+        <f t="shared" si="9"/>
+        <v>1.1781806068159085E-3</v>
+      </c>
+    </row>
+    <row r="312" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F312">
+        <v>155.5</v>
+      </c>
+      <c r="G312">
+        <f t="shared" si="8"/>
+        <v>1.3164044465371145E-3</v>
+      </c>
+      <c r="H312">
+        <f t="shared" si="9"/>
+        <v>1.1706160638848731E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F313">
+        <v>156</v>
+      </c>
+      <c r="G313">
+        <f t="shared" si="8"/>
+        <v>1.3079794797164312E-3</v>
+      </c>
+      <c r="H313">
+        <f t="shared" si="9"/>
+        <v>1.1631241403169054E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F314">
+        <v>156.5</v>
+      </c>
+      <c r="G314">
+        <f t="shared" si="8"/>
+        <v>1.299635134313061E-3</v>
+      </c>
+      <c r="H314">
+        <f t="shared" si="9"/>
+        <v>1.155703909553112E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F315">
+        <v>157</v>
+      </c>
+      <c r="G315">
+        <f t="shared" si="8"/>
+        <v>1.2913703849397162E-3</v>
+      </c>
+      <c r="H315">
+        <f t="shared" si="9"/>
+        <v>1.1483544597651915E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F316">
+        <v>157.5</v>
+      </c>
+      <c r="G316">
+        <f t="shared" si="8"/>
+        <v>1.2831842224592218E-3</v>
+      </c>
+      <c r="H316">
+        <f t="shared" si="9"/>
+        <v>1.1410748935752968E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F317">
+        <v>158</v>
+      </c>
+      <c r="G317">
+        <f t="shared" si="8"/>
+        <v>1.2750756536764568E-3</v>
+      </c>
+      <c r="H317">
+        <f t="shared" si="9"/>
+        <v>1.1338643277820943E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F318">
+        <v>158.5</v>
+      </c>
+      <c r="G318">
+        <f t="shared" si="8"/>
+        <v>1.2670437010370915E-3</v>
+      </c>
+      <c r="H318">
+        <f t="shared" si="9"/>
+        <v>1.1267218930928642E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F319">
+        <v>159</v>
+      </c>
+      <c r="G319">
+        <f t="shared" si="8"/>
+        <v>1.2590874023329405E-3</v>
+      </c>
+      <c r="H319">
+        <f t="shared" si="9"/>
+        <v>1.1196467338614852E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F320">
+        <v>159.5</v>
+      </c>
+      <c r="G320">
+        <f t="shared" si="8"/>
+        <v>1.2512058104137763E-3</v>
+      </c>
+      <c r="H320">
+        <f t="shared" si="9"/>
+        <v>1.1126380078321639E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F321">
+        <v>160</v>
+      </c>
+      <c r="G321">
+        <f t="shared" si="8"/>
+        <v>1.2433979929054324E-3</v>
+      </c>
+      <c r="H321">
+        <f t="shared" si="9"/>
+        <v>1.1056948858887579E-3</v>
+      </c>
+    </row>
+    <row r="322" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F322">
+        <v>160.5</v>
+      </c>
+      <c r="G322">
+        <f t="shared" si="8"/>
+        <v>1.2356630319340484E-3</v>
+      </c>
+      <c r="H322">
+        <f t="shared" si="9"/>
+        <v>1.0988165518095595E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F323">
+        <v>161</v>
+      </c>
+      <c r="G323">
+        <f t="shared" ref="G323:G386" si="10">($C$3*$C$12)/(4*F323*F323*PI())</f>
+        <v>1.2280000238562966E-3</v>
+      </c>
+      <c r="H323">
+        <f t="shared" ref="H323:H386" si="11">($C$3*$C$14)/(4*F323*F323*PI())</f>
+        <v>1.0920022020273988E-3</v>
+      </c>
+    </row>
+    <row r="324" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F324">
+        <v>161.5</v>
+      </c>
+      <c r="G324">
+        <f t="shared" si="10"/>
+        <v>1.2204080789954496E-3</v>
+      </c>
+      <c r="H324">
+        <f t="shared" si="11"/>
+        <v>1.085251045394941E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F325">
+        <v>162</v>
+      </c>
+      <c r="G325">
+        <f t="shared" si="10"/>
+        <v>1.2128863213831378E-3</v>
+      </c>
+      <c r="H325">
+        <f t="shared" si="11"/>
+        <v>1.0785623029550451E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F326">
+        <v>162.5</v>
+      </c>
+      <c r="G326">
+        <f t="shared" si="10"/>
+        <v>1.2054338885066629E-3</v>
+      </c>
+      <c r="H326">
+        <f t="shared" si="11"/>
+        <v>1.0719352077160598E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F327">
+        <v>163</v>
+      </c>
+      <c r="G327">
+        <f t="shared" si="10"/>
+        <v>1.1980499310617287E-3</v>
+      </c>
+      <c r="H327">
+        <f t="shared" si="11"/>
+        <v>1.0653690044319397E-3</v>
+      </c>
+    </row>
+    <row r="328" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F328">
+        <v>163.5</v>
+      </c>
+      <c r="G328">
+        <f t="shared" si="10"/>
+        <v>1.1907336127104553E-3</v>
+      </c>
+      <c r="H328">
+        <f t="shared" si="11"/>
+        <v>1.0588629493870588E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F329">
+        <v>164</v>
+      </c>
+      <c r="G329">
+        <f t="shared" si="10"/>
+        <v>1.1834841098445519E-3</v>
+      </c>
+      <c r="H329">
+        <f t="shared" si="11"/>
+        <v>1.0524163101856116E-3</v>
+      </c>
+    </row>
+    <row r="330" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F330">
+        <v>164.5</v>
+      </c>
+      <c r="G330">
+        <f t="shared" si="10"/>
+        <v>1.1763006113535192E-3</v>
+      </c>
+      <c r="H330">
+        <f t="shared" si="11"/>
+        <v>1.0460283655454848E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F331">
+        <v>165</v>
+      </c>
+      <c r="G331">
+        <f t="shared" si="10"/>
+        <v>1.1691823183977619E-3</v>
+      </c>
+      <c r="H331">
+        <f t="shared" si="11"/>
+        <v>1.0396984050964997E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F332">
+        <v>165.5</v>
+      </c>
+      <c r="G332">
+        <f t="shared" si="10"/>
+        <v>1.1621284441864924E-3</v>
+      </c>
+      <c r="H332">
+        <f t="shared" si="11"/>
+        <v>1.0334257291829102E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F333">
+        <v>166</v>
+      </c>
+      <c r="G333">
+        <f t="shared" si="10"/>
+        <v>1.1551382137603087E-3</v>
+      </c>
+      <c r="H333">
+        <f t="shared" si="11"/>
+        <v>1.0272096486700611E-3</v>
+      </c>
+    </row>
+    <row r="334" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F334">
+        <v>166.5</v>
+      </c>
+      <c r="G334">
+        <f t="shared" si="10"/>
+        <v>1.1482108637783394E-3</v>
+      </c>
+      <c r="H334">
+        <f t="shared" si="11"/>
+        <v>1.021049484755105E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F335">
+        <v>167</v>
+      </c>
+      <c r="G335">
+        <f t="shared" si="10"/>
+        <v>1.1413456423098379E-3</v>
+      </c>
+      <c r="H335">
+        <f t="shared" si="11"/>
+        <v>1.0149445687816776E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F336">
+        <v>167.5</v>
+      </c>
+      <c r="G336">
+        <f t="shared" si="10"/>
+        <v>1.1345418086301294E-3</v>
+      </c>
+      <c r="H336">
+        <f t="shared" si="11"/>
+        <v>1.0088942420584436E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F337">
+        <v>168</v>
+      </c>
+      <c r="G337">
+        <f t="shared" si="10"/>
+        <v>1.1277986330208004E-3</v>
+      </c>
+      <c r="H337">
+        <f t="shared" si="11"/>
+        <v>1.0028978556814133E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F338">
+        <v>168.5</v>
+      </c>
+      <c r="G338">
+        <f t="shared" si="10"/>
+        <v>1.1211153965740323E-3</v>
+      </c>
+      <c r="H338">
+        <f t="shared" si="11"/>
+        <v>9.9695477035994704E-4</v>
+      </c>
+    </row>
+    <row r="339" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F339">
+        <v>169</v>
+      </c>
+      <c r="G339">
+        <f t="shared" si="10"/>
+        <v>1.1144913910009827E-3</v>
+      </c>
+      <c r="H339">
+        <f t="shared" si="11"/>
+        <v>9.9106435624635712E-4</v>
+      </c>
+    </row>
+    <row r="340" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F340">
+        <v>169.5</v>
+      </c>
+      <c r="G340">
+        <f t="shared" si="10"/>
+        <v>1.1079259184441162E-3</v>
+      </c>
+      <c r="H340">
+        <f t="shared" si="11"/>
+        <v>9.8522599276902232E-4</v>
+      </c>
+    </row>
+    <row r="341" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F341">
+        <v>170</v>
+      </c>
+      <c r="G341">
+        <f t="shared" si="10"/>
+        <v>1.1014182912933933E-3</v>
+      </c>
+      <c r="H341">
+        <f t="shared" si="11"/>
+        <v>9.7943906846893443E-4</v>
+      </c>
+    </row>
+    <row r="342" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F342">
+        <v>170.5</v>
+      </c>
+      <c r="G342">
+        <f t="shared" si="10"/>
+        <v>1.0949678320062287E-3</v>
+      </c>
+      <c r="H342">
+        <f t="shared" si="11"/>
+        <v>9.7370298083959402E-4</v>
+      </c>
+    </row>
+    <row r="343" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F343">
+        <v>171</v>
+      </c>
+      <c r="G343">
+        <f t="shared" si="10"/>
+        <v>1.0885738729311265E-3</v>
+      </c>
+      <c r="H343">
+        <f t="shared" si="11"/>
+        <v>9.6801713617017913E-4</v>
+      </c>
+    </row>
+    <row r="344" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F344">
+        <v>171.5</v>
+      </c>
+      <c r="G344">
+        <f t="shared" si="10"/>
+        <v>1.082235756134912E-3</v>
+      </c>
+      <c r="H344">
+        <f t="shared" si="11"/>
+        <v>9.6238094939191002E-4</v>
+      </c>
+    </row>
+    <row r="345" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F345">
+        <v>172</v>
+      </c>
+      <c r="G345">
+        <f t="shared" si="10"/>
+        <v>1.0759528332334731E-3</v>
+      </c>
+      <c r="H345">
+        <f t="shared" si="11"/>
+        <v>9.5679384392753533E-4</v>
+      </c>
+    </row>
+    <row r="346" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F346">
+        <v>172.5</v>
+      </c>
+      <c r="G346">
+        <f t="shared" si="10"/>
+        <v>1.0697244652259296E-3</v>
+      </c>
+      <c r="H346">
+        <f t="shared" si="11"/>
+        <v>9.5125525154386747E-4</v>
+      </c>
+    </row>
+    <row r="347" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F347">
+        <v>173</v>
+      </c>
+      <c r="G347">
+        <f t="shared" si="10"/>
+        <v>1.0635500223321549E-3</v>
+      </c>
+      <c r="H347">
+        <f t="shared" si="11"/>
+        <v>9.4576461220729742E-4</v>
+      </c>
+    </row>
+    <row r="348" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F348">
+        <v>173.5</v>
+      </c>
+      <c r="G348">
+        <f t="shared" si="10"/>
+        <v>1.0574288838335695E-3</v>
+      </c>
+      <c r="H348">
+        <f t="shared" si="11"/>
+        <v>9.4032137394222043E-4</v>
+      </c>
+    </row>
+    <row r="349" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F349">
+        <v>174</v>
+      </c>
+      <c r="G349">
+        <f t="shared" si="10"/>
+        <v>1.0513604379171313E-3</v>
+      </c>
+      <c r="H349">
+        <f t="shared" si="11"/>
+        <v>9.3492499269230429E-4</v>
+      </c>
+    </row>
+    <row r="350" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F350">
+        <v>174.5</v>
+      </c>
+      <c r="G350">
+        <f t="shared" si="10"/>
+        <v>1.0453440815224528E-3</v>
+      </c>
+      <c r="H350">
+        <f t="shared" si="11"/>
+        <v>9.2957493218453731E-4</v>
+      </c>
+    </row>
+    <row r="351" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F351">
+        <v>175</v>
+      </c>
+      <c r="G351">
+        <f t="shared" si="10"/>
+        <v>1.0393792201919697E-3</v>
+      </c>
+      <c r="H351">
+        <f t="shared" si="11"/>
+        <v>9.2427066379599033E-4</v>
+      </c>
+    </row>
+    <row r="352" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F352">
+        <v>175.5</v>
+      </c>
+      <c r="G352">
+        <f t="shared" si="10"/>
+        <v>1.0334652679240936E-3</v>
+      </c>
+      <c r="H352">
+        <f t="shared" si="11"/>
+        <v>9.1901166642323372E-4</v>
+      </c>
+    </row>
+    <row r="353" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F353">
+        <v>176</v>
+      </c>
+      <c r="G353">
+        <f t="shared" si="10"/>
+        <v>1.027601647029283E-3</v>
+      </c>
+      <c r="H353">
+        <f t="shared" si="11"/>
+        <v>9.1379742635434543E-4</v>
+      </c>
+    </row>
+    <row r="354" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F354">
+        <v>176.5</v>
+      </c>
+      <c r="G354">
+        <f t="shared" si="10"/>
+        <v>1.0217877879889596E-3</v>
+      </c>
+      <c r="H354">
+        <f t="shared" si="11"/>
+        <v>9.0862743714345529E-4</v>
+      </c>
+    </row>
+    <row r="355" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F355">
+        <v>177</v>
+      </c>
+      <c r="G355">
+        <f t="shared" si="10"/>
+        <v>1.0160231293172162E-3</v>
+      </c>
+      <c r="H355">
+        <f t="shared" si="11"/>
+        <v>9.0350119948776552E-4</v>
+      </c>
+    </row>
+    <row r="356" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F356">
+        <v>177.5</v>
+      </c>
+      <c r="G356">
+        <f t="shared" si="10"/>
+        <v>1.0103071174252434E-3</v>
+      </c>
+      <c r="H356">
+        <f t="shared" si="11"/>
+        <v>8.9841822110699329E-4</v>
+      </c>
+    </row>
+    <row r="357" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F357">
+        <v>178</v>
+      </c>
+      <c r="G357">
+        <f t="shared" si="10"/>
+        <v>1.0046392064884191E-3</v>
+      </c>
+      <c r="H357">
+        <f t="shared" si="11"/>
+        <v>8.9337801662518008E-4</v>
+      </c>
+    </row>
+    <row r="358" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F358">
+        <v>178.5</v>
+      </c>
+      <c r="G358">
+        <f t="shared" si="10"/>
+        <v>9.9901885831600308E-4</v>
+      </c>
+      <c r="H358">
+        <f t="shared" si="11"/>
+        <v>8.883801074548158E-4</v>
+      </c>
+    </row>
+    <row r="359" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F359">
+        <v>179</v>
+      </c>
+      <c r="G359">
+        <f t="shared" si="10"/>
+        <v>9.9344554222337224E-4</v>
+      </c>
+      <c r="H359">
+        <f t="shared" si="11"/>
+        <v>8.8342402168322472E-4</v>
+      </c>
+    </row>
+    <row r="360" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F360">
+        <v>179.5</v>
+      </c>
+      <c r="G360">
+        <f t="shared" si="10"/>
+        <v>9.8791873490674566E-4</v>
+      </c>
+      <c r="H360">
+        <f t="shared" si="11"/>
+        <v>8.785092939611643E-4</v>
+      </c>
+    </row>
+    <row r="361" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F361">
+        <v>180</v>
+      </c>
+      <c r="G361">
+        <f t="shared" si="10"/>
+        <v>9.824379203203417E-4</v>
+      </c>
+      <c r="H361">
+        <f t="shared" si="11"/>
+        <v>8.7363546539358662E-4</v>
+      </c>
+    </row>
+    <row r="362" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F362">
+        <v>180.5</v>
+      </c>
+      <c r="G362">
+        <f t="shared" si="10"/>
+        <v>9.7700258955591411E-4</v>
+      </c>
+      <c r="H362">
+        <f t="shared" si="11"/>
+        <v>8.6880208343251524E-4</v>
+      </c>
+    </row>
+    <row r="363" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F363">
+        <v>181</v>
+      </c>
+      <c r="G363">
+        <f t="shared" si="10"/>
+        <v>9.7161224072461359E-4</v>
+      </c>
+      <c r="H363">
+        <f t="shared" si="11"/>
+        <v>8.640087017719912E-4</v>
+      </c>
+    </row>
+    <row r="364" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F364">
+        <v>181.5</v>
+      </c>
+      <c r="G364">
+        <f t="shared" si="10"/>
+        <v>9.6626637884112559E-4</v>
+      </c>
+      <c r="H364">
+        <f t="shared" si="11"/>
+        <v>8.5925488024504119E-4</v>
+      </c>
+    </row>
+    <row r="365" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F365">
+        <v>182</v>
+      </c>
+      <c r="G365">
+        <f t="shared" si="10"/>
+        <v>9.6096451571003113E-4</v>
+      </c>
+      <c r="H365">
+        <f t="shared" si="11"/>
+        <v>8.5454018472262434E-4</v>
+      </c>
+    </row>
+    <row r="366" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F366">
+        <v>182.5</v>
+      </c>
+      <c r="G366">
+        <f t="shared" si="10"/>
+        <v>9.5570616981434614E-4</v>
+      </c>
+      <c r="H366">
+        <f t="shared" si="11"/>
+        <v>8.498641870145154E-4</v>
+      </c>
+    </row>
+    <row r="367" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F367">
+        <v>183</v>
+      </c>
+      <c r="G367">
+        <f t="shared" si="10"/>
+        <v>9.5049086620618915E-4</v>
+      </c>
+      <c r="H367">
+        <f t="shared" si="11"/>
+        <v>8.4522646477208055E-4</v>
+      </c>
+    </row>
+    <row r="368" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F368">
+        <v>183.5</v>
+      </c>
+      <c r="G368">
+        <f t="shared" si="10"/>
+        <v>9.453181363995298E-4</v>
+      </c>
+      <c r="H368">
+        <f t="shared" si="11"/>
+        <v>8.4062660139290371E-4</v>
+      </c>
+    </row>
+    <row r="369" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F369">
+        <v>184</v>
+      </c>
+      <c r="G369">
+        <f t="shared" si="10"/>
+        <v>9.4018751826497726E-4</v>
+      </c>
+      <c r="H369">
+        <f t="shared" si="11"/>
+        <v>8.3606418592722725E-4</v>
+      </c>
+    </row>
+    <row r="370" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F370">
+        <v>184.5</v>
+      </c>
+      <c r="G370">
+        <f t="shared" si="10"/>
+        <v>9.3509855592655954E-4</v>
+      </c>
+      <c r="H370">
+        <f t="shared" si="11"/>
+        <v>8.3153881298616216E-4</v>
+      </c>
+    </row>
+    <row r="371" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F371">
+        <v>185</v>
+      </c>
+      <c r="G371">
+        <f t="shared" si="10"/>
+        <v>9.3005079966045491E-4</v>
+      </c>
+      <c r="H371">
+        <f t="shared" si="11"/>
+        <v>8.2705008265163496E-4</v>
+      </c>
+    </row>
+    <row r="372" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F372">
+        <v>185.5</v>
+      </c>
+      <c r="G372">
+        <f t="shared" si="10"/>
+        <v>9.2504380579562972E-4</v>
+      </c>
+      <c r="H372">
+        <f t="shared" si="11"/>
+        <v>8.2259760038802987E-4</v>
+      </c>
+    </row>
+    <row r="373" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F373">
+        <v>186</v>
+      </c>
+      <c r="G373">
+        <f t="shared" si="10"/>
+        <v>9.2007713661634491E-4</v>
+      </c>
+      <c r="H373">
+        <f t="shared" si="11"/>
+        <v>8.1818097695549215E-4</v>
+      </c>
+    </row>
+    <row r="374" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F374">
+        <v>186.5</v>
+      </c>
+      <c r="G374">
+        <f t="shared" si="10"/>
+        <v>9.151503602664884E-4</v>
+      </c>
+      <c r="H374">
+        <f t="shared" si="11"/>
+        <v>8.1379982832485546E-4</v>
+      </c>
+    </row>
+    <row r="375" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F375">
+        <v>187</v>
+      </c>
+      <c r="G375">
+        <f t="shared" si="10"/>
+        <v>9.10263050655697E-4</v>
+      </c>
+      <c r="H375">
+        <f t="shared" si="11"/>
+        <v>8.0945377559416074E-4</v>
+      </c>
+    </row>
+    <row r="376" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F376">
+        <v>187.5</v>
+      </c>
+      <c r="G376">
+        <f t="shared" si="10"/>
+        <v>9.0541478736722687E-4</v>
+      </c>
+      <c r="H376">
+        <f t="shared" si="11"/>
+        <v>8.0514244490672942E-4</v>
+      </c>
+    </row>
+    <row r="377" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F377">
+        <v>188</v>
+      </c>
+      <c r="G377">
+        <f t="shared" si="10"/>
+        <v>9.0060515556753809E-4</v>
+      </c>
+      <c r="H377">
+        <f t="shared" si="11"/>
+        <v>8.0086546737076177E-4</v>
+      </c>
+    </row>
+    <row r="378" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F378">
+        <v>188.5</v>
+      </c>
+      <c r="G378">
+        <f t="shared" si="10"/>
+        <v>8.9583374591755565E-4</v>
+      </c>
+      <c r="H378">
+        <f t="shared" si="11"/>
+        <v>7.9662247898042496E-4</v>
+      </c>
+    </row>
+    <row r="379" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F379">
+        <v>189</v>
+      </c>
+      <c r="G379">
+        <f t="shared" si="10"/>
+        <v>8.9110015448557063E-4</v>
+      </c>
+      <c r="H379">
+        <f t="shared" si="11"/>
+        <v>7.9241312053840061E-4</v>
+      </c>
+    </row>
+    <row r="380" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F380">
+        <v>189.5</v>
+      </c>
+      <c r="G380">
+        <f t="shared" si="10"/>
+        <v>8.8640398266174886E-4</v>
+      </c>
+      <c r="H380">
+        <f t="shared" si="11"/>
+        <v>7.88237037579861E-4</v>
+      </c>
+    </row>
+    <row r="381" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F381">
+        <v>190</v>
+      </c>
+      <c r="G381">
+        <f t="shared" si="10"/>
+        <v>8.8174483707421241E-4</v>
+      </c>
+      <c r="H381">
+        <f t="shared" si="11"/>
+        <v>7.8409388029784496E-4</v>
+      </c>
+    </row>
+    <row r="382" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F382">
+        <v>190.5</v>
+      </c>
+      <c r="G382">
+        <f t="shared" si="10"/>
+        <v>8.7712232950665995E-4</v>
+      </c>
+      <c r="H382">
+        <f t="shared" si="11"/>
+        <v>7.7998330347000102E-4</v>
+      </c>
+    </row>
+    <row r="383" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F383">
+        <v>191</v>
+      </c>
+      <c r="G383">
+        <f t="shared" si="10"/>
+        <v>8.7253607681749587E-4</v>
+      </c>
+      <c r="H383">
+        <f t="shared" si="11"/>
+        <v>7.7590496638667262E-4</v>
+      </c>
+    </row>
+    <row r="384" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F384">
+        <v>191.5</v>
+      </c>
+      <c r="G384">
+        <f t="shared" si="10"/>
+        <v>8.6798570086043451E-4</v>
+      </c>
+      <c r="H384">
+        <f t="shared" si="11"/>
+        <v>7.7185853278029595E-4</v>
+      </c>
+    </row>
+    <row r="385" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F385">
+        <v>192</v>
+      </c>
+      <c r="G385">
+        <f t="shared" si="10"/>
+        <v>8.6347082840655025E-4</v>
+      </c>
+      <c r="H385">
+        <f t="shared" si="11"/>
+        <v>7.678436707560819E-4</v>
+      </c>
+    </row>
+    <row r="386" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F386">
+        <v>192.5</v>
+      </c>
+      <c r="G386">
+        <f t="shared" si="10"/>
+        <v>8.5899109106774344E-4</v>
+      </c>
+      <c r="H386">
+        <f t="shared" si="11"/>
+        <v>7.6386005272395898E-4</v>
+      </c>
+    </row>
+    <row r="387" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F387">
+        <v>193</v>
+      </c>
+      <c r="G387">
+        <f t="shared" ref="G387:G401" si="12">($C$3*$C$12)/(4*F387*F387*PI())</f>
+        <v>8.5454612522159164E-4</v>
+      </c>
+      <c r="H387">
+        <f t="shared" ref="H387:H401" si="13">($C$3*$C$14)/(4*F387*F387*PI())</f>
+        <v>7.5990735533174589E-4</v>
+      </c>
+    </row>
+    <row r="388" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F388">
+        <v>193.5</v>
+      </c>
+      <c r="G388">
+        <f t="shared" si="12"/>
+        <v>8.5013557193755896E-4</v>
+      </c>
+      <c r="H388">
+        <f t="shared" si="13"/>
+        <v>7.5598525939953411E-4</v>
+      </c>
+    </row>
+    <row r="389" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F389">
+        <v>194</v>
+      </c>
+      <c r="G389">
+        <f t="shared" si="12"/>
+        <v>8.4575907690453468E-4</v>
+      </c>
+      <c r="H389">
+        <f t="shared" si="13"/>
+        <v>7.5209344985525039E-4</v>
+      </c>
+    </row>
+    <row r="390" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F390">
+        <v>194.5</v>
+      </c>
+      <c r="G390">
+        <f t="shared" si="12"/>
+        <v>8.4141629035967434E-4</v>
+      </c>
+      <c r="H390">
+        <f t="shared" si="13"/>
+        <v>7.4823161567137957E-4</v>
+      </c>
+    </row>
+    <row r="391" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F391">
+        <v>195</v>
+      </c>
+      <c r="G391">
+        <f t="shared" si="12"/>
+        <v>8.3710686701851591E-4</v>
+      </c>
+      <c r="H391">
+        <f t="shared" si="13"/>
+        <v>7.4439944980281931E-4</v>
+      </c>
+    </row>
+    <row r="392" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F392">
+        <v>195.5</v>
+      </c>
+      <c r="G392">
+        <f t="shared" si="12"/>
+        <v>8.3283046600634658E-4</v>
+      </c>
+      <c r="H392">
+        <f t="shared" si="13"/>
+        <v>7.4059664912584828E-4</v>
+      </c>
+    </row>
+    <row r="393" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F393">
+        <v>196</v>
+      </c>
+      <c r="G393">
+        <f t="shared" si="12"/>
+        <v>8.2858675079079203E-4</v>
+      </c>
+      <c r="H393">
+        <f t="shared" si="13"/>
+        <v>7.3682291437818107E-4</v>
+      </c>
+    </row>
+    <row r="394" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F394">
+        <v>196.5</v>
+      </c>
+      <c r="G394">
+        <f t="shared" si="12"/>
+        <v>8.2437538911560629E-4</v>
+      </c>
+      <c r="H394">
+        <f t="shared" si="13"/>
+        <v>7.3307795010009013E-4</v>
+      </c>
+    </row>
+    <row r="395" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F395">
+        <v>197</v>
+      </c>
+      <c r="G395">
+        <f t="shared" si="12"/>
+        <v>8.2019605293563529E-4</v>
+      </c>
+      <c r="H395">
+        <f t="shared" si="13"/>
+        <v>7.2936146457657262E-4</v>
+      </c>
+    </row>
+    <row r="396" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F396">
+        <v>197.5</v>
+      </c>
+      <c r="G396">
+        <f t="shared" si="12"/>
+        <v>8.1604841835293236E-4</v>
+      </c>
+      <c r="H396">
+        <f t="shared" si="13"/>
+        <v>7.2567316978054046E-4</v>
+      </c>
+    </row>
+    <row r="397" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F397">
+        <v>198</v>
+      </c>
+      <c r="G397">
+        <f t="shared" si="12"/>
+        <v>8.1193216555400141E-4</v>
+      </c>
+      <c r="H397">
+        <f t="shared" si="13"/>
+        <v>7.2201278131701376E-4</v>
+      </c>
+    </row>
+    <row r="398" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F398">
+        <v>198.5</v>
+      </c>
+      <c r="G398">
+        <f t="shared" si="12"/>
+        <v>8.0784697874814436E-4</v>
+      </c>
+      <c r="H398">
+        <f t="shared" si="13"/>
+        <v>7.1838001836829638E-4</v>
+      </c>
+    </row>
+    <row r="399" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F399">
+        <v>199</v>
+      </c>
+      <c r="G399">
+        <f t="shared" si="12"/>
+        <v>8.03792546106893E-4</v>
+      </c>
+      <c r="H399">
+        <f t="shared" si="13"/>
+        <v>7.1477460364011527E-4</v>
+      </c>
+    </row>
+    <row r="400" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F400">
+        <v>199.5</v>
+      </c>
+      <c r="G400">
+        <f t="shared" si="12"/>
+        <v>7.9976855970450113E-4</v>
+      </c>
+      <c r="H400">
+        <f t="shared" si="13"/>
+        <v>7.1119626330870295E-4</v>
+      </c>
+    </row>
+    <row r="401" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F401">
+        <v>200</v>
+      </c>
+      <c r="G401">
+        <f t="shared" si="12"/>
+        <v>7.9577471545947667E-4</v>
+      </c>
+      <c r="H401">
+        <f t="shared" si="13"/>
+        <v>7.0764472696880514E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
+++ b/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="6860" windowWidth="42000" windowHeight="18980" tabRatio="500"/>
+    <workbookView xWindow="22320" yWindow="8220" windowWidth="25700" windowHeight="18980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Maximum power density at the surface</t>
   </si>
@@ -189,9 +190,6 @@
   </si>
   <si>
     <t>Sff2</t>
-  </si>
-  <si>
-    <t>Watts/(m*m)</t>
   </si>
   <si>
     <t>Limit</t>
@@ -635,11 +633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1867554208"/>
-        <c:axId val="1868269392"/>
+        <c:axId val="1851464880"/>
+        <c:axId val="1851719328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1867554208"/>
+        <c:axId val="1851464880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -696,12 +694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1868269392"/>
+        <c:crossAx val="1851719328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1868269392"/>
+        <c:axId val="1851719328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867554208"/>
+        <c:crossAx val="1851464880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -799,11 +797,6 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1363,26 +1356,27 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="146" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8672534" cy="6280411"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1396,7 +1390,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1665,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J21"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1699,11 +1693,8 @@
       <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2243,6 +2234,9 @@
         <f t="shared" si="1"/>
         <v>0.25674185105444181</v>
       </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -2269,6 +2263,9 @@
         <f t="shared" si="1"/>
         <v>0.23393214114671243</v>
       </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F24">
@@ -2282,6 +2279,9 @@
         <f t="shared" si="1"/>
         <v>0.21403243159737018</v>
       </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F25">
@@ -2295,6 +2295,9 @@
         <f t="shared" si="1"/>
         <v>0.19656797971355697</v>
       </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2304,7 +2307,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -2320,6 +2323,9 @@
         <f t="shared" si="1"/>
         <v>0.18115705010401412</v>
       </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -2330,7 +2336,7 @@
       </c>
       <c r="C27" s="1">
         <f>(C3*C12)/(4*PI()*C26*C26)</f>
-        <v>3.1830988618379067E-3</v>
+        <v>7.9577471545947667</v>
       </c>
       <c r="D27" s="1"/>
       <c r="F27">
@@ -2344,6 +2350,9 @@
         <f t="shared" si="1"/>
         <v>0.16748987620563435</v>
       </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -2354,7 +2363,7 @@
       </c>
       <c r="C28" s="1">
         <f>(C3*C14)/(4*C26*C26*PI())</f>
-        <v>2.8305789078752206E-3</v>
+        <v>7.0764472696880514</v>
       </c>
       <c r="D28" s="1"/>
       <c r="F28">
@@ -2368,6 +2377,9 @@
         <f t="shared" si="1"/>
         <v>0.15531297162552651</v>
       </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F29">
@@ -2381,6 +2393,9 @@
         <f t="shared" si="1"/>
         <v>0.14441729121812349</v>
       </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F30">
@@ -2394,6 +2409,9 @@
         <f t="shared" si="1"/>
         <v>0.13462919894769182</v>
       </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F31">
@@ -2407,6 +2425,9 @@
         <f t="shared" si="1"/>
         <v>0.12580350701667647</v>
       </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F32">
@@ -2420,8 +2441,11 @@
         <f t="shared" si="1"/>
         <v>0.11781806068159086</v>
       </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F33">
         <v>16</v>
       </c>
@@ -2433,8 +2457,11 @@
         <f t="shared" si="1"/>
         <v>0.1105694885888758</v>
       </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F34">
         <v>16.5</v>
       </c>
@@ -2446,8 +2473,11 @@
         <f t="shared" si="1"/>
         <v>0.10396984050964997</v>
       </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35">
         <v>17</v>
       </c>
@@ -2459,8 +2489,11 @@
         <f t="shared" si="1"/>
         <v>9.7943906846893442E-2</v>
       </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36">
         <v>17.5</v>
       </c>
@@ -2472,8 +2505,11 @@
         <f t="shared" si="1"/>
         <v>9.2427066379599035E-2</v>
       </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37">
         <v>18</v>
       </c>
@@ -2485,8 +2521,11 @@
         <f t="shared" si="1"/>
         <v>8.7363546539358655E-2</v>
       </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38">
         <v>18.5</v>
       </c>
@@ -2498,8 +2537,11 @@
         <f t="shared" si="1"/>
         <v>8.2705008265163485E-2</v>
       </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39">
         <v>19</v>
       </c>
@@ -2511,8 +2553,11 @@
         <f t="shared" si="1"/>
         <v>7.8409388029784505E-2</v>
       </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40">
         <v>19.5</v>
       </c>
@@ -2524,8 +2569,11 @@
         <f t="shared" si="1"/>
         <v>7.4439944980281947E-2</v>
       </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41">
         <v>20</v>
       </c>
@@ -2537,8 +2585,11 @@
         <f t="shared" si="1"/>
         <v>7.0764472696880507E-2</v>
       </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42">
         <v>20.5</v>
       </c>
@@ -2550,8 +2601,11 @@
         <f t="shared" si="1"/>
         <v>6.7354643851879142E-2</v>
       </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43">
         <v>21</v>
       </c>
@@ -2563,8 +2617,11 @@
         <f t="shared" si="1"/>
         <v>6.4185462763610451E-2</v>
       </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44">
         <v>21.5</v>
       </c>
@@ -2576,8 +2633,11 @@
         <f t="shared" si="1"/>
         <v>6.1234806011362261E-2</v>
       </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F45">
         <v>22</v>
       </c>
@@ -2589,8 +2649,11 @@
         <f t="shared" si="1"/>
         <v>5.8483035286678108E-2</v>
       </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F46">
         <v>22.5</v>
       </c>
@@ -2602,8 +2665,11 @@
         <f t="shared" si="1"/>
         <v>5.5912669785189544E-2</v>
       </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F47">
         <v>23</v>
       </c>
@@ -2615,8 +2681,11 @@
         <f t="shared" si="1"/>
         <v>5.3508107899342544E-2</v>
       </c>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F48">
         <v>23.5</v>
       </c>
@@ -2628,8 +2697,11 @@
         <f t="shared" si="1"/>
         <v>5.1255389911728753E-2</v>
       </c>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F49">
         <v>24</v>
       </c>
@@ -2641,8 +2713,11 @@
         <f t="shared" si="1"/>
         <v>4.9141994928389242E-2</v>
       </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F50">
         <v>24.5</v>
       </c>
@@ -2654,8 +2729,11 @@
         <f t="shared" si="1"/>
         <v>4.7156666520203588E-2</v>
       </c>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F51">
         <v>25</v>
       </c>
@@ -2667,8 +2745,11 @@
         <f t="shared" si="1"/>
         <v>4.5289262526003529E-2</v>
       </c>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F52">
         <v>25.5</v>
       </c>
@@ -2680,8 +2761,11 @@
         <f t="shared" si="1"/>
         <v>4.3530625265285977E-2</v>
       </c>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F53">
         <v>26</v>
       </c>
@@ -2693,8 +2777,11 @@
         <f t="shared" si="1"/>
         <v>4.1872469051408588E-2</v>
       </c>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F54">
         <v>26.5</v>
       </c>
@@ -2706,8 +2793,11 @@
         <f t="shared" si="1"/>
         <v>4.0307282419013463E-2</v>
       </c>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F55">
         <v>27</v>
       </c>
@@ -2719,8 +2809,11 @@
         <f t="shared" si="1"/>
         <v>3.8828242906381628E-2</v>
       </c>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F56">
         <v>27.5</v>
       </c>
@@ -2732,8 +2825,11 @@
         <f t="shared" si="1"/>
         <v>3.742914258347399E-2</v>
       </c>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F57">
         <v>28</v>
       </c>
@@ -2745,8 +2841,11 @@
         <f t="shared" si="1"/>
         <v>3.6104322804530874E-2</v>
       </c>
-    </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F58">
         <v>28.5</v>
       </c>
@@ -2758,8 +2857,11 @@
         <f t="shared" si="1"/>
         <v>3.4848616902126442E-2</v>
       </c>
-    </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F59">
         <v>29</v>
       </c>
@@ -2771,8 +2873,11 @@
         <f t="shared" si="1"/>
         <v>3.3657299736922955E-2</v>
       </c>
-    </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F60">
         <v>29.5</v>
       </c>
@@ -2784,8 +2889,11 @@
         <f t="shared" si="1"/>
         <v>3.2526043181559557E-2</v>
       </c>
-    </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F61">
         <v>30</v>
       </c>
@@ -2797,8 +2905,11 @@
         <f t="shared" si="1"/>
         <v>3.1450876754169119E-2</v>
       </c>
-    </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F62">
         <v>30.5</v>
       </c>
@@ -2810,8 +2921,11 @@
         <f t="shared" si="1"/>
         <v>3.0428152731794899E-2</v>
       </c>
-    </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F63">
         <v>31</v>
       </c>
@@ -2823,8 +2937,11 @@
         <f t="shared" si="1"/>
         <v>2.9454515170397714E-2</v>
       </c>
-    </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F64">
         <v>31.5</v>
       </c>
@@ -2836,8 +2953,11 @@
         <f t="shared" si="1"/>
         <v>2.852687233938242E-2</v>
       </c>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F65">
         <v>32</v>
       </c>
@@ -2849,8 +2969,11 @@
         <f t="shared" si="1"/>
         <v>2.7642372147218951E-2</v>
       </c>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F66">
         <v>32.5</v>
       </c>
@@ -2862,8 +2985,11 @@
         <f t="shared" si="1"/>
         <v>2.6798380192901494E-2</v>
       </c>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F67">
         <v>33</v>
       </c>
@@ -2875,8 +3001,11 @@
         <f t="shared" ref="H67:H130" si="3">($C$3*$C$14)/(4*F67*F67*PI())</f>
         <v>2.5992460127412492E-2</v>
       </c>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F68">
         <v>33.5</v>
       </c>
@@ -2888,8 +3017,11 @@
         <f t="shared" si="3"/>
         <v>2.5222356051461087E-2</v>
       </c>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F69">
         <v>34</v>
       </c>
@@ -2901,8 +3033,11 @@
         <f t="shared" si="3"/>
         <v>2.448597671172336E-2</v>
       </c>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F70">
         <v>34.5</v>
       </c>
@@ -2914,8 +3049,11 @@
         <f t="shared" si="3"/>
         <v>2.3781381288596685E-2</v>
       </c>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F71">
         <v>35</v>
       </c>
@@ -2927,8 +3065,11 @@
         <f t="shared" si="3"/>
         <v>2.3106766594899759E-2</v>
       </c>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F72">
         <v>35.5</v>
       </c>
@@ -2940,8 +3081,11 @@
         <f t="shared" si="3"/>
         <v>2.2460455527674832E-2</v>
       </c>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F73">
         <v>36</v>
       </c>
@@ -2953,8 +3097,11 @@
         <f t="shared" si="3"/>
         <v>2.1840886634839664E-2</v>
       </c>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F74">
         <v>36.5</v>
       </c>
@@ -2966,8 +3113,11 @@
         <f t="shared" si="3"/>
         <v>2.1246604675362882E-2</v>
       </c>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F75">
         <v>37</v>
       </c>
@@ -2979,8 +3129,11 @@
         <f t="shared" si="3"/>
         <v>2.0676252066290871E-2</v>
       </c>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F76">
         <v>37.5</v>
       </c>
@@ -2992,8 +3145,11 @@
         <f t="shared" si="3"/>
         <v>2.0128561122668233E-2</v>
       </c>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F77">
         <v>38</v>
       </c>
@@ -3005,8 +3161,11 @@
         <f t="shared" si="3"/>
         <v>1.9602347007446126E-2</v>
       </c>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F78">
         <v>38.5</v>
       </c>
@@ -3018,8 +3177,11 @@
         <f t="shared" si="3"/>
         <v>1.9096501318098976E-2</v>
       </c>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F79">
         <v>39</v>
       </c>
@@ -3031,8 +3193,11 @@
         <f t="shared" si="3"/>
         <v>1.8609986245070487E-2</v>
       </c>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F80">
         <v>39.5</v>
       </c>
@@ -3044,8 +3209,11 @@
         <f t="shared" si="3"/>
         <v>1.8141829244513508E-2</v>
       </c>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F81">
         <v>40</v>
       </c>
@@ -3057,8 +3225,11 @@
         <f t="shared" si="3"/>
         <v>1.7691118174220127E-2</v>
       </c>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F82">
         <v>40.5</v>
       </c>
@@ -3070,8 +3241,11 @@
         <f t="shared" si="3"/>
         <v>1.7256996847280721E-2</v>
       </c>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F83">
         <v>41</v>
       </c>
@@ -3083,8 +3257,11 @@
         <f t="shared" si="3"/>
         <v>1.6838660962969786E-2</v>
       </c>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F84">
         <v>41.5</v>
       </c>
@@ -3096,8 +3273,11 @@
         <f t="shared" si="3"/>
         <v>1.6435354378720977E-2</v>
       </c>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F85">
         <v>42</v>
       </c>
@@ -3109,8 +3289,11 @@
         <f t="shared" si="3"/>
         <v>1.6046365690902613E-2</v>
       </c>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F86">
         <v>42.5</v>
       </c>
@@ -3122,8 +3305,11 @@
         <f t="shared" si="3"/>
         <v>1.5671025095502951E-2</v>
       </c>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F87">
         <v>43</v>
       </c>
@@ -3135,8 +3321,11 @@
         <f t="shared" si="3"/>
         <v>1.5308701502840565E-2</v>
       </c>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F88">
         <v>43.5</v>
       </c>
@@ -3148,8 +3337,11 @@
         <f t="shared" si="3"/>
         <v>1.4958799883076869E-2</v>
       </c>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F89">
         <v>44</v>
       </c>
@@ -3161,8 +3353,11 @@
         <f t="shared" si="3"/>
         <v>1.4620758821669527E-2</v>
       </c>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F90">
         <v>44.5</v>
       </c>
@@ -3174,8 +3369,11 @@
         <f t="shared" si="3"/>
         <v>1.4294048266002881E-2</v>
       </c>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F91">
         <v>45</v>
       </c>
@@ -3187,8 +3385,11 @@
         <f t="shared" si="3"/>
         <v>1.3978167446297386E-2</v>
       </c>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F92">
         <v>45.5</v>
       </c>
@@ -3200,8 +3401,11 @@
         <f t="shared" si="3"/>
         <v>1.3672642955561989E-2</v>
       </c>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F93">
         <v>46</v>
       </c>
@@ -3213,8 +3417,11 @@
         <f t="shared" si="3"/>
         <v>1.3377026974835636E-2</v>
       </c>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F94">
         <v>46.5</v>
       </c>
@@ -3226,8 +3433,11 @@
         <f t="shared" si="3"/>
         <v>1.3090895631287874E-2</v>
       </c>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F95">
         <v>47</v>
       </c>
@@ -3239,8 +3449,11 @@
         <f t="shared" si="3"/>
         <v>1.2813847477932188E-2</v>
       </c>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F96">
         <v>47.5</v>
       </c>
@@ -3252,8 +3465,11 @@
         <f t="shared" si="3"/>
         <v>1.2545502084765519E-2</v>
       </c>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F97">
         <v>48</v>
       </c>
@@ -3265,8 +3481,11 @@
         <f t="shared" si="3"/>
         <v>1.228549873209731E-2</v>
       </c>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F98">
         <v>48.5</v>
       </c>
@@ -3278,8 +3497,11 @@
         <f t="shared" si="3"/>
         <v>1.2033495197684006E-2</v>
       </c>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F99">
         <v>49</v>
       </c>
@@ -3291,8 +3513,11 @@
         <f t="shared" si="3"/>
         <v>1.1789166630050897E-2</v>
       </c>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F100">
         <v>49.5</v>
       </c>
@@ -3304,8 +3529,11 @@
         <f t="shared" si="3"/>
         <v>1.155220450107222E-2</v>
       </c>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F101">
         <v>50</v>
       </c>
@@ -3317,8 +3545,11 @@
         <f t="shared" si="3"/>
         <v>1.1322315631500882E-2</v>
       </c>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F102">
         <v>50.5</v>
       </c>
@@ -3330,8 +3561,11 @@
         <f t="shared" si="3"/>
         <v>1.1099221283698541E-2</v>
       </c>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F103">
         <v>51</v>
       </c>
@@ -3343,8 +3577,11 @@
         <f t="shared" si="3"/>
         <v>1.0882656316321494E-2</v>
       </c>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F104">
         <v>51.5</v>
       </c>
@@ -3356,8 +3593,11 @@
         <f t="shared" si="3"/>
         <v>1.0672368396173892E-2</v>
       </c>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F105">
         <v>52</v>
       </c>
@@ -3369,8 +3609,11 @@
         <f t="shared" si="3"/>
         <v>1.0468117262852147E-2</v>
       </c>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F106">
         <v>52.5</v>
       </c>
@@ -3382,8 +3625,11 @@
         <f t="shared" si="3"/>
         <v>1.0269674042177671E-2</v>
       </c>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F107">
         <v>53</v>
       </c>
@@ -3395,8 +3641,11 @@
         <f t="shared" si="3"/>
         <v>1.0076820604753366E-2</v>
       </c>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F108">
         <v>53.5</v>
       </c>
@@ -3408,8 +3657,11 @@
         <f t="shared" si="3"/>
         <v>9.8893489662860348E-3</v>
       </c>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F109">
         <v>54</v>
       </c>
@@ -3421,8 +3673,11 @@
         <f t="shared" si="3"/>
         <v>9.7070607265954071E-3</v>
       </c>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F110">
         <v>54.5</v>
       </c>
@@ -3434,8 +3689,11 @@
         <f t="shared" si="3"/>
         <v>9.5297665444835297E-3</v>
       </c>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F111">
         <v>55</v>
       </c>
@@ -3447,8 +3705,11 @@
         <f t="shared" si="3"/>
         <v>9.3572856458684975E-3</v>
       </c>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F112">
         <v>55.5</v>
       </c>
@@ -3460,8 +3721,11 @@
         <f t="shared" si="3"/>
         <v>9.1894453627959435E-3</v>
       </c>
-    </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F113">
         <v>56</v>
       </c>
@@ -3473,8 +3737,11 @@
         <f t="shared" si="3"/>
         <v>9.0260807011327184E-3</v>
       </c>
-    </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F114">
         <v>56.5</v>
       </c>
@@ -3486,8 +3753,11 @@
         <f t="shared" si="3"/>
         <v>8.8670339349212011E-3</v>
       </c>
-    </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F115">
         <v>57</v>
       </c>
@@ -3499,8 +3769,11 @@
         <f t="shared" si="3"/>
         <v>8.7121542255316105E-3</v>
       </c>
-    </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F116">
         <v>57.5</v>
       </c>
@@ -3512,8 +3785,11 @@
         <f t="shared" si="3"/>
         <v>8.5612972638948077E-3</v>
       </c>
-    </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F117">
         <v>58</v>
       </c>
@@ -3525,8 +3801,11 @@
         <f t="shared" si="3"/>
         <v>8.4143249342307387E-3</v>
       </c>
-    </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F118">
         <v>58.5</v>
       </c>
@@ -3538,8 +3817,11 @@
         <f t="shared" si="3"/>
         <v>8.271104997809104E-3</v>
       </c>
-    </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F119">
         <v>59</v>
       </c>
@@ -3551,8 +3833,11 @@
         <f t="shared" si="3"/>
         <v>8.1315107953898891E-3</v>
       </c>
-    </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F120">
         <v>59.5</v>
       </c>
@@ -3564,8 +3849,11 @@
         <f t="shared" si="3"/>
         <v>7.9954209670933425E-3</v>
       </c>
-    </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F121">
         <v>60</v>
       </c>
@@ -3577,8 +3865,11 @@
         <f t="shared" si="3"/>
         <v>7.8627191885422797E-3</v>
       </c>
-    </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F122">
         <v>60.5</v>
       </c>
@@ -3590,8 +3881,11 @@
         <f t="shared" si="3"/>
         <v>7.7332939222053698E-3</v>
       </c>
-    </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F123">
         <v>61</v>
       </c>
@@ -3603,8 +3897,11 @@
         <f t="shared" si="3"/>
         <v>7.6070381829487247E-3</v>
       </c>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F124">
         <v>61.5</v>
       </c>
@@ -3616,8 +3913,11 @@
         <f t="shared" si="3"/>
         <v>7.4838493168754589E-3</v>
       </c>
-    </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F125">
         <v>62</v>
       </c>
@@ -3629,8 +3929,11 @@
         <f t="shared" si="3"/>
         <v>7.3636287925994285E-3</v>
       </c>
-    </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F126">
         <v>62.5</v>
       </c>
@@ -3642,8 +3945,11 @@
         <f t="shared" si="3"/>
         <v>7.2462820041605648E-3</v>
       </c>
-    </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F127">
         <v>63</v>
       </c>
@@ -3655,8 +3961,11 @@
         <f t="shared" si="3"/>
         <v>7.1317180848456049E-3</v>
       </c>
-    </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F128">
         <v>63.5</v>
       </c>
@@ -3668,8 +3977,11 @@
         <f t="shared" si="3"/>
         <v>7.0198497312300096E-3</v>
       </c>
-    </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F129">
         <v>64</v>
       </c>
@@ -3681,8 +3993,11 @@
         <f t="shared" si="3"/>
         <v>6.9105930368047377E-3</v>
       </c>
-    </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F130">
         <v>64.5</v>
       </c>
@@ -3694,8 +4009,11 @@
         <f t="shared" si="3"/>
         <v>6.8038673345958067E-3</v>
       </c>
-    </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F131">
         <v>65</v>
       </c>
@@ -3707,8 +4025,11 @@
         <f t="shared" ref="H131:H194" si="5">($C$3*$C$14)/(4*F131*F131*PI())</f>
         <v>6.6995950482253734E-3</v>
       </c>
-    </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F132">
         <v>65.5</v>
       </c>
@@ -3720,8 +4041,11 @@
         <f t="shared" si="5"/>
         <v>6.597701550900812E-3</v>
       </c>
-    </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F133">
         <v>66</v>
       </c>
@@ -3733,8 +4057,11 @@
         <f t="shared" si="5"/>
         <v>6.4981150318531231E-3</v>
       </c>
-    </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F134">
         <v>66.5</v>
       </c>
@@ -3746,8 +4073,11 @@
         <f t="shared" si="5"/>
         <v>6.4007663697783273E-3</v>
       </c>
-    </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F135">
         <v>67</v>
       </c>
@@ -3759,8 +4089,11 @@
         <f t="shared" si="5"/>
         <v>6.3055890128652717E-3</v>
       </c>
-    </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F136">
         <v>67.5</v>
       </c>
@@ -3772,8 +4105,11 @@
         <f t="shared" si="5"/>
         <v>6.2125188650210602E-3</v>
       </c>
-    </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F137">
         <v>68</v>
       </c>
@@ -3785,8 +4121,11 @@
         <f t="shared" si="5"/>
         <v>6.1214941779308401E-3</v>
       </c>
-    </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F138">
         <v>68.5</v>
       </c>
@@ -3798,8 +4137,11 @@
         <f t="shared" si="5"/>
         <v>6.0324554486125437E-3</v>
       </c>
-    </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F139">
         <v>69</v>
       </c>
@@ -3811,8 +4153,11 @@
         <f t="shared" si="5"/>
         <v>5.9453453221491714E-3</v>
       </c>
-    </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F140">
         <v>69.5</v>
       </c>
@@ -3824,8 +4169,11 @@
         <f t="shared" si="5"/>
         <v>5.8601084993017355E-3</v>
       </c>
-    </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F141">
         <v>70</v>
       </c>
@@ -3837,8 +4185,11 @@
         <f t="shared" si="5"/>
         <v>5.7766916487249397E-3</v>
       </c>
-    </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F142">
         <v>70.5</v>
       </c>
@@ -3850,8 +4201,11 @@
         <f t="shared" si="5"/>
         <v>5.6950433235254169E-3</v>
       </c>
-    </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F143">
         <v>71</v>
       </c>
@@ -3863,8 +4217,11 @@
         <f t="shared" si="5"/>
         <v>5.6151138819187079E-3</v>
       </c>
-    </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F144">
         <v>71.5</v>
       </c>
@@ -3876,8 +4233,11 @@
         <f t="shared" si="5"/>
         <v>5.5368554117565076E-3</v>
       </c>
-    </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F145">
         <v>72</v>
       </c>
@@ -3889,8 +4249,11 @@
         <f t="shared" si="5"/>
         <v>5.460221658709916E-3</v>
       </c>
-    </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F146">
         <v>72.5</v>
       </c>
@@ -3902,8 +4265,11 @@
         <f t="shared" si="5"/>
         <v>5.3851679579076731E-3</v>
       </c>
-    </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F147">
         <v>73</v>
       </c>
@@ -3915,8 +4281,11 @@
         <f t="shared" si="5"/>
         <v>5.3116511688407206E-3</v>
       </c>
-    </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F148">
         <v>73.5</v>
       </c>
@@ -3928,8 +4297,11 @@
         <f t="shared" si="5"/>
         <v>5.2396296133559546E-3</v>
       </c>
-    </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F149">
         <v>74</v>
       </c>
@@ -3941,8 +4313,11 @@
         <f t="shared" si="5"/>
         <v>5.1690630165727178E-3</v>
       </c>
-    </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F150">
         <v>74.5</v>
       </c>
@@ -3954,8 +4329,11 @@
         <f t="shared" si="5"/>
         <v>5.0999124505656879E-3</v>
       </c>
-    </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F151">
         <v>75</v>
       </c>
@@ -3967,8 +4345,11 @@
         <f t="shared" si="5"/>
         <v>5.0321402806670582E-3</v>
       </c>
-    </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F152">
         <v>75.5</v>
       </c>
@@ -3980,8 +4361,11 @@
         <f t="shared" si="5"/>
         <v>4.9657101142497615E-3</v>
       </c>
-    </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F153">
         <v>76</v>
       </c>
@@ -3993,8 +4377,11 @@
         <f t="shared" si="5"/>
         <v>4.9005867518615315E-3</v>
       </c>
-    </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F154">
         <v>76.5</v>
       </c>
@@ -4006,8 +4393,11 @@
         <f t="shared" si="5"/>
         <v>4.8367361405873303E-3</v>
       </c>
-    </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F155">
         <v>77</v>
       </c>
@@ -4019,8 +4409,11 @@
         <f t="shared" si="5"/>
         <v>4.774125329524744E-3</v>
       </c>
-    </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F156">
         <v>77.5</v>
       </c>
@@ -4032,8 +4425,11 @@
         <f t="shared" si="5"/>
         <v>4.7127224272636341E-3</v>
       </c>
-    </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F157">
         <v>78</v>
       </c>
@@ -4045,8 +4441,11 @@
         <f t="shared" si="5"/>
         <v>4.6524965612676217E-3</v>
       </c>
-    </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F158">
         <v>78.5</v>
       </c>
@@ -4058,8 +4457,11 @@
         <f t="shared" si="5"/>
         <v>4.593417839060766E-3</v>
       </c>
-    </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F159">
         <v>79</v>
       </c>
@@ -4071,8 +4473,11 @@
         <f t="shared" si="5"/>
         <v>4.5354573111283771E-3</v>
       </c>
-    </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F160">
         <v>79.5</v>
       </c>
@@ -4084,8 +4489,11 @@
         <f t="shared" si="5"/>
         <v>4.4785869354459409E-3</v>
       </c>
-    </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F161">
         <v>80</v>
       </c>
@@ -4097,8 +4505,11 @@
         <f t="shared" si="5"/>
         <v>4.4227795435550317E-3</v>
       </c>
-    </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F162">
         <v>80.5</v>
       </c>
@@ -4110,8 +4521,11 @@
         <f t="shared" si="5"/>
         <v>4.3680088081095953E-3</v>
       </c>
-    </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F163">
         <v>81</v>
       </c>
@@ -4123,8 +4537,11 @@
         <f t="shared" si="5"/>
         <v>4.3142492118201804E-3</v>
       </c>
-    </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F164">
         <v>81.5</v>
       </c>
@@ -4136,8 +4553,11 @@
         <f t="shared" si="5"/>
         <v>4.2614760177277587E-3</v>
       </c>
-    </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F165">
         <v>82</v>
       </c>
@@ -4149,8 +4569,11 @@
         <f t="shared" si="5"/>
         <v>4.2096652407424464E-3</v>
       </c>
-    </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F166">
         <v>82.5</v>
       </c>
@@ -4162,8 +4585,11 @@
         <f t="shared" si="5"/>
         <v>4.1587936203859987E-3</v>
       </c>
-    </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F167">
         <v>83</v>
       </c>
@@ -4175,8 +4601,11 @@
         <f t="shared" si="5"/>
         <v>4.1088385946802444E-3</v>
       </c>
-    </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F168">
         <v>83.5</v>
       </c>
@@ -4188,8 +4617,11 @@
         <f t="shared" si="5"/>
         <v>4.0597782751267105E-3</v>
       </c>
-    </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F169">
         <v>84</v>
       </c>
@@ -4201,8 +4633,11 @@
         <f t="shared" si="5"/>
         <v>4.0115914227256532E-3</v>
       </c>
-    </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F170">
         <v>84.5</v>
       </c>
@@ -4214,8 +4649,11 @@
         <f t="shared" si="5"/>
         <v>3.9642574249854285E-3</v>
       </c>
-    </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F171">
         <v>85</v>
       </c>
@@ -4227,8 +4665,11 @@
         <f t="shared" si="5"/>
         <v>3.9177562738757377E-3</v>
       </c>
-    </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F172">
         <v>85.5</v>
       </c>
@@ -4240,8 +4681,11 @@
         <f t="shared" si="5"/>
         <v>3.8720685446807165E-3</v>
       </c>
-    </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F173">
         <v>86</v>
       </c>
@@ -4253,8 +4697,11 @@
         <f t="shared" si="5"/>
         <v>3.8271753757101413E-3</v>
       </c>
-    </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F174">
         <v>86.5</v>
       </c>
@@ -4266,8 +4713,11 @@
         <f t="shared" si="5"/>
         <v>3.7830584488291897E-3</v>
       </c>
-    </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F175">
         <v>87</v>
       </c>
@@ -4279,8 +4729,11 @@
         <f t="shared" si="5"/>
         <v>3.7396999707692172E-3</v>
       </c>
-    </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F176">
         <v>87.5</v>
       </c>
@@ -4292,8 +4745,11 @@
         <f t="shared" si="5"/>
         <v>3.6970826551839613E-3</v>
       </c>
-    </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F177">
         <v>88</v>
       </c>
@@ -4305,8 +4761,11 @@
         <f t="shared" si="5"/>
         <v>3.6551897054173817E-3</v>
       </c>
-    </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F178">
         <v>88.5</v>
       </c>
@@ -4318,8 +4777,11 @@
         <f t="shared" si="5"/>
         <v>3.6140047979510621E-3</v>
       </c>
-    </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F179">
         <v>89</v>
       </c>
@@ -4331,8 +4793,11 @@
         <f t="shared" si="5"/>
         <v>3.5735120665007203E-3</v>
       </c>
-    </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F180">
         <v>89.5</v>
       </c>
@@ -4344,8 +4809,11 @@
         <f t="shared" si="5"/>
         <v>3.5336960867328989E-3</v>
       </c>
-    </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F181">
         <v>90</v>
       </c>
@@ -4357,8 +4825,11 @@
         <f t="shared" si="5"/>
         <v>3.4945418615743465E-3</v>
       </c>
-    </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F182">
         <v>90.5</v>
       </c>
@@ -4370,8 +4841,11 @@
         <f t="shared" si="5"/>
         <v>3.4560348070879648E-3</v>
       </c>
-    </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F183">
         <v>91</v>
       </c>
@@ -4383,8 +4857,11 @@
         <f t="shared" si="5"/>
         <v>3.4181607388904973E-3</v>
       </c>
-    </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F184">
         <v>91.5</v>
       </c>
@@ -4396,8 +4873,11 @@
         <f t="shared" si="5"/>
         <v>3.3809058590883222E-3</v>
       </c>
-    </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F185">
         <v>92</v>
       </c>
@@ -4409,8 +4889,11 @@
         <f t="shared" si="5"/>
         <v>3.344256743708909E-3</v>
       </c>
-    </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F186">
         <v>92.5</v>
       </c>
@@ -4422,8 +4905,11 @@
         <f t="shared" si="5"/>
         <v>3.3082003306065398E-3</v>
       </c>
-    </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F187">
         <v>93</v>
       </c>
@@ -4435,8 +4921,11 @@
         <f t="shared" si="5"/>
         <v>3.2727239078219686E-3</v>
       </c>
-    </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F188">
         <v>93.5</v>
       </c>
@@ -4448,8 +4937,11 @@
         <f t="shared" si="5"/>
         <v>3.237815102376643E-3</v>
       </c>
-    </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F189">
         <v>94</v>
       </c>
@@ -4461,8 +4953,11 @@
         <f t="shared" si="5"/>
         <v>3.2034618694830471E-3</v>
       </c>
-    </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F190">
         <v>94.5</v>
       </c>
@@ -4474,8 +4969,11 @@
         <f t="shared" si="5"/>
         <v>3.1696524821536024E-3</v>
       </c>
-    </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F191">
         <v>95</v>
       </c>
@@ -4487,8 +4985,11 @@
         <f t="shared" si="5"/>
         <v>3.1363755211913798E-3</v>
       </c>
-    </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F192">
         <v>95.5</v>
       </c>
@@ -4500,8 +5001,11 @@
         <f t="shared" si="5"/>
         <v>3.1036198655466905E-3</v>
       </c>
-    </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F193">
         <v>96</v>
       </c>
@@ -4513,8 +5017,11 @@
         <f t="shared" si="5"/>
         <v>3.0713746830243276E-3</v>
       </c>
-    </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F194">
         <v>96.5</v>
       </c>
@@ -4526,8 +5033,11 @@
         <f t="shared" si="5"/>
         <v>3.0396294213269836E-3</v>
       </c>
-    </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F195">
         <v>97</v>
       </c>
@@ -4539,8 +5049,11 @@
         <f t="shared" ref="H195:H258" si="7">($C$3*$C$14)/(4*F195*F195*PI())</f>
         <v>3.0083737994210016E-3</v>
       </c>
-    </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F196">
         <v>97.5</v>
       </c>
@@ -4552,8 +5065,11 @@
         <f t="shared" si="7"/>
         <v>2.9775977992112772E-3</v>
       </c>
-    </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F197">
         <v>98</v>
       </c>
@@ -4565,8 +5081,11 @@
         <f t="shared" si="7"/>
         <v>2.9472916575127243E-3</v>
       </c>
-    </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F198">
         <v>98.5</v>
       </c>
@@ -4578,8 +5097,11 @@
         <f t="shared" si="7"/>
         <v>2.9174458583062905E-3</v>
       </c>
-    </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F199">
         <v>99</v>
       </c>
@@ -4591,8 +5113,11 @@
         <f t="shared" si="7"/>
         <v>2.888051125268055E-3</v>
       </c>
-    </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F200">
         <v>99.5</v>
       </c>
@@ -4604,8 +5129,11 @@
         <f t="shared" si="7"/>
         <v>2.8590984145604611E-3</v>
       </c>
-    </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F201">
         <v>100</v>
       </c>
@@ -4617,8 +5145,11 @@
         <f t="shared" si="7"/>
         <v>2.8305789078752206E-3</v>
       </c>
-    </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F202">
         <v>100.5</v>
       </c>
@@ -4630,8 +5161,11 @@
         <f t="shared" si="7"/>
         <v>2.8024840057178984E-3</v>
       </c>
-    </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F203">
         <v>101</v>
       </c>
@@ -4643,8 +5177,11 @@
         <f t="shared" si="7"/>
         <v>2.7748053209246354E-3</v>
       </c>
-    </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F204">
         <v>101.5</v>
       </c>
@@ -4656,8 +5193,11 @@
         <f t="shared" si="7"/>
         <v>2.7475346724018736E-3</v>
       </c>
-    </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F205">
         <v>102</v>
       </c>
@@ -4669,8 +5209,11 @@
         <f t="shared" si="7"/>
         <v>2.7206640790803736E-3</v>
       </c>
-    </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F206">
         <v>102.5</v>
       </c>
@@ -4682,8 +5225,11 @@
         <f t="shared" si="7"/>
         <v>2.6941857540751651E-3</v>
       </c>
-    </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F207">
         <v>103</v>
       </c>
@@ -4695,8 +5241,11 @@
         <f t="shared" si="7"/>
         <v>2.668092099043473E-3</v>
       </c>
-    </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F208">
         <v>103.5</v>
       </c>
@@ -4708,8 +5257,11 @@
         <f t="shared" si="7"/>
         <v>2.6423756987329649E-3</v>
       </c>
-    </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F209">
         <v>104</v>
       </c>
@@ -4721,8 +5273,11 @@
         <f t="shared" si="7"/>
         <v>2.6170293157130368E-3</v>
       </c>
-    </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F210">
         <v>104.5</v>
       </c>
@@ -4734,8 +5289,11 @@
         <f t="shared" si="7"/>
         <v>2.5920458852821326E-3</v>
       </c>
-    </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F211">
         <v>105</v>
       </c>
@@ -4747,8 +5305,11 @@
         <f t="shared" si="7"/>
         <v>2.5674185105444176E-3</v>
       </c>
-    </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F212">
         <v>105.5</v>
       </c>
@@ -4760,8 +5321,11 @@
         <f t="shared" si="7"/>
         <v>2.5431404576493977E-3</v>
       </c>
-    </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F213">
         <v>106</v>
       </c>
@@ -4773,8 +5337,11 @@
         <f t="shared" si="7"/>
         <v>2.5192051511883414E-3</v>
       </c>
-    </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F214">
         <v>106.5</v>
       </c>
@@ -4786,8 +5353,11 @@
         <f t="shared" si="7"/>
         <v>2.4956061697416479E-3</v>
       </c>
-    </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F215">
         <v>107</v>
       </c>
@@ -4799,8 +5369,11 @@
         <f t="shared" si="7"/>
         <v>2.4723372415715087E-3</v>
       </c>
-    </row>
-    <row r="216" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F216">
         <v>107.5</v>
       </c>
@@ -4812,8 +5385,11 @@
         <f t="shared" si="7"/>
         <v>2.4493922404544908E-3</v>
       </c>
-    </row>
-    <row r="217" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F217">
         <v>108</v>
       </c>
@@ -4825,8 +5401,11 @@
         <f t="shared" si="7"/>
         <v>2.4267651816488518E-3</v>
       </c>
-    </row>
-    <row r="218" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F218">
         <v>108.5</v>
       </c>
@@ -4838,8 +5417,11 @@
         <f t="shared" si="7"/>
         <v>2.4044502179916502E-3</v>
       </c>
-    </row>
-    <row r="219" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F219">
         <v>109</v>
       </c>
@@ -4851,8 +5433,11 @@
         <f t="shared" si="7"/>
         <v>2.3824416361208824E-3</v>
       </c>
-    </row>
-    <row r="220" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F220">
         <v>109.5</v>
       </c>
@@ -4864,8 +5449,11 @@
         <f t="shared" si="7"/>
         <v>2.3607338528180985E-3</v>
       </c>
-    </row>
-    <row r="221" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F221">
         <v>110</v>
       </c>
@@ -4877,8 +5465,11 @@
         <f t="shared" si="7"/>
         <v>2.3393214114671244E-3</v>
       </c>
-    </row>
-    <row r="222" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F222">
         <v>110.5</v>
       </c>
@@ -4890,8 +5481,11 @@
         <f t="shared" si="7"/>
         <v>2.318198978624697E-3</v>
       </c>
-    </row>
-    <row r="223" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F223">
         <v>111</v>
       </c>
@@ -4903,8 +5497,11 @@
         <f t="shared" si="7"/>
         <v>2.2973613406989859E-3</v>
       </c>
-    </row>
-    <row r="224" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F224">
         <v>111.5</v>
       </c>
@@ -4916,8 +5513,11 @@
         <f t="shared" si="7"/>
         <v>2.2768034007321445E-3</v>
       </c>
-    </row>
-    <row r="225" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F225">
         <v>112</v>
       </c>
@@ -4929,8 +5529,11 @@
         <f t="shared" si="7"/>
         <v>2.2565201752831796E-3</v>
       </c>
-    </row>
-    <row r="226" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F226">
         <v>112.5</v>
       </c>
@@ -4942,8 +5545,11 @@
         <f t="shared" si="7"/>
         <v>2.2365067914075819E-3</v>
       </c>
-    </row>
-    <row r="227" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F227">
         <v>113</v>
       </c>
@@ -4955,8 +5561,11 @@
         <f t="shared" si="7"/>
         <v>2.2167584837303003E-3</v>
       </c>
-    </row>
-    <row r="228" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F228">
         <v>113.5</v>
       </c>
@@ -4968,8 +5577,11 @@
         <f t="shared" si="7"/>
         <v>2.1972705916087796E-3</v>
       </c>
-    </row>
-    <row r="229" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F229">
         <v>114</v>
       </c>
@@ -4981,8 +5593,11 @@
         <f t="shared" si="7"/>
         <v>2.1780385563829026E-3</v>
       </c>
-    </row>
-    <row r="230" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F230">
         <v>114.5</v>
       </c>
@@ -4994,8 +5609,11 @@
         <f t="shared" si="7"/>
         <v>2.1590579187088124E-3</v>
       </c>
-    </row>
-    <row r="231" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F231">
         <v>115</v>
       </c>
@@ -5007,8 +5625,11 @@
         <f t="shared" si="7"/>
         <v>2.1403243159737019E-3</v>
       </c>
-    </row>
-    <row r="232" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F232">
         <v>115.5</v>
       </c>
@@ -5020,8 +5641,11 @@
         <f t="shared" si="7"/>
         <v>2.1218334797887752E-3</v>
       </c>
-    </row>
-    <row r="233" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F233">
         <v>116</v>
       </c>
@@ -5033,8 +5657,11 @@
         <f t="shared" si="7"/>
         <v>2.1035812335576847E-3</v>
       </c>
-    </row>
-    <row r="234" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F234">
         <v>116.5</v>
       </c>
@@ -5046,8 +5673,11 @@
         <f t="shared" si="7"/>
         <v>2.0855634901178659E-3</v>
       </c>
-    </row>
-    <row r="235" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F235">
         <v>117</v>
       </c>
@@ -5059,8 +5689,11 @@
         <f t="shared" si="7"/>
         <v>2.067776249452276E-3</v>
       </c>
-    </row>
-    <row r="236" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F236">
         <v>117.5</v>
       </c>
@@ -5072,8 +5705,11 @@
         <f t="shared" si="7"/>
         <v>2.0502155964691503E-3</v>
       </c>
-    </row>
-    <row r="237" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F237">
         <v>118</v>
       </c>
@@ -5085,8 +5721,11 @@
         <f t="shared" si="7"/>
         <v>2.0328776988474723E-3</v>
       </c>
-    </row>
-    <row r="238" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F238">
         <v>118.5</v>
       </c>
@@ -5098,8 +5737,11 @@
         <f t="shared" si="7"/>
         <v>2.0157588049459457E-3</v>
       </c>
-    </row>
-    <row r="239" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F239">
         <v>119</v>
       </c>
@@ -5111,8 +5753,11 @@
         <f t="shared" si="7"/>
         <v>1.9988552417733356E-3</v>
       </c>
-    </row>
-    <row r="240" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F240">
         <v>119.5</v>
       </c>
@@ -5124,8 +5769,11 @@
         <f t="shared" si="7"/>
         <v>1.9821634130181339E-3</v>
       </c>
-    </row>
-    <row r="241" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F241">
         <v>120</v>
       </c>
@@ -5137,8 +5785,11 @@
         <f t="shared" si="7"/>
         <v>1.9656797971355699E-3</v>
       </c>
-    </row>
-    <row r="242" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F242">
         <v>120.5</v>
       </c>
@@ -5150,8 +5801,11 @@
         <f t="shared" si="7"/>
         <v>1.949400945490071E-3</v>
       </c>
-    </row>
-    <row r="243" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F243">
         <v>121</v>
       </c>
@@ -5163,8 +5817,11 @@
         <f t="shared" si="7"/>
         <v>1.9333234805513425E-3</v>
       </c>
-    </row>
-    <row r="244" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F244">
         <v>121.5</v>
       </c>
@@ -5176,8 +5833,11 @@
         <f t="shared" si="7"/>
         <v>1.9174440941423026E-3</v>
       </c>
-    </row>
-    <row r="245" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F245">
         <v>122</v>
       </c>
@@ -5189,8 +5849,11 @@
         <f t="shared" si="7"/>
         <v>1.9017595457371812E-3</v>
       </c>
-    </row>
-    <row r="246" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F246">
         <v>122.5</v>
       </c>
@@ -5202,8 +5865,11 @@
         <f t="shared" si="7"/>
         <v>1.8862666608081436E-3</v>
       </c>
-    </row>
-    <row r="247" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F247">
         <v>123</v>
       </c>
@@ -5215,8 +5881,11 @@
         <f t="shared" si="7"/>
         <v>1.8709623292188647E-3</v>
       </c>
-    </row>
-    <row r="248" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F248">
         <v>123.5</v>
       </c>
@@ -5228,8 +5897,11 @@
         <f t="shared" si="7"/>
         <v>1.8558435036635384E-3</v>
       </c>
-    </row>
-    <row r="249" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F249">
         <v>124</v>
       </c>
@@ -5241,8 +5913,11 @@
         <f t="shared" si="7"/>
         <v>1.8409071981498571E-3</v>
       </c>
-    </row>
-    <row r="250" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F250">
         <v>124.5</v>
       </c>
@@ -5254,8 +5929,11 @@
         <f t="shared" si="7"/>
         <v>1.8261504865245532E-3</v>
       </c>
-    </row>
-    <row r="251" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F251">
         <v>125</v>
       </c>
@@ -5267,8 +5945,11 @@
         <f t="shared" si="7"/>
         <v>1.8115705010401412E-3</v>
       </c>
-    </row>
-    <row r="252" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F252">
         <v>125.5</v>
       </c>
@@ -5280,8 +5961,11 @@
         <f t="shared" si="7"/>
         <v>1.7971644309615535E-3</v>
       </c>
-    </row>
-    <row r="253" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F253">
         <v>126</v>
       </c>
@@ -5293,8 +5977,11 @@
         <f t="shared" si="7"/>
         <v>1.7829295212114012E-3</v>
       </c>
-    </row>
-    <row r="254" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F254">
         <v>126.5</v>
       </c>
@@ -5306,8 +5993,11 @@
         <f t="shared" si="7"/>
         <v>1.768863071052646E-3</v>
       </c>
-    </row>
-    <row r="255" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F255">
         <v>127</v>
       </c>
@@ -5319,8 +6009,11 @@
         <f t="shared" si="7"/>
         <v>1.7549624328075024E-3</v>
       </c>
-    </row>
-    <row r="256" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F256">
         <v>127.5</v>
       </c>
@@ -5332,8 +6025,11 @@
         <f t="shared" si="7"/>
         <v>1.7412250106114389E-3</v>
       </c>
-    </row>
-    <row r="257" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F257">
         <v>128</v>
       </c>
@@ -5345,8 +6041,11 @@
         <f t="shared" si="7"/>
         <v>1.7276482592011844E-3</v>
       </c>
-    </row>
-    <row r="258" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F258">
         <v>128.5</v>
       </c>
@@ -5358,8 +6057,11 @@
         <f t="shared" si="7"/>
         <v>1.7142296827356784E-3</v>
       </c>
-    </row>
-    <row r="259" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F259">
         <v>129</v>
       </c>
@@ -5371,8 +6073,11 @@
         <f t="shared" ref="H259:H322" si="9">($C$3*$C$14)/(4*F259*F259*PI())</f>
         <v>1.7009668336489517E-3</v>
       </c>
-    </row>
-    <row r="260" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F260">
         <v>129.5</v>
       </c>
@@ -5384,8 +6089,11 @@
         <f t="shared" si="9"/>
         <v>1.6878573115339489E-3</v>
       </c>
-    </row>
-    <row r="261" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F261">
         <v>130</v>
       </c>
@@ -5397,8 +6105,11 @@
         <f t="shared" si="9"/>
         <v>1.6748987620563433E-3</v>
       </c>
-    </row>
-    <row r="262" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F262">
         <v>130.5</v>
       </c>
@@ -5410,8 +6121,11 @@
         <f t="shared" si="9"/>
         <v>1.66208887589743E-3</v>
       </c>
-    </row>
-    <row r="263" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F263">
         <v>131</v>
       </c>
@@ -5423,8 +6137,11 @@
         <f t="shared" si="9"/>
         <v>1.649425387725203E-3</v>
       </c>
-    </row>
-    <row r="264" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F264">
         <v>131.5</v>
       </c>
@@ -5436,8 +6153,11 @@
         <f t="shared" si="9"/>
         <v>1.6369060751927715E-3</v>
       </c>
-    </row>
-    <row r="265" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F265">
         <v>132</v>
       </c>
@@ -5449,8 +6169,11 @@
         <f t="shared" si="9"/>
         <v>1.6245287579632808E-3</v>
       </c>
-    </row>
-    <row r="266" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F266">
         <v>132.5</v>
       </c>
@@ -5462,8 +6185,11 @@
         <f t="shared" si="9"/>
         <v>1.6122912967605385E-3</v>
       </c>
-    </row>
-    <row r="267" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F267">
         <v>133</v>
       </c>
@@ -5475,8 +6201,11 @@
         <f t="shared" si="9"/>
         <v>1.6001915924445818E-3</v>
       </c>
-    </row>
-    <row r="268" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F268">
         <v>133.5</v>
       </c>
@@ -5488,8 +6217,11 @@
         <f t="shared" si="9"/>
         <v>1.5882275851114313E-3</v>
       </c>
-    </row>
-    <row r="269" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F269">
         <v>134</v>
       </c>
@@ -5501,8 +6233,11 @@
         <f t="shared" si="9"/>
         <v>1.5763972532163179E-3</v>
       </c>
-    </row>
-    <row r="270" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F270">
         <v>134.5</v>
       </c>
@@ -5514,8 +6249,11 @@
         <f t="shared" si="9"/>
         <v>1.5646986127196808E-3</v>
       </c>
-    </row>
-    <row r="271" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F271">
         <v>135</v>
       </c>
@@ -5527,8 +6265,11 @@
         <f t="shared" si="9"/>
         <v>1.553129716255265E-3</v>
       </c>
-    </row>
-    <row r="272" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F272">
         <v>135.5</v>
       </c>
@@ -5540,8 +6281,11 @@
         <f t="shared" si="9"/>
         <v>1.5416886523196692E-3</v>
       </c>
-    </row>
-    <row r="273" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F273">
         <v>136</v>
       </c>
@@ -5553,8 +6297,11 @@
         <f t="shared" si="9"/>
         <v>1.53037354448271E-3</v>
       </c>
-    </row>
-    <row r="274" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F274">
         <v>136.5</v>
       </c>
@@ -5566,8 +6313,11 @@
         <f t="shared" si="9"/>
         <v>1.5191825506179987E-3</v>
       </c>
-    </row>
-    <row r="275" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F275">
         <v>137</v>
       </c>
@@ -5579,8 +6329,11 @@
         <f t="shared" si="9"/>
         <v>1.5081138621531359E-3</v>
       </c>
-    </row>
-    <row r="276" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F276">
         <v>137.5</v>
       </c>
@@ -5592,8 +6345,11 @@
         <f t="shared" si="9"/>
         <v>1.4971657033389597E-3</v>
       </c>
-    </row>
-    <row r="277" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F277">
         <v>138</v>
       </c>
@@ -5605,8 +6361,11 @@
         <f t="shared" si="9"/>
         <v>1.4863363305372928E-3</v>
       </c>
-    </row>
-    <row r="278" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F278">
         <v>138.5</v>
       </c>
@@ -5618,8 +6377,11 @@
         <f t="shared" si="9"/>
         <v>1.4756240315266563E-3</v>
       </c>
-    </row>
-    <row r="279" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F279">
         <v>139</v>
       </c>
@@ -5631,8 +6393,11 @@
         <f t="shared" si="9"/>
         <v>1.4650271248254339E-3</v>
       </c>
-    </row>
-    <row r="280" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F280">
         <v>139.5</v>
       </c>
@@ -5644,8 +6409,11 @@
         <f t="shared" si="9"/>
         <v>1.454543959031986E-3</v>
       </c>
-    </row>
-    <row r="281" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F281">
         <v>140</v>
       </c>
@@ -5657,8 +6425,11 @@
         <f t="shared" si="9"/>
         <v>1.4441729121812349E-3</v>
       </c>
-    </row>
-    <row r="282" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F282">
         <v>140.5</v>
       </c>
@@ -5670,8 +6441,11 @@
         <f t="shared" si="9"/>
         <v>1.4339123911172454E-3</v>
       </c>
-    </row>
-    <row r="283" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F283">
         <v>141</v>
       </c>
@@ -5683,8 +6457,11 @@
         <f t="shared" si="9"/>
         <v>1.4237608308813542E-3</v>
       </c>
-    </row>
-    <row r="284" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F284">
         <v>141.5</v>
       </c>
@@ -5696,8 +6473,11 @@
         <f t="shared" si="9"/>
         <v>1.4137166941154071E-3</v>
       </c>
-    </row>
-    <row r="285" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F285">
         <v>142</v>
       </c>
@@ -5709,8 +6489,11 @@
         <f t="shared" si="9"/>
         <v>1.403778470479677E-3</v>
       </c>
-    </row>
-    <row r="286" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F286">
         <v>142.5</v>
       </c>
@@ -5722,8 +6505,11 @@
         <f t="shared" si="9"/>
         <v>1.3939446760850578E-3</v>
       </c>
-    </row>
-    <row r="287" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F287">
         <v>143</v>
       </c>
@@ -5735,8 +6521,11 @@
         <f t="shared" si="9"/>
         <v>1.3842138529391269E-3</v>
       </c>
-    </row>
-    <row r="288" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F288">
         <v>143.5</v>
       </c>
@@ -5748,8 +6537,11 @@
         <f t="shared" si="9"/>
         <v>1.3745845684056965E-3</v>
       </c>
-    </row>
-    <row r="289" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F289">
         <v>144</v>
       </c>
@@ -5761,8 +6553,11 @@
         <f t="shared" si="9"/>
         <v>1.365055414677479E-3</v>
       </c>
-    </row>
-    <row r="290" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F290">
         <v>144.5</v>
       </c>
@@ -5774,8 +6569,11 @@
         <f t="shared" si="9"/>
         <v>1.3556250082615009E-3</v>
       </c>
-    </row>
-    <row r="291" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F291">
         <v>145</v>
       </c>
@@ -5787,8 +6585,11 @@
         <f t="shared" si="9"/>
         <v>1.3462919894769183E-3</v>
       </c>
-    </row>
-    <row r="292" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F292">
         <v>145.5</v>
       </c>
@@ -5800,8 +6601,11 @@
         <f t="shared" si="9"/>
         <v>1.3370550219648897E-3</v>
       </c>
-    </row>
-    <row r="293" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F293">
         <v>146</v>
       </c>
@@ -5813,8 +6617,11 @@
         <f t="shared" si="9"/>
         <v>1.3279127922101802E-3</v>
       </c>
-    </row>
-    <row r="294" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F294">
         <v>146.5</v>
       </c>
@@ -5826,8 +6633,11 @@
         <f t="shared" si="9"/>
         <v>1.3188640090741747E-3</v>
       </c>
-    </row>
-    <row r="295" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F295">
         <v>147</v>
       </c>
@@ -5839,8 +6649,11 @@
         <f t="shared" si="9"/>
         <v>1.3099074033389886E-3</v>
       </c>
-    </row>
-    <row r="296" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F296">
         <v>147.5</v>
       </c>
@@ -5852,8 +6665,11 @@
         <f t="shared" si="9"/>
         <v>1.3010417272623822E-3</v>
       </c>
-    </row>
-    <row r="297" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F297">
         <v>148</v>
       </c>
@@ -5865,8 +6681,11 @@
         <f t="shared" si="9"/>
         <v>1.2922657541431795E-3</v>
       </c>
-    </row>
-    <row r="298" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F298">
         <v>148.5</v>
       </c>
@@ -5878,8 +6697,11 @@
         <f t="shared" si="9"/>
         <v>1.2835782778969132E-3</v>
       </c>
-    </row>
-    <row r="299" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F299">
         <v>149</v>
       </c>
@@ -5891,8 +6713,11 @@
         <f t="shared" si="9"/>
         <v>1.274978112641422E-3</v>
       </c>
-    </row>
-    <row r="300" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F300">
         <v>149.5</v>
       </c>
@@ -5904,8 +6729,11 @@
         <f t="shared" si="9"/>
         <v>1.2664640922921311E-3</v>
       </c>
-    </row>
-    <row r="301" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F301">
         <v>150</v>
       </c>
@@ -5917,8 +6745,11 @@
         <f t="shared" si="9"/>
         <v>1.2580350701667646E-3</v>
       </c>
-    </row>
-    <row r="302" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F302">
         <v>150.5</v>
       </c>
@@ -5930,8 +6761,11 @@
         <f t="shared" si="9"/>
         <v>1.2496899185992297E-3</v>
       </c>
-    </row>
-    <row r="303" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F303">
         <v>151</v>
       </c>
@@ -5943,8 +6777,11 @@
         <f t="shared" si="9"/>
         <v>1.2414275285624404E-3</v>
       </c>
-    </row>
-    <row r="304" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F304">
         <v>151.5</v>
       </c>
@@ -5956,8 +6793,11 @@
         <f t="shared" si="9"/>
         <v>1.233246809299838E-3</v>
       </c>
-    </row>
-    <row r="305" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F305">
         <v>152</v>
       </c>
@@ -5969,8 +6809,11 @@
         <f t="shared" si="9"/>
         <v>1.2251466879653829E-3</v>
       </c>
-    </row>
-    <row r="306" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F306">
         <v>152.5</v>
       </c>
@@ -5982,8 +6825,11 @@
         <f t="shared" si="9"/>
         <v>1.2171261092717961E-3</v>
       </c>
-    </row>
-    <row r="307" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F307">
         <v>153</v>
       </c>
@@ -5995,8 +6841,11 @@
         <f t="shared" si="9"/>
         <v>1.2091840351468326E-3</v>
       </c>
-    </row>
-    <row r="308" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F308">
         <v>153.5</v>
       </c>
@@ -6008,8 +6857,11 @@
         <f t="shared" si="9"/>
         <v>1.2013194443973817E-3</v>
       </c>
-    </row>
-    <row r="309" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F309">
         <v>154</v>
       </c>
@@ -6021,8 +6873,11 @@
         <f t="shared" si="9"/>
         <v>1.193531332381186E-3</v>
       </c>
-    </row>
-    <row r="310" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F310">
         <v>154.5</v>
       </c>
@@ -6034,8 +6889,11 @@
         <f t="shared" si="9"/>
         <v>1.1858187106859881E-3</v>
       </c>
-    </row>
-    <row r="311" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F311">
         <v>155</v>
       </c>
@@ -6047,8 +6905,11 @@
         <f t="shared" si="9"/>
         <v>1.1781806068159085E-3</v>
       </c>
-    </row>
-    <row r="312" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F312">
         <v>155.5</v>
       </c>
@@ -6060,8 +6921,11 @@
         <f t="shared" si="9"/>
         <v>1.1706160638848731E-3</v>
       </c>
-    </row>
-    <row r="313" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F313">
         <v>156</v>
       </c>
@@ -6073,8 +6937,11 @@
         <f t="shared" si="9"/>
         <v>1.1631241403169054E-3</v>
       </c>
-    </row>
-    <row r="314" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F314">
         <v>156.5</v>
       </c>
@@ -6086,8 +6953,11 @@
         <f t="shared" si="9"/>
         <v>1.155703909553112E-3</v>
       </c>
-    </row>
-    <row r="315" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F315">
         <v>157</v>
       </c>
@@ -6099,8 +6969,11 @@
         <f t="shared" si="9"/>
         <v>1.1483544597651915E-3</v>
       </c>
-    </row>
-    <row r="316" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F316">
         <v>157.5</v>
       </c>
@@ -6112,8 +6985,11 @@
         <f t="shared" si="9"/>
         <v>1.1410748935752968E-3</v>
       </c>
-    </row>
-    <row r="317" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F317">
         <v>158</v>
       </c>
@@ -6125,8 +7001,11 @@
         <f t="shared" si="9"/>
         <v>1.1338643277820943E-3</v>
       </c>
-    </row>
-    <row r="318" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F318">
         <v>158.5</v>
       </c>
@@ -6138,8 +7017,11 @@
         <f t="shared" si="9"/>
         <v>1.1267218930928642E-3</v>
       </c>
-    </row>
-    <row r="319" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F319">
         <v>159</v>
       </c>
@@ -6151,8 +7033,11 @@
         <f t="shared" si="9"/>
         <v>1.1196467338614852E-3</v>
       </c>
-    </row>
-    <row r="320" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F320">
         <v>159.5</v>
       </c>
@@ -6164,8 +7049,11 @@
         <f t="shared" si="9"/>
         <v>1.1126380078321639E-3</v>
       </c>
-    </row>
-    <row r="321" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F321">
         <v>160</v>
       </c>
@@ -6177,8 +7065,11 @@
         <f t="shared" si="9"/>
         <v>1.1056948858887579E-3</v>
       </c>
-    </row>
-    <row r="322" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F322">
         <v>160.5</v>
       </c>
@@ -6190,8 +7081,11 @@
         <f t="shared" si="9"/>
         <v>1.0988165518095595E-3</v>
       </c>
-    </row>
-    <row r="323" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F323">
         <v>161</v>
       </c>
@@ -6203,8 +7097,11 @@
         <f t="shared" ref="H323:H386" si="11">($C$3*$C$14)/(4*F323*F323*PI())</f>
         <v>1.0920022020273988E-3</v>
       </c>
-    </row>
-    <row r="324" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F324">
         <v>161.5</v>
       </c>
@@ -6216,8 +7113,11 @@
         <f t="shared" si="11"/>
         <v>1.085251045394941E-3</v>
       </c>
-    </row>
-    <row r="325" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F325">
         <v>162</v>
       </c>
@@ -6229,8 +7129,11 @@
         <f t="shared" si="11"/>
         <v>1.0785623029550451E-3</v>
       </c>
-    </row>
-    <row r="326" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F326">
         <v>162.5</v>
       </c>
@@ -6242,8 +7145,11 @@
         <f t="shared" si="11"/>
         <v>1.0719352077160598E-3</v>
       </c>
-    </row>
-    <row r="327" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F327">
         <v>163</v>
       </c>
@@ -6255,8 +7161,11 @@
         <f t="shared" si="11"/>
         <v>1.0653690044319397E-3</v>
       </c>
-    </row>
-    <row r="328" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F328">
         <v>163.5</v>
       </c>
@@ -6268,8 +7177,11 @@
         <f t="shared" si="11"/>
         <v>1.0588629493870588E-3</v>
       </c>
-    </row>
-    <row r="329" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F329">
         <v>164</v>
       </c>
@@ -6281,8 +7193,11 @@
         <f t="shared" si="11"/>
         <v>1.0524163101856116E-3</v>
       </c>
-    </row>
-    <row r="330" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F330">
         <v>164.5</v>
       </c>
@@ -6294,8 +7209,11 @@
         <f t="shared" si="11"/>
         <v>1.0460283655454848E-3</v>
       </c>
-    </row>
-    <row r="331" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F331">
         <v>165</v>
       </c>
@@ -6307,8 +7225,11 @@
         <f t="shared" si="11"/>
         <v>1.0396984050964997E-3</v>
       </c>
-    </row>
-    <row r="332" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F332">
         <v>165.5</v>
       </c>
@@ -6320,8 +7241,11 @@
         <f t="shared" si="11"/>
         <v>1.0334257291829102E-3</v>
       </c>
-    </row>
-    <row r="333" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F333">
         <v>166</v>
       </c>
@@ -6333,8 +7257,11 @@
         <f t="shared" si="11"/>
         <v>1.0272096486700611E-3</v>
       </c>
-    </row>
-    <row r="334" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F334">
         <v>166.5</v>
       </c>
@@ -6346,8 +7273,11 @@
         <f t="shared" si="11"/>
         <v>1.021049484755105E-3</v>
       </c>
-    </row>
-    <row r="335" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F335">
         <v>167</v>
       </c>
@@ -6359,8 +7289,11 @@
         <f t="shared" si="11"/>
         <v>1.0149445687816776E-3</v>
       </c>
-    </row>
-    <row r="336" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F336">
         <v>167.5</v>
       </c>
@@ -6372,8 +7305,11 @@
         <f t="shared" si="11"/>
         <v>1.0088942420584436E-3</v>
       </c>
-    </row>
-    <row r="337" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F337">
         <v>168</v>
       </c>
@@ -6385,8 +7321,11 @@
         <f t="shared" si="11"/>
         <v>1.0028978556814133E-3</v>
       </c>
-    </row>
-    <row r="338" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F338">
         <v>168.5</v>
       </c>
@@ -6398,8 +7337,11 @@
         <f t="shared" si="11"/>
         <v>9.9695477035994704E-4</v>
       </c>
-    </row>
-    <row r="339" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F339">
         <v>169</v>
       </c>
@@ -6411,8 +7353,11 @@
         <f t="shared" si="11"/>
         <v>9.9106435624635712E-4</v>
       </c>
-    </row>
-    <row r="340" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F340">
         <v>169.5</v>
       </c>
@@ -6424,8 +7369,11 @@
         <f t="shared" si="11"/>
         <v>9.8522599276902232E-4</v>
       </c>
-    </row>
-    <row r="341" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F341">
         <v>170</v>
       </c>
@@ -6437,8 +7385,11 @@
         <f t="shared" si="11"/>
         <v>9.7943906846893443E-4</v>
       </c>
-    </row>
-    <row r="342" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F342">
         <v>170.5</v>
       </c>
@@ -6450,8 +7401,11 @@
         <f t="shared" si="11"/>
         <v>9.7370298083959402E-4</v>
       </c>
-    </row>
-    <row r="343" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F343">
         <v>171</v>
       </c>
@@ -6463,8 +7417,11 @@
         <f t="shared" si="11"/>
         <v>9.6801713617017913E-4</v>
       </c>
-    </row>
-    <row r="344" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F344">
         <v>171.5</v>
       </c>
@@ -6476,8 +7433,11 @@
         <f t="shared" si="11"/>
         <v>9.6238094939191002E-4</v>
       </c>
-    </row>
-    <row r="345" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F345">
         <v>172</v>
       </c>
@@ -6489,8 +7449,11 @@
         <f t="shared" si="11"/>
         <v>9.5679384392753533E-4</v>
       </c>
-    </row>
-    <row r="346" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F346">
         <v>172.5</v>
       </c>
@@ -6502,8 +7465,11 @@
         <f t="shared" si="11"/>
         <v>9.5125525154386747E-4</v>
       </c>
-    </row>
-    <row r="347" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F347">
         <v>173</v>
       </c>
@@ -6515,8 +7481,11 @@
         <f t="shared" si="11"/>
         <v>9.4576461220729742E-4</v>
       </c>
-    </row>
-    <row r="348" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F348">
         <v>173.5</v>
       </c>
@@ -6528,8 +7497,11 @@
         <f t="shared" si="11"/>
         <v>9.4032137394222043E-4</v>
       </c>
-    </row>
-    <row r="349" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F349">
         <v>174</v>
       </c>
@@ -6541,8 +7513,11 @@
         <f t="shared" si="11"/>
         <v>9.3492499269230429E-4</v>
       </c>
-    </row>
-    <row r="350" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F350">
         <v>174.5</v>
       </c>
@@ -6554,8 +7529,11 @@
         <f t="shared" si="11"/>
         <v>9.2957493218453731E-4</v>
       </c>
-    </row>
-    <row r="351" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F351">
         <v>175</v>
       </c>
@@ -6567,8 +7545,11 @@
         <f t="shared" si="11"/>
         <v>9.2427066379599033E-4</v>
       </c>
-    </row>
-    <row r="352" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F352">
         <v>175.5</v>
       </c>
@@ -6580,8 +7561,11 @@
         <f t="shared" si="11"/>
         <v>9.1901166642323372E-4</v>
       </c>
-    </row>
-    <row r="353" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F353">
         <v>176</v>
       </c>
@@ -6593,8 +7577,11 @@
         <f t="shared" si="11"/>
         <v>9.1379742635434543E-4</v>
       </c>
-    </row>
-    <row r="354" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F354">
         <v>176.5</v>
       </c>
@@ -6606,8 +7593,11 @@
         <f t="shared" si="11"/>
         <v>9.0862743714345529E-4</v>
       </c>
-    </row>
-    <row r="355" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F355">
         <v>177</v>
       </c>
@@ -6619,8 +7609,11 @@
         <f t="shared" si="11"/>
         <v>9.0350119948776552E-4</v>
       </c>
-    </row>
-    <row r="356" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F356">
         <v>177.5</v>
       </c>
@@ -6632,8 +7625,11 @@
         <f t="shared" si="11"/>
         <v>8.9841822110699329E-4</v>
       </c>
-    </row>
-    <row r="357" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F357">
         <v>178</v>
       </c>
@@ -6645,8 +7641,11 @@
         <f t="shared" si="11"/>
         <v>8.9337801662518008E-4</v>
       </c>
-    </row>
-    <row r="358" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F358">
         <v>178.5</v>
       </c>
@@ -6658,8 +7657,11 @@
         <f t="shared" si="11"/>
         <v>8.883801074548158E-4</v>
       </c>
-    </row>
-    <row r="359" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F359">
         <v>179</v>
       </c>
@@ -6671,8 +7673,11 @@
         <f t="shared" si="11"/>
         <v>8.8342402168322472E-4</v>
       </c>
-    </row>
-    <row r="360" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F360">
         <v>179.5</v>
       </c>
@@ -6684,8 +7689,11 @@
         <f t="shared" si="11"/>
         <v>8.785092939611643E-4</v>
       </c>
-    </row>
-    <row r="361" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F361">
         <v>180</v>
       </c>
@@ -6697,8 +7705,11 @@
         <f t="shared" si="11"/>
         <v>8.7363546539358662E-4</v>
       </c>
-    </row>
-    <row r="362" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F362">
         <v>180.5</v>
       </c>
@@ -6710,8 +7721,11 @@
         <f t="shared" si="11"/>
         <v>8.6880208343251524E-4</v>
       </c>
-    </row>
-    <row r="363" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F363">
         <v>181</v>
       </c>
@@ -6723,8 +7737,11 @@
         <f t="shared" si="11"/>
         <v>8.640087017719912E-4</v>
       </c>
-    </row>
-    <row r="364" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F364">
         <v>181.5</v>
       </c>
@@ -6736,8 +7753,11 @@
         <f t="shared" si="11"/>
         <v>8.5925488024504119E-4</v>
       </c>
-    </row>
-    <row r="365" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F365">
         <v>182</v>
       </c>
@@ -6749,8 +7769,11 @@
         <f t="shared" si="11"/>
         <v>8.5454018472262434E-4</v>
       </c>
-    </row>
-    <row r="366" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F366">
         <v>182.5</v>
       </c>
@@ -6762,8 +7785,11 @@
         <f t="shared" si="11"/>
         <v>8.498641870145154E-4</v>
       </c>
-    </row>
-    <row r="367" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F367">
         <v>183</v>
       </c>
@@ -6775,8 +7801,11 @@
         <f t="shared" si="11"/>
         <v>8.4522646477208055E-4</v>
       </c>
-    </row>
-    <row r="368" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F368">
         <v>183.5</v>
       </c>
@@ -6788,8 +7817,11 @@
         <f t="shared" si="11"/>
         <v>8.4062660139290371E-4</v>
       </c>
-    </row>
-    <row r="369" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F369">
         <v>184</v>
       </c>
@@ -6801,8 +7833,11 @@
         <f t="shared" si="11"/>
         <v>8.3606418592722725E-4</v>
       </c>
-    </row>
-    <row r="370" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F370">
         <v>184.5</v>
       </c>
@@ -6814,8 +7849,11 @@
         <f t="shared" si="11"/>
         <v>8.3153881298616216E-4</v>
       </c>
-    </row>
-    <row r="371" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F371">
         <v>185</v>
       </c>
@@ -6827,8 +7865,11 @@
         <f t="shared" si="11"/>
         <v>8.2705008265163496E-4</v>
       </c>
-    </row>
-    <row r="372" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F372">
         <v>185.5</v>
       </c>
@@ -6840,8 +7881,11 @@
         <f t="shared" si="11"/>
         <v>8.2259760038802987E-4</v>
       </c>
-    </row>
-    <row r="373" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F373">
         <v>186</v>
       </c>
@@ -6853,8 +7897,11 @@
         <f t="shared" si="11"/>
         <v>8.1818097695549215E-4</v>
       </c>
-    </row>
-    <row r="374" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F374">
         <v>186.5</v>
       </c>
@@ -6866,8 +7913,11 @@
         <f t="shared" si="11"/>
         <v>8.1379982832485546E-4</v>
       </c>
-    </row>
-    <row r="375" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F375">
         <v>187</v>
       </c>
@@ -6879,8 +7929,11 @@
         <f t="shared" si="11"/>
         <v>8.0945377559416074E-4</v>
       </c>
-    </row>
-    <row r="376" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F376">
         <v>187.5</v>
       </c>
@@ -6892,8 +7945,11 @@
         <f t="shared" si="11"/>
         <v>8.0514244490672942E-4</v>
       </c>
-    </row>
-    <row r="377" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F377">
         <v>188</v>
       </c>
@@ -6905,8 +7961,11 @@
         <f t="shared" si="11"/>
         <v>8.0086546737076177E-4</v>
       </c>
-    </row>
-    <row r="378" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F378">
         <v>188.5</v>
       </c>
@@ -6918,8 +7977,11 @@
         <f t="shared" si="11"/>
         <v>7.9662247898042496E-4</v>
       </c>
-    </row>
-    <row r="379" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F379">
         <v>189</v>
       </c>
@@ -6931,8 +7993,11 @@
         <f t="shared" si="11"/>
         <v>7.9241312053840061E-4</v>
       </c>
-    </row>
-    <row r="380" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F380">
         <v>189.5</v>
       </c>
@@ -6944,8 +8009,11 @@
         <f t="shared" si="11"/>
         <v>7.88237037579861E-4</v>
       </c>
-    </row>
-    <row r="381" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F381">
         <v>190</v>
       </c>
@@ -6957,8 +8025,11 @@
         <f t="shared" si="11"/>
         <v>7.8409388029784496E-4</v>
       </c>
-    </row>
-    <row r="382" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F382">
         <v>190.5</v>
       </c>
@@ -6970,8 +8041,11 @@
         <f t="shared" si="11"/>
         <v>7.7998330347000102E-4</v>
       </c>
-    </row>
-    <row r="383" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F383">
         <v>191</v>
       </c>
@@ -6983,8 +8057,11 @@
         <f t="shared" si="11"/>
         <v>7.7590496638667262E-4</v>
       </c>
-    </row>
-    <row r="384" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F384">
         <v>191.5</v>
       </c>
@@ -6996,8 +8073,11 @@
         <f t="shared" si="11"/>
         <v>7.7185853278029595E-4</v>
       </c>
-    </row>
-    <row r="385" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F385">
         <v>192</v>
       </c>
@@ -7009,8 +8089,11 @@
         <f t="shared" si="11"/>
         <v>7.678436707560819E-4</v>
       </c>
-    </row>
-    <row r="386" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F386">
         <v>192.5</v>
       </c>
@@ -7022,8 +8105,11 @@
         <f t="shared" si="11"/>
         <v>7.6386005272395898E-4</v>
       </c>
-    </row>
-    <row r="387" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F387">
         <v>193</v>
       </c>
@@ -7035,8 +8121,11 @@
         <f t="shared" ref="H387:H401" si="13">($C$3*$C$14)/(4*F387*F387*PI())</f>
         <v>7.5990735533174589E-4</v>
       </c>
-    </row>
-    <row r="388" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F388">
         <v>193.5</v>
       </c>
@@ -7048,8 +8137,11 @@
         <f t="shared" si="13"/>
         <v>7.5598525939953411E-4</v>
       </c>
-    </row>
-    <row r="389" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F389">
         <v>194</v>
       </c>
@@ -7061,8 +8153,11 @@
         <f t="shared" si="13"/>
         <v>7.5209344985525039E-4</v>
       </c>
-    </row>
-    <row r="390" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F390">
         <v>194.5</v>
       </c>
@@ -7074,8 +8169,11 @@
         <f t="shared" si="13"/>
         <v>7.4823161567137957E-4</v>
       </c>
-    </row>
-    <row r="391" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F391">
         <v>195</v>
       </c>
@@ -7087,8 +8185,11 @@
         <f t="shared" si="13"/>
         <v>7.4439944980281931E-4</v>
       </c>
-    </row>
-    <row r="392" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F392">
         <v>195.5</v>
       </c>
@@ -7100,8 +8201,11 @@
         <f t="shared" si="13"/>
         <v>7.4059664912584828E-4</v>
       </c>
-    </row>
-    <row r="393" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F393">
         <v>196</v>
       </c>
@@ -7113,8 +8217,11 @@
         <f t="shared" si="13"/>
         <v>7.3682291437818107E-4</v>
       </c>
-    </row>
-    <row r="394" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F394">
         <v>196.5</v>
       </c>
@@ -7126,8 +8233,11 @@
         <f t="shared" si="13"/>
         <v>7.3307795010009013E-4</v>
       </c>
-    </row>
-    <row r="395" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F395">
         <v>197</v>
       </c>
@@ -7139,8 +8249,11 @@
         <f t="shared" si="13"/>
         <v>7.2936146457657262E-4</v>
       </c>
-    </row>
-    <row r="396" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F396">
         <v>197.5</v>
       </c>
@@ -7152,8 +8265,11 @@
         <f t="shared" si="13"/>
         <v>7.2567316978054046E-4</v>
       </c>
-    </row>
-    <row r="397" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F397">
         <v>198</v>
       </c>
@@ -7165,8 +8281,11 @@
         <f t="shared" si="13"/>
         <v>7.2201278131701376E-4</v>
       </c>
-    </row>
-    <row r="398" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F398">
         <v>198.5</v>
       </c>
@@ -7178,8 +8297,11 @@
         <f t="shared" si="13"/>
         <v>7.1838001836829638E-4</v>
       </c>
-    </row>
-    <row r="399" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F399">
         <v>199</v>
       </c>
@@ -7191,8 +8313,11 @@
         <f t="shared" si="13"/>
         <v>7.1477460364011527E-4</v>
       </c>
-    </row>
-    <row r="400" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F400">
         <v>199.5</v>
       </c>
@@ -7204,8 +8329,11 @@
         <f t="shared" si="13"/>
         <v>7.1119626330870295E-4</v>
       </c>
-    </row>
-    <row r="401" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="J400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F401">
         <v>200</v>
       </c>
@@ -7217,10 +8345,12 @@
         <f t="shared" si="13"/>
         <v>7.0764472696880514E-4</v>
       </c>
+      <c r="J401">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
+++ b/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-64340" yWindow="4040" windowWidth="25700" windowHeight="18980" tabRatio="500"/>
+    <workbookView xWindow="-64840" yWindow="700" windowWidth="44940" windowHeight="25880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,6 +300,1457 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RF Exposure in Far Field (we want 1mW/cm^2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> or below</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.222572277521914"/>
+          <c:y val="0.0162932790224033"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>RF Exposure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$46:$F$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>395.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>435.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>445.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>465.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>505.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>545.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>555.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>565.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>580.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>605.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>610.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>615.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>640.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>645.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>650.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>655.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>660.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>665.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>670.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$46:$G$134</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>1.805160035068756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.729161898689673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.657863990540576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.590886561518321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.527887453682195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.468557721724524</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.412617838093746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.359814394519576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.309917227093789</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.262716903869583</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.218022523662464</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.175659782765617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.135469272950502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.097304979662594</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.061032953945969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.026530135502684</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.993683307545652</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.962388166844416</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.932548494679074</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.904075416379997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.876886738798321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.850906356472597</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.826063718470045</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.802293348919447</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.779534415143977</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.757730338068932</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.736828440240256</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71677962736076</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.697538099745341</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.67906109052542</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.661308627805659</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.644243318300808</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.627830150263887</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.612036313764699</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.596831036594608</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.582185434263906</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.568072372725385</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.554466342604948</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.541343343849984</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.528680779820829</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.516457359952067</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.504653010200223</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.493248790574056</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.482226819114441</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.471570201753764</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.461262967540815</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.451290008767189</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.441637025575846</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.432290474672418</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.423237521795622</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.414465997635144</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.405964356914177</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.39772164037958</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.389727439465921</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.381971863420549</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.374445508695764</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.367139430431131</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.360045115864406</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.353154459523436</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.34645974006399</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.339953598629894</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.333629018622193</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.327479306773447</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.321498075431823</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.315679225967396</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.310016933220152</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.304505630915616</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.299139997979911</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.293914945691404</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.288825605611001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.283867318237625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.279035622339505</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.274326244915648</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.269735091745321</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.265258238486492</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.260891922287104</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.256632533875671</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.252476610100171</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.248420826886413</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.244461992589151</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.240597041711104</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.236823028966798</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.233137123669769</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.229536604423141</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.226018854094999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.222581355061214</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.21922168469958</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.215937511120215</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.212726589118149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RF Limit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                    <a:alpha val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$46:$F$128</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>395.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>435.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>445.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>465.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>505.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>515.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>525.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>535.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>540.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>545.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>550.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>555.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>560.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>565.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>570.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>575.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>580.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>585.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>590.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>595.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>605.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>610.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>615.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>620.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>625.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>630.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>635.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>640.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$46:$J$134</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1866103232"/>
+        <c:axId val="1871847312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1866103232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1871847312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1871847312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1866103232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -419,61 +1870,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>318.3098861837906</c:v>
+                  <c:v>954.929658551372</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>141.4710605261292</c:v>
+                  <c:v>424.4131815783876</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79.57747154594767</c:v>
+                  <c:v>238.732414637843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.92958178940651</c:v>
+                  <c:v>152.7887453682195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.3677651315323</c:v>
+                  <c:v>106.1032953945969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.98448050479924</c:v>
+                  <c:v>77.95344151439772</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.89436788648692</c:v>
+                  <c:v>59.68310365946075</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.71900672512547</c:v>
+                  <c:v>47.1570201753764</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.73239544735163</c:v>
+                  <c:v>38.19718634205488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.52264086557986</c:v>
+                  <c:v>31.56792259673957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.841941282883075</c:v>
+                  <c:v>26.52582384864922</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.533961803166643</c:v>
+                  <c:v>22.60188540949992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.49612012619981</c:v>
+                  <c:v>19.48836037859943</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.658842421045167</c:v>
+                  <c:v>16.9765272631355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.97359197162173</c:v>
+                  <c:v>14.92077591486519</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.405673165173573</c:v>
+                  <c:v>13.21701949552072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.929751681281367</c:v>
+                  <c:v>11.7892550438441</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.526979348296849</c:v>
+                  <c:v>10.58093804489055</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.183098861837906</c:v>
+                  <c:v>9.549296585513721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,7 +2316,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="243">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="flat" cmpd="dbl" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1394,6 +3401,41 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8672534" cy="6280411"/>
@@ -1732,7 +3774,7 @@
       </c>
       <c r="C2" s="1">
         <f>(4*C3)/C4</f>
-        <v>2.5150410760200743</v>
+        <v>7.5451232280602225</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -1742,11 +3784,11 @@
       </c>
       <c r="G2" s="7">
         <f>($C$3*$C$12)/(4*F2*F2*PI())</f>
-        <v>318.3098861837907</v>
+        <v>954.92965855137197</v>
       </c>
       <c r="H2" s="7">
         <f>($C$3*$C$14)/(4*F2*F2*PI())</f>
-        <v>283.05789078752201</v>
+        <v>849.17367236256609</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1760,7 +3802,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -1770,11 +3812,11 @@
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G66" si="0">($C$3*$C$12)/(4*F3*F3*PI())</f>
-        <v>141.47106052612921</v>
+        <v>424.41318157838759</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H66" si="1">($C$3*$C$14)/(4*F3*F3*PI())</f>
-        <v>125.80350701667646</v>
+        <v>377.41052105002944</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1799,11 +3841,11 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>79.577471545947674</v>
+        <v>238.73241463784299</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="1"/>
-        <v>70.764472696880503</v>
+        <v>212.29341809064152</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1828,11 +3870,11 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>50.929581789406505</v>
+        <v>152.78874536821954</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
-        <v>45.289262526003526</v>
+        <v>135.86778757801059</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1856,11 +3898,11 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>35.367765131532302</v>
+        <v>106.1032953945969</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>31.450876754169116</v>
+        <v>94.352630262507361</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1885,11 +3927,11 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>25.98448050479924</v>
+        <v>77.953441514397724</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>23.10676659489976</v>
+        <v>69.320299784699273</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1904,7 +3946,7 @@
       </c>
       <c r="C8" s="1">
         <f>(16*C9*C3)/(PI()*C6*C6)</f>
-        <v>1.2575205380100372</v>
+        <v>3.7725616140301113</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="4">
@@ -1912,11 +3954,11 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>19.894367886486918</v>
+        <v>59.683103659460748</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>17.691118174220126</v>
+        <v>53.073354522660381</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1940,11 +3982,11 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>15.719006725125467</v>
+        <v>47.157020175376402</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>13.978167446297386</v>
+        <v>41.934502338892159</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1959,7 +4001,7 @@
       </c>
       <c r="C10" s="1">
         <f>(16*C11*C3)/(PI()*C6*C6)</f>
-        <v>1.4141319933321557</v>
+        <v>4.2423959799964663</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="4">
@@ -1967,11 +4009,11 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>12.732395447351626</v>
+        <v>38.197186342054884</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>11.322315631500881</v>
+        <v>33.966946894502648</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1996,11 +4038,11 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>10.522640865579856</v>
+        <v>31.567922596739571</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>9.3572856458684956</v>
+        <v>28.071856937605492</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2024,11 +4066,11 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>8.8419412828830755</v>
+        <v>26.525823848649225</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
-        <v>7.8627191885422789</v>
+        <v>23.58815756562684</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -2053,11 +4095,11 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>7.5339618031666431</v>
+        <v>22.601885409499928</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>6.6995950482253734</v>
+        <v>20.098785144676121</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2082,11 +4124,11 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>6.4961201261998101</v>
+        <v>19.488360378599431</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
-        <v>5.77669164872494</v>
+        <v>17.330074946174818</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2111,11 +4153,11 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>5.6588424210451675</v>
+        <v>16.976527263135502</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="1"/>
-        <v>5.0321402806670585</v>
+        <v>15.096420842001175</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2139,11 +4181,11 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>4.9735919716217296</v>
+        <v>14.920775914865187</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="1"/>
-        <v>4.4227795435550314</v>
+        <v>13.268338630665095</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2168,11 +4210,11 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>4.4056731651735737</v>
+        <v>13.217019495520722</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="1"/>
-        <v>3.9177562738757379</v>
+        <v>11.753268821627215</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2184,11 +4226,11 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>3.9297516812813669</v>
+        <v>11.789255043844101</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>3.4945418615743464</v>
+        <v>10.48362558472304</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2203,11 +4245,11 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>3.5269793482968494</v>
+        <v>10.58093804489055</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>3.13637552119138</v>
+        <v>9.4091265635741408</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2222,11 +4264,11 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>3.1830988618379066</v>
+        <v>9.5492965855137211</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>2.8305789078752204</v>
+        <v>8.491736723625662</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2238,11 +4280,11 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>2.8871645005332489</v>
+        <v>8.6614935015997467</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>2.5674185105444178</v>
+        <v>7.702255531633253</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2254,11 +4296,11 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>2.6306602163949639</v>
+        <v>7.8919806491848927</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>2.3393214114671239</v>
+        <v>7.0179642344013731</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2283,11 +4325,11 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
-        <v>2.4068800467583418</v>
+        <v>7.2206401402750249</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>2.1403243159737015</v>
+        <v>6.420972947921106</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2299,11 +4341,11 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>2.2104853207207689</v>
+        <v>6.6314559621623062</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>1.9656797971355697</v>
+        <v>5.8970393914067101</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -2315,11 +4357,11 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>2.0371832715762603</v>
+        <v>6.1115498147287814</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>1.8115705010401411</v>
+        <v>5.4347115031204236</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -2343,11 +4385,11 @@
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>1.8834904507916608</v>
+        <v>5.6504713523749821</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>1.6748987620563434</v>
+        <v>5.0246962861690303</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2362,7 +4404,7 @@
       </c>
       <c r="C27" s="1">
         <f>(C3*C12)/(4*PI()*C26*C26)</f>
-        <v>0.60172001168958533</v>
+        <v>1.805160035068756</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>55</v>
@@ -2372,11 +4414,11 @@
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>1.7465563027917184</v>
+        <v>5.2396689083751555</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>1.5531297162552651</v>
+        <v>4.6593891487657952</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -2391,7 +4433,7 @@
       </c>
       <c r="C28" s="1">
         <f>(C3*C14)/(4*C26*C26*PI())</f>
-        <v>0.53508107899342539</v>
+        <v>1.6052432369802765</v>
       </c>
       <c r="D28" s="1"/>
       <c r="F28" s="5">
@@ -2399,11 +4441,11 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>1.6240300315499525</v>
+        <v>4.8720900946498578</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>1.444172912181235</v>
+        <v>4.3325187365437046</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -2415,11 +4457,11 @@
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
-        <v>1.5139590306006692</v>
+        <v>4.5418770918020073</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>1.3462919894769181</v>
+        <v>4.0388759684307551</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -2431,11 +4473,11 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="0"/>
-        <v>1.4147106052612919</v>
+        <v>4.2441318157838754</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>1.2580350701667646</v>
+        <v>3.7741052105002937</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2447,11 +4489,11 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
-        <v>1.3249110767275367</v>
+        <v>3.9747332301826099</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>1.1781806068159086</v>
+        <v>3.5345418204477261</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -2463,11 +4505,11 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>1.2433979929054324</v>
+        <v>3.7301939787162968</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>1.1056948858887579</v>
+        <v>3.3170846576662738</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -2479,11 +4521,11 @@
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
-        <v>1.1691823183977619</v>
+        <v>3.5075469551932859</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>1.0396984050964997</v>
+        <v>3.1190952152894993</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -2495,11 +4537,11 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
-        <v>1.1014182912933934</v>
+        <v>3.3042548738801805</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>0.97943906846893447</v>
+        <v>2.9383172054068036</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2511,11 +4553,11 @@
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>1.0393792201919696</v>
+        <v>3.1181376605759086</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>0.92427066379599032</v>
+        <v>2.7728119913879712</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2527,11 +4569,11 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
-        <v>0.98243792032034172</v>
+        <v>2.9473137609610252</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>0.87363546539358661</v>
+        <v>2.6209063961807599</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2543,11 +4585,11 @@
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
-        <v>0.9300507996604549</v>
+        <v>2.7901523989813648</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.82705008265163493</v>
+        <v>2.481150247954905</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2559,11 +4601,11 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="0"/>
-        <v>0.88174483707421236</v>
+        <v>2.6452345112226374</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.78409388029784499</v>
+        <v>2.3522816408935352</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2575,11 +4617,11 @@
       </c>
       <c r="G39" s="7">
         <f t="shared" si="0"/>
-        <v>0.83710686701851589</v>
+        <v>2.511320601055548</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.74439944980281936</v>
+        <v>2.233198349408458</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2591,11 +4633,11 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="0"/>
-        <v>0.79577471545947664</v>
+        <v>2.3873241463784303</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.70764472696880509</v>
+        <v>2.1229341809064155</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2607,11 +4649,11 @@
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>0.75742983030051314</v>
+        <v>2.2722894909015396</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.67354643851879126</v>
+        <v>2.020639315556374</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2623,11 +4665,11 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="0"/>
-        <v>0.72179112513331223</v>
+        <v>2.1653733753999367</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>0.64185462763610446</v>
+        <v>1.9255638829083133</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2639,11 +4681,11 @@
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
-        <v>0.68860981326942283</v>
+        <v>2.0658294398082684</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>0.61234806011362264</v>
+        <v>1.8370441803408681</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2655,11 +4697,11 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="0"/>
-        <v>0.65766505409874099</v>
+        <v>1.9729951622962232</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>0.58483035286678098</v>
+        <v>1.7544910586003433</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2671,11 +4713,11 @@
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
-        <v>0.62876026900501869</v>
+        <v>1.8862808070150561</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>0.55912669785189539</v>
+        <v>1.6773800935556864</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2687,11 +4729,11 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="0"/>
-        <v>0.60172001168958544</v>
+        <v>1.8051600350687562</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
-        <v>0.53508107899342539</v>
+        <v>1.6052432369802765</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2703,11 +4745,11 @@
       </c>
       <c r="G47" s="7">
         <f t="shared" si="0"/>
-        <v>0.57638729956322443</v>
+        <v>1.7291618986896731</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>0.51255389911728755</v>
+        <v>1.5376616973518626</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2719,11 +4761,11 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="0"/>
-        <v>0.55262133018019222</v>
+        <v>1.6578639905405765</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>0.49141994928389243</v>
+        <v>1.4742598478516775</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2735,11 +4777,11 @@
       </c>
       <c r="G49" s="7">
         <f t="shared" si="0"/>
-        <v>0.53029552050610695</v>
+        <v>1.5908865615183208</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>0.47156666520203588</v>
+        <v>1.4146999956061077</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2751,11 +4793,11 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
-        <v>0.50929581789406508</v>
+        <v>1.5278874536821954</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="1"/>
-        <v>0.45289262526003526</v>
+        <v>1.3586778757801059</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2767,11 +4809,11 @@
       </c>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
-        <v>0.48951924057484147</v>
+        <v>1.4685577217245245</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="1"/>
-        <v>0.43530625265285972</v>
+        <v>1.3059187579585794</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2783,11 +4825,11 @@
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
-        <v>0.47087261269791519</v>
+        <v>1.4126178380937455</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="1"/>
-        <v>0.41872469051408584</v>
+        <v>1.2561740715422576</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2799,11 +4841,11 @@
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>0.45327146483985858</v>
+        <v>1.3598143945195758</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="1"/>
-        <v>0.40307282419013463</v>
+        <v>1.209218472570404</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2815,11 +4857,11 @@
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
-        <v>0.43663907569792959</v>
+        <v>1.3099172270937889</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="1"/>
-        <v>0.38828242906381627</v>
+        <v>1.1648472871914488</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2831,11 +4873,11 @@
       </c>
       <c r="G55" s="7">
         <f t="shared" si="0"/>
-        <v>0.4209056346231943</v>
+        <v>1.2627169038695829</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="1"/>
-        <v>0.3742914258347399</v>
+        <v>1.1228742775042198</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2847,11 +4889,11 @@
       </c>
       <c r="G56" s="7">
         <f t="shared" si="0"/>
-        <v>0.40600750788748813</v>
+        <v>1.2180225236624644</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" si="1"/>
-        <v>0.36104322804530875</v>
+        <v>1.0831296841359261</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2863,11 +4905,11 @@
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>0.3918865942552055</v>
+        <v>1.1756597827656166</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" si="1"/>
-        <v>0.34848616902126445</v>
+        <v>1.0454585070637934</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2879,11 +4921,11 @@
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
-        <v>0.37848975765016729</v>
+        <v>1.1354692729505018</v>
       </c>
       <c r="H58" s="7">
         <f t="shared" si="1"/>
-        <v>0.33657299736922952</v>
+        <v>1.0097189921076888</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2895,11 +4937,11 @@
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>0.36576832655419783</v>
+        <v>1.0973049796625935</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" si="1"/>
-        <v>0.32526043181559555</v>
+        <v>0.97578129544678671</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2911,11 +4953,11 @@
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>0.35367765131532297</v>
+        <v>1.0610329539459689</v>
       </c>
       <c r="H60" s="7">
         <f t="shared" si="1"/>
-        <v>0.31450876754169116</v>
+        <v>0.94352630262507342</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -2927,11 +4969,11 @@
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>0.3421767118342281</v>
+        <v>1.0265301355026843</v>
       </c>
       <c r="H61" s="7">
         <f t="shared" si="1"/>
-        <v>0.304281527317949</v>
+        <v>0.91284458195384699</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -2943,11 +4985,11 @@
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>0.33122776918188418</v>
+        <v>0.99368330754565248</v>
       </c>
       <c r="H62" s="7">
         <f t="shared" si="1"/>
-        <v>0.29454515170397716</v>
+        <v>0.88363545511193153</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -2959,11 +5001,11 @@
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>0.32079605561480545</v>
+        <v>0.9623881668444163</v>
       </c>
       <c r="H63" s="7">
         <f t="shared" si="1"/>
-        <v>0.2852687233938242</v>
+        <v>0.85580617018147265</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -2975,11 +5017,11 @@
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
-        <v>0.3108494982263581</v>
+        <v>0.93254849467907419</v>
       </c>
       <c r="H64" s="7">
         <f t="shared" si="1"/>
-        <v>0.27642372147218947</v>
+        <v>0.82927116441656845</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -2991,11 +5033,11 @@
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
-        <v>0.30135847212666572</v>
+        <v>0.90407541637999722</v>
       </c>
       <c r="H65" s="7">
         <f t="shared" si="1"/>
-        <v>0.26798380192901494</v>
+        <v>0.80395140578704483</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -3007,11 +5049,11 @@
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
-        <v>0.29229557959944047</v>
+        <v>0.87688673879832146</v>
       </c>
       <c r="H66" s="7">
         <f t="shared" si="1"/>
-        <v>0.25992460127412492</v>
+        <v>0.77977380382237482</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -3023,11 +5065,11 @@
       </c>
       <c r="G67" s="7">
         <f t="shared" ref="G67:G130" si="2">($C$3*$C$12)/(4*F67*F67*PI())</f>
-        <v>0.28363545215753233</v>
+        <v>0.85090635647259705</v>
       </c>
       <c r="H67" s="7">
         <f t="shared" ref="H67:H130" si="3">($C$3*$C$14)/(4*F67*F67*PI())</f>
-        <v>0.25222356051461087</v>
+        <v>0.75667068154383266</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -3039,11 +5081,11 @@
       </c>
       <c r="G68" s="7">
         <f t="shared" si="2"/>
-        <v>0.27535457282334835</v>
+        <v>0.82606371847004512</v>
       </c>
       <c r="H68" s="7">
         <f t="shared" si="3"/>
-        <v>0.24485976711723362</v>
+        <v>0.73457930135170091</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -3055,11 +5097,11 @@
       </c>
       <c r="G69" s="7">
         <f t="shared" si="2"/>
-        <v>0.26743111630648242</v>
+        <v>0.80229334891944726</v>
       </c>
       <c r="H69" s="7">
         <f t="shared" si="3"/>
-        <v>0.23781381288596684</v>
+        <v>0.71344143865790055</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3071,11 +5113,11 @@
       </c>
       <c r="G70" s="7">
         <f t="shared" si="2"/>
-        <v>0.2598448050479924</v>
+        <v>0.77953441514397714</v>
       </c>
       <c r="H70" s="7">
         <f t="shared" si="3"/>
-        <v>0.23106766594899758</v>
+        <v>0.6932029978469928</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3087,11 +5129,11 @@
       </c>
       <c r="G71" s="7">
         <f t="shared" si="2"/>
-        <v>0.25257677935631084</v>
+        <v>0.75773033806893242</v>
       </c>
       <c r="H71" s="7">
         <f t="shared" si="3"/>
-        <v>0.2246045552767483</v>
+        <v>0.67381366583024493</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -3103,11 +5145,11 @@
       </c>
       <c r="G72" s="7">
         <f t="shared" si="2"/>
-        <v>0.24560948008008543</v>
+        <v>0.73682844024025629</v>
       </c>
       <c r="H72" s="7">
         <f t="shared" si="3"/>
-        <v>0.21840886634839665</v>
+        <v>0.65522659904518998</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -3119,11 +5161,11 @@
       </c>
       <c r="G73" s="7">
         <f t="shared" si="2"/>
-        <v>0.23892654245358655</v>
+        <v>0.71677962736075962</v>
       </c>
       <c r="H73" s="7">
         <f t="shared" si="3"/>
-        <v>0.21246604675362885</v>
+        <v>0.63739814026088659</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -3135,11 +5177,11 @@
       </c>
       <c r="G74" s="7">
         <f t="shared" si="2"/>
-        <v>0.23251269991511372</v>
+        <v>0.6975380997453412</v>
       </c>
       <c r="H74" s="7">
         <f t="shared" si="3"/>
-        <v>0.20676252066290873</v>
+        <v>0.62028756198872625</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -3151,11 +5193,11 @@
       </c>
       <c r="G75" s="7">
         <f t="shared" si="2"/>
-        <v>0.22635369684180673</v>
+        <v>0.67906109052542019</v>
       </c>
       <c r="H75" s="7">
         <f t="shared" si="3"/>
-        <v>0.20128561122668234</v>
+        <v>0.60385683368004706</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -3167,11 +5209,11 @@
       </c>
       <c r="G76" s="7">
         <f t="shared" si="2"/>
-        <v>0.22043620926855309</v>
+        <v>0.66130862780565935</v>
       </c>
       <c r="H76" s="7">
         <f t="shared" si="3"/>
-        <v>0.19602347007446125</v>
+        <v>0.5880704102233838</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -3183,11 +5225,11 @@
       </c>
       <c r="G77" s="7">
         <f t="shared" si="2"/>
-        <v>0.21474777276693585</v>
+        <v>0.64424331830080761</v>
       </c>
       <c r="H77" s="7">
         <f t="shared" si="3"/>
-        <v>0.19096501318098974</v>
+        <v>0.57289503954296928</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -3199,11 +5241,11 @@
       </c>
       <c r="G78" s="7">
         <f t="shared" si="2"/>
-        <v>0.20927671675462897</v>
+        <v>0.627830150263887</v>
       </c>
       <c r="H78" s="7">
         <f t="shared" si="3"/>
-        <v>0.18609986245070484</v>
+        <v>0.55829958735211449</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -3215,11 +5257,11 @@
       </c>
       <c r="G79" s="7">
         <f t="shared" si="2"/>
-        <v>0.20401210458823307</v>
+        <v>0.61203631376469925</v>
       </c>
       <c r="H79" s="7">
         <f t="shared" si="3"/>
-        <v>0.1814182924451351</v>
+        <v>0.54425487733540534</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -3231,11 +5273,11 @@
       </c>
       <c r="G80" s="7">
         <f t="shared" si="2"/>
-        <v>0.19894367886486916</v>
+        <v>0.59683103659460757</v>
       </c>
       <c r="H80" s="7">
         <f t="shared" si="3"/>
-        <v>0.17691118174220127</v>
+        <v>0.53073354522660388</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -3247,11 +5289,11 @@
       </c>
       <c r="G81" s="7">
         <f t="shared" si="2"/>
-        <v>0.19406181142130205</v>
+        <v>0.58218543426390612</v>
       </c>
       <c r="H81" s="7">
         <f t="shared" si="3"/>
-        <v>0.17256996847280723</v>
+        <v>0.51770990541842166</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -3263,11 +5305,11 @@
       </c>
       <c r="G82" s="7">
         <f t="shared" si="2"/>
-        <v>0.18935745757512829</v>
+        <v>0.56807237272538491</v>
       </c>
       <c r="H82" s="7">
         <f t="shared" si="3"/>
-        <v>0.16838660962969781</v>
+        <v>0.5051598288890935</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -3279,11 +5321,11 @@
       </c>
       <c r="G83" s="7">
         <f t="shared" si="2"/>
-        <v>0.1848221142016494</v>
+        <v>0.5544663426049482</v>
       </c>
       <c r="H83" s="7">
         <f t="shared" si="3"/>
-        <v>0.16435354378720979</v>
+        <v>0.49306063136162942</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -3295,11 +5337,11 @@
       </c>
       <c r="G84" s="7">
         <f t="shared" si="2"/>
-        <v>0.18044778128332806</v>
+        <v>0.54134334384998417</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="3"/>
-        <v>0.16046365690902611</v>
+        <v>0.48139097072707832</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -3311,11 +5353,11 @@
       </c>
       <c r="G85" s="7">
         <f t="shared" si="2"/>
-        <v>0.17622692660694295</v>
+        <v>0.52868077982082884</v>
       </c>
       <c r="H85" s="7">
         <f t="shared" si="3"/>
-        <v>0.15671025095502952</v>
+        <v>0.47013075286508854</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -3327,11 +5369,11 @@
       </c>
       <c r="G86" s="7">
         <f t="shared" si="2"/>
-        <v>0.17215245331735571</v>
+        <v>0.5164573599520671</v>
       </c>
       <c r="H86" s="7">
         <f t="shared" si="3"/>
-        <v>0.15308701502840566</v>
+        <v>0.45926104508521703</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -3343,11 +5385,11 @@
       </c>
       <c r="G87" s="7">
         <f t="shared" si="2"/>
-        <v>0.16821767006674102</v>
+        <v>0.50465301020022302</v>
       </c>
       <c r="H87" s="7">
         <f t="shared" si="3"/>
-        <v>0.14958799883076868</v>
+        <v>0.44876399649230608</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -3359,11 +5401,11 @@
       </c>
       <c r="G88" s="7">
         <f t="shared" si="2"/>
-        <v>0.16441626352468525</v>
+        <v>0.4932487905740558</v>
       </c>
       <c r="H88" s="7">
         <f t="shared" si="3"/>
-        <v>0.14620758821669524</v>
+        <v>0.43862276465008582</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -3375,11 +5417,11 @@
       </c>
       <c r="G89" s="7">
         <f t="shared" si="2"/>
-        <v>0.16074227303814706</v>
+        <v>0.48222681911444115</v>
       </c>
       <c r="H89" s="7">
         <f t="shared" si="3"/>
-        <v>0.14294048266002882</v>
+        <v>0.42882144798008648</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -3391,11 +5433,11 @@
       </c>
       <c r="G90" s="7">
         <f t="shared" si="2"/>
-        <v>0.15719006725125467</v>
+        <v>0.47157020175376402</v>
       </c>
       <c r="H90" s="7">
         <f t="shared" si="3"/>
-        <v>0.13978167446297385</v>
+        <v>0.4193450233889216</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -3407,11 +5449,11 @@
       </c>
       <c r="G91" s="7">
         <f t="shared" si="2"/>
-        <v>0.15375432251360496</v>
+        <v>0.46126296754081486</v>
       </c>
       <c r="H91" s="7">
         <f t="shared" si="3"/>
-        <v>0.13672642955561987</v>
+        <v>0.4101792886668596</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -3423,11 +5465,11 @@
       </c>
       <c r="G92" s="7">
         <f t="shared" si="2"/>
-        <v>0.15043000292239636</v>
+        <v>0.45129000876718905</v>
       </c>
       <c r="H92" s="7">
         <f t="shared" si="3"/>
-        <v>0.13377026974835635</v>
+        <v>0.40131080924506912</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -3439,11 +5481,11 @@
       </c>
       <c r="G93" s="7">
         <f t="shared" si="2"/>
-        <v>0.14721234185861518</v>
+        <v>0.44163702557584555</v>
       </c>
       <c r="H93" s="7">
         <f t="shared" si="3"/>
-        <v>0.13090895631287874</v>
+        <v>0.39272686893863623</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -3455,11 +5497,11 @@
       </c>
       <c r="G94" s="7">
         <f t="shared" si="2"/>
-        <v>0.14409682489080611</v>
+        <v>0.43229047467241827</v>
       </c>
       <c r="H94" s="7">
         <f t="shared" si="3"/>
-        <v>0.12813847477932189</v>
+        <v>0.38441542433796566</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -3471,11 +5513,11 @@
       </c>
       <c r="G95" s="7">
         <f t="shared" si="2"/>
-        <v>0.141079173931874</v>
+        <v>0.42323752179562196</v>
       </c>
       <c r="H95" s="7">
         <f t="shared" si="3"/>
-        <v>0.1254550208476552</v>
+        <v>0.37636506254296559</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -3487,11 +5529,11 @@
       </c>
       <c r="G96" s="7">
         <f t="shared" si="2"/>
-        <v>0.13815533254504805</v>
+        <v>0.41446599763514413</v>
       </c>
       <c r="H96" s="7">
         <f t="shared" si="3"/>
-        <v>0.12285498732097311</v>
+        <v>0.36856496196291938</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -3503,11 +5545,11 @@
       </c>
       <c r="G97" s="7">
         <f t="shared" si="2"/>
-        <v>0.13532145230472553</v>
+        <v>0.40596435691417665</v>
       </c>
       <c r="H97" s="7">
         <f t="shared" si="3"/>
-        <v>0.12033495197684006</v>
+        <v>0.36100485593052017</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -3519,11 +5561,11 @@
       </c>
       <c r="G98" s="7">
         <f t="shared" si="2"/>
-        <v>0.13257388012652674</v>
+        <v>0.39772164037958019</v>
       </c>
       <c r="H98" s="7">
         <f t="shared" si="3"/>
-        <v>0.11789166630050897</v>
+        <v>0.35367499890152693</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -3535,11 +5577,11 @@
       </c>
       <c r="G99" s="7">
         <f t="shared" si="2"/>
-        <v>0.12990914648864021</v>
+        <v>0.38972743946592064</v>
       </c>
       <c r="H99" s="7">
         <f t="shared" si="3"/>
-        <v>0.11552204501072219</v>
+        <v>0.3465661350321666</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -3551,11 +5593,11 @@
       </c>
       <c r="G100" s="7">
         <f t="shared" si="2"/>
-        <v>0.12732395447351627</v>
+        <v>0.38197186342054884</v>
       </c>
       <c r="H100" s="7">
         <f t="shared" si="3"/>
-        <v>0.11322315631500882</v>
+        <v>0.33966946894502648</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -3567,11 +5609,11 @@
       </c>
       <c r="G101" s="7">
         <f t="shared" si="2"/>
-        <v>0.12481516956525465</v>
+        <v>0.37444550869576393</v>
       </c>
       <c r="H101" s="7">
         <f t="shared" si="3"/>
-        <v>0.1109922128369854</v>
+        <v>0.33297663851095621</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -3583,11 +5625,11 @@
       </c>
       <c r="G102" s="7">
         <f t="shared" si="2"/>
-        <v>0.12237981014371037</v>
+        <v>0.36713943043113112</v>
       </c>
       <c r="H102" s="7">
         <f t="shared" si="3"/>
-        <v>0.10882656316321493</v>
+        <v>0.32647968948964484</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -3599,11 +5641,11 @@
       </c>
       <c r="G103" s="7">
         <f t="shared" si="2"/>
-        <v>0.12001503862146881</v>
+        <v>0.36004511586440646</v>
       </c>
       <c r="H103" s="7">
         <f t="shared" si="3"/>
-        <v>0.10672368396173891</v>
+        <v>0.32017105188521677</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -3615,11 +5657,11 @@
       </c>
       <c r="G104" s="7">
         <f t="shared" si="2"/>
-        <v>0.1177181531744788</v>
+        <v>0.35315445952343638</v>
       </c>
       <c r="H104" s="7">
         <f t="shared" si="3"/>
-        <v>0.10468117262852146</v>
+        <v>0.31404351788556439</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -3631,11 +5673,11 @@
       </c>
       <c r="G105" s="7">
         <f t="shared" si="2"/>
-        <v>0.11548658002132994</v>
+        <v>0.34645974006398983</v>
       </c>
       <c r="H105" s="7">
         <f t="shared" si="3"/>
-        <v>0.10269674042177671</v>
+        <v>0.30809022126533014</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -3647,11 +5689,11 @@
       </c>
       <c r="G106" s="7">
         <f t="shared" si="2"/>
-        <v>0.11331786620996465</v>
+        <v>0.33995359862989394</v>
       </c>
       <c r="H106" s="7">
         <f t="shared" si="3"/>
-        <v>0.10076820604753366</v>
+        <v>0.30230461814260101</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -3663,11 +5705,11 @@
       </c>
       <c r="G107" s="7">
         <f t="shared" si="2"/>
-        <v>0.11120967287406436</v>
+        <v>0.33362901862219307</v>
       </c>
       <c r="H107" s="7">
         <f t="shared" si="3"/>
-        <v>9.8893489662860365E-2</v>
+        <v>0.29668046898858108</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -3679,11 +5721,11 @@
       </c>
       <c r="G108" s="7">
         <f t="shared" si="2"/>
-        <v>0.1091597689244824</v>
+        <v>0.32747930677344722</v>
       </c>
       <c r="H108" s="7">
         <f t="shared" si="3"/>
-        <v>9.7070607265954068E-2</v>
+        <v>0.2912118217978622</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -3695,11 +5737,11 @@
       </c>
       <c r="G109" s="7">
         <f t="shared" si="2"/>
-        <v>0.10716602514394098</v>
+        <v>0.32149807543182291</v>
       </c>
       <c r="H109" s="7">
         <f t="shared" si="3"/>
-        <v>9.5297665444835297E-2</v>
+        <v>0.28589299633450593</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -3711,11 +5753,11 @@
       </c>
       <c r="G110" s="7">
         <f t="shared" si="2"/>
-        <v>0.10522640865579858</v>
+        <v>0.31567922596739573</v>
       </c>
       <c r="H110" s="7">
         <f t="shared" si="3"/>
-        <v>9.3572856458684975E-2</v>
+        <v>0.28071856937605494</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -3727,11 +5769,11 @@
       </c>
       <c r="G111" s="7">
         <f t="shared" si="2"/>
-        <v>0.10333897774005055</v>
+        <v>0.31001693322015167</v>
       </c>
       <c r="H111" s="7">
         <f t="shared" si="3"/>
-        <v>9.1894453627959435E-2</v>
+        <v>0.27568336088387835</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -3743,11 +5785,11 @@
       </c>
       <c r="G112" s="7">
         <f t="shared" si="2"/>
-        <v>0.10150187697187203</v>
+        <v>0.30450563091561611</v>
       </c>
       <c r="H112" s="7">
         <f t="shared" si="3"/>
-        <v>9.0260807011327188E-2</v>
+        <v>0.27078242103398154</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -3759,11 +5801,11 @@
       </c>
       <c r="G113" s="7">
         <f t="shared" si="2"/>
-        <v>9.9713332659970455E-2</v>
+        <v>0.29913999797991137</v>
       </c>
       <c r="H113" s="7">
         <f t="shared" si="3"/>
-        <v>8.8670339349212007E-2</v>
+        <v>0.26601101804763605</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -3775,11 +5817,11 @@
       </c>
       <c r="G114" s="7">
         <f t="shared" si="2"/>
-        <v>9.7971648563801375E-2</v>
+        <v>0.29391494569140414</v>
       </c>
       <c r="H114" s="7">
         <f t="shared" si="3"/>
-        <v>8.7121542255316112E-2</v>
+        <v>0.26136462676594835</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -3791,11 +5833,11 @@
       </c>
       <c r="G115" s="7">
         <f t="shared" si="2"/>
-        <v>9.6275201870333657E-2</v>
+        <v>0.28882560561100101</v>
       </c>
       <c r="H115" s="7">
         <f t="shared" si="3"/>
-        <v>8.5612972638948057E-2</v>
+        <v>0.25683891791684421</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -3807,11 +5849,11 @@
       </c>
       <c r="G116" s="7">
         <f t="shared" si="2"/>
-        <v>9.4622439412541823E-2</v>
+        <v>0.28386731823762545</v>
       </c>
       <c r="H116" s="7">
         <f t="shared" si="3"/>
-        <v>8.414324934230738E-2</v>
+        <v>0.2524297480269222</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -3823,11 +5865,11 @@
       </c>
       <c r="G117" s="7">
         <f t="shared" si="2"/>
-        <v>9.3011874113168427E-2</v>
+        <v>0.2790356223395053</v>
       </c>
       <c r="H117" s="7">
         <f t="shared" si="3"/>
-        <v>8.2711049978091034E-2</v>
+        <v>0.2481331499342731</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -3839,11 +5881,11 @@
       </c>
       <c r="G118" s="7">
         <f t="shared" si="2"/>
-        <v>9.1442081638549458E-2</v>
+        <v>0.27432624491564839</v>
       </c>
       <c r="H118" s="7">
         <f t="shared" si="3"/>
-        <v>8.1315107953898888E-2</v>
+        <v>0.24394532386169668</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -3855,11 +5897,11 @@
       </c>
       <c r="G119" s="7">
         <f t="shared" si="2"/>
-        <v>8.9911697248440267E-2</v>
+        <v>0.26973509174532079</v>
       </c>
       <c r="H119" s="7">
         <f t="shared" si="3"/>
-        <v>7.9954209670933418E-2</v>
+        <v>0.23986262901280025</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -3871,11 +5913,11 @@
       </c>
       <c r="G120" s="7">
         <f t="shared" si="2"/>
-        <v>8.8419412828830743E-2</v>
+        <v>0.26525823848649221</v>
       </c>
       <c r="H120" s="7">
         <f t="shared" si="3"/>
-        <v>7.862719188542279E-2</v>
+        <v>0.23588157565626836</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -3887,11 +5929,11 @@
       </c>
       <c r="G121" s="7">
         <f t="shared" si="2"/>
-        <v>8.6963974095701294E-2</v>
+        <v>0.26089192228710389</v>
       </c>
       <c r="H121" s="7">
         <f t="shared" si="3"/>
-        <v>7.7332939222053698E-2</v>
+        <v>0.23199881766616109</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -3903,11 +5945,11 @@
       </c>
       <c r="G122" s="7">
         <f t="shared" si="2"/>
-        <v>8.5544177958557024E-2</v>
+        <v>0.25663253387567109</v>
       </c>
       <c r="H122" s="7">
         <f t="shared" si="3"/>
-        <v>7.6070381829487249E-2</v>
+        <v>0.22821114548846175</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -3919,11 +5961,11 @@
       </c>
       <c r="G123" s="7">
         <f t="shared" si="2"/>
-        <v>8.4158870033390371E-2</v>
+        <v>0.25247661010017108</v>
       </c>
       <c r="H123" s="7">
         <f t="shared" si="3"/>
-        <v>7.48384931687546E-2</v>
+        <v>0.2245154795062638</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -3935,11 +5977,11 @@
       </c>
       <c r="G124" s="7">
         <f t="shared" si="2"/>
-        <v>8.2806942295471045E-2</v>
+        <v>0.24842082688641312</v>
       </c>
       <c r="H124" s="7">
         <f t="shared" si="3"/>
-        <v>7.363628792599429E-2</v>
+        <v>0.22090886377798288</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -3951,11 +5993,11 @@
       </c>
       <c r="G125" s="7">
         <f t="shared" si="2"/>
-        <v>8.148733086305042E-2</v>
+        <v>0.24446199258915127</v>
       </c>
       <c r="H125" s="7">
         <f t="shared" si="3"/>
-        <v>7.2462820041605647E-2</v>
+        <v>0.21738846012481697</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -3967,11 +6009,11 @@
       </c>
       <c r="G126" s="7">
         <f t="shared" si="2"/>
-        <v>8.0199013903701363E-2</v>
+        <v>0.24059704171110408</v>
       </c>
       <c r="H126" s="7">
         <f t="shared" si="3"/>
-        <v>7.1317180848456049E-2</v>
+        <v>0.21395154254536816</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -3983,11 +6025,11 @@
       </c>
       <c r="G127" s="7">
         <f t="shared" si="2"/>
-        <v>7.8941009655599401E-2</v>
+        <v>0.23682302896679819</v>
       </c>
       <c r="H127" s="7">
         <f t="shared" si="3"/>
-        <v>7.0198497312300087E-2</v>
+        <v>0.21059549193690028</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -3999,11 +6041,11 @@
       </c>
       <c r="G128" s="7">
         <f t="shared" si="2"/>
-        <v>7.7712374556589525E-2</v>
+        <v>0.23313712366976855</v>
       </c>
       <c r="H128" s="7">
         <f t="shared" si="3"/>
-        <v>6.9105930368047366E-2</v>
+        <v>0.20731779110414211</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -4015,11 +6057,11 @@
       </c>
       <c r="G129" s="7">
         <f t="shared" si="2"/>
-        <v>7.6512201474380301E-2</v>
+        <v>0.22953660442314092</v>
       </c>
       <c r="H129" s="7">
         <f t="shared" si="3"/>
-        <v>6.8038673345958062E-2</v>
+        <v>0.20411602003787419</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -4031,11 +6073,11 @@
       </c>
       <c r="G130" s="7">
         <f t="shared" si="2"/>
-        <v>7.533961803166643E-2</v>
+        <v>0.22601885409499931</v>
       </c>
       <c r="H130" s="7">
         <f t="shared" si="3"/>
-        <v>6.6995950482253736E-2</v>
+        <v>0.20098785144676121</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -4047,11 +6089,11 @@
       </c>
       <c r="G131" s="7">
         <f t="shared" ref="G131:G194" si="4">($C$3*$C$12)/(4*F131*F131*PI())</f>
-        <v>7.4193785020404565E-2</v>
+        <v>0.22258135506121368</v>
       </c>
       <c r="H131" s="7">
         <f t="shared" ref="H131:H194" si="5">($C$3*$C$14)/(4*F131*F131*PI())</f>
-        <v>6.5977015509008113E-2</v>
+        <v>0.19793104652702434</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -4063,11 +6105,11 @@
       </c>
       <c r="G132" s="7">
         <f t="shared" si="4"/>
-        <v>7.3073894899860117E-2</v>
+        <v>0.21922168469958037</v>
       </c>
       <c r="H132" s="7">
         <f t="shared" si="5"/>
-        <v>6.4981150318531231E-2</v>
+        <v>0.19494345095559371</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -4079,11 +6121,11 @@
       </c>
       <c r="G133" s="7">
         <f t="shared" si="4"/>
-        <v>7.1979170373405094E-2</v>
+        <v>0.21593751112021528</v>
       </c>
       <c r="H133" s="7">
         <f t="shared" si="5"/>
-        <v>6.4007663697783254E-2</v>
+        <v>0.1920229910933498</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -4095,11 +6137,11 @@
       </c>
       <c r="G134" s="7">
         <f t="shared" si="4"/>
-        <v>7.0908863039383083E-2</v>
+        <v>0.21272658911814926</v>
       </c>
       <c r="H134" s="7">
         <f t="shared" si="5"/>
-        <v>6.3055890128652717E-2</v>
+        <v>0.18916767038595816</v>
       </c>
       <c r="J134">
         <v>1</v>
@@ -4111,11 +6153,11 @@
       </c>
       <c r="G135" s="7">
         <f t="shared" si="4"/>
-        <v>6.986225211166873E-2</v>
+        <v>0.2095867563350062</v>
       </c>
       <c r="H135" s="7">
         <f t="shared" si="5"/>
-        <v>6.2125188650210598E-2</v>
+        <v>0.18637556595063179</v>
       </c>
       <c r="J135">
         <v>1</v>
@@ -4127,11 +6169,11 @@
       </c>
       <c r="G136" s="7">
         <f t="shared" si="4"/>
-        <v>6.8838643205837088E-2</v>
+        <v>0.20651592961751128</v>
       </c>
       <c r="H136" s="7">
         <f t="shared" si="5"/>
-        <v>6.1214941779308404E-2</v>
+        <v>0.18364482533792523</v>
       </c>
       <c r="J136">
         <v>1</v>
@@ -4143,11 +6185,11 @@
       </c>
       <c r="G137" s="7">
         <f t="shared" si="4"/>
-        <v>6.7837367187125727E-2</v>
+        <v>0.20351210156137717</v>
       </c>
       <c r="H137" s="7">
         <f t="shared" si="5"/>
-        <v>6.0324554486125427E-2</v>
+        <v>0.18097366345837629</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -4159,11 +6201,11 @@
       </c>
       <c r="G138" s="7">
         <f t="shared" si="4"/>
-        <v>6.6857779076620605E-2</v>
+        <v>0.20057333722986181</v>
       </c>
       <c r="H138" s="7">
         <f t="shared" si="5"/>
-        <v>5.945345322149171E-2</v>
+        <v>0.17836035966447514</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -4175,11 +6217,11 @@
       </c>
       <c r="G139" s="7">
         <f t="shared" si="4"/>
-        <v>6.5899257012326629E-2</v>
+        <v>0.19769777103697989</v>
       </c>
       <c r="H139" s="7">
         <f t="shared" si="5"/>
-        <v>5.8601084993017347E-2</v>
+        <v>0.17580325497905205</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -4191,11 +6233,11 @@
       </c>
       <c r="G140" s="7">
         <f t="shared" si="4"/>
-        <v>6.49612012619981E-2</v>
+        <v>0.19488360378599429</v>
       </c>
       <c r="H140" s="7">
         <f t="shared" si="5"/>
-        <v>5.7766916487249395E-2</v>
+        <v>0.1733007494617482</v>
       </c>
       <c r="J140">
         <v>1</v>
@@ -4207,11 +6249,11 @@
       </c>
       <c r="G141" s="7">
         <f t="shared" si="4"/>
-        <v>6.4043033284802708E-2</v>
+        <v>0.19212909985440815</v>
       </c>
       <c r="H141" s="7">
         <f t="shared" si="5"/>
-        <v>5.6950433235254172E-2</v>
+        <v>0.17085129970576252</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -4223,11 +6265,11 @@
       </c>
       <c r="G142" s="7">
         <f t="shared" si="4"/>
-        <v>6.3144194839077711E-2</v>
+        <v>0.1894325845172331</v>
       </c>
       <c r="H142" s="7">
         <f t="shared" si="5"/>
-        <v>5.6151138819187076E-2</v>
+        <v>0.16845341645756123</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -4239,11 +6281,11 @@
       </c>
       <c r="G143" s="7">
         <f t="shared" si="4"/>
-        <v>6.2264147133608623E-2</v>
+        <v>0.18679244140082588</v>
       </c>
       <c r="H143" s="7">
         <f t="shared" si="5"/>
-        <v>5.5368554117565069E-2</v>
+        <v>0.16610566235269522</v>
       </c>
       <c r="J143">
         <v>1</v>
@@ -4255,11 +6297,11 @@
       </c>
       <c r="G144" s="7">
         <f t="shared" si="4"/>
-        <v>6.1402370020021357E-2</v>
+        <v>0.18420711006006407</v>
       </c>
       <c r="H144" s="7">
         <f t="shared" si="5"/>
-        <v>5.4602216587099163E-2</v>
+        <v>0.1638066497612975</v>
       </c>
       <c r="J144">
         <v>1</v>
@@ -4271,11 +6313,11 @@
       </c>
       <c r="G145" s="7">
         <f t="shared" si="4"/>
-        <v>6.0558361224026767E-2</v>
+        <v>0.1816750836720803</v>
       </c>
       <c r="H145" s="7">
         <f t="shared" si="5"/>
-        <v>5.3851679579076724E-2</v>
+        <v>0.16155503873723018</v>
       </c>
       <c r="J145">
         <v>1</v>
@@ -4287,11 +6329,11 @@
       </c>
       <c r="G146" s="7">
         <f t="shared" si="4"/>
-        <v>5.9731635613396637E-2</v>
+        <v>0.1791949068401899</v>
       </c>
       <c r="H146" s="7">
         <f t="shared" si="5"/>
-        <v>5.3116511688407211E-2</v>
+        <v>0.15934953506522165</v>
       </c>
       <c r="J146">
         <v>1</v>
@@ -4303,11 +6345,11 @@
       </c>
       <c r="G147" s="7">
         <f t="shared" si="4"/>
-        <v>5.8921724500678549E-2</v>
+        <v>0.17676517350203566</v>
       </c>
       <c r="H147" s="7">
         <f t="shared" si="5"/>
-        <v>5.2396296133559547E-2</v>
+        <v>0.15718888840067866</v>
       </c>
       <c r="J147">
         <v>1</v>
@@ -4319,11 +6361,11 @@
       </c>
       <c r="G148" s="7">
         <f t="shared" si="4"/>
-        <v>5.8128174978778431E-2</v>
+        <v>0.1743845249363353</v>
       </c>
       <c r="H148" s="7">
         <f t="shared" si="5"/>
-        <v>5.1690630165727183E-2</v>
+        <v>0.15507189049718156</v>
       </c>
       <c r="J148">
         <v>1</v>
@@ -4335,11 +6377,11 @@
       </c>
       <c r="G149" s="7">
         <f t="shared" si="4"/>
-        <v>5.7350549287652035E-2</v>
+        <v>0.1720516478629561</v>
       </c>
       <c r="H149" s="7">
         <f t="shared" si="5"/>
-        <v>5.099912450565687E-2</v>
+        <v>0.15299737351697063</v>
       </c>
       <c r="J149">
         <v>1</v>
@@ -4351,11 +6393,11 @@
       </c>
       <c r="G150" s="7">
         <f t="shared" si="4"/>
-        <v>5.6588424210451682E-2</v>
+        <v>0.16976527263135505</v>
       </c>
       <c r="H150" s="7">
         <f t="shared" si="5"/>
-        <v>5.0321402806670586E-2</v>
+        <v>0.15096420842001176</v>
       </c>
       <c r="J150">
         <v>1</v>
@@ -4367,11 +6409,11 @@
       </c>
       <c r="G151" s="7">
         <f t="shared" si="4"/>
-        <v>5.5841390497573029E-2</v>
+        <v>0.16752417149271909</v>
       </c>
       <c r="H151" s="7">
         <f t="shared" si="5"/>
-        <v>4.9657101142497613E-2</v>
+        <v>0.14897130342749285</v>
       </c>
       <c r="J151">
         <v>1</v>
@@ -4383,11 +6425,11 @@
       </c>
       <c r="G152" s="7">
         <f t="shared" si="4"/>
-        <v>5.5109052317138273E-2</v>
+        <v>0.16532715695141484</v>
       </c>
       <c r="H152" s="7">
         <f t="shared" si="5"/>
-        <v>4.9005867518615312E-2</v>
+        <v>0.14701760255584595</v>
       </c>
       <c r="J152">
         <v>1</v>
@@ -4399,11 +6441,11 @@
       </c>
       <c r="G153" s="7">
         <f t="shared" si="4"/>
-        <v>5.4391026730537945E-2</v>
+        <v>0.16317308019161383</v>
       </c>
       <c r="H153" s="7">
         <f t="shared" si="5"/>
-        <v>4.8367361405873305E-2</v>
+        <v>0.14510208421761991</v>
       </c>
       <c r="J153">
         <v>1</v>
@@ -4415,11 +6457,11 @@
       </c>
       <c r="G154" s="7">
         <f t="shared" si="4"/>
-        <v>5.3686943191733963E-2</v>
+        <v>0.1610608295752019</v>
       </c>
       <c r="H154" s="7">
         <f t="shared" si="5"/>
-        <v>4.7741253295247435E-2</v>
+        <v>0.14322375988574232</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -4431,11 +6473,11 @@
       </c>
       <c r="G155" s="7">
         <f t="shared" si="4"/>
-        <v>5.2996443069101472E-2</v>
+        <v>0.15898932920730441</v>
       </c>
       <c r="H155" s="7">
         <f t="shared" si="5"/>
-        <v>4.7127224272636346E-2</v>
+        <v>0.14138167281790906</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -4447,11 +6489,11 @@
       </c>
       <c r="G156" s="7">
         <f t="shared" si="4"/>
-        <v>5.2319179188657243E-2</v>
+        <v>0.15695753756597175</v>
       </c>
       <c r="H156" s="7">
         <f t="shared" si="5"/>
-        <v>4.652496561267621E-2</v>
+        <v>0.13957489683802862</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -4463,11 +6505,11 @@
       </c>
       <c r="G157" s="7">
         <f t="shared" si="4"/>
-        <v>5.1654815397588656E-2</v>
+        <v>0.15496444619276595</v>
       </c>
       <c r="H157" s="7">
         <f t="shared" si="5"/>
-        <v>4.5934178390607656E-2</v>
+        <v>0.13780253517182298</v>
       </c>
       <c r="J157">
         <v>1</v>
@@ -4479,11 +6521,11 @@
       </c>
       <c r="G158" s="7">
         <f t="shared" si="4"/>
-        <v>5.1003026147058268E-2</v>
+        <v>0.15300907844117481</v>
       </c>
       <c r="H158" s="7">
         <f t="shared" si="5"/>
-        <v>4.5354573111283776E-2</v>
+        <v>0.13606371933385134</v>
       </c>
       <c r="J158">
         <v>1</v>
@@ -4495,11 +6537,11 @@
       </c>
       <c r="G159" s="7">
         <f t="shared" si="4"/>
-        <v>5.0363496093317618E-2</v>
+        <v>0.15109048827995286</v>
       </c>
       <c r="H159" s="7">
         <f t="shared" si="5"/>
-        <v>4.4785869354459398E-2</v>
+        <v>0.13435760806337821</v>
       </c>
       <c r="J159">
         <v>1</v>
@@ -4511,11 +6553,11 @@
       </c>
       <c r="G160" s="7">
         <f t="shared" si="4"/>
-        <v>4.973591971621729E-2</v>
+        <v>0.14920775914865189</v>
       </c>
       <c r="H160" s="7">
         <f t="shared" si="5"/>
-        <v>4.4227795435550318E-2</v>
+        <v>0.13268338630665097</v>
       </c>
       <c r="J160">
         <v>1</v>
@@ -4527,11 +6569,11 @@
       </c>
       <c r="G161" s="7">
         <f t="shared" si="4"/>
-        <v>4.9120000954251869E-2</v>
+        <v>0.14736000286275561</v>
       </c>
       <c r="H161" s="7">
         <f t="shared" si="5"/>
-        <v>4.3680088081095955E-2</v>
+        <v>0.13104026424328785</v>
       </c>
       <c r="J161">
         <v>1</v>
@@ -4543,11 +6585,11 @@
       </c>
       <c r="G162" s="7">
         <f t="shared" si="4"/>
-        <v>4.8515452855325512E-2</v>
+        <v>0.14554635856597653</v>
       </c>
       <c r="H162" s="7">
         <f t="shared" si="5"/>
-        <v>4.3142492118201807E-2</v>
+        <v>0.12942747635460541</v>
       </c>
       <c r="J162">
         <v>1</v>
@@ -4559,11 +6601,11 @@
       </c>
       <c r="G163" s="7">
         <f t="shared" si="4"/>
-        <v>4.7921997242469143E-2</v>
+        <v>0.14376599172740742</v>
       </c>
       <c r="H163" s="7">
         <f t="shared" si="5"/>
-        <v>4.2614760177277583E-2</v>
+        <v>0.12784428053183275</v>
       </c>
       <c r="J163">
         <v>1</v>
@@ -4575,11 +6617,11 @@
       </c>
       <c r="G164" s="7">
         <f t="shared" si="4"/>
-        <v>4.7339364393782071E-2</v>
+        <v>0.14201809318134623</v>
       </c>
       <c r="H164" s="7">
         <f t="shared" si="5"/>
-        <v>4.2096652407424454E-2</v>
+        <v>0.12628995722227337</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -4591,11 +6633,11 @@
       </c>
       <c r="G165" s="7">
         <f t="shared" si="4"/>
-        <v>4.676729273591048E-2</v>
+        <v>0.14030187820773143</v>
       </c>
       <c r="H165" s="7">
         <f t="shared" si="5"/>
-        <v>4.158793620385999E-2</v>
+        <v>0.12476380861157998</v>
       </c>
       <c r="J165">
         <v>1</v>
@@ -4607,11 +6649,11 @@
       </c>
       <c r="G166" s="7">
         <f t="shared" si="4"/>
-        <v>4.620552855041235E-2</v>
+        <v>0.13861658565123705</v>
       </c>
       <c r="H166" s="7">
         <f t="shared" si="5"/>
-        <v>4.1088385946802447E-2</v>
+        <v>0.12326515784040736</v>
       </c>
       <c r="J166">
         <v>1</v>
@@ -4623,11 +6665,11 @@
       </c>
       <c r="G167" s="7">
         <f t="shared" si="4"/>
-        <v>4.565382569239352E-2</v>
+        <v>0.13696147707718054</v>
       </c>
       <c r="H167" s="7">
         <f t="shared" si="5"/>
-        <v>4.0597782751267103E-2</v>
+        <v>0.12179334825380131</v>
       </c>
       <c r="J167">
         <v>1</v>
@@ -4639,11 +6681,11 @@
       </c>
       <c r="G168" s="7">
         <f t="shared" si="4"/>
-        <v>4.5111945320832014E-2</v>
+        <v>0.13533583596249604</v>
       </c>
       <c r="H168" s="7">
         <f t="shared" si="5"/>
-        <v>4.0115914227256529E-2</v>
+        <v>0.12034774268176958</v>
       </c>
       <c r="J168">
         <v>1</v>
@@ -4655,11 +6697,11 @@
       </c>
       <c r="G169" s="7">
         <f t="shared" si="4"/>
-        <v>4.4579655640039309E-2</v>
+        <v>0.13373896692011794</v>
       </c>
       <c r="H169" s="7">
         <f t="shared" si="5"/>
-        <v>3.9642574249854283E-2</v>
+        <v>0.11892772274956286</v>
       </c>
       <c r="J169">
         <v>1</v>
@@ -4671,11 +6713,11 @@
       </c>
       <c r="G170" s="7">
         <f t="shared" si="4"/>
-        <v>4.4056731651735737E-2</v>
+        <v>0.13217019495520721</v>
       </c>
       <c r="H170" s="7">
         <f t="shared" si="5"/>
-        <v>3.9177562738757381E-2</v>
+        <v>0.11753268821627214</v>
       </c>
       <c r="J170">
         <v>1</v>
@@ -4687,11 +6729,11 @@
       </c>
       <c r="G171" s="7">
         <f t="shared" si="4"/>
-        <v>4.3542954917245059E-2</v>
+        <v>0.13062886475173519</v>
       </c>
       <c r="H171" s="7">
         <f t="shared" si="5"/>
-        <v>3.8720685446807165E-2</v>
+        <v>0.1161620563404215</v>
       </c>
       <c r="J171">
         <v>1</v>
@@ -4703,11 +6745,11 @@
       </c>
       <c r="G172" s="7">
         <f t="shared" si="4"/>
-        <v>4.3038113329338927E-2</v>
+        <v>0.12911433998801677</v>
       </c>
       <c r="H172" s="7">
         <f t="shared" si="5"/>
-        <v>3.8271753757101415E-2</v>
+        <v>0.11481526127130426</v>
       </c>
       <c r="J172">
         <v>1</v>
@@ -4719,11 +6761,11 @@
       </c>
       <c r="G173" s="7">
         <f t="shared" si="4"/>
-        <v>4.2542000893286198E-2</v>
+        <v>0.1276260026798586</v>
       </c>
       <c r="H173" s="7">
         <f t="shared" si="5"/>
-        <v>3.7830584488291893E-2</v>
+        <v>0.11349175346487569</v>
       </c>
       <c r="J173">
         <v>1</v>
@@ -4735,11 +6777,11 @@
       </c>
       <c r="G174" s="7">
         <f t="shared" si="4"/>
-        <v>4.2054417516685254E-2</v>
+        <v>0.12616325255005575</v>
       </c>
       <c r="H174" s="7">
         <f t="shared" si="5"/>
-        <v>3.7396999707692169E-2</v>
+        <v>0.11219099912307652</v>
       </c>
       <c r="J174">
         <v>1</v>
@@ -4751,11 +6793,11 @@
       </c>
       <c r="G175" s="7">
         <f t="shared" si="4"/>
-        <v>4.1575168807678788E-2</v>
+        <v>0.12472550642303636</v>
       </c>
       <c r="H175" s="7">
         <f t="shared" si="5"/>
-        <v>3.6970826551839614E-2</v>
+        <v>0.11091247965551886</v>
       </c>
       <c r="J175">
         <v>1</v>
@@ -4767,11 +6809,11 @@
       </c>
       <c r="G176" s="7">
         <f t="shared" si="4"/>
-        <v>4.1104065881171312E-2</v>
+        <v>0.12331219764351395</v>
       </c>
       <c r="H176" s="7">
         <f t="shared" si="5"/>
-        <v>3.6551897054173811E-2</v>
+        <v>0.10965569116252145</v>
       </c>
       <c r="J176">
         <v>1</v>
@@ -4783,11 +6825,11 @@
       </c>
       <c r="G177" s="7">
         <f t="shared" si="4"/>
-        <v>4.0640925172688649E-2</v>
+        <v>0.12192277551806595</v>
       </c>
       <c r="H177" s="7">
         <f t="shared" si="5"/>
-        <v>3.614004797951062E-2</v>
+        <v>0.10842014393853186</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -4799,11 +6841,11 @@
       </c>
       <c r="G178" s="7">
         <f t="shared" si="4"/>
-        <v>4.0185568259536765E-2</v>
+        <v>0.12055670477861029</v>
       </c>
       <c r="H178" s="7">
         <f t="shared" si="5"/>
-        <v>3.5735120665007204E-2</v>
+        <v>0.10720536199502162</v>
       </c>
       <c r="J178">
         <v>1</v>
@@ -4815,11 +6857,11 @@
       </c>
       <c r="G179" s="7">
         <f t="shared" si="4"/>
-        <v>3.9737821688934888E-2</v>
+        <v>0.11921346506680466</v>
       </c>
       <c r="H179" s="7">
         <f t="shared" si="5"/>
-        <v>3.5336960867328987E-2</v>
+        <v>0.10601088260198697</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -4831,11 +6873,11 @@
       </c>
       <c r="G180" s="7">
         <f t="shared" si="4"/>
-        <v>3.9297516812813668E-2</v>
+        <v>0.117892550438441</v>
       </c>
       <c r="H180" s="7">
         <f t="shared" si="5"/>
-        <v>3.4945418615743462E-2</v>
+        <v>0.1048362558472304</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -4847,11 +6889,11 @@
       </c>
       <c r="G181" s="7">
         <f t="shared" si="4"/>
-        <v>3.8864489628984547E-2</v>
+        <v>0.11659346888695364</v>
       </c>
       <c r="H181" s="7">
         <f t="shared" si="5"/>
-        <v>3.4560348070879647E-2</v>
+        <v>0.10368104421263895</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -4863,11 +6905,11 @@
       </c>
       <c r="G182" s="7">
         <f t="shared" si="4"/>
-        <v>3.8438580628401241E-2</v>
+        <v>0.11531574188520372</v>
       </c>
       <c r="H182" s="7">
         <f t="shared" si="5"/>
-        <v>3.4181607388904967E-2</v>
+        <v>0.1025448221667149</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -4879,11 +6921,11 @@
       </c>
       <c r="G183" s="7">
         <f t="shared" si="4"/>
-        <v>3.801963464824757E-2</v>
+        <v>0.1140589039447427</v>
       </c>
       <c r="H183" s="7">
         <f t="shared" si="5"/>
-        <v>3.380905859088322E-2</v>
+        <v>0.10142717577264967</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -4895,11 +6937,11 @@
       </c>
       <c r="G184" s="7">
         <f t="shared" si="4"/>
-        <v>3.760750073059909E-2</v>
+        <v>0.11282250219179726</v>
       </c>
       <c r="H184" s="7">
         <f t="shared" si="5"/>
-        <v>3.3442567437089087E-2</v>
+        <v>0.10032770231126728</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -4911,11 +6953,11 @@
       </c>
       <c r="G185" s="7">
         <f t="shared" si="4"/>
-        <v>3.7202031986418194E-2</v>
+        <v>0.11160609595925458</v>
       </c>
       <c r="H185" s="7">
         <f t="shared" si="5"/>
-        <v>3.3082003306065394E-2</v>
+        <v>9.9246009918196196E-2</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -4927,11 +6969,11 @@
       </c>
       <c r="G186" s="7">
         <f t="shared" si="4"/>
-        <v>3.6803085464653794E-2</v>
+        <v>0.11040925639396139</v>
       </c>
       <c r="H186" s="7">
         <f t="shared" si="5"/>
-        <v>3.2727239078219686E-2</v>
+        <v>9.8181717234659058E-2</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -4943,11 +6985,11 @@
       </c>
       <c r="G187" s="7">
         <f t="shared" si="4"/>
-        <v>3.6410522026227882E-2</v>
+        <v>0.10923156607868363</v>
       </c>
       <c r="H187" s="7">
         <f t="shared" si="5"/>
-        <v>3.2378151023766427E-2</v>
+        <v>9.7134453071299282E-2</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -4959,11 +7001,11 @@
       </c>
       <c r="G188" s="7">
         <f t="shared" si="4"/>
-        <v>3.6024206222701527E-2</v>
+        <v>0.10807261866810457</v>
       </c>
       <c r="H188" s="7">
         <f t="shared" si="5"/>
-        <v>3.2034618694830472E-2</v>
+        <v>9.6103856084491415E-2</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -4975,11 +7017,11 @@
       </c>
       <c r="G189" s="7">
         <f t="shared" si="4"/>
-        <v>3.5644006179422823E-2</v>
+        <v>0.10693201853826848</v>
       </c>
       <c r="H189" s="7">
         <f t="shared" si="5"/>
-        <v>3.1696524821536017E-2</v>
+        <v>9.5089574464608057E-2</v>
       </c>
       <c r="J189">
         <v>1</v>
@@ -4991,11 +7033,11 @@
       </c>
       <c r="G190" s="7">
         <f t="shared" si="4"/>
-        <v>3.5269793482968499E-2</v>
+        <v>0.10580938044890549</v>
       </c>
       <c r="H190" s="7">
         <f t="shared" si="5"/>
-        <v>3.1363755211913799E-2</v>
+        <v>9.4091265635741397E-2</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -5007,11 +7049,11 @@
       </c>
       <c r="G191" s="7">
         <f t="shared" si="4"/>
-        <v>3.4901443072699836E-2</v>
+        <v>0.10470432921809951</v>
       </c>
       <c r="H191" s="7">
         <f t="shared" si="5"/>
-        <v>3.1036198655466904E-2</v>
+        <v>9.3108595966400726E-2</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -5023,11 +7065,11 @@
       </c>
       <c r="G192" s="7">
         <f t="shared" si="4"/>
-        <v>3.4538833136262014E-2</v>
+        <v>0.10361649940878603</v>
       </c>
       <c r="H192" s="7">
         <f t="shared" si="5"/>
-        <v>3.0713746830243277E-2</v>
+        <v>9.2141240490729845E-2</v>
       </c>
       <c r="J192">
         <v>1</v>
@@ -5039,11 +7081,11 @@
       </c>
       <c r="G193" s="7">
         <f t="shared" si="4"/>
-        <v>3.4181845008863669E-2</v>
+        <v>0.102545535026591</v>
       </c>
       <c r="H193" s="7">
         <f t="shared" si="5"/>
-        <v>3.039629421326984E-2</v>
+        <v>9.1188882639809524E-2</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -5055,11 +7097,11 @@
       </c>
       <c r="G194" s="7">
         <f t="shared" si="4"/>
-        <v>3.3830363076181383E-2</v>
+        <v>0.10149108922854416</v>
       </c>
       <c r="H194" s="7">
         <f t="shared" si="5"/>
-        <v>3.0083737994210016E-2</v>
+        <v>9.0251213982630044E-2</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -5071,11 +7113,11 @@
       </c>
       <c r="G195" s="7">
         <f t="shared" ref="G195:G258" si="6">($C$3*$C$12)/(4*F195*F195*PI())</f>
-        <v>3.3484274680740639E-2</v>
+        <v>0.10045282404222192</v>
       </c>
       <c r="H195" s="7">
         <f t="shared" ref="H195:H258" si="7">($C$3*$C$14)/(4*F195*F195*PI())</f>
-        <v>2.9775977992112772E-2</v>
+        <v>8.9327933976338314E-2</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -5087,11 +7129,11 @@
       </c>
       <c r="G196" s="7">
         <f t="shared" si="6"/>
-        <v>3.3143470031631685E-2</v>
+        <v>9.9430410094895047E-2</v>
       </c>
       <c r="H196" s="7">
         <f t="shared" si="7"/>
-        <v>2.9472916575127243E-2</v>
+        <v>8.8418749725381732E-2</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -5103,11 +7145,11 @@
       </c>
       <c r="G197" s="7">
         <f t="shared" si="6"/>
-        <v>3.2807842117425406E-2</v>
+        <v>9.8423526352276219E-2</v>
       </c>
       <c r="H197" s="7">
         <f t="shared" si="7"/>
-        <v>2.91744585830629E-2</v>
+        <v>8.7523375749188712E-2</v>
       </c>
       <c r="J197">
         <v>1</v>
@@ -5119,11 +7161,11 @@
       </c>
       <c r="G198" s="7">
         <f t="shared" si="6"/>
-        <v>3.2477286622160054E-2</v>
+        <v>9.7431859866480161E-2</v>
       </c>
       <c r="H198" s="7">
         <f t="shared" si="7"/>
-        <v>2.8880511252680548E-2</v>
+        <v>8.664153375804165E-2</v>
       </c>
       <c r="J198">
         <v>1</v>
@@ -5135,11 +7177,11 @@
       </c>
       <c r="G199" s="7">
         <f t="shared" si="6"/>
-        <v>3.2151701844275717E-2</v>
+        <v>9.6455105532827157E-2</v>
       </c>
       <c r="H199" s="7">
         <f t="shared" si="7"/>
-        <v>2.8590984145604608E-2</v>
+        <v>8.5772952436813835E-2</v>
       </c>
       <c r="J199">
         <v>1</v>
@@ -5151,11 +7193,11 @@
       </c>
       <c r="G200" s="7">
         <f t="shared" si="6"/>
-        <v>3.1830988618379068E-2</v>
+        <v>9.549296585513721E-2</v>
       </c>
       <c r="H200" s="7">
         <f t="shared" si="7"/>
-        <v>2.8305789078752204E-2</v>
+        <v>8.4917367236256619E-2</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -5167,11 +7209,11 @@
       </c>
       <c r="G201" s="7">
         <f t="shared" si="6"/>
-        <v>3.1515050239725818E-2</v>
+        <v>9.4545150719177448E-2</v>
       </c>
       <c r="H201" s="7">
         <f t="shared" si="7"/>
-        <v>2.8024840057178986E-2</v>
+        <v>8.4074520171536951E-2</v>
       </c>
       <c r="J201">
         <v>1</v>
@@ -5183,11 +7225,11 @@
       </c>
       <c r="G202" s="7">
         <f t="shared" si="6"/>
-        <v>3.1203792391313663E-2</v>
+        <v>9.3611377173940982E-2</v>
       </c>
       <c r="H202" s="7">
         <f t="shared" si="7"/>
-        <v>2.7748053209246351E-2</v>
+        <v>8.3244159627739053E-2</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -5199,11 +7241,11 @@
       </c>
       <c r="G203" s="7">
         <f t="shared" si="6"/>
-        <v>3.0897123073483045E-2</v>
+        <v>9.2691369220449127E-2</v>
       </c>
       <c r="H203" s="7">
         <f t="shared" si="7"/>
-        <v>2.7475346724018739E-2</v>
+        <v>8.2426040172056222E-2</v>
       </c>
       <c r="J203">
         <v>1</v>
@@ -5215,11 +7257,11 @@
       </c>
       <c r="G204" s="7">
         <f t="shared" si="6"/>
-        <v>3.0594952535927592E-2</v>
+        <v>9.178485760778278E-2</v>
       </c>
       <c r="H204" s="7">
         <f t="shared" si="7"/>
-        <v>2.7206640790803732E-2</v>
+        <v>8.1619922372411211E-2</v>
       </c>
       <c r="J204">
         <v>1</v>
@@ -5231,11 +7273,11 @@
       </c>
       <c r="G205" s="7">
         <f t="shared" si="6"/>
-        <v>3.029719321202053E-2</v>
+        <v>9.0891579636061579E-2</v>
       </c>
       <c r="H205" s="7">
         <f t="shared" si="7"/>
-        <v>2.6941857540751651E-2</v>
+        <v>8.0825572622254954E-2</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -5247,11 +7289,11 @@
       </c>
       <c r="G206" s="7">
         <f t="shared" si="6"/>
-        <v>3.0003759655367203E-2</v>
+        <v>9.0011278966101615E-2</v>
       </c>
       <c r="H206" s="7">
         <f t="shared" si="7"/>
-        <v>2.6680920990434728E-2</v>
+        <v>8.0042762971304193E-2</v>
       </c>
       <c r="J206">
         <v>1</v>
@@ -5263,11 +7305,11 @@
       </c>
       <c r="G207" s="7">
         <f t="shared" si="6"/>
-        <v>2.9714568478498044E-2</v>
+        <v>8.9143705435494131E-2</v>
       </c>
       <c r="H207" s="7">
         <f t="shared" si="7"/>
-        <v>2.6423756987329648E-2</v>
+        <v>7.9271270961988952E-2</v>
       </c>
       <c r="J207">
         <v>1</v>
@@ -5279,11 +7321,11 @@
       </c>
       <c r="G208" s="7">
         <f t="shared" si="6"/>
-        <v>2.94295382936197E-2</v>
+        <v>8.8288614880859095E-2</v>
       </c>
       <c r="H208" s="7">
         <f t="shared" si="7"/>
-        <v>2.6170293157130365E-2</v>
+        <v>7.8510879471391098E-2</v>
       </c>
       <c r="J208">
         <v>1</v>
@@ -5295,11 +7337,11 @@
       </c>
       <c r="G209" s="7">
         <f t="shared" si="6"/>
-        <v>2.9148589655345863E-2</v>
+        <v>8.744576896603759E-2</v>
       </c>
       <c r="H209" s="7">
         <f t="shared" si="7"/>
-        <v>2.5920458852821321E-2</v>
+        <v>7.7761376558463963E-2</v>
       </c>
       <c r="J209">
         <v>1</v>
@@ -5311,11 +7353,11 @@
       </c>
       <c r="G210" s="7">
         <f t="shared" si="6"/>
-        <v>2.8871645005332486E-2</v>
+        <v>8.6614935015997457E-2</v>
       </c>
       <c r="H210" s="7">
         <f t="shared" si="7"/>
-        <v>2.5674185105444176E-2</v>
+        <v>7.7022555316332536E-2</v>
       </c>
       <c r="J210">
         <v>1</v>
@@ -5327,11 +7369,11 @@
       </c>
       <c r="G211" s="7">
         <f t="shared" si="6"/>
-        <v>2.8598628618745372E-2</v>
+        <v>8.5795885856236112E-2</v>
       </c>
       <c r="H211" s="7">
         <f t="shared" si="7"/>
-        <v>2.5431404576493972E-2</v>
+        <v>7.6294213729481919E-2</v>
       </c>
       <c r="J211">
         <v>1</v>
@@ -5343,11 +7385,11 @@
       </c>
       <c r="G212" s="7">
         <f t="shared" si="6"/>
-        <v>2.8329466552491162E-2</v>
+        <v>8.4988399657473485E-2</v>
       </c>
       <c r="H212" s="7">
         <f t="shared" si="7"/>
-        <v>2.5192051511883414E-2</v>
+        <v>7.5576154535650253E-2</v>
       </c>
       <c r="J212">
         <v>1</v>
@@ -5359,11 +7401,11 @@
       </c>
       <c r="G213" s="7">
         <f t="shared" si="6"/>
-        <v>2.8064086595145647E-2</v>
+        <v>8.4192259785436929E-2</v>
       </c>
       <c r="H213" s="7">
         <f t="shared" si="7"/>
-        <v>2.4956061697416477E-2</v>
+        <v>7.4868185092249434E-2</v>
       </c>
       <c r="J213">
         <v>1</v>
@@ -5375,11 +7417,11 @@
       </c>
       <c r="G214" s="7">
         <f t="shared" si="6"/>
-        <v>2.780241821851609E-2</v>
+        <v>8.3407254655548269E-2</v>
       </c>
       <c r="H214" s="7">
         <f t="shared" si="7"/>
-        <v>2.4723372415715091E-2</v>
+        <v>7.417011724714527E-2</v>
       </c>
       <c r="J214">
         <v>1</v>
@@ -5391,11 +7433,11 @@
       </c>
       <c r="G215" s="7">
         <f t="shared" si="6"/>
-        <v>2.7544392530776909E-2</v>
+        <v>8.2633177592330728E-2</v>
       </c>
       <c r="H215" s="7">
         <f t="shared" si="7"/>
-        <v>2.4493922404544902E-2</v>
+        <v>7.3481767213634711E-2</v>
       </c>
       <c r="J215">
         <v>1</v>
@@ -5407,11 +7449,11 @@
       </c>
       <c r="G216" s="7">
         <f t="shared" si="6"/>
-        <v>2.7289942231120599E-2</v>
+        <v>8.1869826693361805E-2</v>
       </c>
       <c r="H216" s="7">
         <f t="shared" si="7"/>
-        <v>2.4267651816488517E-2</v>
+        <v>7.2802955449465551E-2</v>
       </c>
       <c r="J216">
         <v>1</v>
@@ -5423,11 +7465,11 @@
       </c>
       <c r="G217" s="7">
         <f t="shared" si="6"/>
-        <v>2.7039001565868095E-2</v>
+        <v>8.1117004697604286E-2</v>
       </c>
       <c r="H217" s="7">
         <f t="shared" si="7"/>
-        <v>2.4044502179916501E-2</v>
+        <v>7.2133506539749509E-2</v>
       </c>
       <c r="J217">
         <v>1</v>
@@ -5439,11 +7481,11 @@
       </c>
       <c r="G218" s="7">
         <f t="shared" si="6"/>
-        <v>2.6791506285985246E-2</v>
+        <v>8.0374518857955726E-2</v>
       </c>
       <c r="H218" s="7">
         <f t="shared" si="7"/>
-        <v>2.3824416361208824E-2</v>
+        <v>7.1473249083626483E-2</v>
       </c>
       <c r="J218">
         <v>1</v>
@@ -5455,11 +7497,11 @@
       </c>
       <c r="G219" s="7">
         <f t="shared" si="6"/>
-        <v>2.654739360595406E-2</v>
+        <v>7.9642180817862174E-2</v>
       </c>
       <c r="H219" s="7">
         <f t="shared" si="7"/>
-        <v>2.3607338528180984E-2</v>
+        <v>7.0822015584542958E-2</v>
       </c>
       <c r="J219">
         <v>1</v>
@@ -5471,11 +7513,11 @@
       </c>
       <c r="G220" s="7">
         <f t="shared" si="6"/>
-        <v>2.6306602163949644E-2</v>
+        <v>7.8919806491848932E-2</v>
       </c>
       <c r="H220" s="7">
         <f t="shared" si="7"/>
-        <v>2.3393214114671244E-2</v>
+        <v>7.0179642344013735E-2</v>
       </c>
       <c r="J220">
         <v>1</v>
@@ -5487,11 +7529,11 @@
       </c>
       <c r="G221" s="7">
         <f t="shared" si="6"/>
-        <v>2.6069071983275582E-2</v>
+        <v>7.8207215949826742E-2</v>
       </c>
       <c r="H221" s="7">
         <f t="shared" si="7"/>
-        <v>2.3181989786246967E-2</v>
+        <v>6.9545969358740911E-2</v>
       </c>
       <c r="J221">
         <v>1</v>
@@ -5503,11 +7545,11 @@
       </c>
       <c r="G222" s="7">
         <f t="shared" si="6"/>
-        <v>2.5834744435012637E-2</v>
+        <v>7.7504233305037917E-2</v>
       </c>
       <c r="H222" s="7">
         <f t="shared" si="7"/>
-        <v>2.2973613406989859E-2</v>
+        <v>6.8920840220969587E-2</v>
       </c>
       <c r="J222">
         <v>1</v>
@@ -5519,11 +7561,11 @@
       </c>
       <c r="G223" s="7">
         <f t="shared" si="6"/>
-        <v>2.5603562201837213E-2</v>
+        <v>7.6810686605511644E-2</v>
       </c>
       <c r="H223" s="7">
         <f t="shared" si="7"/>
-        <v>2.2768034007321445E-2</v>
+        <v>6.8304102021964339E-2</v>
       </c>
       <c r="J223">
         <v>1</v>
@@ -5535,11 +7577,11 @@
       </c>
       <c r="G224" s="7">
         <f t="shared" si="6"/>
-        <v>2.5375469242968008E-2</v>
+        <v>7.6126407728904028E-2</v>
       </c>
       <c r="H224" s="7">
         <f t="shared" si="7"/>
-        <v>2.2565201752831797E-2</v>
+        <v>6.7695605258495384E-2</v>
       </c>
       <c r="J224">
         <v>1</v>
@@ -5551,11 +7593,11 @@
       </c>
       <c r="G225" s="7">
         <f t="shared" si="6"/>
-        <v>2.5150410760200744E-2</v>
+        <v>7.5451232280602229E-2</v>
       </c>
       <c r="H225" s="7">
         <f t="shared" si="7"/>
-        <v>2.2365067914075814E-2</v>
+        <v>6.7095203742227452E-2</v>
       </c>
       <c r="J225">
         <v>1</v>
@@ -5567,11 +7609,11 @@
       </c>
       <c r="G226" s="7">
         <f t="shared" si="6"/>
-        <v>2.4928333164992614E-2</v>
+        <v>7.4784999494977841E-2</v>
       </c>
       <c r="H226" s="7">
         <f t="shared" si="7"/>
-        <v>2.2167584837303002E-2</v>
+        <v>6.6502754511909012E-2</v>
       </c>
       <c r="J226">
         <v>1</v>
@@ -5583,11 +7625,11 @@
       </c>
       <c r="G227" s="7">
         <f t="shared" si="6"/>
-        <v>2.4709184046559467E-2</v>
+        <v>7.4127552139678393E-2</v>
       </c>
       <c r="H227" s="7">
         <f t="shared" si="7"/>
-        <v>2.1972705916087798E-2</v>
+        <v>6.5918117748263394E-2</v>
       </c>
       <c r="J227">
         <v>1</v>
@@ -5599,11 +7641,11 @@
       </c>
       <c r="G228" s="7">
         <f t="shared" si="6"/>
-        <v>2.4492912140950344E-2</v>
+        <v>7.3478736422851035E-2</v>
       </c>
       <c r="H228" s="7">
         <f t="shared" si="7"/>
-        <v>2.1780385563829028E-2</v>
+        <v>6.5341156691487087E-2</v>
       </c>
       <c r="J228">
         <v>1</v>
@@ -5615,11 +7657,11 @@
       </c>
       <c r="G229" s="7">
         <f t="shared" si="6"/>
-        <v>2.4279467301065248E-2</v>
+        <v>7.2838401903195751E-2</v>
       </c>
       <c r="H229" s="7">
         <f t="shared" si="7"/>
-        <v>2.1590579187088121E-2</v>
+        <v>6.4771737561264364E-2</v>
       </c>
       <c r="J229">
         <v>1</v>
@@ -5631,11 +7673,11 @@
       </c>
       <c r="G230" s="7">
         <f t="shared" si="6"/>
-        <v>2.4068800467583414E-2</v>
+        <v>7.2206401402750253E-2</v>
       </c>
       <c r="H230" s="7">
         <f t="shared" si="7"/>
-        <v>2.1403243159737014E-2</v>
+        <v>6.4209729479211053E-2</v>
       </c>
       <c r="J230">
         <v>1</v>
@@ -5647,11 +7689,11 @@
       </c>
       <c r="G231" s="7">
         <f t="shared" si="6"/>
-        <v>2.3860863640770651E-2</v>
+        <v>7.1582590922311951E-2</v>
       </c>
       <c r="H231" s="7">
         <f t="shared" si="7"/>
-        <v>2.1218334797887747E-2</v>
+        <v>6.3655004393663256E-2</v>
       </c>
       <c r="J231">
         <v>1</v>
@@ -5663,11 +7705,11 @@
       </c>
       <c r="G232" s="7">
         <f t="shared" si="6"/>
-        <v>2.3655609853135456E-2</v>
+        <v>7.0966829559406364E-2</v>
       </c>
       <c r="H232" s="7">
         <f t="shared" si="7"/>
-        <v>2.1035812335576845E-2</v>
+        <v>6.3107437006730549E-2</v>
       </c>
       <c r="J232">
         <v>1</v>
@@ -5679,11 +7721,11 @@
       </c>
       <c r="G233" s="7">
         <f t="shared" si="6"/>
-        <v>2.3452993142904874E-2</v>
+        <v>7.0358979428714621E-2</v>
       </c>
       <c r="H233" s="7">
         <f t="shared" si="7"/>
-        <v>2.0855634901178657E-2</v>
+        <v>6.2566904703535986E-2</v>
       </c>
       <c r="J233">
         <v>1</v>
@@ -5695,11 +7737,11 @@
       </c>
       <c r="G234" s="7">
         <f t="shared" si="6"/>
-        <v>2.3252968528292107E-2</v>
+        <v>6.9758905584876324E-2</v>
       </c>
       <c r="H234" s="7">
         <f t="shared" si="7"/>
-        <v>2.0677762494522758E-2</v>
+        <v>6.2033287483568275E-2</v>
       </c>
       <c r="J234">
         <v>1</v>
@@ -5711,11 +7753,11 @@
       </c>
       <c r="G235" s="7">
         <f t="shared" si="6"/>
-        <v>2.3055491982528976E-2</v>
+        <v>6.9166475947586931E-2</v>
       </c>
       <c r="H235" s="7">
         <f t="shared" si="7"/>
-        <v>2.0502155964691501E-2</v>
+        <v>6.1506467894074504E-2</v>
       </c>
       <c r="J235">
         <v>1</v>
@@ -5727,11 +7769,11 @@
       </c>
       <c r="G236" s="7">
         <f t="shared" si="6"/>
-        <v>2.2860520409637364E-2</v>
+        <v>6.8581561228912097E-2</v>
       </c>
       <c r="H236" s="7">
         <f t="shared" si="7"/>
-        <v>2.0328776988474722E-2</v>
+        <v>6.0986330965424169E-2</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -5743,11 +7785,11 @@
       </c>
       <c r="G237" s="7">
         <f t="shared" si="6"/>
-        <v>2.2668011620914787E-2</v>
+        <v>6.8004034862744367E-2</v>
       </c>
       <c r="H237" s="7">
         <f t="shared" si="7"/>
-        <v>2.0157588049459454E-2</v>
+        <v>6.047276414837837E-2</v>
       </c>
       <c r="J237">
         <v>1</v>
@@ -5759,11 +7801,11 @@
       </c>
       <c r="G238" s="7">
         <f t="shared" si="6"/>
-        <v>2.2477924312110067E-2</v>
+        <v>6.7433772936330197E-2</v>
       </c>
       <c r="H238" s="7">
         <f t="shared" si="7"/>
-        <v>1.9988552417733355E-2</v>
+        <v>5.9965657253200064E-2</v>
       </c>
       <c r="J238">
         <v>1</v>
@@ -5775,11 +7817,11 @@
       </c>
       <c r="G239" s="7">
         <f t="shared" si="6"/>
-        <v>2.229021804126613E-2</v>
+        <v>6.687065412379839E-2</v>
       </c>
       <c r="H239" s="7">
         <f t="shared" si="7"/>
-        <v>1.9821634130181336E-2</v>
+        <v>5.9464902390544014E-2</v>
       </c>
       <c r="J239">
         <v>1</v>
@@ -5791,11 +7833,11 @@
       </c>
       <c r="G240" s="7">
         <f t="shared" si="6"/>
-        <v>2.2104853207207686E-2</v>
+        <v>6.6314559621623054E-2</v>
       </c>
       <c r="H240" s="7">
         <f t="shared" si="7"/>
-        <v>1.9656797971355697E-2</v>
+        <v>5.8970393914067089E-2</v>
       </c>
       <c r="J240">
         <v>1</v>
@@ -5807,11 +7849,11 @@
       </c>
       <c r="G241" s="7">
         <f t="shared" si="6"/>
-        <v>2.1921791028652444E-2</v>
+        <v>6.576537308595734E-2</v>
       </c>
       <c r="H241" s="7">
         <f t="shared" si="7"/>
-        <v>1.949400945490071E-2</v>
+        <v>5.8482028364702135E-2</v>
       </c>
       <c r="J241">
         <v>1</v>
@@ -5823,11 +7865,11 @@
       </c>
       <c r="G242" s="7">
         <f t="shared" si="6"/>
-        <v>2.1740993523925323E-2</v>
+        <v>6.5222980571775974E-2</v>
       </c>
       <c r="H242" s="7">
         <f t="shared" si="7"/>
-        <v>1.9333234805513425E-2</v>
+        <v>5.7999704416540274E-2</v>
       </c>
       <c r="J242">
         <v>1</v>
@@ -5839,11 +7881,11 @@
       </c>
       <c r="G243" s="7">
         <f t="shared" si="6"/>
-        <v>2.1562423491255783E-2</v>
+        <v>6.468727047376735E-2</v>
       </c>
       <c r="H243" s="7">
         <f t="shared" si="7"/>
-        <v>1.9174440941423024E-2</v>
+        <v>5.7523322824269078E-2</v>
       </c>
       <c r="J243">
         <v>1</v>
@@ -5855,11 +7897,11 @@
       </c>
       <c r="G244" s="7">
         <f t="shared" si="6"/>
-        <v>2.1386044489639256E-2</v>
+        <v>6.4158133468917772E-2</v>
       </c>
       <c r="H244" s="7">
         <f t="shared" si="7"/>
-        <v>1.9017595457371812E-2</v>
+        <v>5.7052786372115437E-2</v>
       </c>
       <c r="J244">
         <v>1</v>
@@ -5871,11 +7913,11 @@
       </c>
       <c r="G245" s="7">
         <f t="shared" si="6"/>
-        <v>2.1211820820244278E-2</v>
+        <v>6.3635462460732831E-2</v>
       </c>
       <c r="H245" s="7">
         <f t="shared" si="7"/>
-        <v>1.8862666608081436E-2</v>
+        <v>5.6587999824244319E-2</v>
       </c>
       <c r="J245">
         <v>1</v>
@@ -5887,11 +7929,11 @@
       </c>
       <c r="G246" s="7">
         <f t="shared" si="6"/>
-        <v>2.1039717508347593E-2</v>
+        <v>6.3119152525042771E-2</v>
       </c>
       <c r="H246" s="7">
         <f t="shared" si="7"/>
-        <v>1.870962329218865E-2</v>
+        <v>5.612886987656595E-2</v>
       </c>
       <c r="J246">
         <v>1</v>
@@ -5903,11 +7945,11 @@
       </c>
       <c r="G247" s="7">
         <f t="shared" si="6"/>
-        <v>2.0869700285780175E-2</v>
+        <v>6.2609100857340519E-2</v>
       </c>
       <c r="H247" s="7">
         <f t="shared" si="7"/>
-        <v>1.8558435036635384E-2</v>
+        <v>5.5675305109906155E-2</v>
       </c>
       <c r="J247">
         <v>1</v>
@@ -5919,11 +7961,11 @@
       </c>
       <c r="G248" s="7">
         <f t="shared" si="6"/>
-        <v>2.0701735573867761E-2</v>
+        <v>6.210520672160328E-2</v>
       </c>
       <c r="H248" s="7">
         <f t="shared" si="7"/>
-        <v>1.8409071981498572E-2</v>
+        <v>5.5227215944495721E-2</v>
       </c>
       <c r="J248">
         <v>1</v>
@@ -5935,11 +7977,11 @@
       </c>
       <c r="G249" s="7">
         <f t="shared" si="6"/>
-        <v>2.0535790466849935E-2</v>
+        <v>6.1607371400549803E-2</v>
       </c>
       <c r="H249" s="7">
         <f t="shared" si="7"/>
-        <v>1.8261504865245533E-2</v>
+        <v>5.4784514595736598E-2</v>
       </c>
       <c r="J249">
         <v>1</v>
@@ -5951,11 +7993,11 @@
       </c>
       <c r="G250" s="7">
         <f t="shared" si="6"/>
-        <v>2.0371832715762605E-2</v>
+        <v>6.1115498147287818E-2</v>
       </c>
       <c r="H250" s="7">
         <f t="shared" si="7"/>
-        <v>1.8115705010401412E-2</v>
+        <v>5.4347115031204242E-2</v>
       </c>
       <c r="J250">
         <v>1</v>
@@ -5967,11 +8009,11 @@
       </c>
       <c r="G251" s="7">
         <f t="shared" si="6"/>
-        <v>2.0209830712769047E-2</v>
+        <v>6.0629492138307144E-2</v>
       </c>
       <c r="H251" s="7">
         <f t="shared" si="7"/>
-        <v>1.7971644309615533E-2</v>
+        <v>5.3914932928846603E-2</v>
       </c>
       <c r="J251">
         <v>1</v>
@@ -5983,11 +8025,11 @@
       </c>
       <c r="G252" s="7">
         <f t="shared" si="6"/>
-        <v>2.0049753475925341E-2</v>
+        <v>6.0149260427776019E-2</v>
       </c>
       <c r="H252" s="7">
         <f t="shared" si="7"/>
-        <v>1.7829295212114012E-2</v>
+        <v>5.348788563634204E-2</v>
       </c>
       <c r="J252">
         <v>1</v>
@@ -5999,11 +8041,11 @@
       </c>
       <c r="G253" s="7">
         <f t="shared" si="6"/>
-        <v>1.9891570634366459E-2</v>
+        <v>5.9674711903099378E-2</v>
       </c>
       <c r="H253" s="7">
         <f t="shared" si="7"/>
-        <v>1.7688630710526457E-2</v>
+        <v>5.3065892131579383E-2</v>
       </c>
       <c r="J253">
         <v>1</v>
@@ -6015,11 +8057,11 @@
       </c>
       <c r="G254" s="7">
         <f t="shared" si="6"/>
-        <v>1.973525241389985E-2</v>
+        <v>5.9205757241699547E-2</v>
       </c>
       <c r="H254" s="7">
         <f t="shared" si="7"/>
-        <v>1.7549624328075022E-2</v>
+        <v>5.2648872984225069E-2</v>
       </c>
       <c r="J254">
         <v>1</v>
@@ -6031,11 +8073,11 @@
       </c>
       <c r="G255" s="7">
         <f t="shared" si="6"/>
-        <v>1.9580769622993658E-2</v>
+        <v>5.8742308868980977E-2</v>
       </c>
       <c r="H255" s="7">
         <f t="shared" si="7"/>
-        <v>1.7412250106114389E-2</v>
+        <v>5.223675031834317E-2</v>
       </c>
       <c r="J255">
         <v>1</v>
@@ -6047,11 +8089,11 @@
       </c>
       <c r="G256" s="7">
         <f t="shared" si="6"/>
-        <v>1.9428093639147381E-2</v>
+        <v>5.8284280917442137E-2</v>
       </c>
       <c r="H256" s="7">
         <f t="shared" si="7"/>
-        <v>1.7276482592011842E-2</v>
+        <v>5.1829447776035528E-2</v>
       </c>
       <c r="J256">
         <v>1</v>
@@ -6063,11 +8105,11 @@
       </c>
       <c r="G257" s="7">
         <f t="shared" si="6"/>
-        <v>1.9277196395632981E-2</v>
+        <v>5.7831589186898943E-2</v>
       </c>
       <c r="H257" s="7">
         <f t="shared" si="7"/>
-        <v>1.7142296827356785E-2</v>
+        <v>5.1426890482070359E-2</v>
       </c>
       <c r="J257">
         <v>1</v>
@@ -6079,11 +8121,11 @@
       </c>
       <c r="G258" s="7">
         <f t="shared" si="6"/>
-        <v>1.9128050368595075E-2</v>
+        <v>5.7384151105785229E-2</v>
       </c>
       <c r="H258" s="7">
         <f t="shared" si="7"/>
-        <v>1.7009668336489515E-2</v>
+        <v>5.1029005009468546E-2</v>
       </c>
       <c r="J258">
         <v>1</v>
@@ -6095,11 +8137,11 @@
       </c>
       <c r="G259" s="7">
         <f t="shared" ref="G259:G322" si="8">($C$3*$C$12)/(4*F259*F259*PI())</f>
-        <v>1.8980628564499082E-2</v>
+        <v>5.6941885693497243E-2</v>
       </c>
       <c r="H259" s="7">
         <f t="shared" ref="H259:H322" si="9">($C$3*$C$14)/(4*F259*F259*PI())</f>
-        <v>1.6878573115339489E-2</v>
+        <v>5.0635719346018473E-2</v>
       </c>
       <c r="J259">
         <v>1</v>
@@ -6111,11 +8153,11 @@
       </c>
       <c r="G260" s="7">
         <f t="shared" si="8"/>
-        <v>1.8834904507916608E-2</v>
+        <v>5.6504713523749826E-2</v>
       </c>
       <c r="H260" s="7">
         <f t="shared" si="9"/>
-        <v>1.6748987620563434E-2</v>
+        <v>5.0246962861690302E-2</v>
       </c>
       <c r="J260">
         <v>1</v>
@@ -6127,11 +8169,11 @@
       </c>
       <c r="G261" s="7">
         <f t="shared" si="8"/>
-        <v>1.8690852229637889E-2</v>
+        <v>5.6072556688913665E-2</v>
       </c>
       <c r="H261" s="7">
         <f t="shared" si="9"/>
-        <v>1.6620888758974297E-2</v>
+        <v>4.9862666276922894E-2</v>
       </c>
       <c r="J261">
         <v>1</v>
@@ -6143,11 +8185,11 @@
       </c>
       <c r="G262" s="7">
         <f t="shared" si="8"/>
-        <v>1.8548446255101141E-2</v>
+        <v>5.564533876530342E-2</v>
       </c>
       <c r="H262" s="7">
         <f t="shared" si="9"/>
-        <v>1.6494253877252028E-2</v>
+        <v>4.9482761631756085E-2</v>
       </c>
       <c r="J262">
         <v>1</v>
@@ -6159,11 +8201,11 @@
       </c>
       <c r="G263" s="7">
         <f t="shared" si="8"/>
-        <v>1.8407661593129333E-2</v>
+        <v>5.5222984779387994E-2</v>
       </c>
       <c r="H263" s="7">
         <f t="shared" si="9"/>
-        <v>1.6369060751927716E-2</v>
+        <v>4.9107182255783151E-2</v>
       </c>
       <c r="J263">
         <v>1</v>
@@ -6175,11 +8217,11 @@
       </c>
       <c r="G264" s="7">
         <f t="shared" si="8"/>
-        <v>1.8268473724965029E-2</v>
+        <v>5.4805421174895091E-2</v>
       </c>
       <c r="H264" s="7">
         <f t="shared" si="9"/>
-        <v>1.6245287579632808E-2</v>
+        <v>4.8735862738898426E-2</v>
       </c>
       <c r="J264">
         <v>1</v>
@@ -6191,11 +8233,11 @@
       </c>
       <c r="G265" s="7">
         <f t="shared" si="8"/>
-        <v>1.8130858593594344E-2</v>
+        <v>5.4392575780783027E-2</v>
       </c>
       <c r="H265" s="7">
         <f t="shared" si="9"/>
-        <v>1.6122912967605384E-2</v>
+        <v>4.8368738902816157E-2</v>
       </c>
       <c r="J265">
         <v>1</v>
@@ -6207,11 +8249,11 @@
       </c>
       <c r="G266" s="7">
         <f t="shared" si="8"/>
-        <v>1.7994792593351273E-2</v>
+        <v>5.398437778005382E-2</v>
       </c>
       <c r="H266" s="7">
         <f t="shared" si="9"/>
-        <v>1.6001915924445814E-2</v>
+        <v>4.8005747773337451E-2</v>
       </c>
       <c r="J266">
         <v>1</v>
@@ -6223,11 +8265,11 @@
       </c>
       <c r="G267" s="7">
         <f t="shared" si="8"/>
-        <v>1.7860252559794114E-2</v>
+        <v>5.3580757679382342E-2</v>
       </c>
       <c r="H267" s="7">
         <f t="shared" si="9"/>
-        <v>1.5882275851114312E-2</v>
+        <v>4.7646827553342937E-2</v>
       </c>
       <c r="J267">
         <v>1</v>
@@ -6239,11 +8281,11 @@
       </c>
       <c r="G268" s="7">
         <f t="shared" si="8"/>
-        <v>1.7727215759845771E-2</v>
+        <v>5.3181647279537315E-2</v>
       </c>
       <c r="H268" s="7">
         <f t="shared" si="9"/>
-        <v>1.5763972532163179E-2</v>
+        <v>4.7291917596489541E-2</v>
       </c>
       <c r="J268">
         <v>1</v>
@@ -6255,11 +8297,11 @@
       </c>
       <c r="G269" s="7">
         <f t="shared" si="8"/>
-        <v>1.7595659882190168E-2</v>
+        <v>5.2786979646570503E-2</v>
       </c>
       <c r="H269" s="7">
         <f t="shared" si="9"/>
-        <v>1.5646986127196807E-2</v>
+        <v>4.6940958381590424E-2</v>
       </c>
       <c r="J269">
         <v>1</v>
@@ -6271,11 +8313,11 @@
       </c>
       <c r="G270" s="7">
         <f t="shared" si="8"/>
-        <v>1.7465563027917182E-2</v>
+        <v>5.2396689083751551E-2</v>
       </c>
       <c r="H270" s="7">
         <f t="shared" si="9"/>
-        <v>1.553129716255265E-2</v>
+        <v>4.6593891487657947E-2</v>
       </c>
       <c r="J270">
         <v>1</v>
@@ -6287,11 +8329,11 @@
       </c>
       <c r="G271" s="7">
         <f t="shared" si="8"/>
-        <v>1.7336903701408786E-2</v>
+        <v>5.2010711104226358E-2</v>
       </c>
       <c r="H271" s="7">
         <f t="shared" si="9"/>
-        <v>1.541688652319669E-2</v>
+        <v>4.6250659569590076E-2</v>
       </c>
       <c r="J271">
         <v>1</v>
@@ -6303,11 +8345,11 @@
       </c>
       <c r="G272" s="7">
         <f t="shared" si="8"/>
-        <v>1.7209660801459272E-2</v>
+        <v>5.162898240437782E-2</v>
       </c>
       <c r="H272" s="7">
         <f t="shared" si="9"/>
-        <v>1.5303735444827101E-2</v>
+        <v>4.5911206334481307E-2</v>
       </c>
       <c r="J272">
         <v>1</v>
@@ -6319,11 +8361,11 @@
       </c>
       <c r="G273" s="7">
         <f t="shared" si="8"/>
-        <v>1.7083813612622775E-2</v>
+        <v>5.1251440837868326E-2</v>
       </c>
       <c r="H273" s="7">
         <f t="shared" si="9"/>
-        <v>1.5191825506179988E-2</v>
+        <v>4.5575476518539965E-2</v>
       </c>
       <c r="J273">
         <v>1</v>
@@ -6335,11 +8377,11 @@
       </c>
       <c r="G274" s="7">
         <f t="shared" si="8"/>
-        <v>1.6959341796781432E-2</v>
+        <v>5.0878025390344292E-2</v>
       </c>
       <c r="H274" s="7">
         <f t="shared" si="9"/>
-        <v>1.5081138621531357E-2</v>
+        <v>4.5243415864594072E-2</v>
       </c>
       <c r="J274">
         <v>1</v>
@@ -6351,11 +8393,11 @@
       </c>
       <c r="G275" s="7">
         <f t="shared" si="8"/>
-        <v>1.6836225384927773E-2</v>
+        <v>5.050867615478332E-2</v>
       </c>
       <c r="H275" s="7">
         <f t="shared" si="9"/>
-        <v>1.4971657033389596E-2</v>
+        <v>4.4914971100168795E-2</v>
       </c>
       <c r="J275">
         <v>1</v>
@@ -6367,11 +8409,11 @@
       </c>
       <c r="G276" s="7">
         <f t="shared" si="8"/>
-        <v>1.6714444769155151E-2</v>
+        <v>5.0143334307465454E-2</v>
       </c>
       <c r="H276" s="7">
         <f t="shared" si="9"/>
-        <v>1.4863363305372928E-2</v>
+        <v>4.4590089916118784E-2</v>
       </c>
       <c r="J276">
         <v>1</v>
@@ -6383,11 +8425,11 @@
       </c>
       <c r="G277" s="7">
         <f t="shared" si="8"/>
-        <v>1.6593980694850224E-2</v>
+        <v>4.9781942084550668E-2</v>
       </c>
       <c r="H277" s="7">
         <f t="shared" si="9"/>
-        <v>1.4756240315266565E-2</v>
+        <v>4.4268720945799693E-2</v>
       </c>
       <c r="J277">
         <v>1</v>
@@ -6399,11 +8441,11 @@
       </c>
       <c r="G278" s="7">
         <f t="shared" si="8"/>
-        <v>1.6474814253081657E-2</v>
+        <v>4.9424442759244971E-2</v>
       </c>
       <c r="H278" s="7">
         <f t="shared" si="9"/>
-        <v>1.4650271248254337E-2</v>
+        <v>4.3950813744763013E-2</v>
       </c>
       <c r="J278">
         <v>1</v>
@@ -6415,11 +8457,11 @@
       </c>
       <c r="G279" s="7">
         <f t="shared" si="8"/>
-        <v>1.6356926873179467E-2</v>
+        <v>4.9070780619538394E-2</v>
       </c>
       <c r="H279" s="7">
         <f t="shared" si="9"/>
-        <v>1.4545439590319859E-2</v>
+        <v>4.3636318770959581E-2</v>
       </c>
       <c r="J279">
         <v>1</v>
@@ -6431,11 +8473,11 @@
       </c>
       <c r="G280" s="7">
         <f t="shared" si="8"/>
-        <v>1.6240300315499525E-2</v>
+        <v>4.8720900946498572E-2</v>
       </c>
       <c r="H280" s="7">
         <f t="shared" si="9"/>
-        <v>1.4441729121812349E-2</v>
+        <v>4.332518736543705E-2</v>
       </c>
       <c r="J280">
         <v>1</v>
@@ -6447,11 +8489,11 @@
       </c>
       <c r="G281" s="7">
         <f t="shared" si="8"/>
-        <v>1.6124916664368015E-2</v>
+        <v>4.8374749993104045E-2</v>
       </c>
       <c r="H281" s="7">
         <f t="shared" si="9"/>
-        <v>1.4339123911172456E-2</v>
+        <v>4.3017371733517371E-2</v>
       </c>
       <c r="J281">
         <v>1</v>
@@ -6463,11 +8505,11 @@
       </c>
       <c r="G282" s="7">
         <f t="shared" si="8"/>
-        <v>1.6010758321200677E-2</v>
+        <v>4.8032274963602038E-2</v>
       </c>
       <c r="H282" s="7">
         <f t="shared" si="9"/>
-        <v>1.4237608308813543E-2</v>
+        <v>4.2712824926440629E-2</v>
       </c>
       <c r="J282">
         <v>1</v>
@@ -6479,11 +8521,11 @@
       </c>
       <c r="G283" s="7">
         <f t="shared" si="8"/>
-        <v>1.5897807997791991E-2</v>
+        <v>4.769342399337597E-2</v>
       </c>
       <c r="H283" s="7">
         <f t="shared" si="9"/>
-        <v>1.4137166941154067E-2</v>
+        <v>4.2411500823462206E-2</v>
       </c>
       <c r="J283">
         <v>1</v>
@@ -6495,11 +8537,11 @@
       </c>
       <c r="G284" s="7">
         <f t="shared" si="8"/>
-        <v>1.5786048709769428E-2</v>
+        <v>4.7358146129308276E-2</v>
       </c>
       <c r="H284" s="7">
         <f t="shared" si="9"/>
-        <v>1.4037784704796769E-2</v>
+        <v>4.2113354114390308E-2</v>
       </c>
       <c r="J284">
         <v>1</v>
@@ -6511,11 +8553,11 @@
       </c>
       <c r="G285" s="7">
         <f t="shared" si="8"/>
-        <v>1.5675463770208221E-2</v>
+        <v>4.7026391310624659E-2</v>
       </c>
       <c r="H285" s="7">
         <f t="shared" si="9"/>
-        <v>1.3939446760850578E-2</v>
+        <v>4.1818340282551734E-2</v>
       </c>
       <c r="J285">
         <v>1</v>
@@ -6527,11 +8569,11 @@
       </c>
       <c r="G286" s="7">
         <f t="shared" si="8"/>
-        <v>1.5566036783402156E-2</v>
+        <v>4.6698110350206469E-2</v>
       </c>
       <c r="H286" s="7">
         <f t="shared" si="9"/>
-        <v>1.3842138529391267E-2</v>
+        <v>4.1526415588173805E-2</v>
       </c>
       <c r="J286">
         <v>1</v>
@@ -6543,11 +8585,11 @@
       </c>
       <c r="G287" s="7">
         <f t="shared" si="8"/>
-        <v>1.5457751638785985E-2</v>
+        <v>4.6373254916357957E-2</v>
       </c>
       <c r="H287" s="7">
         <f t="shared" si="9"/>
-        <v>1.3745845684056965E-2</v>
+        <v>4.1237537052170897E-2</v>
       </c>
       <c r="J287">
         <v>1</v>
@@ -6559,11 +8601,11 @@
       </c>
       <c r="G288" s="7">
         <f t="shared" si="8"/>
-        <v>1.5350592505005339E-2</v>
+        <v>4.6051777515016018E-2</v>
       </c>
       <c r="H288" s="7">
         <f t="shared" si="9"/>
-        <v>1.3650554146774791E-2</v>
+        <v>4.0951662440324374E-2</v>
       </c>
       <c r="J288">
         <v>1</v>
@@ -6575,11 +8617,11 @@
       </c>
       <c r="G289" s="7">
         <f t="shared" si="8"/>
-        <v>1.5244543824130012E-2</v>
+        <v>4.5733631472390034E-2</v>
       </c>
       <c r="H289" s="7">
         <f t="shared" si="9"/>
-        <v>1.3556250082615009E-2</v>
+        <v>4.0668750247845026E-2</v>
       </c>
       <c r="J289">
         <v>1</v>
@@ -6591,11 +8633,11 @@
       </c>
       <c r="G290" s="7">
         <f t="shared" si="8"/>
-        <v>1.5139590306006692E-2</v>
+        <v>4.5418770918020074E-2</v>
       </c>
       <c r="H290" s="7">
         <f t="shared" si="9"/>
-        <v>1.3462919894769181E-2</v>
+        <v>4.0388759684307544E-2</v>
       </c>
       <c r="J290">
         <v>1</v>
@@ -6607,11 +8649,11 @@
       </c>
       <c r="G291" s="7">
         <f t="shared" si="8"/>
-        <v>1.5035716922747282E-2</v>
+        <v>4.5107150768241851E-2</v>
       </c>
       <c r="H291" s="7">
         <f t="shared" si="9"/>
-        <v>1.3370550219648895E-2</v>
+        <v>4.0111650658946688E-2</v>
       </c>
       <c r="J291">
         <v>1</v>
@@ -6623,11 +8665,11 @@
       </c>
       <c r="G292" s="7">
         <f t="shared" si="8"/>
-        <v>1.4932908903349159E-2</v>
+        <v>4.4798726710047476E-2</v>
       </c>
       <c r="H292" s="7">
         <f t="shared" si="9"/>
-        <v>1.3279127922101803E-2</v>
+        <v>3.9837383766305412E-2</v>
       </c>
       <c r="J292">
         <v>1</v>
@@ -6639,11 +8681,11 @@
       </c>
       <c r="G293" s="7">
         <f t="shared" si="8"/>
-        <v>1.4831151728443695E-2</v>
+        <v>4.4493455185331085E-2</v>
       </c>
       <c r="H293" s="7">
         <f t="shared" si="9"/>
-        <v>1.3188640090741747E-2</v>
+        <v>3.956592027222524E-2</v>
       </c>
       <c r="J293">
         <v>1</v>
@@ -6655,11 +8697,11 @@
       </c>
       <c r="G294" s="7">
         <f t="shared" si="8"/>
-        <v>1.4730431125169637E-2</v>
+        <v>4.4191293375508915E-2</v>
       </c>
       <c r="H294" s="7">
         <f t="shared" si="9"/>
-        <v>1.3099074033389887E-2</v>
+        <v>3.9297222100169664E-2</v>
       </c>
       <c r="J294">
         <v>1</v>
@@ -6671,11 +8713,11 @@
       </c>
       <c r="G295" s="7">
         <f t="shared" si="8"/>
-        <v>1.4630733062167915E-2</v>
+        <v>4.3892199186503743E-2</v>
       </c>
       <c r="H295" s="7">
         <f t="shared" si="9"/>
-        <v>1.3010417272623823E-2</v>
+        <v>3.9031251817871468E-2</v>
       </c>
       <c r="J295">
         <v>1</v>
@@ -6687,11 +8729,11 @@
       </c>
       <c r="G296" s="7">
         <f t="shared" si="8"/>
-        <v>1.4532043744694608E-2</v>
+        <v>4.3596131234083825E-2</v>
       </c>
       <c r="H296" s="7">
         <f t="shared" si="9"/>
-        <v>1.2922657541431796E-2</v>
+        <v>3.8767972624295391E-2</v>
       </c>
       <c r="J296">
         <v>1</v>
@@ -6703,11 +8745,11 @@
       </c>
       <c r="G297" s="7">
         <f t="shared" si="8"/>
-        <v>1.4434349609848914E-2</v>
+        <v>4.3303048829546741E-2</v>
       </c>
       <c r="H297" s="7">
         <f t="shared" si="9"/>
-        <v>1.2835782778969133E-2</v>
+        <v>3.8507348336907402E-2</v>
       </c>
       <c r="J297">
         <v>1</v>
@@ -6719,11 +8761,11 @@
       </c>
       <c r="G298" s="7">
         <f t="shared" si="8"/>
-        <v>1.4337637321913009E-2</v>
+        <v>4.3012911965739024E-2</v>
       </c>
       <c r="H298" s="7">
         <f t="shared" si="9"/>
-        <v>1.2749781126414218E-2</v>
+        <v>3.8249343379242656E-2</v>
       </c>
       <c r="J298">
         <v>1</v>
@@ -6735,11 +8777,11 @@
       </c>
       <c r="G299" s="7">
         <f t="shared" si="8"/>
-        <v>1.4241893767800839E-2</v>
+        <v>4.2725681303402513E-2</v>
       </c>
       <c r="H299" s="7">
         <f t="shared" si="9"/>
-        <v>1.2664640922921312E-2</v>
+        <v>3.7993922768763934E-2</v>
       </c>
       <c r="J299">
         <v>1</v>
@@ -6751,11 +8793,11 @@
       </c>
       <c r="G300" s="7">
         <f t="shared" si="8"/>
-        <v>1.4147106052612921E-2</v>
+        <v>4.2441318157838762E-2</v>
       </c>
       <c r="H300" s="7">
         <f t="shared" si="9"/>
-        <v>1.2580350701667646E-2</v>
+        <v>3.7741052105002941E-2</v>
       </c>
       <c r="J300">
         <v>1</v>
@@ -6767,11 +8809,11 @@
       </c>
       <c r="G301" s="7">
         <f t="shared" si="8"/>
-        <v>1.4053261495294343E-2</v>
+        <v>4.2159784485883027E-2</v>
       </c>
       <c r="H301" s="7">
         <f t="shared" si="9"/>
-        <v>1.2496899185992299E-2</v>
+        <v>3.7490697557976897E-2</v>
       </c>
       <c r="J301">
         <v>1</v>
@@ -6783,11 +8825,11 @@
       </c>
       <c r="G302" s="7">
         <f t="shared" si="8"/>
-        <v>1.3960347624393257E-2</v>
+        <v>4.1881042873179772E-2</v>
       </c>
       <c r="H302" s="7">
         <f t="shared" si="9"/>
-        <v>1.2414275285624403E-2</v>
+        <v>3.7242825856873212E-2</v>
       </c>
       <c r="J302">
         <v>1</v>
@@ -6799,11 +8841,11 @@
       </c>
       <c r="G303" s="7">
         <f t="shared" si="8"/>
-        <v>1.3868352173917185E-2</v>
+        <v>4.1605056521751553E-2</v>
       </c>
       <c r="H303" s="7">
         <f t="shared" si="9"/>
-        <v>1.2332468092998379E-2</v>
+        <v>3.6997404278995144E-2</v>
       </c>
       <c r="J303">
         <v>1</v>
@@ -6815,11 +8857,11 @@
       </c>
       <c r="G304" s="7">
         <f t="shared" si="8"/>
-        <v>1.3777263079284568E-2</v>
+        <v>4.133178923785371E-2</v>
       </c>
       <c r="H304" s="7">
         <f t="shared" si="9"/>
-        <v>1.2251466879653828E-2</v>
+        <v>3.6754400638961487E-2</v>
       </c>
       <c r="J304">
         <v>1</v>
@@ -6831,11 +8873,11 @@
       </c>
       <c r="G305" s="7">
         <f t="shared" si="8"/>
-        <v>1.3687068473369124E-2</v>
+        <v>4.1061205420107369E-2</v>
       </c>
       <c r="H305" s="7">
         <f t="shared" si="9"/>
-        <v>1.2171261092717959E-2</v>
+        <v>3.6513783278153876E-2</v>
       </c>
       <c r="J305">
         <v>1</v>
@@ -6847,11 +8889,11 @@
       </c>
       <c r="G306" s="7">
         <f t="shared" si="8"/>
-        <v>1.3597756682634486E-2</v>
+        <v>4.0793270047903459E-2</v>
       </c>
       <c r="H306" s="7">
         <f t="shared" si="9"/>
-        <v>1.2091840351468326E-2</v>
+        <v>3.6275521054404979E-2</v>
       </c>
       <c r="J306">
         <v>1</v>
@@ -6863,11 +8905,11 @@
       </c>
       <c r="G307" s="7">
         <f t="shared" si="8"/>
-        <v>1.3509316223356882E-2</v>
+        <v>4.0527948670070646E-2</v>
       </c>
       <c r="H307" s="7">
         <f t="shared" si="9"/>
-        <v>1.2013194443973816E-2</v>
+        <v>3.6039583331921449E-2</v>
       </c>
       <c r="J307">
         <v>1</v>
@@ -6879,11 +8921,11 @@
       </c>
       <c r="G308" s="7">
         <f t="shared" si="8"/>
-        <v>1.3421735797933491E-2</v>
+        <v>4.0265207393800476E-2</v>
       </c>
       <c r="H308" s="7">
         <f t="shared" si="9"/>
-        <v>1.1935313323811859E-2</v>
+        <v>3.580593997143558E-2</v>
       </c>
       <c r="J308">
         <v>1</v>
@@ -6895,11 +8937,11 @@
       </c>
       <c r="G309" s="7">
         <f t="shared" si="8"/>
-        <v>1.3335004291274313E-2</v>
+        <v>4.0005012873822937E-2</v>
       </c>
       <c r="H309" s="7">
         <f t="shared" si="9"/>
-        <v>1.185818710685988E-2</v>
+        <v>3.5574561320579637E-2</v>
       </c>
       <c r="J309">
         <v>1</v>
@@ -6911,11 +8953,11 @@
       </c>
       <c r="G310" s="7">
         <f t="shared" si="8"/>
-        <v>1.3249110767275368E-2</v>
+        <v>3.9747332301826102E-2</v>
       </c>
       <c r="H310" s="7">
         <f t="shared" si="9"/>
-        <v>1.1781806068159087E-2</v>
+        <v>3.5345418204477265E-2</v>
       </c>
       <c r="J310">
         <v>1</v>
@@ -6927,11 +8969,11 @@
       </c>
       <c r="G311" s="7">
         <f t="shared" si="8"/>
-        <v>1.3164044465371148E-2</v>
+        <v>3.9492133396113446E-2</v>
       </c>
       <c r="H311" s="7">
         <f t="shared" si="9"/>
-        <v>1.1706160638848733E-2</v>
+        <v>3.51184819165462E-2</v>
       </c>
       <c r="J311">
         <v>1</v>
@@ -6943,11 +8985,11 @@
       </c>
       <c r="G312" s="7">
         <f t="shared" si="8"/>
-        <v>1.3079794797164311E-2</v>
+        <v>3.9239384391492937E-2</v>
       </c>
       <c r="H312" s="7">
         <f t="shared" si="9"/>
-        <v>1.1631241403169052E-2</v>
+        <v>3.4893724209507156E-2</v>
       </c>
       <c r="J312">
         <v>1</v>
@@ -6959,11 +9001,11 @@
       </c>
       <c r="G313" s="7">
         <f t="shared" si="8"/>
-        <v>1.299635134313061E-2</v>
+        <v>3.8989054029391831E-2</v>
       </c>
       <c r="H313" s="7">
         <f t="shared" si="9"/>
-        <v>1.1557039095531119E-2</v>
+        <v>3.4671117286593361E-2</v>
       </c>
       <c r="J313">
         <v>1</v>
@@ -6975,11 +9017,11 @@
       </c>
       <c r="G314" s="7">
         <f t="shared" si="8"/>
-        <v>1.2913703849397164E-2</v>
+        <v>3.8741111548191487E-2</v>
       </c>
       <c r="H314" s="7">
         <f t="shared" si="9"/>
-        <v>1.1483544597651914E-2</v>
+        <v>3.4450633792955744E-2</v>
       </c>
       <c r="J314">
         <v>1</v>
@@ -6991,11 +9033,11 @@
       </c>
       <c r="G315" s="7">
         <f t="shared" si="8"/>
-        <v>1.2831842224592218E-2</v>
+        <v>3.8495526673776648E-2</v>
       </c>
       <c r="H315" s="7">
         <f t="shared" si="9"/>
-        <v>1.1410748935752967E-2</v>
+        <v>3.4232246807258906E-2</v>
       </c>
       <c r="J315">
         <v>1</v>
@@ -7007,11 +9049,11 @@
       </c>
       <c r="G316" s="7">
         <f t="shared" si="8"/>
-        <v>1.2750756536764567E-2</v>
+        <v>3.8252269610293703E-2</v>
       </c>
       <c r="H316" s="7">
         <f t="shared" si="9"/>
-        <v>1.1338643277820944E-2</v>
+        <v>3.4015929833462834E-2</v>
       </c>
       <c r="J316">
         <v>1</v>
@@ -7023,11 +9065,11 @@
       </c>
       <c r="G317" s="7">
         <f t="shared" si="8"/>
-        <v>1.2670437010370914E-2</v>
+        <v>3.8011311031112743E-2</v>
       </c>
       <c r="H317" s="7">
         <f t="shared" si="9"/>
-        <v>1.126721893092864E-2</v>
+        <v>3.3801656792785927E-2</v>
       </c>
       <c r="J317">
         <v>1</v>
@@ -7039,11 +9081,11 @@
       </c>
       <c r="G318" s="7">
         <f t="shared" si="8"/>
-        <v>1.2590874023329405E-2</v>
+        <v>3.7772622069988215E-2</v>
       </c>
       <c r="H318" s="7">
         <f t="shared" si="9"/>
-        <v>1.119646733861485E-2</v>
+        <v>3.3589402015844552E-2</v>
       </c>
       <c r="J318">
         <v>1</v>
@@ -7055,11 +9097,11 @@
       </c>
       <c r="G319" s="7">
         <f t="shared" si="8"/>
-        <v>1.2512058104137762E-2</v>
+        <v>3.7536174312413281E-2</v>
       </c>
       <c r="H319" s="7">
         <f t="shared" si="9"/>
-        <v>1.1126380078321637E-2</v>
+        <v>3.3379140234964917E-2</v>
       </c>
       <c r="J319">
         <v>1</v>
@@ -7071,11 +9113,11 @@
       </c>
       <c r="G320" s="7">
         <f t="shared" si="8"/>
-        <v>1.2433979929054323E-2</v>
+        <v>3.7301939787162973E-2</v>
       </c>
       <c r="H320" s="7">
         <f t="shared" si="9"/>
-        <v>1.105694885888758E-2</v>
+        <v>3.3170846576662742E-2</v>
       </c>
       <c r="J320">
         <v>1</v>
@@ -7087,11 +9129,11 @@
       </c>
       <c r="G321" s="7">
         <f t="shared" si="8"/>
-        <v>1.2356630319340483E-2</v>
+        <v>3.7069890958021448E-2</v>
       </c>
       <c r="H321" s="7">
         <f t="shared" si="9"/>
-        <v>1.0988165518095595E-2</v>
+        <v>3.2964496554286786E-2</v>
       </c>
       <c r="J321">
         <v>1</v>
@@ -7103,11 +9145,11 @@
       </c>
       <c r="G322" s="7">
         <f t="shared" si="8"/>
-        <v>1.2280000238562967E-2</v>
+        <v>3.6840000715688902E-2</v>
       </c>
       <c r="H322" s="7">
         <f t="shared" si="9"/>
-        <v>1.0920022020273989E-2</v>
+        <v>3.2760066060821963E-2</v>
       </c>
       <c r="J322">
         <v>1</v>
@@ -7119,11 +9161,11 @@
       </c>
       <c r="G323" s="7">
         <f t="shared" ref="G323:G386" si="10">($C$3*$C$12)/(4*F323*F323*PI())</f>
-        <v>1.2204080789954498E-2</v>
+        <v>3.661224236986349E-2</v>
       </c>
       <c r="H323" s="7">
         <f t="shared" ref="H323:H386" si="11">($C$3*$C$14)/(4*F323*F323*PI())</f>
-        <v>1.0852510453949412E-2</v>
+        <v>3.255753136184824E-2</v>
       </c>
       <c r="J323">
         <v>1</v>
@@ -7135,11 +9177,11 @@
       </c>
       <c r="G324" s="7">
         <f t="shared" si="10"/>
-        <v>1.2128863213831378E-2</v>
+        <v>3.6386589641494133E-2</v>
       </c>
       <c r="H324" s="7">
         <f t="shared" si="11"/>
-        <v>1.0785623029550452E-2</v>
+        <v>3.2356869088651354E-2</v>
       </c>
       <c r="J324">
         <v>1</v>
@@ -7151,11 +9193,11 @@
       </c>
       <c r="G325" s="7">
         <f t="shared" si="10"/>
-        <v>1.2054338885066629E-2</v>
+        <v>3.6163016655199887E-2</v>
       </c>
       <c r="H325" s="7">
         <f t="shared" si="11"/>
-        <v>1.0719352077160597E-2</v>
+        <v>3.2158056231481796E-2</v>
       </c>
       <c r="J325">
         <v>1</v>
@@ -7167,11 +9209,11 @@
       </c>
       <c r="G326" s="7">
         <f t="shared" si="10"/>
-        <v>1.1980499310617286E-2</v>
+        <v>3.5941497931851855E-2</v>
       </c>
       <c r="H326" s="7">
         <f t="shared" si="11"/>
-        <v>1.0653690044319396E-2</v>
+        <v>3.1961070132958187E-2</v>
       </c>
       <c r="J326">
         <v>1</v>
@@ -7183,11 +9225,11 @@
       </c>
       <c r="G327" s="7">
         <f t="shared" si="10"/>
-        <v>1.1907336127104554E-2</v>
+        <v>3.5722008381313661E-2</v>
       </c>
       <c r="H327" s="7">
         <f t="shared" si="11"/>
-        <v>1.0588629493870589E-2</v>
+        <v>3.176588848161177E-2</v>
       </c>
       <c r="J327">
         <v>1</v>
@@ -7199,11 +9241,11 @@
       </c>
       <c r="G328" s="7">
         <f t="shared" si="10"/>
-        <v>1.1834841098445518E-2</v>
+        <v>3.5504523295336557E-2</v>
       </c>
       <c r="H328" s="7">
         <f t="shared" si="11"/>
-        <v>1.0524163101856113E-2</v>
+        <v>3.1572489305568344E-2</v>
       </c>
       <c r="J328">
         <v>1</v>
@@ -7215,11 +9257,11 @@
       </c>
       <c r="G329" s="7">
         <f t="shared" si="10"/>
-        <v>1.1763006113535193E-2</v>
+        <v>3.5289018340605577E-2</v>
       </c>
       <c r="H329" s="7">
         <f t="shared" si="11"/>
-        <v>1.0460283655454849E-2</v>
+        <v>3.1380850966364546E-2</v>
       </c>
       <c r="J329">
         <v>1</v>
@@ -7231,11 +9273,11 @@
       </c>
       <c r="G330" s="7">
         <f t="shared" si="10"/>
-        <v>1.169182318397762E-2</v>
+        <v>3.5075469551932859E-2</v>
       </c>
       <c r="H330" s="7">
         <f t="shared" si="11"/>
-        <v>1.0396984050964998E-2</v>
+        <v>3.1190952152894996E-2</v>
       </c>
       <c r="J330">
         <v>1</v>
@@ -7247,11 +9289,11 @@
       </c>
       <c r="G331" s="7">
         <f t="shared" si="10"/>
-        <v>1.1621284441864922E-2</v>
+        <v>3.4863853325594767E-2</v>
       </c>
       <c r="H331" s="7">
         <f t="shared" si="11"/>
-        <v>1.03342572918291E-2</v>
+        <v>3.1002771875487303E-2</v>
       </c>
       <c r="J331">
         <v>1</v>
@@ -7263,11 +9305,11 @@
       </c>
       <c r="G332" s="7">
         <f t="shared" si="10"/>
-        <v>1.1551382137603088E-2</v>
+        <v>3.4654146412809263E-2</v>
       </c>
       <c r="H332" s="7">
         <f t="shared" si="11"/>
-        <v>1.0272096486700612E-2</v>
+        <v>3.0816289460101839E-2</v>
       </c>
       <c r="J332">
         <v>1</v>
@@ -7279,11 +9321,11 @@
       </c>
       <c r="G333" s="7">
         <f t="shared" si="10"/>
-        <v>1.1482108637783393E-2</v>
+        <v>3.444632591335018E-2</v>
       </c>
       <c r="H333" s="7">
         <f t="shared" si="11"/>
-        <v>1.0210494847551049E-2</v>
+        <v>3.0631484542653145E-2</v>
       </c>
       <c r="J333">
         <v>1</v>
@@ -7295,11 +9337,11 @@
       </c>
       <c r="G334" s="7">
         <f t="shared" si="10"/>
-        <v>1.141345642309838E-2</v>
+        <v>3.4240369269295134E-2</v>
       </c>
       <c r="H334" s="7">
         <f t="shared" si="11"/>
-        <v>1.0149445687816776E-2</v>
+        <v>3.0448337063450327E-2</v>
       </c>
       <c r="J334">
         <v>1</v>
@@ -7311,11 +9353,11 @@
       </c>
       <c r="G335" s="7">
         <f t="shared" si="10"/>
-        <v>1.1345418086301295E-2</v>
+        <v>3.4036254258903886E-2</v>
       </c>
       <c r="H335" s="7">
         <f t="shared" si="11"/>
-        <v>1.0088942420584435E-2</v>
+        <v>3.026682726175331E-2</v>
       </c>
       <c r="J335">
         <v>1</v>
@@ -7327,11 +9369,11 @@
       </c>
       <c r="G336" s="7">
         <f t="shared" si="10"/>
-        <v>1.1277986330208004E-2</v>
+        <v>3.3833958990624011E-2</v>
       </c>
       <c r="H336" s="7">
         <f t="shared" si="11"/>
-        <v>1.0028978556814132E-2</v>
+        <v>3.0086935670442395E-2</v>
       </c>
       <c r="J336">
         <v>1</v>
@@ -7343,11 +9385,11 @@
       </c>
       <c r="G337" s="7">
         <f t="shared" si="10"/>
-        <v>1.1211153965740323E-2</v>
+        <v>3.3633461897220968E-2</v>
       </c>
       <c r="H337" s="7">
         <f t="shared" si="11"/>
-        <v>9.9695477035994691E-3</v>
+        <v>2.9908643110798411E-2</v>
       </c>
       <c r="J337">
         <v>1</v>
@@ -7359,11 +9401,11 @@
       </c>
       <c r="G338" s="7">
         <f t="shared" si="10"/>
-        <v>1.1144913910009827E-2</v>
+        <v>3.3434741730029485E-2</v>
       </c>
       <c r="H338" s="7">
         <f t="shared" si="11"/>
-        <v>9.9106435624635707E-3</v>
+        <v>2.9731930687390714E-2</v>
       </c>
       <c r="J338">
         <v>1</v>
@@ -7375,11 +9417,11 @@
       </c>
       <c r="G339" s="7">
         <f t="shared" si="10"/>
-        <v>1.1079259184441161E-2</v>
+        <v>3.323777755332348E-2</v>
       </c>
       <c r="H339" s="7">
         <f t="shared" si="11"/>
-        <v>9.8522599276902219E-3</v>
+        <v>2.9556779783070669E-2</v>
       </c>
       <c r="J339">
         <v>1</v>
@@ -7391,11 +9433,11 @@
       </c>
       <c r="G340" s="7">
         <f t="shared" si="10"/>
-        <v>1.1014182912933934E-2</v>
+        <v>3.3042548738801802E-2</v>
       </c>
       <c r="H340" s="7">
         <f t="shared" si="11"/>
-        <v>9.7943906846893452E-3</v>
+        <v>2.9383172054068034E-2</v>
       </c>
       <c r="J340">
         <v>1</v>
@@ -7407,11 +9449,11 @@
       </c>
       <c r="G341" s="7">
         <f t="shared" si="10"/>
-        <v>1.0949678320062287E-2</v>
+        <v>3.284903496018686E-2</v>
       </c>
       <c r="H341" s="7">
         <f t="shared" si="11"/>
-        <v>9.7370298083959399E-3</v>
+        <v>2.9211089425187818E-2</v>
       </c>
       <c r="J341">
         <v>1</v>
@@ -7423,11 +9465,11 @@
       </c>
       <c r="G342" s="7">
         <f t="shared" si="10"/>
-        <v>1.0885738729311265E-2</v>
+        <v>3.2657216187933796E-2</v>
       </c>
       <c r="H342" s="7">
         <f t="shared" si="11"/>
-        <v>9.6801713617017913E-3</v>
+        <v>2.9040514085105374E-2</v>
       </c>
       <c r="J342">
         <v>1</v>
@@ -7439,11 +9481,11 @@
       </c>
       <c r="G343" s="7">
         <f t="shared" si="10"/>
-        <v>1.0822357561349121E-2</v>
+        <v>3.246707268404736E-2</v>
       </c>
       <c r="H343" s="7">
         <f t="shared" si="11"/>
-        <v>9.6238094939190989E-3</v>
+        <v>2.8871428481757298E-2</v>
       </c>
       <c r="J343">
         <v>1</v>
@@ -7455,11 +9497,11 @@
       </c>
       <c r="G344" s="7">
         <f t="shared" si="10"/>
-        <v>1.0759528332334732E-2</v>
+        <v>3.2278584997004194E-2</v>
       </c>
       <c r="H344" s="7">
         <f t="shared" si="11"/>
-        <v>9.5679384392753537E-3</v>
+        <v>2.8703815317826065E-2</v>
       </c>
       <c r="J344">
         <v>1</v>
@@ -7471,11 +9513,11 @@
       </c>
       <c r="G345" s="7">
         <f t="shared" si="10"/>
-        <v>1.0697244652259297E-2</v>
+        <v>3.209173395677789E-2</v>
       </c>
       <c r="H345" s="7">
         <f t="shared" si="11"/>
-        <v>9.5125525154386749E-3</v>
+        <v>2.8537657546316025E-2</v>
       </c>
       <c r="J345">
         <v>1</v>
@@ -7487,11 +9529,11 @@
       </c>
       <c r="G346" s="7">
         <f t="shared" si="10"/>
-        <v>1.063550022332155E-2</v>
+        <v>3.1906500669964651E-2</v>
       </c>
       <c r="H346" s="7">
         <f t="shared" si="11"/>
-        <v>9.4576461220729734E-3</v>
+        <v>2.8372938366218924E-2</v>
       </c>
       <c r="J346">
         <v>1</v>
@@ -7503,11 +9545,11 @@
       </c>
       <c r="G347" s="7">
         <f t="shared" si="10"/>
-        <v>1.0574288838335695E-2</v>
+        <v>3.1722866515007088E-2</v>
       </c>
       <c r="H347" s="7">
         <f t="shared" si="11"/>
-        <v>9.4032137394222046E-3</v>
+        <v>2.8209641218266614E-2</v>
       </c>
       <c r="J347">
         <v>1</v>
@@ -7519,11 +9561,11 @@
       </c>
       <c r="G348" s="7">
         <f t="shared" si="10"/>
-        <v>1.0513604379171313E-2</v>
+        <v>3.1540813137513939E-2</v>
       </c>
       <c r="H348" s="7">
         <f t="shared" si="11"/>
-        <v>9.3492499269230422E-3</v>
+        <v>2.804774978076913E-2</v>
       </c>
       <c r="J348">
         <v>1</v>
@@ -7535,11 +9577,11 @@
       </c>
       <c r="G349" s="7">
         <f t="shared" si="10"/>
-        <v>1.0453440815224528E-2</v>
+        <v>3.1360322445673584E-2</v>
       </c>
       <c r="H349" s="7">
         <f t="shared" si="11"/>
-        <v>9.2957493218453723E-3</v>
+        <v>2.7887247965536117E-2</v>
       </c>
       <c r="J349">
         <v>1</v>
@@ -7551,11 +9593,11 @@
       </c>
       <c r="G350" s="7">
         <f t="shared" si="10"/>
-        <v>1.0393792201919697E-2</v>
+        <v>3.1181376605759089E-2</v>
       </c>
       <c r="H350" s="7">
         <f t="shared" si="11"/>
-        <v>9.2427066379599035E-3</v>
+        <v>2.7728119913879714E-2</v>
       </c>
       <c r="J350">
         <v>1</v>
@@ -7567,11 +9609,11 @@
       </c>
       <c r="G351" s="7">
         <f t="shared" si="10"/>
-        <v>1.0334652679240938E-2</v>
+        <v>3.1003958037722809E-2</v>
       </c>
       <c r="H351" s="7">
         <f t="shared" si="11"/>
-        <v>9.1901166642323374E-3</v>
+        <v>2.7570349992697012E-2</v>
       </c>
       <c r="J351">
         <v>1</v>
@@ -7583,11 +9625,11 @@
       </c>
       <c r="G352" s="7">
         <f t="shared" si="10"/>
-        <v>1.0276016470292828E-2</v>
+        <v>3.0828049410878487E-2</v>
       </c>
       <c r="H352" s="7">
         <f t="shared" si="11"/>
-        <v>9.1379742635434528E-3</v>
+        <v>2.7413922790630364E-2</v>
       </c>
       <c r="J352">
         <v>1</v>
@@ -7599,11 +9641,11 @@
       </c>
       <c r="G353" s="7">
         <f t="shared" si="10"/>
-        <v>1.0217877879889595E-2</v>
+        <v>3.0653633639668786E-2</v>
       </c>
       <c r="H353" s="7">
         <f t="shared" si="11"/>
-        <v>9.0862743714345516E-3</v>
+        <v>2.7258823114303658E-2</v>
       </c>
       <c r="J353">
         <v>1</v>
@@ -7615,11 +9657,11 @@
       </c>
       <c r="G354" s="7">
         <f t="shared" si="10"/>
-        <v>1.0160231293172162E-2</v>
+        <v>3.0480693879516487E-2</v>
       </c>
       <c r="H354" s="7">
         <f t="shared" si="11"/>
-        <v>9.035011994877655E-3</v>
+        <v>2.7105035984632965E-2</v>
       </c>
       <c r="J354">
         <v>1</v>
@@ -7631,11 +9673,11 @@
       </c>
       <c r="G355" s="7">
         <f t="shared" si="10"/>
-        <v>1.0103071174252432E-2</v>
+        <v>3.0309213522757294E-2</v>
       </c>
       <c r="H355" s="7">
         <f t="shared" si="11"/>
-        <v>8.9841822110699309E-3</v>
+        <v>2.6952546633209794E-2</v>
       </c>
       <c r="J355">
         <v>1</v>
@@ -7647,11 +9689,11 @@
       </c>
       <c r="G356" s="7">
         <f t="shared" si="10"/>
-        <v>1.0046392064884191E-2</v>
+        <v>3.0139176194652572E-2</v>
       </c>
       <c r="H356" s="7">
         <f t="shared" si="11"/>
-        <v>8.9337801662518011E-3</v>
+        <v>2.6801340498755405E-2</v>
       </c>
       <c r="J356">
         <v>1</v>
@@ -7663,11 +9705,11 @@
       </c>
       <c r="G357" s="7">
         <f t="shared" si="10"/>
-        <v>9.9901885831600295E-3</v>
+        <v>2.997056574948009E-2</v>
       </c>
       <c r="H357" s="7">
         <f t="shared" si="11"/>
-        <v>8.8838010745481578E-3</v>
+        <v>2.6651403223644472E-2</v>
       </c>
       <c r="J357">
         <v>1</v>
@@ -7679,11 +9721,11 @@
       </c>
       <c r="G358" s="7">
         <f t="shared" si="10"/>
-        <v>9.934455422233722E-3</v>
+        <v>2.9803366266701166E-2</v>
       </c>
       <c r="H358" s="7">
         <f t="shared" si="11"/>
-        <v>8.8342402168322468E-3</v>
+        <v>2.6502720650496744E-2</v>
       </c>
       <c r="J358">
         <v>1</v>
@@ -7695,11 +9737,11 @@
       </c>
       <c r="G359" s="7">
         <f t="shared" si="10"/>
-        <v>9.8791873490674548E-3</v>
+        <v>2.9637562047202363E-2</v>
       </c>
       <c r="H359" s="7">
         <f t="shared" si="11"/>
-        <v>8.7850929396116415E-3</v>
+        <v>2.635527881883493E-2</v>
       </c>
       <c r="J359">
         <v>1</v>
@@ -7711,11 +9753,11 @@
       </c>
       <c r="G360" s="7">
         <f t="shared" si="10"/>
-        <v>9.824379203203417E-3</v>
+        <v>2.9473137609610251E-2</v>
       </c>
       <c r="H360" s="7">
         <f t="shared" si="11"/>
-        <v>8.7363546539358655E-3</v>
+        <v>2.62090639618076E-2</v>
       </c>
       <c r="J360">
         <v>1</v>
@@ -7727,11 +9769,11 @@
       </c>
       <c r="G361" s="7">
         <f t="shared" si="10"/>
-        <v>9.7700258955591389E-3</v>
+        <v>2.931007768667742E-2</v>
       </c>
       <c r="H361" s="7">
         <f t="shared" si="11"/>
-        <v>8.6880208343251518E-3</v>
+        <v>2.6064062502975455E-2</v>
       </c>
       <c r="J361">
         <v>1</v>
@@ -7743,11 +9785,11 @@
       </c>
       <c r="G362" s="7">
         <f t="shared" si="10"/>
-        <v>9.7161224072461368E-3</v>
+        <v>2.914836722173841E-2</v>
       </c>
       <c r="H362" s="7">
         <f t="shared" si="11"/>
-        <v>8.6400870177199118E-3</v>
+        <v>2.5920261053159737E-2</v>
       </c>
       <c r="J362">
         <v>1</v>
@@ -7759,11 +9801,11 @@
       </c>
       <c r="G363" s="7">
         <f t="shared" si="10"/>
-        <v>9.6626637884112548E-3</v>
+        <v>2.8987991365233765E-2</v>
       </c>
       <c r="H363" s="7">
         <f t="shared" si="11"/>
-        <v>8.5925488024504101E-3</v>
+        <v>2.5777646407351234E-2</v>
       </c>
       <c r="J363">
         <v>1</v>
@@ -7775,11 +9817,11 @@
       </c>
       <c r="G364" s="7">
         <f t="shared" si="10"/>
-        <v>9.6096451571003102E-3</v>
+        <v>2.8828935471300929E-2</v>
       </c>
       <c r="H364" s="7">
         <f t="shared" si="11"/>
-        <v>8.5454018472262416E-3</v>
+        <v>2.5636205541678725E-2</v>
       </c>
       <c r="J364">
         <v>1</v>
@@ -7791,11 +9833,11 @@
       </c>
       <c r="G365" s="7">
         <f t="shared" si="10"/>
-        <v>9.5570616981434618E-3</v>
+        <v>2.8671185094430385E-2</v>
       </c>
       <c r="H365" s="7">
         <f t="shared" si="11"/>
-        <v>8.4986418701451533E-3</v>
+        <v>2.5495925610435465E-2</v>
       </c>
       <c r="J365">
         <v>1</v>
@@ -7807,11 +9849,11 @@
       </c>
       <c r="G366" s="7">
         <f t="shared" si="10"/>
-        <v>9.5049086620618926E-3</v>
+        <v>2.8514725986185676E-2</v>
       </c>
       <c r="H366" s="7">
         <f t="shared" si="11"/>
-        <v>8.4522646477208051E-3</v>
+        <v>2.5356793943162419E-2</v>
       </c>
       <c r="J366">
         <v>1</v>
@@ -7823,11 +9865,11 @@
       </c>
       <c r="G367" s="7">
         <f t="shared" si="10"/>
-        <v>9.4531813639952989E-3</v>
+        <v>2.8359544091985895E-2</v>
       </c>
       <c r="H367" s="7">
         <f t="shared" si="11"/>
-        <v>8.4062660139290375E-3</v>
+        <v>2.5218798041787116E-2</v>
       </c>
       <c r="J367">
         <v>1</v>
@@ -7839,11 +9881,11 @@
       </c>
       <c r="G368" s="7">
         <f t="shared" si="10"/>
-        <v>9.4018751826497726E-3</v>
+        <v>2.8205625547949316E-2</v>
       </c>
       <c r="H368" s="7">
         <f t="shared" si="11"/>
-        <v>8.3606418592722716E-3</v>
+        <v>2.508192557781682E-2</v>
       </c>
       <c r="J368">
         <v>1</v>
@@ -7855,11 +9897,11 @@
       </c>
       <c r="G369" s="7">
         <f t="shared" si="10"/>
-        <v>9.3509855592655965E-3</v>
+        <v>2.8052956677796788E-2</v>
       </c>
       <c r="H369" s="7">
         <f t="shared" si="11"/>
-        <v>8.3153881298616214E-3</v>
+        <v>2.4946164389584868E-2</v>
       </c>
       <c r="J369">
         <v>1</v>
@@ -7871,11 +9913,11 @@
       </c>
       <c r="G370" s="7">
         <f t="shared" si="10"/>
-        <v>9.3005079966045484E-3</v>
+        <v>2.7901523989813645E-2</v>
       </c>
       <c r="H370" s="7">
         <f t="shared" si="11"/>
-        <v>8.2705008265163485E-3</v>
+        <v>2.4811502479549049E-2</v>
       </c>
       <c r="J370">
         <v>1</v>
@@ -7887,11 +9929,11 @@
       </c>
       <c r="G371" s="7">
         <f t="shared" si="10"/>
-        <v>9.2504380579562975E-3</v>
+        <v>2.7751314173868891E-2</v>
       </c>
       <c r="H371" s="7">
         <f t="shared" si="11"/>
-        <v>8.2259760038802983E-3</v>
+        <v>2.4677928011640895E-2</v>
       </c>
       <c r="J371">
         <v>1</v>
@@ -7903,11 +9945,11 @@
       </c>
       <c r="G372" s="7">
         <f t="shared" si="10"/>
-        <v>9.2007713661634485E-3</v>
+        <v>2.7602314098490347E-2</v>
       </c>
       <c r="H372" s="7">
         <f t="shared" si="11"/>
-        <v>8.1818097695549215E-3</v>
+        <v>2.4545429308664764E-2</v>
       </c>
       <c r="J372">
         <v>1</v>
@@ -7919,11 +9961,11 @@
       </c>
       <c r="G373" s="7">
         <f t="shared" si="10"/>
-        <v>9.1515036026648851E-3</v>
+        <v>2.7454510807994655E-2</v>
       </c>
       <c r="H373" s="7">
         <f t="shared" si="11"/>
-        <v>8.1379982832485553E-3</v>
+        <v>2.4413994849745668E-2</v>
       </c>
       <c r="J373">
         <v>1</v>
@@ -7935,11 +9977,11 @@
       </c>
       <c r="G374" s="7">
         <f t="shared" si="10"/>
-        <v>9.1026305065569704E-3</v>
+        <v>2.7307891519670908E-2</v>
       </c>
       <c r="H374" s="7">
         <f t="shared" si="11"/>
-        <v>8.0945377559416068E-3</v>
+        <v>2.428361326782482E-2</v>
       </c>
       <c r="J374">
         <v>1</v>
@@ -7951,11 +9993,11 @@
       </c>
       <c r="G375" s="7">
         <f t="shared" si="10"/>
-        <v>9.0541478736722684E-3</v>
+        <v>2.7162443621016802E-2</v>
       </c>
       <c r="H375" s="7">
         <f t="shared" si="11"/>
-        <v>8.0514244490672935E-3</v>
+        <v>2.4154273347201882E-2</v>
       </c>
       <c r="J375">
         <v>1</v>
@@ -7967,11 +10009,11 @@
       </c>
       <c r="G376" s="7">
         <f t="shared" si="10"/>
-        <v>9.0060515556753817E-3</v>
+        <v>2.7018154667026142E-2</v>
       </c>
       <c r="H376" s="7">
         <f t="shared" si="11"/>
-        <v>8.0086546737076179E-3</v>
+        <v>2.4025964021122854E-2</v>
       </c>
       <c r="J376">
         <v>1</v>
@@ -7983,11 +10025,11 @@
       </c>
       <c r="G377" s="7">
         <f t="shared" si="10"/>
-        <v>8.9583374591755572E-3</v>
+        <v>2.687501237752667E-2</v>
       </c>
       <c r="H377" s="7">
         <f t="shared" si="11"/>
-        <v>7.966224789804249E-3</v>
+        <v>2.3898674369412749E-2</v>
       </c>
       <c r="J377">
         <v>1</v>
@@ -7999,11 +10041,11 @@
       </c>
       <c r="G378" s="7">
         <f t="shared" si="10"/>
-        <v>8.9110015448557057E-3</v>
+        <v>2.6733004634567119E-2</v>
       </c>
       <c r="H378" s="7">
         <f t="shared" si="11"/>
-        <v>7.9241312053840041E-3</v>
+        <v>2.3772393616152014E-2</v>
       </c>
       <c r="J378">
         <v>1</v>
@@ -8015,11 +10057,11 @@
       </c>
       <c r="G379" s="7">
         <f t="shared" si="10"/>
-        <v>8.8640398266174886E-3</v>
+        <v>2.6592119479852464E-2</v>
       </c>
       <c r="H379" s="7">
         <f t="shared" si="11"/>
-        <v>7.8823703757986106E-3</v>
+        <v>2.3647111127395832E-2</v>
       </c>
       <c r="J379">
         <v>1</v>
@@ -8031,11 +10073,11 @@
       </c>
       <c r="G380" s="7">
         <f t="shared" si="10"/>
-        <v>8.8174483707421248E-3</v>
+        <v>2.6452345112226373E-2</v>
       </c>
       <c r="H380" s="7">
         <f t="shared" si="11"/>
-        <v>7.8409388029784498E-3</v>
+        <v>2.3522816408935349E-2</v>
       </c>
       <c r="J380">
         <v>1</v>
@@ -8047,11 +10089,11 @@
       </c>
       <c r="G381" s="7">
         <f t="shared" si="10"/>
-        <v>8.7712232950666012E-3</v>
+        <v>2.63136698851998E-2</v>
       </c>
       <c r="H381" s="7">
         <f t="shared" si="11"/>
-        <v>7.7998330347000102E-3</v>
+        <v>2.3399499104100031E-2</v>
       </c>
       <c r="J381">
         <v>1</v>
@@ -8063,11 +10105,11 @@
       </c>
       <c r="G382" s="7">
         <f t="shared" si="10"/>
-        <v>8.7253607681749591E-3</v>
+        <v>2.6176082304524877E-2</v>
       </c>
       <c r="H382" s="7">
         <f t="shared" si="11"/>
-        <v>7.759049663866726E-3</v>
+        <v>2.3277148991600181E-2</v>
       </c>
       <c r="J382">
         <v>1</v>
@@ -8079,11 +10121,11 @@
       </c>
       <c r="G383" s="7">
         <f t="shared" si="10"/>
-        <v>8.6798570086043438E-3</v>
+        <v>2.6039571025813033E-2</v>
       </c>
       <c r="H383" s="7">
         <f t="shared" si="11"/>
-        <v>7.7185853278029584E-3</v>
+        <v>2.3155755983408875E-2</v>
       </c>
       <c r="J383">
         <v>1</v>
@@ -8095,11 +10137,11 @@
       </c>
       <c r="G384" s="7">
         <f t="shared" si="10"/>
-        <v>8.6347082840655034E-3</v>
+        <v>2.5904124852196508E-2</v>
       </c>
       <c r="H384" s="7">
         <f t="shared" si="11"/>
-        <v>7.6784367075608193E-3</v>
+        <v>2.3035310122682461E-2</v>
       </c>
       <c r="J384">
         <v>1</v>
@@ -8111,11 +10153,11 @@
       </c>
       <c r="G385" s="7">
         <f t="shared" si="10"/>
-        <v>8.5899109106774337E-3</v>
+        <v>2.5769732732032303E-2</v>
       </c>
       <c r="H385" s="7">
         <f t="shared" si="11"/>
-        <v>7.6386005272395894E-3</v>
+        <v>2.291580158171877E-2</v>
       </c>
       <c r="J385">
         <v>1</v>
@@ -8127,11 +10169,11 @@
       </c>
       <c r="G386" s="7">
         <f t="shared" si="10"/>
-        <v>8.5454612522159173E-3</v>
+        <v>2.563638375664775E-2</v>
       </c>
       <c r="H386" s="7">
         <f t="shared" si="11"/>
-        <v>7.59907355331746E-3</v>
+        <v>2.2797220659952381E-2</v>
       </c>
       <c r="J386">
         <v>1</v>
@@ -8143,11 +10185,11 @@
       </c>
       <c r="G387" s="7">
         <f t="shared" ref="G387:G401" si="12">($C$3*$C$12)/(4*F387*F387*PI())</f>
-        <v>8.5013557193755907E-3</v>
+        <v>2.550406715812677E-2</v>
       </c>
       <c r="H387" s="7">
         <f t="shared" ref="H387:H401" si="13">($C$3*$C$14)/(4*F387*F387*PI())</f>
-        <v>7.5598525939953413E-3</v>
+        <v>2.2679557781986024E-2</v>
       </c>
       <c r="J387">
         <v>1</v>
@@ -8159,11 +10201,11 @@
       </c>
       <c r="G388" s="7">
         <f t="shared" si="12"/>
-        <v>8.4575907690453457E-3</v>
+        <v>2.5372772307136041E-2</v>
       </c>
       <c r="H388" s="7">
         <f t="shared" si="13"/>
-        <v>7.5209344985525039E-3</v>
+        <v>2.2562803495657511E-2</v>
       </c>
       <c r="J388">
         <v>1</v>
@@ -8175,11 +10217,11 @@
       </c>
       <c r="G389" s="7">
         <f t="shared" si="12"/>
-        <v>8.4141629035967436E-3</v>
+        <v>2.5242488710790229E-2</v>
       </c>
       <c r="H389" s="7">
         <f t="shared" si="13"/>
-        <v>7.4823161567137949E-3</v>
+        <v>2.2446948470141385E-2</v>
       </c>
       <c r="J389">
         <v>1</v>
@@ -8191,11 +10233,11 @@
       </c>
       <c r="G390" s="7">
         <f t="shared" si="12"/>
-        <v>8.3710686701851597E-3</v>
+        <v>2.5113206010555479E-2</v>
       </c>
       <c r="H390" s="7">
         <f t="shared" si="13"/>
-        <v>7.4439944980281931E-3</v>
+        <v>2.2331983494084579E-2</v>
       </c>
       <c r="J390">
         <v>1</v>
@@ -8207,11 +10249,11 @@
       </c>
       <c r="G391" s="7">
         <f t="shared" si="12"/>
-        <v>8.3283046600634656E-3</v>
+        <v>2.4984913980190399E-2</v>
       </c>
       <c r="H391" s="7">
         <f t="shared" si="13"/>
-        <v>7.4059664912584835E-3</v>
+        <v>2.2217899473775452E-2</v>
       </c>
       <c r="J391">
         <v>1</v>
@@ -8223,11 +10265,11 @@
       </c>
       <c r="G392" s="7">
         <f t="shared" si="12"/>
-        <v>8.2858675079079212E-3</v>
+        <v>2.4857602523723762E-2</v>
       </c>
       <c r="H392" s="7">
         <f t="shared" si="13"/>
-        <v>7.3682291437818107E-3</v>
+        <v>2.2104687431345433E-2</v>
       </c>
       <c r="J392">
         <v>1</v>
@@ -8239,11 +10281,11 @@
       </c>
       <c r="G393" s="7">
         <f t="shared" si="12"/>
-        <v>8.2437538911560634E-3</v>
+        <v>2.4731261673468188E-2</v>
       </c>
       <c r="H393" s="7">
         <f t="shared" si="13"/>
-        <v>7.3307795010009013E-3</v>
+        <v>2.1992338503002706E-2</v>
       </c>
       <c r="J393">
         <v>1</v>
@@ -8255,11 +10297,11 @@
       </c>
       <c r="G394" s="7">
         <f t="shared" si="12"/>
-        <v>8.2019605293563516E-3</v>
+        <v>2.4605881588069055E-2</v>
       </c>
       <c r="H394" s="7">
         <f t="shared" si="13"/>
-        <v>7.2936146457657251E-3</v>
+        <v>2.1880843937297178E-2</v>
       </c>
       <c r="J394">
         <v>1</v>
@@ -8271,11 +10313,11 @@
       </c>
       <c r="G395" s="7">
         <f t="shared" si="12"/>
-        <v>8.1604841835293228E-3</v>
+        <v>2.4481452550587972E-2</v>
       </c>
       <c r="H395" s="7">
         <f t="shared" si="13"/>
-        <v>7.2567316978054035E-3</v>
+        <v>2.1770195093416211E-2</v>
       </c>
       <c r="J395">
         <v>1</v>
@@ -8287,11 +10329,11 @@
       </c>
       <c r="G396" s="7">
         <f t="shared" si="12"/>
-        <v>8.1193216555400134E-3</v>
+        <v>2.435796496662004E-2</v>
       </c>
       <c r="H396" s="7">
         <f t="shared" si="13"/>
-        <v>7.2201278131701369E-3</v>
+        <v>2.1660383439510413E-2</v>
       </c>
       <c r="J396">
         <v>1</v>
@@ -8303,11 +10345,11 @@
       </c>
       <c r="G397" s="7">
         <f t="shared" si="12"/>
-        <v>8.0784697874814425E-3</v>
+        <v>2.4235409362444327E-2</v>
       </c>
       <c r="H397" s="7">
         <f t="shared" si="13"/>
-        <v>7.1838001836829635E-3</v>
+        <v>2.1551400551048889E-2</v>
       </c>
       <c r="J397">
         <v>1</v>
@@ -8319,11 +10361,11 @@
       </c>
       <c r="G398" s="7">
         <f t="shared" si="12"/>
-        <v>8.0379254610689291E-3</v>
+        <v>2.4113776383206789E-2</v>
       </c>
       <c r="H398" s="7">
         <f t="shared" si="13"/>
-        <v>7.147746036401152E-3</v>
+        <v>2.1443238109203459E-2</v>
       </c>
       <c r="J398">
         <v>1</v>
@@ -8335,11 +10377,11 @@
       </c>
       <c r="G399" s="7">
         <f t="shared" si="12"/>
-        <v>7.9976855970450098E-3</v>
+        <v>2.3993056791135031E-2</v>
       </c>
       <c r="H399" s="7">
         <f t="shared" si="13"/>
-        <v>7.1119626330870293E-3</v>
+        <v>2.1335887899261091E-2</v>
       </c>
       <c r="J399">
         <v>1</v>
@@ -8351,11 +10393,11 @@
       </c>
       <c r="G400" s="7">
         <f t="shared" si="12"/>
-        <v>7.9577471545947669E-3</v>
+        <v>2.3873241463784303E-2</v>
       </c>
       <c r="H400" s="7">
         <f t="shared" si="13"/>
-        <v>7.076447269688051E-3</v>
+        <v>2.1229341809064155E-2</v>
       </c>
       <c r="J400">
         <v>1</v>
@@ -8367,11 +10409,11 @@
       </c>
       <c r="G401" s="7">
         <f t="shared" si="12"/>
-        <v>7.9181071307713423E-3</v>
+        <v>2.375432139231403E-2</v>
       </c>
       <c r="H401" s="7">
         <f t="shared" si="13"/>
-        <v>7.0411972758259471E-3</v>
+        <v>2.1123591827477844E-2</v>
       </c>
       <c r="J401">
         <v>1</v>
@@ -8380,5 +10422,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
+++ b/Engineering/Requirements/untitled folder/Phase_4_OET_65_Worksheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-64840" yWindow="700" windowWidth="44940" windowHeight="25880" tabRatio="500"/>
+    <workbookView xWindow="13440" yWindow="1200" windowWidth="34660" windowHeight="25880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RF Exposure in Far Field (we want 1mW/cm^2</a:t>
+              <a:t>OET Bulletin 65 RF Exposure (we want 1mW/cm^2</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -694,271 +694,271 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="89"/>
                 <c:pt idx="0">
-                  <c:v>1.805160035068756</c:v>
+                  <c:v>0.601720011689585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.729161898689673</c:v>
+                  <c:v>0.576387299563224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.657863990540576</c:v>
+                  <c:v>0.552621330180192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.590886561518321</c:v>
+                  <c:v>0.530295520506107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.527887453682195</c:v>
+                  <c:v>0.509295817894065</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.468557721724524</c:v>
+                  <c:v>0.489519240574841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.412617838093746</c:v>
+                  <c:v>0.470872612697915</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.359814394519576</c:v>
+                  <c:v>0.453271464839859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.309917227093789</c:v>
+                  <c:v>0.43663907569793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.262716903869583</c:v>
+                  <c:v>0.420905634623194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.218022523662464</c:v>
+                  <c:v>0.406007507887488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.175659782765617</c:v>
+                  <c:v>0.391886594255205</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.135469272950502</c:v>
+                  <c:v>0.378489757650167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.097304979662594</c:v>
+                  <c:v>0.365768326554198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.061032953945969</c:v>
+                  <c:v>0.353677651315323</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.026530135502684</c:v>
+                  <c:v>0.342176711834228</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.993683307545652</c:v>
+                  <c:v>0.331227769181884</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.962388166844416</c:v>
+                  <c:v>0.320796055614805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.932548494679074</c:v>
+                  <c:v>0.310849498226358</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.904075416379997</c:v>
+                  <c:v>0.301358472126666</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.876886738798321</c:v>
+                  <c:v>0.29229557959944</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.850906356472597</c:v>
+                  <c:v>0.283635452157532</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.826063718470045</c:v>
+                  <c:v>0.275354572823348</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.802293348919447</c:v>
+                  <c:v>0.267431116306482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.779534415143977</c:v>
+                  <c:v>0.259844805047992</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.757730338068932</c:v>
+                  <c:v>0.252576779356311</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.736828440240256</c:v>
+                  <c:v>0.245609480080085</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.71677962736076</c:v>
+                  <c:v>0.238926542453587</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.697538099745341</c:v>
+                  <c:v>0.232512699915114</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.67906109052542</c:v>
+                  <c:v>0.226353696841807</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.661308627805659</c:v>
+                  <c:v>0.220436209268553</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.644243318300808</c:v>
+                  <c:v>0.214747772766936</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.627830150263887</c:v>
+                  <c:v>0.209276716754629</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.612036313764699</c:v>
+                  <c:v>0.204012104588233</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.596831036594608</c:v>
+                  <c:v>0.198943678864869</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.582185434263906</c:v>
+                  <c:v>0.194061811421302</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.568072372725385</c:v>
+                  <c:v>0.189357457575128</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.554466342604948</c:v>
+                  <c:v>0.184822114201649</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.541343343849984</c:v>
+                  <c:v>0.180447781283328</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.528680779820829</c:v>
+                  <c:v>0.176226926606943</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.516457359952067</c:v>
+                  <c:v>0.172152453317356</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.504653010200223</c:v>
+                  <c:v>0.168217670066741</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.493248790574056</c:v>
+                  <c:v>0.164416263524685</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.482226819114441</c:v>
+                  <c:v>0.160742273038147</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.471570201753764</c:v>
+                  <c:v>0.157190067251255</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.461262967540815</c:v>
+                  <c:v>0.153754322513605</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.451290008767189</c:v>
+                  <c:v>0.150430002922396</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.441637025575846</c:v>
+                  <c:v>0.147212341858615</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.432290474672418</c:v>
+                  <c:v>0.144096824890806</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.423237521795622</c:v>
+                  <c:v>0.141079173931874</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.414465997635144</c:v>
+                  <c:v>0.138155332545048</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.405964356914177</c:v>
+                  <c:v>0.135321452304726</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.39772164037958</c:v>
+                  <c:v>0.132573880126527</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.389727439465921</c:v>
+                  <c:v>0.12990914648864</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.381971863420549</c:v>
+                  <c:v>0.127323954473516</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.374445508695764</c:v>
+                  <c:v>0.124815169565255</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.367139430431131</c:v>
+                  <c:v>0.12237981014371</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.360045115864406</c:v>
+                  <c:v>0.120015038621469</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.353154459523436</c:v>
+                  <c:v>0.117718153174479</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.34645974006399</c:v>
+                  <c:v>0.11548658002133</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.339953598629894</c:v>
+                  <c:v>0.113317866209965</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.333629018622193</c:v>
+                  <c:v>0.111209672874064</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.327479306773447</c:v>
+                  <c:v>0.109159768924482</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.321498075431823</c:v>
+                  <c:v>0.107166025143941</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.315679225967396</c:v>
+                  <c:v>0.105226408655799</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.310016933220152</c:v>
+                  <c:v>0.103338977740051</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.304505630915616</c:v>
+                  <c:v>0.101501876971872</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.299139997979911</c:v>
+                  <c:v>0.0997133326599704</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.293914945691404</c:v>
+                  <c:v>0.0979716485638013</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.288825605611001</c:v>
+                  <c:v>0.0962752018703336</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.283867318237625</c:v>
+                  <c:v>0.0946224394125418</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.279035622339505</c:v>
+                  <c:v>0.0930118741131684</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.274326244915648</c:v>
+                  <c:v>0.0914420816385494</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.269735091745321</c:v>
+                  <c:v>0.0899116972484402</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.265258238486492</c:v>
+                  <c:v>0.0884194128288307</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.260891922287104</c:v>
+                  <c:v>0.0869639740957013</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.256632533875671</c:v>
+                  <c:v>0.085544177958557</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.252476610100171</c:v>
+                  <c:v>0.0841588700333904</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.248420826886413</c:v>
+                  <c:v>0.082806942295471</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.244461992589151</c:v>
+                  <c:v>0.0814873308630504</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.240597041711104</c:v>
+                  <c:v>0.0801990139037013</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.236823028966798</c:v>
+                  <c:v>0.0789410096555994</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.233137123669769</c:v>
+                  <c:v>0.0777123745565895</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.229536604423141</c:v>
+                  <c:v>0.0765122014743803</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.226018854094999</c:v>
+                  <c:v>0.0753396180316664</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.222581355061214</c:v>
+                  <c:v>0.0741937850204046</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.21922168469958</c:v>
+                  <c:v>0.0730738948998601</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.215937511120215</c:v>
+                  <c:v>0.0719791703734051</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.212726589118149</c:v>
+                  <c:v>0.0709088630393831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,7 +969,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>RF Limit</c:v>
+            <c:v>RF Exposure Limit</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="flat" cmpd="dbl" algn="ctr">
@@ -1581,6 +1581,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance in cm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1657,6 +1713,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>power in milliwatts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1870,61 +1982,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>954.929658551372</c:v>
+                  <c:v>318.3098861837906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>424.4131815783876</c:v>
+                  <c:v>141.4710605261292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>238.732414637843</c:v>
+                  <c:v>79.57747154594767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.7887453682195</c:v>
+                  <c:v>50.92958178940651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.1032953945969</c:v>
+                  <c:v>35.3677651315323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.95344151439772</c:v>
+                  <c:v>25.98448050479924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.68310365946075</c:v>
+                  <c:v>19.89436788648692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.1570201753764</c:v>
+                  <c:v>15.71900672512547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.19718634205488</c:v>
+                  <c:v>12.73239544735163</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.56792259673957</c:v>
+                  <c:v>10.52264086557986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.52582384864922</c:v>
+                  <c:v>8.841941282883075</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.60188540949992</c:v>
+                  <c:v>7.533961803166643</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.48836037859943</c:v>
+                  <c:v>6.49612012619981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.9765272631355</c:v>
+                  <c:v>5.658842421045167</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.92077591486519</c:v>
+                  <c:v>4.97359197162173</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.21701949552072</c:v>
+                  <c:v>4.405673165173573</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.7892550438441</c:v>
+                  <c:v>3.929751681281367</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.58093804489055</c:v>
+                  <c:v>3.526979348296849</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.549296585513721</c:v>
+                  <c:v>3.183098861837906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3726,7 +3838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J401"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3774,7 +3886,7 @@
       </c>
       <c r="C2" s="1">
         <f>(4*C3)/C4</f>
-        <v>7.5451232280602225</v>
+        <v>2.5150410760200743</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>56</v>
@@ -3784,11 +3896,11 @@
       </c>
       <c r="G2" s="7">
         <f>($C$3*$C$12)/(4*F2*F2*PI())</f>
-        <v>954.92965855137197</v>
+        <v>318.3098861837907</v>
       </c>
       <c r="H2" s="7">
         <f>($C$3*$C$14)/(4*F2*F2*PI())</f>
-        <v>849.17367236256609</v>
+        <v>283.05789078752201</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -3802,7 +3914,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -3812,11 +3924,11 @@
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G66" si="0">($C$3*$C$12)/(4*F3*F3*PI())</f>
-        <v>424.41318157838759</v>
+        <v>141.47106052612921</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H66" si="1">($C$3*$C$14)/(4*F3*F3*PI())</f>
-        <v>377.41052105002944</v>
+        <v>125.80350701667646</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3841,11 +3953,11 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>238.73241463784299</v>
+        <v>79.577471545947674</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="1"/>
-        <v>212.29341809064152</v>
+        <v>70.764472696880503</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -3870,11 +3982,11 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>152.78874536821954</v>
+        <v>50.929581789406505</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
-        <v>135.86778757801059</v>
+        <v>45.289262526003526</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -3898,11 +4010,11 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>106.1032953945969</v>
+        <v>35.367765131532302</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>94.352630262507361</v>
+        <v>31.450876754169116</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -3927,11 +4039,11 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>77.953441514397724</v>
+        <v>25.98448050479924</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>69.320299784699273</v>
+        <v>23.10676659489976</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -3946,7 +4058,7 @@
       </c>
       <c r="C8" s="1">
         <f>(16*C9*C3)/(PI()*C6*C6)</f>
-        <v>3.7725616140301113</v>
+        <v>1.2575205380100372</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="4">
@@ -3954,11 +4066,11 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>59.683103659460748</v>
+        <v>19.894367886486918</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>53.073354522660381</v>
+        <v>17.691118174220126</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -3982,11 +4094,11 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>47.157020175376402</v>
+        <v>15.719006725125467</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>41.934502338892159</v>
+        <v>13.978167446297386</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -4001,7 +4113,7 @@
       </c>
       <c r="C10" s="1">
         <f>(16*C11*C3)/(PI()*C6*C6)</f>
-        <v>4.2423959799964663</v>
+        <v>1.4141319933321557</v>
       </c>
       <c r="D10" s="1"/>
       <c r="F10" s="4">
@@ -4009,11 +4121,11 @@
       </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>38.197186342054884</v>
+        <v>12.732395447351626</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>33.966946894502648</v>
+        <v>11.322315631500881</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -4038,11 +4150,11 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>31.567922596739571</v>
+        <v>10.522640865579856</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>28.071856937605492</v>
+        <v>9.3572856458684956</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4066,11 +4178,11 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>26.525823848649225</v>
+        <v>8.8419412828830755</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
-        <v>23.58815756562684</v>
+        <v>7.8627191885422789</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4095,11 +4207,11 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
-        <v>22.601885409499928</v>
+        <v>7.5339618031666431</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>20.098785144676121</v>
+        <v>6.6995950482253734</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4124,11 +4236,11 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="0"/>
-        <v>19.488360378599431</v>
+        <v>6.4961201261998101</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
-        <v>17.330074946174818</v>
+        <v>5.77669164872494</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -4153,11 +4265,11 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>16.976527263135502</v>
+        <v>5.6588424210451675</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="1"/>
-        <v>15.096420842001175</v>
+        <v>5.0321402806670585</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -4181,11 +4293,11 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="0"/>
-        <v>14.920775914865187</v>
+        <v>4.9735919716217296</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="1"/>
-        <v>13.268338630665095</v>
+        <v>4.4227795435550314</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -4210,11 +4322,11 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>13.217019495520722</v>
+        <v>4.4056731651735737</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="1"/>
-        <v>11.753268821627215</v>
+        <v>3.9177562738757379</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -4226,11 +4338,11 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>11.789255043844101</v>
+        <v>3.9297516812813669</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>10.48362558472304</v>
+        <v>3.4945418615743464</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -4245,11 +4357,11 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>10.58093804489055</v>
+        <v>3.5269793482968494</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>9.4091265635741408</v>
+        <v>3.13637552119138</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -4264,11 +4376,11 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>9.5492965855137211</v>
+        <v>3.1830988618379066</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>8.491736723625662</v>
+        <v>2.8305789078752204</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -4280,11 +4392,11 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>8.6614935015997467</v>
+        <v>2.8871645005332489</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>7.702255531633253</v>
+        <v>2.5674185105444178</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -4296,11 +4408,11 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="0"/>
-        <v>7.8919806491848927</v>
+        <v>2.6306602163949639</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="1"/>
-        <v>7.0179642344013731</v>
+        <v>2.3393214114671239</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -4325,11 +4437,11 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
-        <v>7.2206401402750249</v>
+        <v>2.4068800467583418</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="1"/>
-        <v>6.420972947921106</v>
+        <v>2.1403243159737015</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -4341,11 +4453,11 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="0"/>
-        <v>6.6314559621623062</v>
+        <v>2.2104853207207689</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>5.8970393914067101</v>
+        <v>1.9656797971355697</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -4357,11 +4469,11 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="0"/>
-        <v>6.1115498147287814</v>
+        <v>2.0371832715762603</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="1"/>
-        <v>5.4347115031204236</v>
+        <v>1.8115705010401411</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -4385,11 +4497,11 @@
       </c>
       <c r="G26" s="7">
         <f t="shared" si="0"/>
-        <v>5.6504713523749821</v>
+        <v>1.8834904507916608</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="1"/>
-        <v>5.0246962861690303</v>
+        <v>1.6748987620563434</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4404,7 +4516,7 @@
       </c>
       <c r="C27" s="1">
         <f>(C3*C12)/(4*PI()*C26*C26)</f>
-        <v>1.805160035068756</v>
+        <v>0.60172001168958533</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>55</v>
@@ -4414,11 +4526,11 @@
       </c>
       <c r="G27" s="7">
         <f t="shared" si="0"/>
-        <v>5.2396689083751555</v>
+        <v>1.7465563027917184</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="1"/>
-        <v>4.6593891487657952</v>
+        <v>1.5531297162552651</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -4433,7 +4545,7 @@
       </c>
       <c r="C28" s="1">
         <f>(C3*C14)/(4*C26*C26*PI())</f>
-        <v>1.6052432369802765</v>
+        <v>0.53508107899342539</v>
       </c>
       <c r="D28" s="1"/>
       <c r="F28" s="5">
@@ -4441,11 +4553,11 @@
       </c>
       <c r="G28" s="7">
         <f t="shared" si="0"/>
-        <v>4.8720900946498578</v>
+        <v>1.6240300315499525</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="1"/>
-        <v>4.3325187365437046</v>
+        <v>1.444172912181235</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -4457,11 +4569,11 @@
       </c>
       <c r="G29" s="7">
         <f t="shared" si="0"/>
-        <v>4.5418770918020073</v>
+        <v>1.5139590306006692</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="1"/>
-        <v>4.0388759684307551</v>
+        <v>1.3462919894769181</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -4473,11 +4585,11 @@
       </c>
       <c r="G30" s="7">
         <f t="shared" si="0"/>
-        <v>4.2441318157838754</v>
+        <v>1.4147106052612919</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="1"/>
-        <v>3.7741052105002937</v>
+        <v>1.2580350701667646</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -4489,11 +4601,11 @@
       </c>
       <c r="G31" s="7">
         <f t="shared" si="0"/>
-        <v>3.9747332301826099</v>
+        <v>1.3249110767275367</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="1"/>
-        <v>3.5345418204477261</v>
+        <v>1.1781806068159086</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4505,11 +4617,11 @@
       </c>
       <c r="G32" s="7">
         <f t="shared" si="0"/>
-        <v>3.7301939787162968</v>
+        <v>1.2433979929054324</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="1"/>
-        <v>3.3170846576662738</v>
+        <v>1.1056948858887579</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4521,11 +4633,11 @@
       </c>
       <c r="G33" s="7">
         <f t="shared" si="0"/>
-        <v>3.5075469551932859</v>
+        <v>1.1691823183977619</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="1"/>
-        <v>3.1190952152894993</v>
+        <v>1.0396984050964997</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4537,11 +4649,11 @@
       </c>
       <c r="G34" s="7">
         <f t="shared" si="0"/>
-        <v>3.3042548738801805</v>
+        <v>1.1014182912933934</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="1"/>
-        <v>2.9383172054068036</v>
+        <v>0.97943906846893447</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -4553,11 +4665,11 @@
       </c>
       <c r="G35" s="7">
         <f t="shared" si="0"/>
-        <v>3.1181376605759086</v>
+        <v>1.0393792201919696</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="1"/>
-        <v>2.7728119913879712</v>
+        <v>0.92427066379599032</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4569,11 +4681,11 @@
       </c>
       <c r="G36" s="7">
         <f t="shared" si="0"/>
-        <v>2.9473137609610252</v>
+        <v>0.98243792032034172</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="1"/>
-        <v>2.6209063961807599</v>
+        <v>0.87363546539358661</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -4585,11 +4697,11 @@
       </c>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
-        <v>2.7901523989813648</v>
+        <v>0.9300507996604549</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>2.481150247954905</v>
+        <v>0.82705008265163493</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4601,11 +4713,11 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="0"/>
-        <v>2.6452345112226374</v>
+        <v>0.88174483707421236</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>2.3522816408935352</v>
+        <v>0.78409388029784499</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -4617,11 +4729,11 @@
       </c>
       <c r="G39" s="7">
         <f t="shared" si="0"/>
-        <v>2.511320601055548</v>
+        <v>0.83710686701851589</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>2.233198349408458</v>
+        <v>0.74439944980281936</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -4633,11 +4745,11 @@
       </c>
       <c r="G40" s="7">
         <f t="shared" si="0"/>
-        <v>2.3873241463784303</v>
+        <v>0.79577471545947664</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>2.1229341809064155</v>
+        <v>0.70764472696880509</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -4649,11 +4761,11 @@
       </c>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>2.2722894909015396</v>
+        <v>0.75742983030051314</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>2.020639315556374</v>
+        <v>0.67354643851879126</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4665,11 +4777,11 @@
       </c>
       <c r="G42" s="7">
         <f t="shared" si="0"/>
-        <v>2.1653733753999367</v>
+        <v>0.72179112513331223</v>
       </c>
       <c r="H42" s="7">
         <f t="shared" si="1"/>
-        <v>1.9255638829083133</v>
+        <v>0.64185462763610446</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -4681,11 +4793,11 @@
       </c>
       <c r="G43" s="7">
         <f t="shared" si="0"/>
-        <v>2.0658294398082684</v>
+        <v>0.68860981326942283</v>
       </c>
       <c r="H43" s="7">
         <f t="shared" si="1"/>
-        <v>1.8370441803408681</v>
+        <v>0.61234806011362264</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -4697,11 +4809,11 @@
       </c>
       <c r="G44" s="7">
         <f t="shared" si="0"/>
-        <v>1.9729951622962232</v>
+        <v>0.65766505409874099</v>
       </c>
       <c r="H44" s="7">
         <f t="shared" si="1"/>
-        <v>1.7544910586003433</v>
+        <v>0.58483035286678098</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -4713,11 +4825,11 @@
       </c>
       <c r="G45" s="7">
         <f t="shared" si="0"/>
-        <v>1.8862808070150561</v>
+        <v>0.62876026900501869</v>
       </c>
       <c r="H45" s="7">
         <f t="shared" si="1"/>
-        <v>1.6773800935556864</v>
+        <v>0.55912669785189539</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -4729,11 +4841,11 @@
       </c>
       <c r="G46" s="7">
         <f t="shared" si="0"/>
-        <v>1.8051600350687562</v>
+        <v>0.60172001168958544</v>
       </c>
       <c r="H46" s="7">
         <f t="shared" si="1"/>
-        <v>1.6052432369802765</v>
+        <v>0.53508107899342539</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -4745,11 +4857,11 @@
       </c>
       <c r="G47" s="7">
         <f t="shared" si="0"/>
-        <v>1.7291618986896731</v>
+        <v>0.57638729956322443</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="1"/>
-        <v>1.5376616973518626</v>
+        <v>0.51255389911728755</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -4761,11 +4873,11 @@
       </c>
       <c r="G48" s="7">
         <f t="shared" si="0"/>
-        <v>1.6578639905405765</v>
+        <v>0.55262133018019222</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="1"/>
-        <v>1.4742598478516775</v>
+        <v>0.49141994928389243</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -4777,11 +4889,11 @@
       </c>
       <c r="G49" s="7">
         <f t="shared" si="0"/>
-        <v>1.5908865615183208</v>
+        <v>0.53029552050610695</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="1"/>
-        <v>1.4146999956061077</v>
+        <v>0.47156666520203588</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -4793,11 +4905,11 @@
       </c>
       <c r="G50" s="7">
         <f t="shared" si="0"/>
-        <v>1.5278874536821954</v>
+        <v>0.50929581789406508</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="1"/>
-        <v>1.3586778757801059</v>
+        <v>0.45289262526003526</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -4809,11 +4921,11 @@
       </c>
       <c r="G51" s="7">
         <f t="shared" si="0"/>
-        <v>1.4685577217245245</v>
+        <v>0.48951924057484147</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" si="1"/>
-        <v>1.3059187579585794</v>
+        <v>0.43530625265285972</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4825,11 +4937,11 @@
       </c>
       <c r="G52" s="7">
         <f t="shared" si="0"/>
-        <v>1.4126178380937455</v>
+        <v>0.47087261269791519</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="1"/>
-        <v>1.2561740715422576</v>
+        <v>0.41872469051408584</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -4841,11 +4953,11 @@
       </c>
       <c r="G53" s="7">
         <f t="shared" si="0"/>
-        <v>1.3598143945195758</v>
+        <v>0.45327146483985858</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="1"/>
-        <v>1.209218472570404</v>
+        <v>0.40307282419013463</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -4857,11 +4969,11 @@
       </c>
       <c r="G54" s="7">
         <f t="shared" si="0"/>
-        <v>1.3099172270937889</v>
+        <v>0.43663907569792959</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="1"/>
-        <v>1.1648472871914488</v>
+        <v>0.38828242906381627</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4873,11 +4985,11 @@
       </c>
       <c r="G55" s="7">
         <f t="shared" si="0"/>
-        <v>1.2627169038695829</v>
+        <v>0.4209056346231943</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="1"/>
-        <v>1.1228742775042198</v>
+        <v>0.3742914258347399</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4889,11 +5001,11 @@
       </c>
       <c r="G56" s="7">
         <f t="shared" si="0"/>
-        <v>1.2180225236624644</v>
+        <v>0.40600750788748813</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" si="1"/>
-        <v>1.0831296841359261</v>
+        <v>0.36104322804530875</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -4905,11 +5017,11 @@
       </c>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>1.1756597827656166</v>
+        <v>0.3918865942552055</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" si="1"/>
-        <v>1.0454585070637934</v>
+        <v>0.34848616902126445</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -4921,11 +5033,11 @@
       </c>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
-        <v>1.1354692729505018</v>
+        <v>0.37848975765016729</v>
       </c>
       <c r="H58" s="7">
         <f t="shared" si="1"/>
-        <v>1.0097189921076888</v>
+        <v>0.33657299736922952</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -4937,11 +5049,11 @@
       </c>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>1.0973049796625935</v>
+        <v>0.36576832655419783</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" si="1"/>
-        <v>0.97578129544678671</v>
+        <v>0.32526043181559555</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4953,11 +5065,11 @@
       </c>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>1.0610329539459689</v>
+        <v>0.35367765131532297</v>
       </c>
       <c r="H60" s="7">
         <f t="shared" si="1"/>
-        <v>0.94352630262507342</v>
+        <v>0.31450876754169116</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -4969,11 +5081,11 @@
       </c>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>1.0265301355026843</v>
+        <v>0.3421767118342281</v>
       </c>
       <c r="H61" s="7">
         <f t="shared" si="1"/>
-        <v>0.91284458195384699</v>
+        <v>0.304281527317949</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -4985,11 +5097,11 @@
       </c>
       <c r="G62" s="7">
         <f t="shared" si="0"/>
-        <v>0.99368330754565248</v>
+        <v>0.33122776918188418</v>
       </c>
       <c r="H62" s="7">
         <f t="shared" si="1"/>
-        <v>0.88363545511193153</v>
+        <v>0.29454515170397716</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -5001,11 +5113,11 @@
       </c>
       <c r="G63" s="7">
         <f t="shared" si="0"/>
-        <v>0.9623881668444163</v>
+        <v>0.32079605561480545</v>
       </c>
       <c r="H63" s="7">
         <f t="shared" si="1"/>
-        <v>0.85580617018147265</v>
+        <v>0.2852687233938242</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -5017,11 +5129,11 @@
       </c>
       <c r="G64" s="7">
         <f t="shared" si="0"/>
-        <v>0.93254849467907419</v>
+        <v>0.3108494982263581</v>
       </c>
       <c r="H64" s="7">
         <f t="shared" si="1"/>
-        <v>0.82927116441656845</v>
+        <v>0.27642372147218947</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -5033,11 +5145,11 @@
       </c>
       <c r="G65" s="7">
         <f t="shared" si="0"/>
-        <v>0.90407541637999722</v>
+        <v>0.30135847212666572</v>
       </c>
       <c r="H65" s="7">
         <f t="shared" si="1"/>
-        <v>0.80395140578704483</v>
+        <v>0.26798380192901494</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -5049,11 +5161,11 @@
       </c>
       <c r="G66" s="7">
         <f t="shared" si="0"/>
-        <v>0.87688673879832146</v>
+        <v>0.29229557959944047</v>
       </c>
       <c r="H66" s="7">
         <f t="shared" si="1"/>
-        <v>0.77977380382237482</v>
+        <v>0.25992460127412492</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -5065,11 +5177,11 @@
       </c>
       <c r="G67" s="7">
         <f t="shared" ref="G67:G130" si="2">($C$3*$C$12)/(4*F67*F67*PI())</f>
-        <v>0.85090635647259705</v>
+        <v>0.28363545215753233</v>
       </c>
       <c r="H67" s="7">
         <f t="shared" ref="H67:H130" si="3">($C$3*$C$14)/(4*F67*F67*PI())</f>
-        <v>0.75667068154383266</v>
+        <v>0.25222356051461087</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -5081,11 +5193,11 @@
       </c>
       <c r="G68" s="7">
         <f t="shared" si="2"/>
-        <v>0.82606371847004512</v>
+        <v>0.27535457282334835</v>
       </c>
       <c r="H68" s="7">
         <f t="shared" si="3"/>
-        <v>0.73457930135170091</v>
+        <v>0.24485976711723362</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -5097,11 +5209,11 @@
       </c>
       <c r="G69" s="7">
         <f t="shared" si="2"/>
-        <v>0.80229334891944726</v>
+        <v>0.26743111630648242</v>
       </c>
       <c r="H69" s="7">
         <f t="shared" si="3"/>
-        <v>0.71344143865790055</v>
+        <v>0.23781381288596684</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -5113,11 +5225,11 @@
       </c>
       <c r="G70" s="7">
         <f t="shared" si="2"/>
-        <v>0.77953441514397714</v>
+        <v>0.2598448050479924</v>
       </c>
       <c r="H70" s="7">
         <f t="shared" si="3"/>
-        <v>0.6932029978469928</v>
+        <v>0.23106766594899758</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -5129,11 +5241,11 @@
       </c>
       <c r="G71" s="7">
         <f t="shared" si="2"/>
-        <v>0.75773033806893242</v>
+        <v>0.25257677935631084</v>
       </c>
       <c r="H71" s="7">
         <f t="shared" si="3"/>
-        <v>0.67381366583024493</v>
+        <v>0.2246045552767483</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -5145,11 +5257,11 @@
       </c>
       <c r="G72" s="7">
         <f t="shared" si="2"/>
-        <v>0.73682844024025629</v>
+        <v>0.24560948008008543</v>
       </c>
       <c r="H72" s="7">
         <f t="shared" si="3"/>
-        <v>0.65522659904518998</v>
+        <v>0.21840886634839665</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -5161,11 +5273,11 @@
       </c>
       <c r="G73" s="7">
         <f t="shared" si="2"/>
-        <v>0.71677962736075962</v>
+        <v>0.23892654245358655</v>
       </c>
       <c r="H73" s="7">
         <f t="shared" si="3"/>
-        <v>0.63739814026088659</v>
+        <v>0.21246604675362885</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -5177,11 +5289,11 @@
       </c>
       <c r="G74" s="7">
         <f t="shared" si="2"/>
-        <v>0.6975380997453412</v>
+        <v>0.23251269991511372</v>
       </c>
       <c r="H74" s="7">
         <f t="shared" si="3"/>
-        <v>0.62028756198872625</v>
+        <v>0.20676252066290873</v>
       </c>
       <c r="J74">
         <v>1</v>
@@ -5193,11 +5305,11 @@
       </c>
       <c r="G75" s="7">
         <f t="shared" si="2"/>
-        <v>0.67906109052542019</v>
+        <v>0.22635369684180673</v>
       </c>
       <c r="H75" s="7">
         <f t="shared" si="3"/>
-        <v>0.60385683368004706</v>
+        <v>0.20128561122668234</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -5209,11 +5321,11 @@
       </c>
       <c r="G76" s="7">
         <f t="shared" si="2"/>
-        <v>0.66130862780565935</v>
+        <v>0.22043620926855309</v>
       </c>
       <c r="H76" s="7">
         <f t="shared" si="3"/>
-        <v>0.5880704102233838</v>
+        <v>0.19602347007446125</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5225,11 +5337,11 @@
       </c>
       <c r="G77" s="7">
         <f t="shared" si="2"/>
-        <v>0.64424331830080761</v>
+        <v>0.21474777276693585</v>
       </c>
       <c r="H77" s="7">
         <f t="shared" si="3"/>
-        <v>0.57289503954296928</v>
+        <v>0.19096501318098974</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -5241,11 +5353,11 @@
       </c>
       <c r="G78" s="7">
         <f t="shared" si="2"/>
-        <v>0.627830150263887</v>
+        <v>0.20927671675462897</v>
       </c>
       <c r="H78" s="7">
         <f t="shared" si="3"/>
-        <v>0.55829958735211449</v>
+        <v>0.18609986245070484</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -5257,11 +5369,11 @@
       </c>
       <c r="G79" s="7">
         <f t="shared" si="2"/>
-        <v>0.61203631376469925</v>
+        <v>0.20401210458823307</v>
       </c>
       <c r="H79" s="7">
         <f t="shared" si="3"/>
-        <v>0.54425487733540534</v>
+        <v>0.1814182924451351</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -5273,11 +5385,11 @@
       </c>
       <c r="G80" s="7">
         <f t="shared" si="2"/>
-        <v>0.59683103659460757</v>
+        <v>0.19894367886486916</v>
       </c>
       <c r="H80" s="7">
         <f t="shared" si="3"/>
-        <v>0.53073354522660388</v>
+        <v>0.17691118174220127</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -5289,11 +5401,11 @@
       </c>
       <c r="G81" s="7">
         <f t="shared" si="2"/>
-        <v>0.58218543426390612</v>
+        <v>0.19406181142130205</v>
       </c>
       <c r="H81" s="7">
         <f t="shared" si="3"/>
-        <v>0.51770990541842166</v>
+        <v>0.17256996847280723</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -5305,11 +5417,11 @@
       </c>
       <c r="G82" s="7">
         <f t="shared" si="2"/>
-        <v>0.56807237272538491</v>
+        <v>0.18935745757512829</v>
       </c>
       <c r="H82" s="7">
         <f t="shared" si="3"/>
-        <v>0.5051598288890935</v>
+        <v>0.16838660962969781</v>
       </c>
       <c r="J82">
         <v>1</v>
@@ -5321,11 +5433,11 @@
       </c>
       <c r="G83" s="7">
         <f t="shared" si="2"/>
-        <v>0.5544663426049482</v>
+        <v>0.1848221142016494</v>
       </c>
       <c r="H83" s="7">
         <f t="shared" si="3"/>
-        <v>0.49306063136162942</v>
+        <v>0.16435354378720979</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -5337,11 +5449,11 @@
       </c>
       <c r="G84" s="7">
         <f t="shared" si="2"/>
-        <v>0.54134334384998417</v>
+        <v>0.18044778128332806</v>
       </c>
       <c r="H84" s="7">
         <f t="shared" si="3"/>
-        <v>0.48139097072707832</v>
+        <v>0.16046365690902611</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -5353,11 +5465,11 @@
       </c>
       <c r="G85" s="7">
         <f t="shared" si="2"/>
-        <v>0.52868077982082884</v>
+        <v>0.17622692660694295</v>
       </c>
       <c r="H85" s="7">
         <f t="shared" si="3"/>
-        <v>0.47013075286508854</v>
+        <v>0.15671025095502952</v>
       </c>
       <c r="J85">
         <v>1</v>
@@ -5369,11 +5481,11 @@
       </c>
       <c r="G86" s="7">
         <f t="shared" si="2"/>
-        <v>0.5164573599520671</v>
+        <v>0.17215245331735571</v>
       </c>
       <c r="H86" s="7">
         <f t="shared" si="3"/>
-        <v>0.45926104508521703</v>
+        <v>0.15308701502840566</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -5385,11 +5497,11 @@
       </c>
       <c r="G87" s="7">
         <f t="shared" si="2"/>
-        <v>0.50465301020022302</v>
+        <v>0.16821767006674102</v>
       </c>
       <c r="H87" s="7">
         <f t="shared" si="3"/>
-        <v>0.44876399649230608</v>
+        <v>0.14958799883076868</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -5401,11 +5513,11 @@
       </c>
       <c r="G88" s="7">
         <f t="shared" si="2"/>
-        <v>0.4932487905740558</v>
+        <v>0.16441626352468525</v>
       </c>
       <c r="H88" s="7">
         <f t="shared" si="3"/>
-        <v>0.43862276465008582</v>
+        <v>0.14620758821669524</v>
       </c>
       <c r="J88">
         <v>1</v>
@@ -5417,11 +5529,11 @@
       </c>
       <c r="G89" s="7">
         <f t="shared" si="2"/>
-        <v>0.48222681911444115</v>
+        <v>0.16074227303814706</v>
       </c>
       <c r="H89" s="7">
         <f t="shared" si="3"/>
-        <v>0.42882144798008648</v>
+        <v>0.14294048266002882</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -5433,11 +5545,11 @@
       </c>
       <c r="G90" s="7">
         <f t="shared" si="2"/>
-        <v>0.47157020175376402</v>
+        <v>0.15719006725125467</v>
       </c>
       <c r="H90" s="7">
         <f t="shared" si="3"/>
-        <v>0.4193450233889216</v>
+        <v>0.13978167446297385</v>
       </c>
       <c r="J90">
         <v>1</v>
@@ -5449,11 +5561,11 @@
       </c>
       <c r="G91" s="7">
         <f t="shared" si="2"/>
-        <v>0.46126296754081486</v>
+        <v>0.15375432251360496</v>
       </c>
       <c r="H91" s="7">
         <f t="shared" si="3"/>
-        <v>0.4101792886668596</v>
+        <v>0.13672642955561987</v>
       </c>
       <c r="J91">
         <v>1</v>
@@ -5465,11 +5577,11 @@
       </c>
       <c r="G92" s="7">
         <f t="shared" si="2"/>
-        <v>0.45129000876718905</v>
+        <v>0.15043000292239636</v>
       </c>
       <c r="H92" s="7">
         <f t="shared" si="3"/>
-        <v>0.40131080924506912</v>
+        <v>0.13377026974835635</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -5481,11 +5593,11 @@
       </c>
       <c r="G93" s="7">
         <f t="shared" si="2"/>
-        <v>0.44163702557584555</v>
+        <v>0.14721234185861518</v>
       </c>
       <c r="H93" s="7">
         <f t="shared" si="3"/>
-        <v>0.39272686893863623</v>
+        <v>0.13090895631287874</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -5497,11 +5609,11 @@
       </c>
       <c r="G94" s="7">
         <f t="shared" si="2"/>
-        <v>0.43229047467241827</v>
+        <v>0.14409682489080611</v>
       </c>
       <c r="H94" s="7">
         <f t="shared" si="3"/>
-        <v>0.38441542433796566</v>
+        <v>0.12813847477932189</v>
       </c>
       <c r="J94">
         <v>1</v>
@@ -5513,11 +5625,11 @@
       </c>
       <c r="G95" s="7">
         <f t="shared" si="2"/>
-        <v>0.42323752179562196</v>
+        <v>0.141079173931874</v>
       </c>
       <c r="H95" s="7">
         <f t="shared" si="3"/>
-        <v>0.37636506254296559</v>
+        <v>0.1254550208476552</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -5529,11 +5641,11 @@
       </c>
       <c r="G96" s="7">
         <f t="shared" si="2"/>
-        <v>0.41446599763514413</v>
+        <v>0.13815533254504805</v>
       </c>
       <c r="H96" s="7">
         <f t="shared" si="3"/>
-        <v>0.36856496196291938</v>
+        <v>0.12285498732097311</v>
       </c>
       <c r="J96">
         <v>1</v>
@@ -5545,11 +5657,11 @@
       </c>
       <c r="G97" s="7">
         <f t="shared" si="2"/>
-        <v>0.40596435691417665</v>
+        <v>0.13532145230472553</v>
       </c>
       <c r="H97" s="7">
         <f t="shared" si="3"/>
-        <v>0.36100485593052017</v>
+        <v>0.12033495197684006</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -5561,11 +5673,11 @@
       </c>
       <c r="G98" s="7">
         <f t="shared" si="2"/>
-        <v>0.39772164037958019</v>
+        <v>0.13257388012652674</v>
       </c>
       <c r="H98" s="7">
         <f t="shared" si="3"/>
-        <v>0.35367499890152693</v>
+        <v>0.11789166630050897</v>
       </c>
       <c r="J98">
         <v>1</v>
@@ -5577,11 +5689,11 @@
       </c>
       <c r="G99" s="7">
         <f t="shared" si="2"/>
-        <v>0.38972743946592064</v>
+        <v>0.12990914648864021</v>
       </c>
       <c r="H99" s="7">
         <f t="shared" si="3"/>
-        <v>0.3465661350321666</v>
+        <v>0.11552204501072219</v>
       </c>
       <c r="J99">
         <v>1</v>
@@ -5593,11 +5705,11 @@
       </c>
       <c r="G100" s="7">
         <f t="shared" si="2"/>
-        <v>0.38197186342054884</v>
+        <v>0.12732395447351627</v>
       </c>
       <c r="H100" s="7">
         <f t="shared" si="3"/>
-        <v>0.33966946894502648</v>
+        <v>0.11322315631500882</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -5609,11 +5721,11 @@
       </c>
       <c r="G101" s="7">
         <f t="shared" si="2"/>
-        <v>0.37444550869576393</v>
+        <v>0.12481516956525465</v>
       </c>
       <c r="H101" s="7">
         <f t="shared" si="3"/>
-        <v>0.33297663851095621</v>
+        <v>0.1109922128369854</v>
       </c>
       <c r="J101">
         <v>1</v>
@@ -5625,11 +5737,11 @@
       </c>
       <c r="G102" s="7">
         <f t="shared" si="2"/>
-        <v>0.36713943043113112</v>
+        <v>0.12237981014371037</v>
       </c>
       <c r="H102" s="7">
         <f t="shared" si="3"/>
-        <v>0.32647968948964484</v>
+        <v>0.10882656316321493</v>
       </c>
       <c r="J102">
         <v>1</v>
@@ -5641,11 +5753,11 @@
       </c>
       <c r="G103" s="7">
         <f t="shared" si="2"/>
-        <v>0.36004511586440646</v>
+        <v>0.12001503862146881</v>
       </c>
       <c r="H103" s="7">
         <f t="shared" si="3"/>
-        <v>0.32017105188521677</v>
+        <v>0.10672368396173891</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -5657,11 +5769,11 @@
       </c>
       <c r="G104" s="7">
         <f t="shared" si="2"/>
-        <v>0.35315445952343638</v>
+        <v>0.1177181531744788</v>
       </c>
       <c r="H104" s="7">
         <f t="shared" si="3"/>
-        <v>0.31404351788556439</v>
+        <v>0.10468117262852146</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -5673,11 +5785,11 @@
       </c>
       <c r="G105" s="7">
         <f t="shared" si="2"/>
-        <v>0.34645974006398983</v>
+        <v>0.11548658002132994</v>
       </c>
       <c r="H105" s="7">
         <f t="shared" si="3"/>
-        <v>0.30809022126533014</v>
+        <v>0.10269674042177671</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -5689,11 +5801,11 @@
       </c>
       <c r="G106" s="7">
         <f t="shared" si="2"/>
-        <v>0.33995359862989394</v>
+        <v>0.11331786620996465</v>
       </c>
       <c r="H106" s="7">
         <f t="shared" si="3"/>
-        <v>0.30230461814260101</v>
+        <v>0.10076820604753366</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -5705,11 +5817,11 @@
       </c>
       <c r="G107" s="7">
         <f t="shared" si="2"/>
-        <v>0.33362901862219307</v>
+        <v>0.11120967287406436</v>
       </c>
       <c r="H107" s="7">
         <f t="shared" si="3"/>
-        <v>0.29668046898858108</v>
+        <v>9.8893489662860365E-2</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -5721,11 +5833,11 @@
       </c>
       <c r="G108" s="7">
         <f t="shared" si="2"/>
-        <v>0.32747930677344722</v>
+        <v>0.1091597689244824</v>
       </c>
       <c r="H108" s="7">
         <f t="shared" si="3"/>
-        <v>0.2912118217978622</v>
+        <v>9.7070607265954068E-2</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -5737,11 +5849,11 @@
       </c>
       <c r="G109" s="7">
         <f t="shared" si="2"/>
-        <v>0.32149807543182291</v>
+        <v>0.10716602514394098</v>
       </c>
       <c r="H109" s="7">
         <f t="shared" si="3"/>
-        <v>0.28589299633450593</v>
+        <v>9.5297665444835297E-2</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -5753,11 +5865,11 @@
       </c>
       <c r="G110" s="7">
         <f t="shared" si="2"/>
-        <v>0.31567922596739573</v>
+        <v>0.10522640865579858</v>
       </c>
       <c r="H110" s="7">
         <f t="shared" si="3"/>
-        <v>0.28071856937605494</v>
+        <v>9.3572856458684975E-2</v>
       </c>
       <c r="J110">
         <v>1</v>
@@ -5769,11 +5881,11 @@
       </c>
       <c r="G111" s="7">
         <f t="shared" si="2"/>
-        <v>0.31001693322015167</v>
+        <v>0.10333897774005055</v>
       </c>
       <c r="H111" s="7">
         <f t="shared" si="3"/>
-        <v>0.27568336088387835</v>
+        <v>9.1894453627959435E-2</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -5785,11 +5897,11 @@
       </c>
       <c r="G112" s="7">
         <f t="shared" si="2"/>
-        <v>0.30450563091561611</v>
+        <v>0.10150187697187203</v>
       </c>
       <c r="H112" s="7">
         <f t="shared" si="3"/>
-        <v>0.27078242103398154</v>
+        <v>9.0260807011327188E-2</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -5801,11 +5913,11 @@
       </c>
       <c r="G113" s="7">
         <f t="shared" si="2"/>
-        <v>0.29913999797991137</v>
+        <v>9.9713332659970455E-2</v>
       </c>
       <c r="H113" s="7">
         <f t="shared" si="3"/>
-        <v>0.26601101804763605</v>
+        <v>8.8670339349212007E-2</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -5817,11 +5929,11 @@
       </c>
       <c r="G114" s="7">
         <f t="shared" si="2"/>
-        <v>0.29391494569140414</v>
+        <v>9.7971648563801375E-2</v>
       </c>
       <c r="H114" s="7">
         <f t="shared" si="3"/>
-        <v>0.26136462676594835</v>
+        <v>8.7121542255316112E-2</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -5833,11 +5945,11 @@
       </c>
       <c r="G115" s="7">
         <f t="shared" si="2"/>
-        <v>0.28882560561100101</v>
+        <v>9.6275201870333657E-2</v>
       </c>
       <c r="H115" s="7">
         <f t="shared" si="3"/>
-        <v>0.25683891791684421</v>
+        <v>8.5612972638948057E-2</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -5849,11 +5961,11 @@
       </c>
       <c r="G116" s="7">
         <f t="shared" si="2"/>
-        <v>0.28386731823762545</v>
+        <v>9.4622439412541823E-2</v>
       </c>
       <c r="H116" s="7">
         <f t="shared" si="3"/>
-        <v>0.2524297480269222</v>
+        <v>8.414324934230738E-2</v>
       </c>
       <c r="J116">
         <v>1</v>
@@ -5865,11 +5977,11 @@
       </c>
       <c r="G117" s="7">
         <f t="shared" si="2"/>
-        <v>0.2790356223395053</v>
+        <v>9.3011874113168427E-2</v>
       </c>
       <c r="H117" s="7">
         <f t="shared" si="3"/>
-        <v>0.2481331499342731</v>
+        <v>8.2711049978091034E-2</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -5881,11 +5993,11 @@
       </c>
       <c r="G118" s="7">
         <f t="shared" si="2"/>
-        <v>0.27432624491564839</v>
+        <v>9.1442081638549458E-2</v>
       </c>
       <c r="H118" s="7">
         <f t="shared" si="3"/>
-        <v>0.24394532386169668</v>
+        <v>8.1315107953898888E-2</v>
       </c>
       <c r="J118">
         <v>1</v>
@@ -5897,11 +6009,11 @@
       </c>
       <c r="G119" s="7">
         <f t="shared" si="2"/>
-        <v>0.26973509174532079</v>
+        <v>8.9911697248440267E-2</v>
       </c>
       <c r="H119" s="7">
         <f t="shared" si="3"/>
-        <v>0.23986262901280025</v>
+        <v>7.9954209670933418E-2</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -5913,11 +6025,11 @@
       </c>
       <c r="G120" s="7">
         <f t="shared" si="2"/>
-        <v>0.26525823848649221</v>
+        <v>8.8419412828830743E-2</v>
       </c>
       <c r="H120" s="7">
         <f t="shared" si="3"/>
-        <v>0.23588157565626836</v>
+        <v>7.862719188542279E-2</v>
       </c>
       <c r="J120">
         <v>1</v>
@@ -5929,11 +6041,11 @@
       </c>
       <c r="G121" s="7">
         <f t="shared" si="2"/>
-        <v>0.26089192228710389</v>
+        <v>8.6963974095701294E-2</v>
       </c>
       <c r="H121" s="7">
         <f t="shared" si="3"/>
-        <v>0.23199881766616109</v>
+        <v>7.7332939222053698E-2</v>
       </c>
       <c r="J121">
         <v>1</v>
@@ -5945,11 +6057,11 @@
       </c>
       <c r="G122" s="7">
         <f t="shared" si="2"/>
-        <v>0.25663253387567109</v>
+        <v>8.5544177958557024E-2</v>
       </c>
       <c r="H122" s="7">
         <f t="shared" si="3"/>
-        <v>0.22821114548846175</v>
+        <v>7.6070381829487249E-2</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -5961,11 +6073,11 @@
       </c>
       <c r="G123" s="7">
         <f t="shared" si="2"/>
-        <v>0.25247661010017108</v>
+        <v>8.4158870033390371E-2</v>
       </c>
       <c r="H123" s="7">
         <f t="shared" si="3"/>
-        <v>0.2245154795062638</v>
+        <v>7.48384931687546E-2</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -5977,11 +6089,11 @@
       </c>
       <c r="G124" s="7">
         <f t="shared" si="2"/>
-        <v>0.24842082688641312</v>
+        <v>8.2806942295471045E-2</v>
       </c>
       <c r="H124" s="7">
         <f t="shared" si="3"/>
-        <v>0.22090886377798288</v>
+        <v>7.363628792599429E-2</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -5993,11 +6105,11 @@
       </c>
       <c r="G125" s="7">
         <f t="shared" si="2"/>
-        <v>0.24446199258915127</v>
+        <v>8.148733086305042E-2</v>
       </c>
       <c r="H125" s="7">
         <f t="shared" si="3"/>
-        <v>0.21738846012481697</v>
+        <v>7.2462820041605647E-2</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -6009,11 +6121,11 @@
       </c>
       <c r="G126" s="7">
         <f t="shared" si="2"/>
-        <v>0.24059704171110408</v>
+        <v>8.0199013903701363E-2</v>
       </c>
       <c r="H126" s="7">
         <f t="shared" si="3"/>
-        <v>0.21395154254536816</v>
+        <v>7.1317180848456049E-2</v>
       </c>
       <c r="J126">
         <v>1</v>
@@ -6025,11 +6137,11 @@
       </c>
       <c r="G127" s="7">
         <f t="shared" si="2"/>
-        <v>0.23682302896679819</v>
+        <v>7.8941009655599401E-2</v>
       </c>
       <c r="H127" s="7">
         <f t="shared" si="3"/>
-        <v>0.21059549193690028</v>
+        <v>7.0198497312300087E-2</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -6041,11 +6153,11 @@
       </c>
       <c r="G128" s="7">
         <f t="shared" si="2"/>
-        <v>0.23313712366976855</v>
+        <v>7.7712374556589525E-2</v>
       </c>
       <c r="H128" s="7">
         <f t="shared" si="3"/>
-        <v>0.20731779110414211</v>
+        <v>6.9105930368047366E-2</v>
       </c>
       <c r="J128">
         <v>1</v>
@@ -6057,11 +6169,11 @@
       </c>
       <c r="G129" s="7">
         <f t="shared" si="2"/>
-        <v>0.22953660442314092</v>
+        <v>7.6512201474380301E-2</v>
       </c>
       <c r="H129" s="7">
         <f t="shared" si="3"/>
-        <v>0.20411602003787419</v>
+        <v>6.8038673345958062E-2</v>
       </c>
       <c r="J129">
         <v>1</v>
@@ -6073,11 +6185,11 @@
       </c>
       <c r="G130" s="7">
         <f t="shared" si="2"/>
-        <v>0.22601885409499931</v>
+        <v>7.533961803166643E-2</v>
       </c>
       <c r="H130" s="7">
         <f t="shared" si="3"/>
-        <v>0.20098785144676121</v>
+        <v>6.6995950482253736E-2</v>
       </c>
       <c r="J130">
         <v>1</v>
@@ -6089,11 +6201,11 @@
       </c>
       <c r="G131" s="7">
         <f t="shared" ref="G131:G194" si="4">($C$3*$C$12)/(4*F131*F131*PI())</f>
-        <v>0.22258135506121368</v>
+        <v>7.4193785020404565E-2</v>
       </c>
       <c r="H131" s="7">
         <f t="shared" ref="H131:H194" si="5">($C$3*$C$14)/(4*F131*F131*PI())</f>
-        <v>0.19793104652702434</v>
+        <v>6.5977015509008113E-2</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -6105,11 +6217,11 @@
       </c>
       <c r="G132" s="7">
         <f t="shared" si="4"/>
-        <v>0.21922168469958037</v>
+        <v>7.3073894899860117E-2</v>
       </c>
       <c r="H132" s="7">
         <f t="shared" si="5"/>
-        <v>0.19494345095559371</v>
+        <v>6.4981150318531231E-2</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -6121,11 +6233,11 @@
       </c>
       <c r="G133" s="7">
         <f t="shared" si="4"/>
-        <v>0.21593751112021528</v>
+        <v>7.1979170373405094E-2</v>
       </c>
       <c r="H133" s="7">
         <f t="shared" si="5"/>
-        <v>0.1920229910933498</v>
+        <v>6.4007663697783254E-2</v>
       </c>
       <c r="J133">
         <v>1</v>
@@ -6137,11 +6249,11 @@
       </c>
       <c r="G134" s="7">
         <f t="shared" si="4"/>
-        <v>0.21272658911814926</v>
+        <v>7.0908863039383083E-2</v>
       </c>
       <c r="H134" s="7">
         <f t="shared" si="5"/>
-        <v>0.18916767038595816</v>
+        <v>6.3055890128652717E-2</v>
       </c>
       <c r="J134">
         <v>1</v>
@@ -6153,11 +6265,11 @@
       </c>
       <c r="G135" s="7">
         <f t="shared" si="4"/>
-        <v>0.2095867563350062</v>
+        <v>6.986225211166873E-2</v>
       </c>
       <c r="H135" s="7">
         <f t="shared" si="5"/>
-        <v>0.18637556595063179</v>
+        <v>6.2125188650210598E-2</v>
       </c>
       <c r="J135">
         <v>1</v>
@@ -6169,11 +6281,11 @@
       </c>
       <c r="G136" s="7">
         <f t="shared" si="4"/>
-        <v>0.20651592961751128</v>
+        <v>6.8838643205837088E-2</v>
       </c>
       <c r="H136" s="7">
         <f t="shared" si="5"/>
-        <v>0.18364482533792523</v>
+        <v>6.1214941779308404E-2</v>
       </c>
       <c r="J136">
         <v>1</v>
@@ -6185,11 +6297,11 @@
       </c>
       <c r="G137" s="7">
         <f t="shared" si="4"/>
-        <v>0.20351210156137717</v>
+        <v>6.7837367187125727E-2</v>
       </c>
       <c r="H137" s="7">
         <f t="shared" si="5"/>
-        <v>0.18097366345837629</v>
+        <v>6.0324554486125427E-2</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -6201,11 +6313,11 @@
       </c>
       <c r="G138" s="7">
         <f t="shared" si="4"/>
-        <v>0.20057333722986181</v>
+        <v>6.6857779076620605E-2</v>
       </c>
       <c r="H138" s="7">
         <f t="shared" si="5"/>
-        <v>0.17836035966447514</v>
+        <v>5.945345322149171E-2</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -6217,11 +6329,11 @@
       </c>
       <c r="G139" s="7">
         <f t="shared" si="4"/>
-        <v>0.19769777103697989</v>
+        <v>6.5899257012326629E-2</v>
       </c>
       <c r="H139" s="7">
         <f t="shared" si="5"/>
-        <v>0.17580325497905205</v>
+        <v>5.8601084993017347E-2</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -6233,11 +6345,11 @@
       </c>
       <c r="G140" s="7">
         <f t="shared" si="4"/>
-        <v>0.19488360378599429</v>
+        <v>6.49612012619981E-2</v>
       </c>
       <c r="H140" s="7">
         <f t="shared" si="5"/>
-        <v>0.1733007494617482</v>
+        <v>5.7766916487249395E-2</v>
       </c>
       <c r="J140">
         <v>1</v>
@@ -6249,11 +6361,11 @@
       </c>
       <c r="G141" s="7">
         <f t="shared" si="4"/>
-        <v>0.19212909985440815</v>
+        <v>6.4043033284802708E-2</v>
       </c>
       <c r="H141" s="7">
         <f t="shared" si="5"/>
-        <v>0.17085129970576252</v>
+        <v>5.6950433235254172E-2</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -6265,11 +6377,11 @@
       </c>
       <c r="G142" s="7">
         <f t="shared" si="4"/>
-        <v>0.1894325845172331</v>
+        <v>6.3144194839077711E-2</v>
       </c>
       <c r="H142" s="7">
         <f t="shared" si="5"/>
-        <v>0.16845341645756123</v>
+        <v>5.6151138819187076E-2</v>
       </c>
       <c r="J142">
         <v>1</v>
@@ -6281,11 +6393,11 @@
       </c>
       <c r="G143" s="7">
         <f t="shared" si="4"/>
-        <v>0.18679244140082588</v>
+        <v>6.2264147133608623E-2</v>
       </c>
       <c r="H143" s="7">
         <f t="shared" si="5"/>
-        <v>0.16610566235269522</v>
+        <v>5.5368554117565069E-2</v>
       </c>
       <c r="J143">
         <v>1</v>
@@ -6297,11 +6409,11 @@
       </c>
       <c r="G144" s="7">
         <f t="shared" si="4"/>
-        <v>0.18420711006006407</v>
+        <v>6.1402370020021357E-2</v>
       </c>
       <c r="H144" s="7">
         <f t="shared" si="5"/>
-        <v>0.1638066497612975</v>
+        <v>5.4602216587099163E-2</v>
       </c>
       <c r="J144">
         <v>1</v>
@@ -6313,11 +6425,11 @@
       </c>
       <c r="G145" s="7">
         <f t="shared" si="4"/>
-        <v>0.1816750836720803</v>
+        <v>6.0558361224026767E-2</v>
       </c>
       <c r="H145" s="7">
         <f t="shared" si="5"/>
-        <v>0.16155503873723018</v>
+        <v>5.3851679579076724E-2</v>
       </c>
       <c r="J145">
         <v>1</v>
@@ -6329,11 +6441,11 @@
       </c>
       <c r="G146" s="7">
         <f t="shared" si="4"/>
-        <v>0.1791949068401899</v>
+        <v>5.9731635613396637E-2</v>
       </c>
       <c r="H146" s="7">
         <f t="shared" si="5"/>
-        <v>0.15934953506522165</v>
+        <v>5.3116511688407211E-2</v>
       </c>
       <c r="J146">
         <v>1</v>
@@ -6345,11 +6457,11 @@
       </c>
       <c r="G147" s="7">
         <f t="shared" si="4"/>
-        <v>0.17676517350203566</v>
+        <v>5.8921724500678549E-2</v>
       </c>
       <c r="H147" s="7">
         <f t="shared" si="5"/>
-        <v>0.15718888840067866</v>
+        <v>5.2396296133559547E-2</v>
       </c>
       <c r="J147">
         <v>1</v>
@@ -6361,11 +6473,11 @@
       </c>
       <c r="G148" s="7">
         <f t="shared" si="4"/>
-        <v>0.1743845249363353</v>
+        <v>5.8128174978778431E-2</v>
       </c>
       <c r="H148" s="7">
         <f t="shared" si="5"/>
-        <v>0.15507189049718156</v>
+        <v>5.1690630165727183E-2</v>
       </c>
       <c r="J148">
         <v>1</v>
@@ -6377,11 +6489,11 @@
       </c>
       <c r="G149" s="7">
         <f t="shared" si="4"/>
-        <v>0.1720516478629561</v>
+        <v>5.7350549287652035E-2</v>
       </c>
       <c r="H149" s="7">
         <f t="shared" si="5"/>
-        <v>0.15299737351697063</v>
+        <v>5.099912450565687E-2</v>
       </c>
       <c r="J149">
         <v>1</v>
@@ -6393,11 +6505,11 @@
       </c>
       <c r="G150" s="7">
         <f t="shared" si="4"/>
-        <v>0.16976527263135505</v>
+        <v>5.6588424210451682E-2</v>
       </c>
       <c r="H150" s="7">
         <f t="shared" si="5"/>
-        <v>0.15096420842001176</v>
+        <v>5.0321402806670586E-2</v>
       </c>
       <c r="J150">
         <v>1</v>
@@ -6409,11 +6521,11 @@
       </c>
       <c r="G151" s="7">
         <f t="shared" si="4"/>
-        <v>0.16752417149271909</v>
+        <v>5.5841390497573029E-2</v>
       </c>
       <c r="H151" s="7">
         <f t="shared" si="5"/>
-        <v>0.14897130342749285</v>
+        <v>4.9657101142497613E-2</v>
       </c>
       <c r="J151">
         <v>1</v>
@@ -6425,11 +6537,11 @@
       </c>
       <c r="G152" s="7">
         <f t="shared" si="4"/>
-        <v>0.16532715695141484</v>
+        <v>5.5109052317138273E-2</v>
       </c>
       <c r="H152" s="7">
         <f t="shared" si="5"/>
-        <v>0.14701760255584595</v>
+        <v>4.9005867518615312E-2</v>
       </c>
       <c r="J152">
         <v>1</v>
@@ -6441,11 +6553,11 @@
       </c>
       <c r="G153" s="7">
         <f t="shared" si="4"/>
-        <v>0.16317308019161383</v>
+        <v>5.4391026730537945E-2</v>
       </c>
       <c r="H153" s="7">
         <f t="shared" si="5"/>
-        <v>0.14510208421761991</v>
+        <v>4.8367361405873305E-2</v>
       </c>
       <c r="J153">
         <v>1</v>
@@ -6457,11 +6569,11 @@
       </c>
       <c r="G154" s="7">
         <f t="shared" si="4"/>
-        <v>0.1610608295752019</v>
+        <v>5.3686943191733963E-2</v>
       </c>
       <c r="H154" s="7">
         <f t="shared" si="5"/>
-        <v>0.14322375988574232</v>
+        <v>4.7741253295247435E-2</v>
       </c>
       <c r="J154">
         <v>1</v>
@@ -6473,11 +6585,11 @@
       </c>
       <c r="G155" s="7">
         <f t="shared" si="4"/>
-        <v>0.15898932920730441</v>
+        <v>5.2996443069101472E-2</v>
       </c>
       <c r="H155" s="7">
         <f t="shared" si="5"/>
-        <v>0.14138167281790906</v>
+        <v>4.7127224272636346E-2</v>
       </c>
       <c r="J155">
         <v>1</v>
@@ -6489,11 +6601,11 @@
       </c>
       <c r="G156" s="7">
         <f t="shared" si="4"/>
-        <v>0.15695753756597175</v>
+        <v>5.2319179188657243E-2</v>
       </c>
       <c r="H156" s="7">
         <f t="shared" si="5"/>
-        <v>0.13957489683802862</v>
+        <v>4.652496561267621E-2</v>
       </c>
       <c r="J156">
         <v>1</v>
@@ -6505,11 +6617,11 @@
       </c>
       <c r="G157" s="7">
         <f t="shared" si="4"/>
-        <v>0.15496444619276595</v>
+        <v>5.1654815397588656E-2</v>
       </c>
       <c r="H157" s="7">
         <f t="shared" si="5"/>
-        <v>0.13780253517182298</v>
+        <v>4.5934178390607656E-2</v>
       </c>
       <c r="J157">
         <v>1</v>
@@ -6521,11 +6633,11 @@
       </c>
       <c r="G158" s="7">
         <f t="shared" si="4"/>
-        <v>0.15300907844117481</v>
+        <v>5.1003026147058268E-2</v>
       </c>
       <c r="H158" s="7">
         <f t="shared" si="5"/>
-        <v>0.13606371933385134</v>
+        <v>4.5354573111283776E-2</v>
       </c>
       <c r="J158">
         <v>1</v>
@@ -6537,11 +6649,11 @@
       </c>
       <c r="G159" s="7">
         <f t="shared" si="4"/>
-        <v>0.15109048827995286</v>
+        <v>5.0363496093317618E-2</v>
       </c>
       <c r="H159" s="7">
         <f t="shared" si="5"/>
-        <v>0.13435760806337821</v>
+        <v>4.4785869354459398E-2</v>
       </c>
       <c r="J159">
         <v>1</v>
@@ -6553,11 +6665,11 @@
       </c>
       <c r="G160" s="7">
         <f t="shared" si="4"/>
-        <v>0.14920775914865189</v>
+        <v>4.973591971621729E-2</v>
       </c>
       <c r="H160" s="7">
         <f t="shared" si="5"/>
-        <v>0.13268338630665097</v>
+        <v>4.4227795435550318E-2</v>
       </c>
       <c r="J160">
         <v>1</v>
@@ -6569,11 +6681,11 @@
       </c>
       <c r="G161" s="7">
         <f t="shared" si="4"/>
-        <v>0.14736000286275561</v>
+        <v>4.9120000954251869E-2</v>
       </c>
       <c r="H161" s="7">
         <f t="shared" si="5"/>
-        <v>0.13104026424328785</v>
+        <v>4.3680088081095955E-2</v>
       </c>
       <c r="J161">
         <v>1</v>
@@ -6585,11 +6697,11 @@
       </c>
       <c r="G162" s="7">
         <f t="shared" si="4"/>
-        <v>0.14554635856597653</v>
+        <v>4.8515452855325512E-2</v>
       </c>
       <c r="H162" s="7">
         <f t="shared" si="5"/>
-        <v>0.12942747635460541</v>
+        <v>4.3142492118201807E-2</v>
       </c>
       <c r="J162">
         <v>1</v>
@@ -6601,11 +6713,11 @@
       </c>
       <c r="G163" s="7">
         <f t="shared" si="4"/>
-        <v>0.14376599172740742</v>
+        <v>4.7921997242469143E-2</v>
       </c>
       <c r="H163" s="7">
         <f t="shared" si="5"/>
-        <v>0.12784428053183275</v>
+        <v>4.2614760177277583E-2</v>
       </c>
       <c r="J163">
         <v>1</v>
@@ -6617,11 +6729,11 @@
       </c>
       <c r="G164" s="7">
         <f t="shared" si="4"/>
-        <v>0.14201809318134623</v>
+        <v>4.7339364393782071E-2</v>
       </c>
       <c r="H164" s="7">
         <f t="shared" si="5"/>
-        <v>0.12628995722227337</v>
+        <v>4.2096652407424454E-2</v>
       </c>
       <c r="J164">
         <v>1</v>
@@ -6633,11 +6745,11 @@
       </c>
       <c r="G165" s="7">
         <f t="shared" si="4"/>
-        <v>0.14030187820773143</v>
+        <v>4.676729273591048E-2</v>
       </c>
       <c r="H165" s="7">
         <f t="shared" si="5"/>
-        <v>0.12476380861157998</v>
+        <v>4.158793620385999E-2</v>
       </c>
       <c r="J165">
         <v>1</v>
@@ -6649,11 +6761,11 @@
       </c>
       <c r="G166" s="7">
         <f t="shared" si="4"/>
-        <v>0.13861658565123705</v>
+        <v>4.620552855041235E-2</v>
       </c>
       <c r="H166" s="7">
         <f t="shared" si="5"/>
-        <v>0.12326515784040736</v>
+        <v>4.1088385946802447E-2</v>
       </c>
       <c r="J166">
         <v>1</v>
@@ -6665,11 +6777,11 @@
       </c>
       <c r="G167" s="7">
         <f t="shared" si="4"/>
-        <v>0.13696147707718054</v>
+        <v>4.565382569239352E-2</v>
       </c>
       <c r="H167" s="7">
         <f t="shared" si="5"/>
-        <v>0.12179334825380131</v>
+        <v>4.0597782751267103E-2</v>
       </c>
       <c r="J167">
         <v>1</v>
@@ -6681,11 +6793,11 @@
       </c>
       <c r="G168" s="7">
         <f t="shared" si="4"/>
-        <v>0.13533583596249604</v>
+        <v>4.5111945320832014E-2</v>
       </c>
       <c r="H168" s="7">
         <f t="shared" si="5"/>
-        <v>0.12034774268176958</v>
+        <v>4.0115914227256529E-2</v>
       </c>
       <c r="J168">
         <v>1</v>
@@ -6697,11 +6809,11 @@
       </c>
       <c r="G169" s="7">
         <f t="shared" si="4"/>
-        <v>0.13373896692011794</v>
+        <v>4.4579655640039309E-2</v>
       </c>
       <c r="H169" s="7">
         <f t="shared" si="5"/>
-        <v>0.11892772274956286</v>
+        <v>3.9642574249854283E-2</v>
       </c>
       <c r="J169">
         <v>1</v>
@@ -6713,11 +6825,11 @@
       </c>
       <c r="G170" s="7">
         <f t="shared" si="4"/>
-        <v>0.13217019495520721</v>
+        <v>4.4056731651735737E-2</v>
       </c>
       <c r="H170" s="7">
         <f t="shared" si="5"/>
-        <v>0.11753268821627214</v>
+        <v>3.9177562738757381E-2</v>
       </c>
       <c r="J170">
         <v>1</v>
@@ -6729,11 +6841,11 @@
       </c>
       <c r="G171" s="7">
         <f t="shared" si="4"/>
-        <v>0.13062886475173519</v>
+        <v>4.3542954917245059E-2</v>
       </c>
       <c r="H171" s="7">
         <f t="shared" si="5"/>
-        <v>0.1161620563404215</v>
+        <v>3.8720685446807165E-2</v>
       </c>
       <c r="J171">
         <v>1</v>
@@ -6745,11 +6857,11 @@
       </c>
       <c r="G172" s="7">
         <f t="shared" si="4"/>
-        <v>0.12911433998801677</v>
+        <v>4.3038113329338927E-2</v>
       </c>
       <c r="H172" s="7">
         <f t="shared" si="5"/>
-        <v>0.11481526127130426</v>
+        <v>3.8271753757101415E-2</v>
       </c>
       <c r="J172">
         <v>1</v>
@@ -6761,11 +6873,11 @@
       </c>
       <c r="G173" s="7">
         <f t="shared" si="4"/>
-        <v>0.1276260026798586</v>
+        <v>4.2542000893286198E-2</v>
       </c>
       <c r="H173" s="7">
         <f t="shared" si="5"/>
-        <v>0.11349175346487569</v>
+        <v>3.7830584488291893E-2</v>
       </c>
       <c r="J173">
         <v>1</v>
@@ -6777,11 +6889,11 @@
       </c>
       <c r="G174" s="7">
         <f t="shared" si="4"/>
-        <v>0.12616325255005575</v>
+        <v>4.2054417516685254E-2</v>
       </c>
       <c r="H174" s="7">
         <f t="shared" si="5"/>
-        <v>0.11219099912307652</v>
+        <v>3.7396999707692169E-2</v>
       </c>
       <c r="J174">
         <v>1</v>
@@ -6793,11 +6905,11 @@
       </c>
       <c r="G175" s="7">
         <f t="shared" si="4"/>
-        <v>0.12472550642303636</v>
+        <v>4.1575168807678788E-2</v>
       </c>
       <c r="H175" s="7">
         <f t="shared" si="5"/>
-        <v>0.11091247965551886</v>
+        <v>3.6970826551839614E-2</v>
       </c>
       <c r="J175">
         <v>1</v>
@@ -6809,11 +6921,11 @@
       </c>
       <c r="G176" s="7">
         <f t="shared" si="4"/>
-        <v>0.12331219764351395</v>
+        <v>4.1104065881171312E-2</v>
       </c>
       <c r="H176" s="7">
         <f t="shared" si="5"/>
-        <v>0.10965569116252145</v>
+        <v>3.6551897054173811E-2</v>
       </c>
       <c r="J176">
         <v>1</v>
@@ -6825,11 +6937,11 @@
       </c>
       <c r="G177" s="7">
         <f t="shared" si="4"/>
-        <v>0.12192277551806595</v>
+        <v>4.0640925172688649E-2</v>
       </c>
       <c r="H177" s="7">
         <f t="shared" si="5"/>
-        <v>0.10842014393853186</v>
+        <v>3.614004797951062E-2</v>
       </c>
       <c r="J177">
         <v>1</v>
@@ -6841,11 +6953,11 @@
       </c>
       <c r="G178" s="7">
         <f t="shared" si="4"/>
-        <v>0.12055670477861029</v>
+        <v>4.0185568259536765E-2</v>
       </c>
       <c r="H178" s="7">
         <f t="shared" si="5"/>
-        <v>0.10720536199502162</v>
+        <v>3.5735120665007204E-2</v>
       </c>
       <c r="J178">
         <v>1</v>
@@ -6857,11 +6969,11 @@
       </c>
       <c r="G179" s="7">
         <f t="shared" si="4"/>
-        <v>0.11921346506680466</v>
+        <v>3.9737821688934888E-2</v>
       </c>
       <c r="H179" s="7">
         <f t="shared" si="5"/>
-        <v>0.10601088260198697</v>
+        <v>3.5336960867328987E-2</v>
       </c>
       <c r="J179">
         <v>1</v>
@@ -6873,11 +6985,11 @@
       </c>
       <c r="G180" s="7">
         <f t="shared" si="4"/>
-        <v>0.117892550438441</v>
+        <v>3.9297516812813668E-2</v>
       </c>
       <c r="H180" s="7">
         <f t="shared" si="5"/>
-        <v>0.1048362558472304</v>
+        <v>3.4945418615743462E-2</v>
       </c>
       <c r="J180">
         <v>1</v>
@@ -6889,11 +7001,11 @@
       </c>
       <c r="G181" s="7">
         <f t="shared" si="4"/>
-        <v>0.11659346888695364</v>
+        <v>3.8864489628984547E-2</v>
       </c>
       <c r="H181" s="7">
         <f t="shared" si="5"/>
-        <v>0.10368104421263895</v>
+        <v>3.4560348070879647E-2</v>
       </c>
       <c r="J181">
         <v>1</v>
@@ -6905,11 +7017,11 @@
       </c>
       <c r="G182" s="7">
         <f t="shared" si="4"/>
-        <v>0.11531574188520372</v>
+        <v>3.8438580628401241E-2</v>
       </c>
       <c r="H182" s="7">
         <f t="shared" si="5"/>
-        <v>0.1025448221667149</v>
+        <v>3.4181607388904967E-2</v>
       </c>
       <c r="J182">
         <v>1</v>
@@ -6921,11 +7033,11 @@
       </c>
       <c r="G183" s="7">
         <f t="shared" si="4"/>
-        <v>0.1140589039447427</v>
+        <v>3.801963464824757E-2</v>
       </c>
       <c r="H183" s="7">
         <f t="shared" si="5"/>
-        <v>0.10142717577264967</v>
+        <v>3.380905859088322E-2</v>
       </c>
       <c r="J183">
         <v>1</v>
@@ -6937,11 +7049,11 @@
       </c>
       <c r="G184" s="7">
         <f t="shared" si="4"/>
-        <v>0.11282250219179726</v>
+        <v>3.760750073059909E-2</v>
       </c>
       <c r="H184" s="7">
         <f t="shared" si="5"/>
-        <v>0.10032770231126728</v>
+        <v>3.3442567437089087E-2</v>
       </c>
       <c r="J184">
         <v>1</v>
@@ -6953,11 +7065,11 @@
       </c>
       <c r="G185" s="7">
         <f t="shared" si="4"/>
-        <v>0.11160609595925458</v>
+        <v>3.7202031986418194E-2</v>
       </c>
       <c r="H185" s="7">
         <f t="shared" si="5"/>
-        <v>9.9246009918196196E-2</v>
+        <v>3.3082003306065394E-2</v>
       </c>
       <c r="J185">
         <v>1</v>
@@ -6969,11 +7081,11 @@
       </c>
       <c r="G186" s="7">
         <f t="shared" si="4"/>
-        <v>0.11040925639396139</v>
+        <v>3.6803085464653794E-2</v>
       </c>
       <c r="H186" s="7">
         <f t="shared" si="5"/>
-        <v>9.8181717234659058E-2</v>
+        <v>3.2727239078219686E-2</v>
       </c>
       <c r="J186">
         <v>1</v>
@@ -6985,11 +7097,11 @@
       </c>
       <c r="G187" s="7">
         <f t="shared" si="4"/>
-        <v>0.10923156607868363</v>
+        <v>3.6410522026227882E-2</v>
       </c>
       <c r="H187" s="7">
         <f t="shared" si="5"/>
-        <v>9.7134453071299282E-2</v>
+        <v>3.2378151023766427E-2</v>
       </c>
       <c r="J187">
         <v>1</v>
@@ -7001,11 +7113,11 @@
       </c>
       <c r="G188" s="7">
         <f t="shared" si="4"/>
-        <v>0.10807261866810457</v>
+        <v>3.6024206222701527E-2</v>
       </c>
       <c r="H188" s="7">
         <f t="shared" si="5"/>
-        <v>9.6103856084491415E-2</v>
+        <v>3.2034618694830472E-2</v>
       </c>
       <c r="J188">
         <v>1</v>
@@ -7017,11 +7129,11 @@
       </c>
       <c r="G189" s="7">
         <f t="shared" si="4"/>
-        <v>0.10693201853826848</v>
+        <v>3.5644006179422823E-2</v>
       </c>
       <c r="H189" s="7">
         <f t="shared" si="5"/>
-        <v>9.5089574464608057E-2</v>
+        <v>3.1696524821536017E-2</v>
       </c>
       <c r="J189">
         <v>1</v>
@@ -7033,11 +7145,11 @@
       </c>
       <c r="G190" s="7">
         <f t="shared" si="4"/>
-        <v>0.10580938044890549</v>
+        <v>3.5269793482968499E-2</v>
       </c>
       <c r="H190" s="7">
         <f t="shared" si="5"/>
-        <v>9.4091265635741397E-2</v>
+        <v>3.1363755211913799E-2</v>
       </c>
       <c r="J190">
         <v>1</v>
@@ -7049,11 +7161,11 @@
       </c>
       <c r="G191" s="7">
         <f t="shared" si="4"/>
-        <v>0.10470432921809951</v>
+        <v>3.4901443072699836E-2</v>
       </c>
       <c r="H191" s="7">
         <f t="shared" si="5"/>
-        <v>9.3108595966400726E-2</v>
+        <v>3.1036198655466904E-2</v>
       </c>
       <c r="J191">
         <v>1</v>
@@ -7065,11 +7177,11 @@
       </c>
       <c r="G192" s="7">
         <f t="shared" si="4"/>
-        <v>0.10361649940878603</v>
+        <v>3.4538833136262014E-2</v>
       </c>
       <c r="H192" s="7">
         <f t="shared" si="5"/>
-        <v>9.2141240490729845E-2</v>
+        <v>3.0713746830243277E-2</v>
       </c>
       <c r="J192">
         <v>1</v>
@@ -7081,11 +7193,11 @@
       </c>
       <c r="G193" s="7">
         <f t="shared" si="4"/>
-        <v>0.102545535026591</v>
+        <v>3.4181845008863669E-2</v>
       </c>
       <c r="H193" s="7">
         <f t="shared" si="5"/>
-        <v>9.1188882639809524E-2</v>
+        <v>3.039629421326984E-2</v>
       </c>
       <c r="J193">
         <v>1</v>
@@ -7097,11 +7209,11 @@
       </c>
       <c r="G194" s="7">
         <f t="shared" si="4"/>
-        <v>0.10149108922854416</v>
+        <v>3.3830363076181383E-2</v>
       </c>
       <c r="H194" s="7">
         <f t="shared" si="5"/>
-        <v>9.0251213982630044E-2</v>
+        <v>3.0083737994210016E-2</v>
       </c>
       <c r="J194">
         <v>1</v>
@@ -7113,11 +7225,11 @@
       </c>
       <c r="G195" s="7">
         <f t="shared" ref="G195:G258" si="6">($C$3*$C$12)/(4*F195*F195*PI())</f>
-        <v>0.10045282404222192</v>
+        <v>3.3484274680740639E-2</v>
       </c>
       <c r="H195" s="7">
         <f t="shared" ref="H195:H258" si="7">($C$3*$C$14)/(4*F195*F195*PI())</f>
-        <v>8.9327933976338314E-2</v>
+        <v>2.9775977992112772E-2</v>
       </c>
       <c r="J195">
         <v>1</v>
@@ -7129,11 +7241,11 @@
       </c>
       <c r="G196" s="7">
         <f t="shared" si="6"/>
-        <v>9.9430410094895047E-2</v>
+        <v>3.3143470031631685E-2</v>
       </c>
       <c r="H196" s="7">
         <f t="shared" si="7"/>
-        <v>8.8418749725381732E-2</v>
+        <v>2.9472916575127243E-2</v>
       </c>
       <c r="J196">
         <v>1</v>
@@ -7145,11 +7257,11 @@
       </c>
       <c r="G197" s="7">
         <f t="shared" si="6"/>
-        <v>9.8423526352276219E-2</v>
+        <v>3.2807842117425406E-2</v>
       </c>
       <c r="H197" s="7">
         <f t="shared" si="7"/>
-        <v>8.7523375749188712E-2</v>
+        <v>2.91744585830629E-2</v>
       </c>
       <c r="J197">
         <v>1</v>
@@ -7161,11 +7273,11 @@
       </c>
       <c r="G198" s="7">
         <f t="shared" si="6"/>
-        <v>9.7431859866480161E-2</v>
+        <v>3.2477286622160054E-2</v>
       </c>
       <c r="H198" s="7">
         <f t="shared" si="7"/>
-        <v>8.664153375804165E-2</v>
+        <v>2.8880511252680548E-2</v>
       </c>
       <c r="J198">
         <v>1</v>
@@ -7177,11 +7289,11 @@
       </c>
       <c r="G199" s="7">
         <f t="shared" si="6"/>
-        <v>9.6455105532827157E-2</v>
+        <v>3.2151701844275717E-2</v>
       </c>
       <c r="H199" s="7">
         <f t="shared" si="7"/>
-        <v>8.5772952436813835E-2</v>
+        <v>2.8590984145604608E-2</v>
       </c>
       <c r="J199">
         <v>1</v>
@@ -7193,11 +7305,11 @@
       </c>
       <c r="G200" s="7">
         <f t="shared" si="6"/>
-        <v>9.549296585513721E-2</v>
+        <v>3.1830988618379068E-2</v>
       </c>
       <c r="H200" s="7">
         <f t="shared" si="7"/>
-        <v>8.4917367236256619E-2</v>
+        <v>2.8305789078752204E-2</v>
       </c>
       <c r="J200">
         <v>1</v>
@@ -7209,11 +7321,11 @@
       </c>
       <c r="G201" s="7">
         <f t="shared" si="6"/>
-        <v>9.4545150719177448E-2</v>
+        <v>3.1515050239725818E-2</v>
       </c>
       <c r="H201" s="7">
         <f t="shared" si="7"/>
-        <v>8.4074520171536951E-2</v>
+        <v>2.8024840057178986E-2</v>
       </c>
       <c r="J201">
         <v>1</v>
@@ -7225,11 +7337,11 @@
       </c>
       <c r="G202" s="7">
         <f t="shared" si="6"/>
-        <v>9.3611377173940982E-2</v>
+        <v>3.1203792391313663E-2</v>
       </c>
       <c r="H202" s="7">
         <f t="shared" si="7"/>
-        <v>8.3244159627739053E-2</v>
+        <v>2.7748053209246351E-2</v>
       </c>
       <c r="J202">
         <v>1</v>
@@ -7241,11 +7353,11 @@
       </c>
       <c r="G203" s="7">
         <f t="shared" si="6"/>
-        <v>9.2691369220449127E-2</v>
+        <v>3.0897123073483045E-2</v>
       </c>
       <c r="H203" s="7">
         <f t="shared" si="7"/>
-        <v>8.2426040172056222E-2</v>
+        <v>2.7475346724018739E-2</v>
       </c>
       <c r="J203">
         <v>1</v>
@@ -7257,11 +7369,11 @@
       </c>
       <c r="G204" s="7">
         <f t="shared" si="6"/>
-        <v>9.178485760778278E-2</v>
+        <v>3.0594952535927592E-2</v>
       </c>
       <c r="H204" s="7">
         <f t="shared" si="7"/>
-        <v>8.1619922372411211E-2</v>
+        <v>2.7206640790803732E-2</v>
       </c>
       <c r="J204">
         <v>1</v>
@@ -7273,11 +7385,11 @@
       </c>
       <c r="G205" s="7">
         <f t="shared" si="6"/>
-        <v>9.0891579636061579E-2</v>
+        <v>3.029719321202053E-2</v>
       </c>
       <c r="H205" s="7">
         <f t="shared" si="7"/>
-        <v>8.0825572622254954E-2</v>
+        <v>2.6941857540751651E-2</v>
       </c>
       <c r="J205">
         <v>1</v>
@@ -7289,11 +7401,11 @@
       </c>
       <c r="G206" s="7">
         <f t="shared" si="6"/>
-        <v>9.0011278966101615E-2</v>
+        <v>3.0003759655367203E-2</v>
       </c>
       <c r="H206" s="7">
         <f t="shared" si="7"/>
-        <v>8.0042762971304193E-2</v>
+        <v>2.6680920990434728E-2</v>
       </c>
       <c r="J206">
         <v>1</v>
@@ -7305,11 +7417,11 @@
       </c>
       <c r="G207" s="7">
         <f t="shared" si="6"/>
-        <v>8.9143705435494131E-2</v>
+        <v>2.9714568478498044E-2</v>
       </c>
       <c r="H207" s="7">
         <f t="shared" si="7"/>
-        <v>7.9271270961988952E-2</v>
+        <v>2.6423756987329648E-2</v>
       </c>
       <c r="J207">
         <v>1</v>
@@ -7321,11 +7433,11 @@
       </c>
       <c r="G208" s="7">
         <f t="shared" si="6"/>
-        <v>8.8288614880859095E-2</v>
+        <v>2.94295382936197E-2</v>
       </c>
       <c r="H208" s="7">
         <f t="shared" si="7"/>
-        <v>7.8510879471391098E-2</v>
+        <v>2.6170293157130365E-2</v>
       </c>
       <c r="J208">
         <v>1</v>
@@ -7337,11 +7449,11 @@
       </c>
       <c r="G209" s="7">
         <f t="shared" si="6"/>
-        <v>8.744576896603759E-2</v>
+        <v>2.9148589655345863E-2</v>
       </c>
       <c r="H209" s="7">
         <f t="shared" si="7"/>
-        <v>7.7761376558463963E-2</v>
+        <v>2.5920458852821321E-2</v>
       </c>
       <c r="J209">
         <v>1</v>
@@ -7353,11 +7465,11 @@
       </c>
       <c r="G210" s="7">
         <f t="shared" si="6"/>
-        <v>8.6614935015997457E-2</v>
+        <v>2.8871645005332486E-2</v>
       </c>
       <c r="H210" s="7">
         <f t="shared" si="7"/>
-        <v>7.7022555316332536E-2</v>
+        <v>2.5674185105444176E-2</v>
       </c>
       <c r="J210">
         <v>1</v>
@@ -7369,11 +7481,11 @@
       </c>
       <c r="G211" s="7">
         <f t="shared" si="6"/>
-        <v>8.5795885856236112E-2</v>
+        <v>2.8598628618745372E-2</v>
       </c>
       <c r="H211" s="7">
         <f t="shared" si="7"/>
-        <v>7.6294213729481919E-2</v>
+        <v>2.5431404576493972E-2</v>
       </c>
       <c r="J211">
         <v>1</v>
@@ -7385,11 +7497,11 @@
       </c>
       <c r="G212" s="7">
         <f t="shared" si="6"/>
-        <v>8.4988399657473485E-2</v>
+        <v>2.8329466552491162E-2</v>
       </c>
       <c r="H212" s="7">
         <f t="shared" si="7"/>
-        <v>7.5576154535650253E-2</v>
+        <v>2.5192051511883414E-2</v>
       </c>
       <c r="J212">
         <v>1</v>
@@ -7401,11 +7513,11 @@
       </c>
       <c r="G213" s="7">
         <f t="shared" si="6"/>
-        <v>8.4192259785436929E-2</v>
+        <v>2.8064086595145647E-2</v>
       </c>
       <c r="H213" s="7">
         <f t="shared" si="7"/>
-        <v>7.4868185092249434E-2</v>
+        <v>2.4956061697416477E-2</v>
       </c>
       <c r="J213">
         <v>1</v>
@@ -7417,11 +7529,11 @@
       </c>
       <c r="G214" s="7">
         <f t="shared" si="6"/>
-        <v>8.3407254655548269E-2</v>
+        <v>2.780241821851609E-2</v>
       </c>
       <c r="H214" s="7">
         <f t="shared" si="7"/>
-        <v>7.417011724714527E-2</v>
+        <v>2.4723372415715091E-2</v>
       </c>
       <c r="J214">
         <v>1</v>
@@ -7433,11 +7545,11 @@
       </c>
       <c r="G215" s="7">
         <f t="shared" si="6"/>
-        <v>8.2633177592330728E-2</v>
+        <v>2.7544392530776909E-2</v>
       </c>
       <c r="H215" s="7">
         <f t="shared" si="7"/>
-        <v>7.3481767213634711E-2</v>
+        <v>2.4493922404544902E-2</v>
       </c>
       <c r="J215">
         <v>1</v>
@@ -7449,11 +7561,11 @@
       </c>
       <c r="G216" s="7">
         <f t="shared" si="6"/>
-        <v>8.1869826693361805E-2</v>
+        <v>2.7289942231120599E-2</v>
       </c>
       <c r="H216" s="7">
         <f t="shared" si="7"/>
-        <v>7.2802955449465551E-2</v>
+        <v>2.4267651816488517E-2</v>
       </c>
       <c r="J216">
         <v>1</v>
@@ -7465,11 +7577,11 @@
       </c>
       <c r="G217" s="7">
         <f t="shared" si="6"/>
-        <v>8.1117004697604286E-2</v>
+        <v>2.7039001565868095E-2</v>
       </c>
       <c r="H217" s="7">
         <f t="shared" si="7"/>
-        <v>7.2133506539749509E-2</v>
+        <v>2.4044502179916501E-2</v>
       </c>
       <c r="J217">
         <v>1</v>
@@ -7481,11 +7593,11 @@
       </c>
       <c r="G218" s="7">
         <f t="shared" si="6"/>
-        <v>8.0374518857955726E-2</v>
+        <v>2.6791506285985246E-2</v>
       </c>
       <c r="H218" s="7">
         <f t="shared" si="7"/>
-        <v>7.1473249083626483E-2</v>
+        <v>2.3824416361208824E-2</v>
       </c>
       <c r="J218">
         <v>1</v>
@@ -7497,11 +7609,11 @@
       </c>
       <c r="G219" s="7">
         <f t="shared" si="6"/>
-        <v>7.9642180817862174E-2</v>
+        <v>2.654739360595406E-2</v>
       </c>
       <c r="H219" s="7">
         <f t="shared" si="7"/>
-        <v>7.0822015584542958E-2</v>
+        <v>2.3607338528180984E-2</v>
       </c>
       <c r="J219">
         <v>1</v>
@@ -7513,11 +7625,11 @@
       </c>
       <c r="G220" s="7">
         <f t="shared" si="6"/>
-        <v>7.8919806491848932E-2</v>
+        <v>2.6306602163949644E-2</v>
       </c>
       <c r="H220" s="7">
         <f t="shared" si="7"/>
-        <v>7.0179642344013735E-2</v>
+        <v>2.3393214114671244E-2</v>
       </c>
       <c r="J220">
         <v>1</v>
@@ -7529,11 +7641,11 @@
       </c>
       <c r="G221" s="7">
         <f t="shared" si="6"/>
-        <v>7.8207215949826742E-2</v>
+        <v>2.6069071983275582E-2</v>
       </c>
       <c r="H221" s="7">
         <f t="shared" si="7"/>
-        <v>6.9545969358740911E-2</v>
+        <v>2.3181989786246967E-2</v>
       </c>
       <c r="J221">
         <v>1</v>
@@ -7545,11 +7657,11 @@
       </c>
       <c r="G222" s="7">
         <f t="shared" si="6"/>
-        <v>7.7504233305037917E-2</v>
+        <v>2.5834744435012637E-2</v>
       </c>
       <c r="H222" s="7">
         <f t="shared" si="7"/>
-        <v>6.8920840220969587E-2</v>
+        <v>2.2973613406989859E-2</v>
       </c>
       <c r="J222">
         <v>1</v>
@@ -7561,11 +7673,11 @@
       </c>
       <c r="G223" s="7">
         <f t="shared" si="6"/>
-        <v>7.6810686605511644E-2</v>
+        <v>2.5603562201837213E-2</v>
       </c>
       <c r="H223" s="7">
         <f t="shared" si="7"/>
-        <v>6.8304102021964339E-2</v>
+        <v>2.2768034007321445E-2</v>
       </c>
       <c r="J223">
         <v>1</v>
@@ -7577,11 +7689,11 @@
       </c>
       <c r="G224" s="7">
         <f t="shared" si="6"/>
-        <v>7.6126407728904028E-2</v>
+        <v>2.5375469242968008E-2</v>
       </c>
       <c r="H224" s="7">
         <f t="shared" si="7"/>
-        <v>6.7695605258495384E-2</v>
+        <v>2.2565201752831797E-2</v>
       </c>
       <c r="J224">
         <v>1</v>
@@ -7593,11 +7705,11 @@
       </c>
       <c r="G225" s="7">
         <f t="shared" si="6"/>
-        <v>7.5451232280602229E-2</v>
+        <v>2.5150410760200744E-2</v>
       </c>
       <c r="H225" s="7">
         <f t="shared" si="7"/>
-        <v>6.7095203742227452E-2</v>
+        <v>2.2365067914075814E-2</v>
       </c>
       <c r="J225">
         <v>1</v>
@@ -7609,11 +7721,11 @@
       </c>
       <c r="G226" s="7">
         <f t="shared" si="6"/>
-        <v>7.4784999494977841E-2</v>
+        <v>2.4928333164992614E-2</v>
       </c>
       <c r="H226" s="7">
         <f t="shared" si="7"/>
-        <v>6.6502754511909012E-2</v>
+        <v>2.2167584837303002E-2</v>
       </c>
       <c r="J226">
         <v>1</v>
@@ -7625,11 +7737,11 @@
       </c>
       <c r="G227" s="7">
         <f t="shared" si="6"/>
-        <v>7.4127552139678393E-2</v>
+        <v>2.4709184046559467E-2</v>
       </c>
       <c r="H227" s="7">
         <f t="shared" si="7"/>
-        <v>6.5918117748263394E-2</v>
+        <v>2.1972705916087798E-2</v>
       </c>
       <c r="J227">
         <v>1</v>
@@ -7641,11 +7753,11 @@
       </c>
       <c r="G228" s="7">
         <f t="shared" si="6"/>
-        <v>7.3478736422851035E-2</v>
+        <v>2.4492912140950344E-2</v>
       </c>
       <c r="H228" s="7">
         <f t="shared" si="7"/>
-        <v>6.5341156691487087E-2</v>
+        <v>2.1780385563829028E-2</v>
       </c>
       <c r="J228">
         <v>1</v>
@@ -7657,11 +7769,11 @@
       </c>
       <c r="G229" s="7">
         <f t="shared" si="6"/>
-        <v>7.2838401903195751E-2</v>
+        <v>2.4279467301065248E-2</v>
       </c>
       <c r="H229" s="7">
         <f t="shared" si="7"/>
-        <v>6.4771737561264364E-2</v>
+        <v>2.1590579187088121E-2</v>
       </c>
       <c r="J229">
         <v>1</v>
@@ -7673,11 +7785,11 @@
       </c>
       <c r="G230" s="7">
         <f t="shared" si="6"/>
-        <v>7.2206401402750253E-2</v>
+        <v>2.4068800467583414E-2</v>
       </c>
       <c r="H230" s="7">
         <f t="shared" si="7"/>
-        <v>6.4209729479211053E-2</v>
+        <v>2.1403243159737014E-2</v>
       </c>
       <c r="J230">
         <v>1</v>
@@ -7689,11 +7801,11 @@
       </c>
       <c r="G231" s="7">
         <f t="shared" si="6"/>
-        <v>7.1582590922311951E-2</v>
+        <v>2.3860863640770651E-2</v>
       </c>
       <c r="H231" s="7">
         <f t="shared" si="7"/>
-        <v>6.3655004393663256E-2</v>
+        <v>2.1218334797887747E-2</v>
       </c>
       <c r="J231">
         <v>1</v>
@@ -7705,11 +7817,11 @@
       </c>
       <c r="G232" s="7">
         <f t="shared" si="6"/>
-        <v>7.0966829559406364E-2</v>
+        <v>2.3655609853135456E-2</v>
       </c>
       <c r="H232" s="7">
         <f t="shared" si="7"/>
-        <v>6.3107437006730549E-2</v>
+        <v>2.1035812335576845E-2</v>
       </c>
       <c r="J232">
         <v>1</v>
@@ -7721,11 +7833,11 @@
       </c>
       <c r="G233" s="7">
         <f t="shared" si="6"/>
-        <v>7.0358979428714621E-2</v>
+        <v>2.3452993142904874E-2</v>
       </c>
       <c r="H233" s="7">
         <f t="shared" si="7"/>
-        <v>6.2566904703535986E-2</v>
+        <v>2.0855634901178657E-2</v>
       </c>
       <c r="J233">
         <v>1</v>
@@ -7737,11 +7849,11 @@
       </c>
       <c r="G234" s="7">
         <f t="shared" si="6"/>
-        <v>6.9758905584876324E-2</v>
+        <v>2.3252968528292107E-2</v>
       </c>
       <c r="H234" s="7">
         <f t="shared" si="7"/>
-        <v>6.2033287483568275E-2</v>
+        <v>2.0677762494522758E-2</v>
       </c>
       <c r="J234">
         <v>1</v>
@@ -7753,11 +7865,11 @@
       </c>
       <c r="G235" s="7">
         <f t="shared" si="6"/>
-        <v>6.9166475947586931E-2</v>
+        <v>2.3055491982528976E-2</v>
       </c>
       <c r="H235" s="7">
         <f t="shared" si="7"/>
-        <v>6.1506467894074504E-2</v>
+        <v>2.0502155964691501E-2</v>
       </c>
       <c r="J235">
         <v>1</v>
@@ -7769,11 +7881,11 @@
       </c>
       <c r="G236" s="7">
         <f t="shared" si="6"/>
-        <v>6.8581561228912097E-2</v>
+        <v>2.2860520409637364E-2</v>
       </c>
       <c r="H236" s="7">
         <f t="shared" si="7"/>
-        <v>6.0986330965424169E-2</v>
+        <v>2.0328776988474722E-2</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -7785,11 +7897,11 @@
       </c>
       <c r="G237" s="7">
         <f t="shared" si="6"/>
-        <v>6.8004034862744367E-2</v>
+        <v>2.2668011620914787E-2</v>
       </c>
       <c r="H237" s="7">
         <f t="shared" si="7"/>
-        <v>6.047276414837837E-2</v>
+        <v>2.0157588049459454E-2</v>
       </c>
       <c r="J237">
         <v>1</v>
@@ -7801,11 +7913,11 @@
       </c>
       <c r="G238" s="7">
         <f t="shared" si="6"/>
-        <v>6.7433772936330197E-2</v>
+        <v>2.2477924312110067E-2</v>
       </c>
       <c r="H238" s="7">
         <f t="shared" si="7"/>
-        <v>5.9965657253200064E-2</v>
+        <v>1.9988552417733355E-2</v>
       </c>
       <c r="J238">
         <v>1</v>
@@ -7817,11 +7929,11 @@
       </c>
       <c r="G239" s="7">
         <f t="shared" si="6"/>
-        <v>6.687065412379839E-2</v>
+        <v>2.229021804126613E-2</v>
       </c>
       <c r="H239" s="7">
         <f t="shared" si="7"/>
-        <v>5.9464902390544014E-2</v>
+        <v>1.9821634130181336E-2</v>
       </c>
       <c r="J239">
         <v>1</v>
@@ -7833,11 +7945,11 @@
       </c>
       <c r="G240" s="7">
         <f t="shared" si="6"/>
-        <v>6.6314559621623054E-2</v>
+        <v>2.2104853207207686E-2</v>
       </c>
       <c r="H240" s="7">
         <f t="shared" si="7"/>
-        <v>5.8970393914067089E-2</v>
+        <v>1.9656797971355697E-2</v>
       </c>
       <c r="J240">
         <v>1</v>
@@ -7849,11 +7961,11 @@
       </c>
       <c r="G241" s="7">
         <f t="shared" si="6"/>
-        <v>6.576537308595734E-2</v>
+        <v>2.1921791028652444E-2</v>
       </c>
       <c r="H241" s="7">
         <f t="shared" si="7"/>
-        <v>5.8482028364702135E-2</v>
+        <v>1.949400945490071E-2</v>
       </c>
       <c r="J241">
         <v>1</v>
@@ -7865,11 +7977,11 @@
       </c>
       <c r="G242" s="7">
         <f t="shared" si="6"/>
-        <v>6.5222980571775974E-2</v>
+        <v>2.1740993523925323E-2</v>
       </c>
       <c r="H242" s="7">
         <f t="shared" si="7"/>
-        <v>5.7999704416540274E-2</v>
+        <v>1.9333234805513425E-2</v>
       </c>
       <c r="J242">
         <v>1</v>
@@ -7881,11 +7993,11 @@
       </c>
       <c r="G243" s="7">
         <f t="shared" si="6"/>
-        <v>6.468727047376735E-2</v>
+        <v>2.1562423491255783E-2</v>
       </c>
       <c r="H243" s="7">
         <f t="shared" si="7"/>
-        <v>5.7523322824269078E-2</v>
+        <v>1.9174440941423024E-2</v>
       </c>
       <c r="J243">
         <v>1</v>
@@ -7897,11 +8009,11 @@
       </c>
       <c r="G244" s="7">
         <f t="shared" si="6"/>
-        <v>6.4158133468917772E-2</v>
+        <v>2.1386044489639256E-2</v>
       </c>
       <c r="H244" s="7">
         <f t="shared" si="7"/>
-        <v>5.7052786372115437E-2</v>
+        <v>1.9017595457371812E-2</v>
       </c>
       <c r="J244">
         <v>1</v>
@@ -7913,11 +8025,11 @@
       </c>
       <c r="G245" s="7">
         <f t="shared" si="6"/>
-        <v>6.3635462460732831E-2</v>
+        <v>2.1211820820244278E-2</v>
       </c>
       <c r="H245" s="7">
         <f t="shared" si="7"/>
-        <v>5.6587999824244319E-2</v>
+        <v>1.8862666608081436E-2</v>
       </c>
       <c r="J245">
         <v>1</v>
@@ -7929,11 +8041,11 @@
       </c>
       <c r="G246" s="7">
         <f t="shared" si="6"/>
-        <v>6.3119152525042771E-2</v>
+        <v>2.1039717508347593E-2</v>
       </c>
       <c r="H246" s="7">
         <f t="shared" si="7"/>
-        <v>5.612886987656595E-2</v>
+        <v>1.870962329218865E-2</v>
       </c>
       <c r="J246">
         <v>1</v>
@@ -7945,11 +8057,11 @@
       </c>
       <c r="G247" s="7">
         <f t="shared" si="6"/>
-        <v>6.2609100857340519E-2</v>
+        <v>2.0869700285780175E-2</v>
       </c>
       <c r="H247" s="7">
         <f t="shared" si="7"/>
-        <v>5.5675305109906155E-2</v>
+        <v>1.8558435036635384E-2</v>
       </c>
       <c r="J247">
         <v>1</v>
@@ -7961,11 +8073,11 @@
       </c>
       <c r="G248" s="7">
         <f t="shared" si="6"/>
-        <v>6.210520672160328E-2</v>
+        <v>2.0701735573867761E-2</v>
       </c>
       <c r="H248" s="7">
         <f t="shared" si="7"/>
-        <v>5.5227215944495721E-2</v>
+        <v>1.8409071981498572E-2</v>
       </c>
       <c r="J248">
         <v>1</v>
@@ -7977,11 +8089,11 @@
       </c>
       <c r="G249" s="7">
         <f t="shared" si="6"/>
-        <v>6.1607371400549803E-2</v>
+        <v>2.0535790466849935E-2</v>
       </c>
       <c r="H249" s="7">
         <f t="shared" si="7"/>
-        <v>5.4784514595736598E-2</v>
+        <v>1.8261504865245533E-2</v>
       </c>
       <c r="J249">
         <v>1</v>
@@ -7993,11 +8105,11 @@
       </c>
       <c r="G250" s="7">
         <f t="shared" si="6"/>
-        <v>6.1115498147287818E-2</v>
+        <v>2.0371832715762605E-2</v>
       </c>
       <c r="H250" s="7">
         <f t="shared" si="7"/>
-        <v>5.4347115031204242E-2</v>
+        <v>1.8115705010401412E-2</v>
       </c>
       <c r="J250">
         <v>1</v>
@@ -8009,11 +8121,11 @@
       </c>
       <c r="G251" s="7">
         <f t="shared" si="6"/>
-        <v>6.0629492138307144E-2</v>
+        <v>2.0209830712769047E-2</v>
       </c>
       <c r="H251" s="7">
         <f t="shared" si="7"/>
-        <v>5.3914932928846603E-2</v>
+        <v>1.7971644309615533E-2</v>
       </c>
       <c r="J251">
         <v>1</v>
@@ -8025,11 +8137,11 @@
       </c>
       <c r="G252" s="7">
         <f t="shared" si="6"/>
-        <v>6.0149260427776019E-2</v>
+        <v>2.0049753475925341E-2</v>
       </c>
       <c r="H252" s="7">
         <f t="shared" si="7"/>
-        <v>5.348788563634204E-2</v>
+        <v>1.7829295212114012E-2</v>
       </c>
       <c r="J252">
         <v>1</v>
@@ -8041,11 +8153,11 @@
       </c>
       <c r="G253" s="7">
         <f t="shared" si="6"/>
-        <v>5.9674711903099378E-2</v>
+        <v>1.9891570634366459E-2</v>
       </c>
       <c r="H253" s="7">
         <f t="shared" si="7"/>
-        <v>5.3065892131579383E-2</v>
+        <v>1.7688630710526457E-2</v>
       </c>
       <c r="J253">
         <v>1</v>
@@ -8057,11 +8169,11 @@
       </c>
       <c r="G254" s="7">
         <f t="shared" si="6"/>
-        <v>5.9205757241699547E-2</v>
+        <v>1.973525241389985E-2</v>
       </c>
       <c r="H254" s="7">
         <f t="shared" si="7"/>
-        <v>5.2648872984225069E-2</v>
+        <v>1.7549624328075022E-2</v>
       </c>
       <c r="J254">
         <v>1</v>
@@ -8073,11 +8185,11 @@
       </c>
       <c r="G255" s="7">
         <f t="shared" si="6"/>
-        <v>5.8742308868980977E-2</v>
+        <v>1.9580769622993658E-2</v>
       </c>
       <c r="H255" s="7">
         <f t="shared" si="7"/>
-        <v>5.223675031834317E-2</v>
+        <v>1.7412250106114389E-2</v>
       </c>
       <c r="J255">
         <v>1</v>
@@ -8089,11 +8201,11 @@
       </c>
       <c r="G256" s="7">
         <f t="shared" si="6"/>
-        <v>5.8284280917442137E-2</v>
+        <v>1.9428093639147381E-2</v>
       </c>
       <c r="H256" s="7">
         <f t="shared" si="7"/>
-        <v>5.1829447776035528E-2</v>
+        <v>1.7276482592011842E-2</v>
       </c>
       <c r="J256">
         <v>1</v>
@@ -8105,11 +8217,11 @@
       </c>
       <c r="G257" s="7">
         <f t="shared" si="6"/>
-        <v>5.7831589186898943E-2</v>
+        <v>1.9277196395632981E-2</v>
       </c>
       <c r="H257" s="7">
         <f t="shared" si="7"/>
-        <v>5.1426890482070359E-2</v>
+        <v>1.7142296827356785E-2</v>
       </c>
       <c r="J257">
         <v>1</v>
@@ -8121,11 +8233,11 @@
       </c>
       <c r="G258" s="7">
         <f t="shared" si="6"/>
-        <v>5.7384151105785229E-2</v>
+        <v>1.9128050368595075E-2</v>
       </c>
       <c r="H258" s="7">
         <f t="shared" si="7"/>
-        <v>5.1029005009468546E-2</v>
+        <v>1.7009668336489515E-2</v>
       </c>
       <c r="J258">
         <v>1</v>
@@ -8137,11 +8249,11 @@
       </c>
       <c r="G259" s="7">
         <f t="shared" ref="G259:G322" si="8">($C$3*$C$12)/(4*F259*F259*PI())</f>
-        <v>5.6941885693497243E-2</v>
+        <v>1.8980628564499082E-2</v>
       </c>
       <c r="H259" s="7">
         <f t="shared" ref="H259:H322" si="9">($C$3*$C$14)/(4*F259*F259*PI())</f>
-        <v>5.0635719346018473E-2</v>
+        <v>1.6878573115339489E-2</v>
       </c>
       <c r="J259">
         <v>1</v>
@@ -8153,11 +8265,11 @@
       </c>
       <c r="G260" s="7">
         <f t="shared" si="8"/>
-        <v>5.6504713523749826E-2</v>
+        <v>1.8834904507916608E-2</v>
       </c>
       <c r="H260" s="7">
         <f t="shared" si="9"/>
-        <v>5.0246962861690302E-2</v>
+        <v>1.6748987620563434E-2</v>
       </c>
       <c r="J260">
         <v>1</v>
@@ -8169,11 +8281,11 @@
       </c>
       <c r="G261" s="7">
         <f t="shared" si="8"/>
-        <v>5.6072556688913665E-2</v>
+        <v>1.8690852229637889E-2</v>
       </c>
       <c r="H261" s="7">
         <f t="shared" si="9"/>
-        <v>4.9862666276922894E-2</v>
+        <v>1.6620888758974297E-2</v>
       </c>
       <c r="J261">
         <v>1</v>
@@ -8185,11 +8297,11 @@
       </c>
       <c r="G262" s="7">
         <f t="shared" si="8"/>
-        <v>5.564533876530342E-2</v>
+        <v>1.8548446255101141E-2</v>
       </c>
       <c r="H262" s="7">
         <f t="shared" si="9"/>
-        <v>4.9482761631756085E-2</v>
+        <v>1.6494253877252028E-2</v>
       </c>
       <c r="J262">
         <v>1</v>
@@ -8201,11 +8313,11 @@
       </c>
       <c r="G263" s="7">
         <f t="shared" si="8"/>
-        <v>5.5222984779387994E-2</v>
+        <v>1.8407661593129333E-2</v>
       </c>
       <c r="H263" s="7">
         <f t="shared" si="9"/>
-        <v>4.9107182255783151E-2</v>
+        <v>1.6369060751927716E-2</v>
       </c>
       <c r="J263">
         <v>1</v>
@@ -8217,11 +8329,11 @@
       </c>
       <c r="G264" s="7">
         <f t="shared" si="8"/>
-        <v>5.4805421174895091E-2</v>
+        <v>1.8268473724965029E-2</v>
       </c>
       <c r="H264" s="7">
         <f t="shared" si="9"/>
-        <v>4.8735862738898426E-2</v>
+        <v>1.6245287579632808E-2</v>
       </c>
       <c r="J264">
         <v>1</v>
@@ -8233,11 +8345,11 @@
       </c>
       <c r="G265" s="7">
         <f t="shared" si="8"/>
-        <v>5.4392575780783027E-2</v>
+        <v>1.8130858593594344E-2</v>
       </c>
       <c r="H265" s="7">
         <f t="shared" si="9"/>
-        <v>4.8368738902816157E-2</v>
+        <v>1.6122912967605384E-2</v>
       </c>
       <c r="J265">
         <v>1</v>
@@ -8249,11 +8361,11 @@
       </c>
       <c r="G266" s="7">
         <f t="shared" si="8"/>
-        <v>5.398437778005382E-2</v>
+        <v>1.7994792593351273E-2</v>
       </c>
       <c r="H266" s="7">
         <f t="shared" si="9"/>
-        <v>4.8005747773337451E-2</v>
+        <v>1.6001915924445814E-2</v>
       </c>
       <c r="J266">
         <v>1</v>
@@ -8265,11 +8377,11 @@
       </c>
       <c r="G267" s="7">
         <f t="shared" si="8"/>
-        <v>5.3580757679382342E-2</v>
+        <v>1.7860252559794114E-2</v>
       </c>
       <c r="H267" s="7">
         <f t="shared" si="9"/>
-        <v>4.7646827553342937E-2</v>
+        <v>1.5882275851114312E-2</v>
       </c>
       <c r="J267">
         <v>1</v>
@@ -8281,11 +8393,11 @@
       </c>
       <c r="G268" s="7">
         <f t="shared" si="8"/>
-        <v>5.3181647279537315E-2</v>
+        <v>1.7727215759845771E-2</v>
       </c>
       <c r="H268" s="7">
         <f t="shared" si="9"/>
-        <v>4.7291917596489541E-2</v>
+        <v>1.5763972532163179E-2</v>
       </c>
       <c r="J268">
         <v>1</v>
@@ -8297,11 +8409,11 @@
       </c>
       <c r="G269" s="7">
         <f t="shared" si="8"/>
-        <v>5.2786979646570503E-2</v>
+        <v>1.7595659882190168E-2</v>
       </c>
       <c r="H269" s="7">
         <f t="shared" si="9"/>
-        <v>4.6940958381590424E-2</v>
+        <v>1.5646986127196807E-2</v>
       </c>
       <c r="J269">
         <v>1</v>
@@ -8313,11 +8425,11 @@
       </c>
       <c r="G270" s="7">
         <f t="shared" si="8"/>
-        <v>5.2396689083751551E-2</v>
+        <v>1.7465563027917182E-2</v>
       </c>
       <c r="H270" s="7">
         <f t="shared" si="9"/>
-        <v>4.6593891487657947E-2</v>
+        <v>1.553129716255265E-2</v>
       </c>
       <c r="J270">
         <v>1</v>
@@ -8329,11 +8441,11 @@
       </c>
       <c r="G271" s="7">
         <f t="shared" si="8"/>
-        <v>5.2010711104226358E-2</v>
+        <v>1.7336903701408786E-2</v>
       </c>
       <c r="H271" s="7">
         <f t="shared" si="9"/>
-        <v>4.6250659569590076E-2</v>
+        <v>1.541688652319669E-2</v>
       </c>
       <c r="J271">
         <v>1</v>
@@ -8345,11 +8457,11 @@
       </c>
       <c r="G272" s="7">
         <f t="shared" si="8"/>
-        <v>5.162898240437782E-2</v>
+        <v>1.7209660801459272E-2</v>
       </c>
       <c r="H272" s="7">
         <f t="shared" si="9"/>
-        <v>4.5911206334481307E-2</v>
+        <v>1.5303735444827101E-2</v>
       </c>
       <c r="J272">
         <v>1</v>
@@ -8361,11 +8473,11 @@
       </c>
       <c r="G273" s="7">
         <f t="shared" si="8"/>
-        <v>5.1251440837868326E-2</v>
+        <v>1.7083813612622775E-2</v>
       </c>
       <c r="H273" s="7">
         <f t="shared" si="9"/>
-        <v>4.5575476518539965E-2</v>
+        <v>1.5191825506179988E-2</v>
       </c>
       <c r="J273">
         <v>1</v>
@@ -8377,11 +8489,11 @@
       </c>
       <c r="G274" s="7">
         <f t="shared" si="8"/>
-        <v>5.0878025390344292E-2</v>
+        <v>1.6959341796781432E-2</v>
       </c>
       <c r="H274" s="7">
         <f t="shared" si="9"/>
-        <v>4.5243415864594072E-2</v>
+        <v>1.5081138621531357E-2</v>
       </c>
       <c r="J274">
         <v>1</v>
@@ -8393,11 +8505,11 @@
       </c>
       <c r="G275" s="7">
         <f t="shared" si="8"/>
-        <v>5.050867615478332E-2</v>
+        <v>1.6836225384927773E-2</v>
       </c>
       <c r="H275" s="7">
         <f t="shared" si="9"/>
-        <v>4.4914971100168795E-2</v>
+        <v>1.4971657033389596E-2</v>
       </c>
       <c r="J275">
         <v>1</v>
@@ -8409,11 +8521,11 @@
       </c>
       <c r="G276" s="7">
         <f t="shared" si="8"/>
-        <v>5.0143334307465454E-2</v>
+        <v>1.6714444769155151E-2</v>
       </c>
       <c r="H276" s="7">
         <f t="shared" si="9"/>
-        <v>4.4590089916118784E-2</v>
+        <v>1.4863363305372928E-2</v>
       </c>
       <c r="J276">
         <v>1</v>
@@ -8425,11 +8537,11 @@
       </c>
       <c r="G277" s="7">
         <f t="shared" si="8"/>
-        <v>4.9781942084550668E-2</v>
+        <v>1.6593980694850224E-2</v>
       </c>
       <c r="H277" s="7">
         <f t="shared" si="9"/>
-        <v>4.4268720945799693E-2</v>
+        <v>1.4756240315266565E-2</v>
       </c>
       <c r="J277">
         <v>1</v>
@@ -8441,11 +8553,11 @@
       </c>
       <c r="G278" s="7">
         <f t="shared" si="8"/>
-        <v>4.9424442759244971E-2</v>
+        <v>1.6474814253081657E-2</v>
       </c>
       <c r="H278" s="7">
         <f t="shared" si="9"/>
-        <v>4.3950813744763013E-2</v>
+        <v>1.4650271248254337E-2</v>
       </c>
       <c r="J278">
         <v>1</v>
@@ -8457,11 +8569,11 @@
       </c>
       <c r="G279" s="7">
         <f t="shared" si="8"/>
-        <v>4.9070780619538394E-2</v>
+        <v>1.6356926873179467E-2</v>
       </c>
       <c r="H279" s="7">
         <f t="shared" si="9"/>
-        <v>4.3636318770959581E-2</v>
+        <v>1.4545439590319859E-2</v>
       </c>
       <c r="J279">
         <v>1</v>
@@ -8473,11 +8585,11 @@
       </c>
       <c r="G280" s="7">
         <f t="shared" si="8"/>
-        <v>4.8720900946498572E-2</v>
+        <v>1.6240300315499525E-2</v>
       </c>
       <c r="H280" s="7">
         <f t="shared" si="9"/>
-        <v>4.332518736543705E-2</v>
+        <v>1.4441729121812349E-2</v>
       </c>
       <c r="J280">
         <v>1</v>
@@ -8489,11 +8601,11 @@
       </c>
       <c r="G281" s="7">
         <f t="shared" si="8"/>
-        <v>4.8374749993104045E-2</v>
+        <v>1.6124916664368015E-2</v>
       </c>
       <c r="H281" s="7">
         <f t="shared" si="9"/>
-        <v>4.3017371733517371E-2</v>
+        <v>1.4339123911172456E-2</v>
       </c>
       <c r="J281">
         <v>1</v>
@@ -8505,11 +8617,11 @@
       </c>
       <c r="G282" s="7">
         <f t="shared" si="8"/>
-        <v>4.8032274963602038E-2</v>
+        <v>1.6010758321200677E-2</v>
       </c>
       <c r="H282" s="7">
         <f t="shared" si="9"/>
-        <v>4.2712824926440629E-2</v>
+        <v>1.4237608308813543E-2</v>
       </c>
       <c r="J282">
         <v>1</v>
@@ -8521,11 +8633,11 @@
       </c>
       <c r="G283" s="7">
         <f t="shared" si="8"/>
-        <v>4.769342399337597E-2</v>
+        <v>1.5897807997791991E-2</v>
       </c>
       <c r="H283" s="7">
         <f t="shared" si="9"/>
-        <v>4.2411500823462206E-2</v>
+        <v>1.4137166941154067E-2</v>
       </c>
       <c r="J283">
         <v>1</v>
@@ -8537,11 +8649,11 @@
       </c>
       <c r="G284" s="7">
         <f t="shared" si="8"/>
-        <v>4.7358146129308276E-2</v>
+        <v>1.5786048709769428E-2</v>
       </c>
       <c r="H284" s="7">
         <f t="shared" si="9"/>
-        <v>4.2113354114390308E-2</v>
+        <v>1.4037784704796769E-2</v>
       </c>
       <c r="J284">
         <v>1</v>
@@ -8553,11 +8665,11 @@
       </c>
       <c r="G285" s="7">
         <f t="shared" si="8"/>
-        <v>4.7026391310624659E-2</v>
+        <v>1.5675463770208221E-2</v>
       </c>
       <c r="H285" s="7">
         <f t="shared" si="9"/>
-        <v>4.1818340282551734E-2</v>
+        <v>1.3939446760850578E-2</v>
       </c>
       <c r="J285">
         <v>1</v>
@@ -8569,11 +8681,11 @@
       </c>
       <c r="G286" s="7">
         <f t="shared" si="8"/>
-        <v>4.6698110350206469E-2</v>
+        <v>1.5566036783402156E-2</v>
       </c>
       <c r="H286" s="7">
         <f t="shared" si="9"/>
-        <v>4.1526415588173805E-2</v>
+        <v>1.3842138529391267E-2</v>
       </c>
       <c r="J286">
         <v>1</v>
@@ -8585,11 +8697,11 @@
       </c>
       <c r="G287" s="7">
         <f t="shared" si="8"/>
-        <v>4.6373254916357957E-2</v>
+        <v>1.5457751638785985E-2</v>
       </c>
       <c r="H287" s="7">
         <f t="shared" si="9"/>
-        <v>4.1237537052170897E-2</v>
+        <v>1.3745845684056965E-2</v>
       </c>
       <c r="J287">
         <v>1</v>
@@ -8601,11 +8713,11 @@
       </c>
       <c r="G288" s="7">
         <f t="shared" si="8"/>
-        <v>4.6051777515016018E-2</v>
+        <v>1.5350592505005339E-2</v>
       </c>
       <c r="H288" s="7">
         <f t="shared" si="9"/>
-        <v>4.0951662440324374E-2</v>
+        <v>1.3650554146774791E-2</v>
       </c>
       <c r="J288">
         <v>1</v>
@@ -8617,11 +8729,11 @@
       </c>
       <c r="G289" s="7">
         <f t="shared" si="8"/>
-        <v>4.5733631472390034E-2</v>
+        <v>1.5244543824130012E-2</v>
       </c>
       <c r="H289" s="7">
         <f t="shared" si="9"/>
-        <v>4.0668750247845026E-2</v>
+        <v>1.3556250082615009E-2</v>
       </c>
       <c r="J289">
         <v>1</v>
@@ -8633,11 +8745,11 @@
       </c>
       <c r="G290" s="7">
         <f t="shared" si="8"/>
-        <v>4.5418770918020074E-2</v>
+        <v>1.5139590306006692E-2</v>
       </c>
       <c r="H290" s="7">
         <f t="shared" si="9"/>
-        <v>4.0388759684307544E-2</v>
+        <v>1.3462919894769181E-2</v>
       </c>
       <c r="J290">
         <v>1</v>
@@ -8649,11 +8761,11 @@
       </c>
       <c r="G291" s="7">
         <f t="shared" si="8"/>
-        <v>4.5107150768241851E-2</v>
+        <v>1.5035716922747282E-2</v>
       </c>
       <c r="H291" s="7">
         <f t="shared" si="9"/>
-        <v>4.0111650658946688E-2</v>
+        <v>1.3370550219648895E-2</v>
       </c>
       <c r="J291">
         <v>1</v>
@@ -8665,11 +8777,11 @@
       </c>
       <c r="G292" s="7">
         <f t="shared" si="8"/>
-        <v>4.4798726710047476E-2</v>
+        <v>1.4932908903349159E-2</v>
       </c>
       <c r="H292" s="7">
         <f t="shared" si="9"/>
-        <v>3.9837383766305412E-2</v>
+        <v>1.3279127922101803E-2</v>
       </c>
       <c r="J292">
         <v>1</v>
@@ -8681,11 +8793,11 @@
       </c>
       <c r="G293" s="7">
         <f t="shared" si="8"/>
-        <v>4.4493455185331085E-2</v>
+        <v>1.4831151728443695E-2</v>
       </c>
       <c r="H293" s="7">
         <f t="shared" si="9"/>
-        <v>3.956592027222524E-2</v>
+        <v>1.3188640090741747E-2</v>
       </c>
       <c r="J293">
         <v>1</v>
@@ -8697,11 +8809,11 @@
       </c>
       <c r="G294" s="7">
         <f t="shared" si="8"/>
-        <v>4.4191293375508915E-2</v>
+        <v>1.4730431125169637E-2</v>
       </c>
       <c r="H294" s="7">
         <f t="shared" si="9"/>
-        <v>3.9297222100169664E-2</v>
+        <v>1.3099074033389887E-2</v>
       </c>
       <c r="J294">
         <v>1</v>
@@ -8713,11 +8825,11 @@
       </c>
       <c r="G295" s="7">
         <f t="shared" si="8"/>
-        <v>4.3892199186503743E-2</v>
+        <v>1.4630733062167915E-2</v>
       </c>
       <c r="H295" s="7">
         <f t="shared" si="9"/>
-        <v>3.9031251817871468E-2</v>
+        <v>1.3010417272623823E-2</v>
       </c>
       <c r="J295">
         <v>1</v>
@@ -8729,11 +8841,11 @@
       </c>
       <c r="G296" s="7">
         <f t="shared" si="8"/>
-        <v>4.3596131234083825E-2</v>
+        <v>1.4532043744694608E-2</v>
       </c>
       <c r="H296" s="7">
         <f t="shared" si="9"/>
-        <v>3.8767972624295391E-2</v>
+        <v>1.2922657541431796E-2</v>
       </c>
       <c r="J296">
         <v>1</v>
@@ -8745,11 +8857,11 @@
       </c>
       <c r="G297" s="7">
         <f t="shared" si="8"/>
-        <v>4.3303048829546741E-2</v>
+        <v>1.4434349609848914E-2</v>
       </c>
       <c r="H297" s="7">
         <f t="shared" si="9"/>
-        <v>3.8507348336907402E-2</v>
+        <v>1.2835782778969133E-2</v>
       </c>
       <c r="J297">
         <v>1</v>
@@ -8761,11 +8873,11 @@
       </c>
       <c r="G298" s="7">
         <f t="shared" si="8"/>
-        <v>4.3012911965739024E-2</v>
+        <v>1.4337637321913009E-2</v>
       </c>
       <c r="H298" s="7">
         <f t="shared" si="9"/>
-        <v>3.8249343379242656E-2</v>
+        <v>1.2749781126414218E-2</v>
       </c>
       <c r="J298">
         <v>1</v>
@@ -8777,11 +8889,11 @@
       </c>
       <c r="G299" s="7">
         <f t="shared" si="8"/>
-        <v>4.2725681303402513E-2</v>
+        <v>1.4241893767800839E-2</v>
       </c>
       <c r="H299" s="7">
         <f t="shared" si="9"/>
-        <v>3.7993922768763934E-2</v>
+        <v>1.2664640922921312E-2</v>
       </c>
       <c r="J299">
         <v>1</v>
@@ -8793,11 +8905,11 @@
       </c>
       <c r="G300" s="7">
         <f t="shared" si="8"/>
-        <v>4.2441318157838762E-2</v>
+        <v>1.4147106052612921E-2</v>
       </c>
       <c r="H300" s="7">
         <f t="shared" si="9"/>
-        <v>3.7741052105002941E-2</v>
+        <v>1.2580350701667646E-2</v>
       </c>
       <c r="J300">
         <v>1</v>
@@ -8809,11 +8921,11 @@
       </c>
       <c r="G301" s="7">
         <f t="shared" si="8"/>
-        <v>4.2159784485883027E-2</v>
+        <v>1.4053261495294343E-2</v>
       </c>
       <c r="H301" s="7">
         <f t="shared" si="9"/>
-        <v>3.7490697557976897E-2</v>
+        <v>1.2496899185992299E-2</v>
       </c>
       <c r="J301">
         <v>1</v>
@@ -8825,11 +8937,11 @@
       </c>
       <c r="G302" s="7">
         <f t="shared" si="8"/>
-        <v>4.1881042873179772E-2</v>
+        <v>1.3960347624393257E-2</v>
       </c>
       <c r="H302" s="7">
         <f t="shared" si="9"/>
-        <v>3.7242825856873212E-2</v>
+        <v>1.2414275285624403E-2</v>
       </c>
       <c r="J302">
         <v>1</v>
@@ -8841,11 +8953,11 @@
       </c>
       <c r="G303" s="7">
         <f t="shared" si="8"/>
-        <v>4.1605056521751553E-2</v>
+        <v>1.3868352173917185E-2</v>
       </c>
       <c r="H303" s="7">
         <f t="shared" si="9"/>
-        <v>3.6997404278995144E-2</v>
+        <v>1.2332468092998379E-2</v>
       </c>
       <c r="J303">
         <v>1</v>
@@ -8857,11 +8969,11 @@
       </c>
       <c r="G304" s="7">
         <f t="shared" si="8"/>
-        <v>4.133178923785371E-2</v>
+        <v>1.3777263079284568E-2</v>
       </c>
       <c r="H304" s="7">
         <f t="shared" si="9"/>
-        <v>3.6754400638961487E-2</v>
+        <v>1.2251466879653828E-2</v>
       </c>
       <c r="J304">
         <v>1</v>
@@ -8873,11 +8985,11 @@
       </c>
       <c r="G305" s="7">
         <f t="shared" si="8"/>
-        <v>4.1061205420107369E-2</v>
+        <v>1.3687068473369124E-2</v>
       </c>
       <c r="H305" s="7">
         <f t="shared" si="9"/>
-        <v>3.6513783278153876E-2</v>
+        <v>1.2171261092717959E-2</v>
       </c>
       <c r="J305">
         <v>1</v>
@@ -8889,11 +9001,11 @@
       </c>
       <c r="G306" s="7">
         <f t="shared" si="8"/>
-        <v>4.0793270047903459E-2</v>
+        <v>1.3597756682634486E-2</v>
       </c>
       <c r="H306" s="7">
         <f t="shared" si="9"/>
-        <v>3.6275521054404979E-2</v>
+        <v>1.2091840351468326E-2</v>
       </c>
       <c r="J306">
         <v>1</v>
@@ -8905,11 +9017,11 @@
       </c>
       <c r="G307" s="7">
         <f t="shared" si="8"/>
-        <v>4.0527948670070646E-2</v>
+        <v>1.3509316223356882E-2</v>
       </c>
       <c r="H307" s="7">
         <f t="shared" si="9"/>
-        <v>3.6039583331921449E-2</v>
+        <v>1.2013194443973816E-2</v>
       </c>
       <c r="J307">
         <v>1</v>
@@ -8921,11 +9033,11 @@
       </c>
       <c r="G308" s="7">
         <f t="shared" si="8"/>
-        <v>4.0265207393800476E-2</v>
+        <v>1.3421735797933491E-2</v>
       </c>
       <c r="H308" s="7">
         <f t="shared" si="9"/>
-        <v>3.580593997143558E-2</v>
+        <v>1.1935313323811859E-2</v>
       </c>
       <c r="J308">
         <v>1</v>
@@ -8937,11 +9049,11 @@
       </c>
       <c r="G309" s="7">
         <f t="shared" si="8"/>
-        <v>4.0005012873822937E-2</v>
+        <v>1.3335004291274313E-2</v>
       </c>
       <c r="H309" s="7">
         <f t="shared" si="9"/>
-        <v>3.5574561320579637E-2</v>
+        <v>1.185818710685988E-2</v>
       </c>
       <c r="J309">
         <v>1</v>
@@ -8953,11 +9065,11 @@
       </c>
       <c r="G310" s="7">
         <f t="shared" si="8"/>
-        <v>3.9747332301826102E-2</v>
+        <v>1.3249110767275368E-2</v>
       </c>
       <c r="H310" s="7">
         <f t="shared" si="9"/>
-        <v>3.5345418204477265E-2</v>
+        <v>1.1781806068159087E-2</v>
       </c>
       <c r="J310">
         <v>1</v>
@@ -8969,11 +9081,11 @@
       </c>
       <c r="G311" s="7">
         <f t="shared" si="8"/>
-        <v>3.9492133396113446E-2</v>
+        <v>1.3164044465371148E-2</v>
       </c>
       <c r="H311" s="7">
         <f t="shared" si="9"/>
-        <v>3.51184819165462E-2</v>
+        <v>1.1706160638848733E-2</v>
       </c>
       <c r="J311">
         <v>1</v>
@@ -8985,11 +9097,11 @@
       </c>
       <c r="G312" s="7">
         <f t="shared" si="8"/>
-        <v>3.9239384391492937E-2</v>
+        <v>1.3079794797164311E-2</v>
       </c>
       <c r="H312" s="7">
         <f t="shared" si="9"/>
-        <v>3.4893724209507156E-2</v>
+        <v>1.1631241403169052E-2</v>
       </c>
       <c r="J312">
         <v>1</v>
@@ -9001,11 +9113,11 @@
       </c>
       <c r="G313" s="7">
         <f t="shared" si="8"/>
-        <v>3.8989054029391831E-2</v>
+        <v>1.299635134313061E-2</v>
       </c>
       <c r="H313" s="7">
         <f t="shared" si="9"/>
-        <v>3.4671117286593361E-2</v>
+        <v>1.1557039095531119E-2</v>
       </c>
       <c r="J313">
         <v>1</v>
@@ -9017,11 +9129,11 @@
       </c>
       <c r="G314" s="7">
         <f t="shared" si="8"/>
-        <v>3.8741111548191487E-2</v>
+        <v>1.2913703849397164E-2</v>
       </c>
       <c r="H314" s="7">
         <f t="shared" si="9"/>
-        <v>3.4450633792955744E-2</v>
+        <v>1.1483544597651914E-2</v>
       </c>
       <c r="J314">
         <v>1</v>
@@ -9033,11 +9145,11 @@
       </c>
       <c r="G315" s="7">
         <f t="shared" si="8"/>
-        <v>3.8495526673776648E-2</v>
+        <v>1.2831842224592218E-2</v>
       </c>
       <c r="H315" s="7">
         <f t="shared" si="9"/>
-        <v>3.4232246807258906E-2</v>
+        <v>1.1410748935752967E-2</v>
       </c>
       <c r="J315">
         <v>1</v>
@@ -9049,11 +9161,11 @@
       </c>
       <c r="G316" s="7">
         <f t="shared" si="8"/>
-        <v>3.8252269610293703E-2</v>
+        <v>1.2750756536764567E-2</v>
       </c>
       <c r="H316" s="7">
         <f t="shared" si="9"/>
-        <v>3.4015929833462834E-2</v>
+        <v>1.1338643277820944E-2</v>
       </c>
       <c r="J316">
         <v>1</v>
@@ -9065,11 +9177,11 @@
       </c>
       <c r="G317" s="7">
         <f t="shared" si="8"/>
-        <v>3.8011311031112743E-2</v>
+        <v>1.2670437010370914E-2</v>
       </c>
       <c r="H317" s="7">
         <f t="shared" si="9"/>
-        <v>3.3801656792785927E-2</v>
+        <v>1.126721893092864E-2</v>
       </c>
       <c r="J317">
         <v>1</v>
@@ -9081,11 +9193,11 @@
       </c>
       <c r="G318" s="7">
         <f t="shared" si="8"/>
-        <v>3.7772622069988215E-2</v>
+        <v>1.2590874023329405E-2</v>
       </c>
       <c r="H318" s="7">
         <f t="shared" si="9"/>
-        <v>3.3589402015844552E-2</v>
+        <v>1.119646733861485E-2</v>
       </c>
       <c r="J318">
         <v>1</v>
@@ -9097,11 +9209,11 @@
       </c>
       <c r="G319" s="7">
         <f t="shared" si="8"/>
-        <v>3.7536174312413281E-2</v>
+        <v>1.2512058104137762E-2</v>
       </c>
       <c r="H319" s="7">
         <f t="shared" si="9"/>
-        <v>3.3379140234964917E-2</v>
+        <v>1.1126380078321637E-2</v>
       </c>
       <c r="J319">
         <v>1</v>
@@ -9113,11 +9225,11 @@
       </c>
       <c r="G320" s="7">
         <f t="shared" si="8"/>
-        <v>3.7301939787162973E-2</v>
+        <v>1.2433979929054323E-2</v>
       </c>
       <c r="H320" s="7">
         <f t="shared" si="9"/>
-        <v>3.3170846576662742E-2</v>
+        <v>1.105694885888758E-2</v>
       </c>
       <c r="J320">
         <v>1</v>
@@ -9129,11 +9241,11 @@
       </c>
       <c r="G321" s="7">
         <f t="shared" si="8"/>
-        <v>3.7069890958021448E-2</v>
+        <v>1.2356630319340483E-2</v>
       </c>
       <c r="H321" s="7">
         <f t="shared" si="9"/>
-        <v>3.2964496554286786E-2</v>
+        <v>1.0988165518095595E-2</v>
       </c>
       <c r="J321">
         <v>1</v>
@@ -9145,11 +9257,11 @@
       </c>
       <c r="G322" s="7">
         <f t="shared" si="8"/>
-        <v>3.6840000715688902E-2</v>
+        <v>1.2280000238562967E-2</v>
       </c>
       <c r="H322" s="7">
         <f t="shared" si="9"/>
-        <v>3.2760066060821963E-2</v>
+        <v>1.0920022020273989E-2</v>
       </c>
       <c r="J322">
         <v>1</v>
@@ -9161,11 +9273,11 @@
       </c>
       <c r="G323" s="7">
         <f t="shared" ref="G323:G386" si="10">($C$3*$C$12)/(4*F323*F323*PI())</f>
-        <v>3.661224236986349E-2</v>
+        <v>1.2204080789954498E-2</v>
       </c>
       <c r="H323" s="7">
         <f t="shared" ref="H323:H386" si="11">($C$3*$C$14)/(4*F323*F323*PI())</f>
-        <v>3.255753136184824E-2</v>
+        <v>1.0852510453949412E-2</v>
       </c>
       <c r="J323">
         <v>1</v>
@@ -9177,11 +9289,11 @@
       </c>
       <c r="G324" s="7">
         <f t="shared" si="10"/>
-        <v>3.6386589641494133E-2</v>
+        <v>1.2128863213831378E-2</v>
       </c>
       <c r="H324" s="7">
         <f t="shared" si="11"/>
-        <v>3.2356869088651354E-2</v>
+        <v>1.0785623029550452E-2</v>
       </c>
       <c r="J324">
         <v>1</v>
@@ -9193,11 +9305,11 @@
       </c>
       <c r="G325" s="7">
         <f t="shared" si="10"/>
-        <v>3.6163016655199887E-2</v>
+        <v>1.2054338885066629E-2</v>
       </c>
       <c r="H325" s="7">
         <f t="shared" si="11"/>
-        <v>3.2158056231481796E-2</v>
+        <v>1.0719352077160597E-2</v>
       </c>
       <c r="J325">
         <v>1</v>
@@ -9209,11 +9321,11 @@
       </c>
       <c r="G326" s="7">
         <f t="shared" si="10"/>
-        <v>3.5941497931851855E-2</v>
+        <v>1.1980499310617286E-2</v>
       </c>
       <c r="H326" s="7">
         <f t="shared" si="11"/>
-        <v>3.1961070132958187E-2</v>
+        <v>1.0653690044319396E-2</v>
       </c>
       <c r="J326">
         <v>1</v>
@@ -9225,11 +9337,11 @@
       </c>
       <c r="G327" s="7">
         <f t="shared" si="10"/>
-        <v>3.5722008381313661E-2</v>
+        <v>1.1907336127104554E-2</v>
       </c>
       <c r="H327" s="7">
         <f t="shared" si="11"/>
-        <v>3.176588848161177E-2</v>
+        <v>1.0588629493870589E-2</v>
       </c>
       <c r="J327">
         <v>1</v>
@@ -9241,11 +9353,11 @@
       </c>
       <c r="G328" s="7">
         <f t="shared" si="10"/>
-        <v>3.5504523295336557E-2</v>
+        <v>1.1834841098445518E-2</v>
       </c>
       <c r="H328" s="7">
         <f t="shared" si="11"/>
-        <v>3.1572489305568344E-2</v>
+        <v>1.0524163101856113E-2</v>
       </c>
       <c r="J328">
         <v>1</v>
@@ -9257,11 +9369,11 @@
       </c>
       <c r="G329" s="7">
         <f t="shared" si="10"/>
-        <v>3.5289018340605577E-2</v>
+        <v>1.1763006113535193E-2</v>
       </c>
       <c r="H329" s="7">
         <f t="shared" si="11"/>
-        <v>3.1380850966364546E-2</v>
+        <v>1.0460283655454849E-2</v>
       </c>
       <c r="J329">
         <v>1</v>
@@ -9273,11 +9385,11 @@
       </c>
       <c r="G330" s="7">
         <f t="shared" si="10"/>
-        <v>3.5075469551932859E-2</v>
+        <v>1.169182318397762E-2</v>
       </c>
       <c r="H330" s="7">
         <f t="shared" si="11"/>
-        <v>3.1190952152894996E-2</v>
+        <v>1.0396984050964998E-2</v>
       </c>
       <c r="J330">
         <v>1</v>
@@ -9289,11 +9401,11 @@
       </c>
       <c r="G331" s="7">
         <f t="shared" si="10"/>
-        <v>3.4863853325594767E-2</v>
+        <v>1.1621284441864922E-2</v>
       </c>
       <c r="H331" s="7">
         <f t="shared" si="11"/>
-        <v>3.1002771875487303E-2</v>
+        <v>1.03342572918291E-2</v>
       </c>
       <c r="J331">
         <v>1</v>
@@ -9305,11 +9417,11 @@
       </c>
       <c r="G332" s="7">
         <f t="shared" si="10"/>
-        <v>3.4654146412809263E-2</v>
+        <v>1.1551382137603088E-2</v>
       </c>
       <c r="H332" s="7">
         <f t="shared" si="11"/>
-        <v>3.0816289460101839E-2</v>
+        <v>1.0272096486700612E-2</v>
       </c>
       <c r="J332">
         <v>1</v>
@@ -9321,11 +9433,11 @@
       </c>
       <c r="G333" s="7">
         <f t="shared" si="10"/>
-        <v>3.444632591335018E-2</v>
+        <v>1.1482108637783393E-2</v>
       </c>
       <c r="H333" s="7">
         <f t="shared" si="11"/>
-        <v>3.0631484542653145E-2</v>
+        <v>1.0210494847551049E-2</v>
       </c>
       <c r="J333">
         <v>1</v>
@@ -9337,11 +9449,11 @@
       </c>
       <c r="G334" s="7">
         <f t="shared" si="10"/>
-        <v>3.4240369269295134E-2</v>
+        <v>1.141345642309838E-2</v>
       </c>
       <c r="H334" s="7">
         <f t="shared" si="11"/>
-        <v>3.0448337063450327E-2</v>
+        <v>1.0149445687816776E-2</v>
       </c>
       <c r="J334">
         <v>1</v>
@@ -9353,11 +9465,11 @@
       </c>
       <c r="G335" s="7">
         <f t="shared" si="10"/>
-        <v>3.4036254258903886E-2</v>
+        <v>1.1345418086301295E-2</v>
       </c>
       <c r="H335" s="7">
         <f t="shared" si="11"/>
-        <v>3.026682726175331E-2</v>
+        <v>1.0088942420584435E-2</v>
       </c>
       <c r="J335">
         <v>1</v>
@@ -9369,11 +9481,11 @@
       </c>
       <c r="G336" s="7">
         <f t="shared" si="10"/>
-        <v>3.3833958990624011E-2</v>
+        <v>1.1277986330208004E-2</v>
       </c>
       <c r="H336" s="7">
         <f t="shared" si="11"/>
-        <v>3.0086935670442395E-2</v>
+        <v>1.0028978556814132E-2</v>
       </c>
       <c r="J336">
         <v>1</v>
@@ -9385,11 +9497,11 @@
       </c>
       <c r="G337" s="7">
         <f t="shared" si="10"/>
-        <v>3.3633461897220968E-2</v>
+        <v>1.1211153965740323E-2</v>
       </c>
       <c r="H337" s="7">
         <f t="shared" si="11"/>
-        <v>2.9908643110798411E-2</v>
+        <v>9.9695477035994691E-3</v>
       </c>
       <c r="J337">
         <v>1</v>
@@ -9401,11 +9513,11 @@
       </c>
       <c r="G338" s="7">
         <f t="shared" si="10"/>
-        <v>3.3434741730029485E-2</v>
+        <v>1.1144913910009827E-2</v>
       </c>
       <c r="H338" s="7">
         <f t="shared" si="11"/>
-        <v>2.9731930687390714E-2</v>
+        <v>9.9106435624635707E-3</v>
       </c>
       <c r="J338">
         <v>1</v>
@@ -9417,11 +9529,11 @@
       </c>
       <c r="G339" s="7">
         <f t="shared" si="10"/>
-        <v>3.323777755332348E-2</v>
+        <v>1.1079259184441161E-2</v>
       </c>
       <c r="H339" s="7">
         <f t="shared" si="11"/>
-        <v>2.9556779783070669E-2</v>
+        <v>9.8522599276902219E-3</v>
       </c>
       <c r="J339">
         <v>1</v>
@@ -9433,11 +9545,11 @@
       </c>
       <c r="G340" s="7">
         <f t="shared" si="10"/>
-        <v>3.3042548738801802E-2</v>
+        <v>1.1014182912933934E-2</v>
       </c>
       <c r="H340" s="7">
         <f t="shared" si="11"/>
-        <v>2.9383172054068034E-2</v>
+        <v>9.7943906846893452E-3</v>
       </c>
       <c r="J340">
         <v>1</v>
@@ -9449,11 +9561,11 @@
       </c>
       <c r="G341" s="7">
         <f t="shared" si="10"/>
-        <v>3.284903496018686E-2</v>
+        <v>1.0949678320062287E-2</v>
       </c>
       <c r="H341" s="7">
         <f t="shared" si="11"/>
-        <v>2.9211089425187818E-2</v>
+        <v>9.7370298083959399E-3</v>
       </c>
       <c r="J341">
         <v>1</v>
@@ -9465,11 +9577,11 @@
       </c>
       <c r="G342" s="7">
         <f t="shared" si="10"/>
-        <v>3.2657216187933796E-2</v>
+        <v>1.0885738729311265E-2</v>
       </c>
       <c r="H342" s="7">
         <f t="shared" si="11"/>
-        <v>2.9040514085105374E-2</v>
+        <v>9.6801713617017913E-3</v>
       </c>
       <c r="J342">
         <v>1</v>
@@ -9481,11 +9593,11 @@
       </c>
       <c r="G343" s="7">
         <f t="shared" si="10"/>
-        <v>3.246707268404736E-2</v>
+        <v>1.0822357561349121E-2</v>
       </c>
       <c r="H343" s="7">
         <f t="shared" si="11"/>
-        <v>2.8871428481757298E-2</v>
+        <v>9.6238094939190989E-3</v>
       </c>
       <c r="J343">
         <v>1</v>
@@ -9497,11 +9609,11 @@
       </c>
       <c r="G344" s="7">
         <f t="shared" si="10"/>
-        <v>3.2278584997004194E-2</v>
+        <v>1.0759528332334732E-2</v>
       </c>
       <c r="H344" s="7">
         <f t="shared" si="11"/>
-        <v>2.8703815317826065E-2</v>
+        <v>9.5679384392753537E-3</v>
       </c>
       <c r="J344">
         <v>1</v>
@@ -9513,11 +9625,11 @@
       </c>
       <c r="G345" s="7">
         <f t="shared" si="10"/>
-        <v>3.209173395677789E-2</v>
+        <v>1.0697244652259297E-2</v>
       </c>
       <c r="H345" s="7">
         <f t="shared" si="11"/>
-        <v>2.8537657546316025E-2</v>
+        <v>9.5125525154386749E-3</v>
       </c>
       <c r="J345">
         <v>1</v>
@@ -9529,11 +9641,11 @@
       </c>
       <c r="G346" s="7">
         <f t="shared" si="10"/>
-        <v>3.1906500669964651E-2</v>
+        <v>1.063550022332155E-2</v>
       </c>
       <c r="H346" s="7">
         <f t="shared" si="11"/>
-        <v>2.8372938366218924E-2</v>
+        <v>9.4576461220729734E-3</v>
       </c>
       <c r="J346">
         <v>1</v>
@@ -9545,11 +9657,11 @@
       </c>
       <c r="G347" s="7">
         <f t="shared" si="10"/>
-        <v>3.1722866515007088E-2</v>
+        <v>1.0574288838335695E-2</v>
       </c>
       <c r="H347" s="7">
         <f t="shared" si="11"/>
-        <v>2.8209641218266614E-2</v>
+        <v>9.4032137394222046E-3</v>
       </c>
       <c r="J347">
         <v>1</v>
@@ -9561,11 +9673,11 @@
       </c>
       <c r="G348" s="7">
         <f t="shared" si="10"/>
-        <v>3.1540813137513939E-2</v>
+        <v>1.0513604379171313E-2</v>
       </c>
       <c r="H348" s="7">
         <f t="shared" si="11"/>
-        <v>2.804774978076913E-2</v>
+        <v>9.3492499269230422E-3</v>
       </c>
       <c r="J348">
         <v>1</v>
@@ -9577,11 +9689,11 @@
       </c>
       <c r="G349" s="7">
         <f t="shared" si="10"/>
-        <v>3.1360322445673584E-2</v>
+        <v>1.0453440815224528E-2</v>
       </c>
       <c r="H349" s="7">
         <f t="shared" si="11"/>
-        <v>2.7887247965536117E-2</v>
+        <v>9.2957493218453723E-3</v>
       </c>
       <c r="J349">
         <v>1</v>
@@ -9593,11 +9705,11 @@
       </c>
       <c r="G350" s="7">
         <f t="shared" si="10"/>
-        <v>3.1181376605759089E-2</v>
+        <v>1.0393792201919697E-2</v>
       </c>
       <c r="H350" s="7">
         <f t="shared" si="11"/>
-        <v>2.7728119913879714E-2</v>
+        <v>9.2427066379599035E-3</v>
       </c>
       <c r="J350">
         <v>1</v>
@@ -9609,11 +9721,11 @@
       </c>
       <c r="G351" s="7">
         <f t="shared" si="10"/>
-        <v>3.1003958037722809E-2</v>
+        <v>1.0334652679240938E-2</v>
       </c>
       <c r="H351" s="7">
         <f t="shared" si="11"/>
-        <v>2.7570349992697012E-2</v>
+        <v>9.1901166642323374E-3</v>
       </c>
       <c r="J351">
         <v>1</v>
@@ -9625,11 +9737,11 @@
       </c>
       <c r="G352" s="7">
         <f t="shared" si="10"/>
-        <v>3.0828049410878487E-2</v>
+        <v>1.0276016470292828E-2</v>
       </c>
       <c r="H352" s="7">
         <f t="shared" si="11"/>
-        <v>2.7413922790630364E-2</v>
+        <v>9.1379742635434528E-3</v>
       </c>
       <c r="J352">
         <v>1</v>
@@ -9641,11 +9753,11 @@
       </c>
       <c r="G353" s="7">
         <f t="shared" si="10"/>
-        <v>3.0653633639668786E-2</v>
+        <v>1.0217877879889595E-2</v>
       </c>
       <c r="H353" s="7">
         <f t="shared" si="11"/>
-        <v>2.7258823114303658E-2</v>
+        <v>9.0862743714345516E-3</v>
       </c>
       <c r="J353">
         <v>1</v>
@@ -9657,11 +9769,11 @@
       </c>
       <c r="G354" s="7">
         <f t="shared" si="10"/>
-        <v>3.0480693879516487E-2</v>
+        <v>1.0160231293172162E-2</v>
       </c>
       <c r="H354" s="7">
         <f t="shared" si="11"/>
-        <v>2.7105035984632965E-2</v>
+        <v>9.035011994877655E-3</v>
       </c>
       <c r="J354">
         <v>1</v>
@@ -9673,11 +9785,11 @@
       </c>
       <c r="G355" s="7">
         <f t="shared" si="10"/>
-        <v>3.0309213522757294E-2</v>
+        <v>1.0103071174252432E-2</v>
       </c>
       <c r="H355" s="7">
         <f t="shared" si="11"/>
-        <v>2.6952546633209794E-2</v>
+        <v>8.9841822110699309E-3</v>
       </c>
       <c r="J355">
         <v>1</v>
@@ -9689,11 +9801,11 @@
       </c>
       <c r="G356" s="7">
         <f t="shared" si="10"/>
-        <v>3.0139176194652572E-2</v>
+        <v>1.0046392064884191E-2</v>
       </c>
       <c r="H356" s="7">
         <f t="shared" si="11"/>
-        <v>2.6801340498755405E-2</v>
+        <v>8.9337801662518011E-3</v>
       </c>
       <c r="J356">
         <v>1</v>
@@ -9705,11 +9817,11 @@
       </c>
       <c r="G357" s="7">
         <f t="shared" si="10"/>
-        <v>2.997056574948009E-2</v>
+        <v>9.9901885831600295E-3</v>
       </c>
       <c r="H357" s="7">
         <f t="shared" si="11"/>
-        <v>2.6651403223644472E-2</v>
+        <v>8.8838010745481578E-3</v>
       </c>
       <c r="J357">
         <v>1</v>
@@ -9721,11 +9833,11 @@
       </c>
       <c r="G358" s="7">
         <f t="shared" si="10"/>
-        <v>2.9803366266701166E-2</v>
+        <v>9.934455422233722E-3</v>
       </c>
       <c r="H358" s="7">
         <f t="shared" si="11"/>
-        <v>2.6502720650496744E-2</v>
+        <v>8.8342402168322468E-3</v>
       </c>
       <c r="J358">
         <v>1</v>
@@ -9737,11 +9849,11 @@
       </c>
       <c r="G359" s="7">
         <f t="shared" si="10"/>
-        <v>2.9637562047202363E-2</v>
+        <v>9.8791873490674548E-3</v>
       </c>
       <c r="H359" s="7">
         <f t="shared" si="11"/>
-        <v>2.635527881883493E-2</v>
+        <v>8.7850929396116415E-3</v>
       </c>
       <c r="J359">
         <v>1</v>
@@ -9753,11 +9865,11 @@
       </c>
       <c r="G360" s="7">
         <f t="shared" si="10"/>
-        <v>2.9473137609610251E-2</v>
+        <v>9.824379203203417E-3</v>
       </c>
       <c r="H360" s="7">
         <f t="shared" si="11"/>
-        <v>2.62090639618076E-2</v>
+        <v>8.7363546539358655E-3</v>
       </c>
       <c r="J360">
         <v>1</v>
@@ -9769,11 +9881,11 @@
       </c>
       <c r="G361" s="7">
         <f t="shared" si="10"/>
-        <v>2.931007768667742E-2</v>
+        <v>9.7700258955591389E-3</v>
       </c>
       <c r="H361" s="7">
         <f t="shared" si="11"/>
-        <v>2.6064062502975455E-2</v>
+        <v>8.6880208343251518E-3</v>
       </c>
       <c r="J361">
         <v>1</v>
@@ -9785,11 +9897,11 @@
       </c>
       <c r="G362" s="7">
         <f t="shared" si="10"/>
-        <v>2.914836722173841E-2</v>
+        <v>9.7161224072461368E-3</v>
       </c>
       <c r="H362" s="7">
         <f t="shared" si="11"/>
-        <v>2.5920261053159737E-2</v>
+        <v>8.6400870177199118E-3</v>
       </c>
       <c r="J362">
         <v>1</v>
@@ -9801,11 +9913,11 @@
       </c>
       <c r="G363" s="7">
         <f t="shared" si="10"/>
-        <v>2.8987991365233765E-2</v>
+        <v>9.6626637884112548E-3</v>
       </c>
       <c r="H363" s="7">
         <f t="shared" si="11"/>
-        <v>2.5777646407351234E-2</v>
+        <v>8.5925488024504101E-3</v>
       </c>
       <c r="J363">
         <v>1</v>
@@ -9817,11 +9929,11 @@
       </c>
       <c r="G364" s="7">
         <f t="shared" si="10"/>
-        <v>2.8828935471300929E-2</v>
+        <v>9.6096451571003102E-3</v>
       </c>
       <c r="H364" s="7">
         <f t="shared" si="11"/>
-        <v>2.5636205541678725E-2</v>
+        <v>8.5454018472262416E-3</v>
       </c>
       <c r="J364">
         <v>1</v>
@@ -9833,11 +9945,11 @@
       </c>
       <c r="G365" s="7">
         <f t="shared" si="10"/>
-        <v>2.8671185094430385E-2</v>
+        <v>9.5570616981434618E-3</v>
       </c>
       <c r="H365" s="7">
         <f t="shared" si="11"/>
-        <v>2.5495925610435465E-2</v>
+        <v>8.4986418701451533E-3</v>
       </c>
       <c r="J365">
         <v>1</v>
@@ -9849,11 +9961,11 @@
       </c>
       <c r="G366" s="7">
         <f t="shared" si="10"/>
-        <v>2.8514725986185676E-2</v>
+        <v>9.5049086620618926E-3</v>
       </c>
       <c r="H366" s="7">
         <f t="shared" si="11"/>
-        <v>2.5356793943162419E-2</v>
+        <v>8.4522646477208051E-3</v>
       </c>
       <c r="J366">
         <v>1</v>
@@ -9865,11 +9977,11 @@
       </c>
       <c r="G367" s="7">
         <f t="shared" si="10"/>
-        <v>2.8359544091985895E-2</v>
+        <v>9.4531813639952989E-3</v>
       </c>
       <c r="H367" s="7">
         <f t="shared" si="11"/>
-        <v>2.5218798041787116E-2</v>
+        <v>8.4062660139290375E-3</v>
       </c>
       <c r="J367">
         <v>1</v>
@@ -9881,11 +9993,11 @@
       </c>
       <c r="G368" s="7">
         <f t="shared" si="10"/>
-        <v>2.8205625547949316E-2</v>
+        <v>9.4018751826497726E-3</v>
       </c>
       <c r="H368" s="7">
         <f t="shared" si="11"/>
-        <v>2.508192557781682E-2</v>
+        <v>8.3606418592722716E-3</v>
       </c>
       <c r="J368">
         <v>1</v>
@@ -9897,11 +10009,11 @@
       </c>
       <c r="G369" s="7">
         <f t="shared" si="10"/>
-        <v>2.8052956677796788E-2</v>
+        <v>9.3509855592655965E-3</v>
       </c>
       <c r="H369" s="7">
         <f t="shared" si="11"/>
-        <v>2.4946164389584868E-2</v>
+        <v>8.3153881298616214E-3</v>
       </c>
       <c r="J369">
         <v>1</v>
@@ -9913,11 +10025,11 @@
       </c>
       <c r="G370" s="7">
         <f t="shared" si="10"/>
-        <v>2.7901523989813645E-2</v>
+        <v>9.3005079966045484E-3</v>
       </c>
       <c r="H370" s="7">
         <f t="shared" si="11"/>
-        <v>2.4811502479549049E-2</v>
+        <v>8.2705008265163485E-3</v>
       </c>
       <c r="J370">
         <v>1</v>
@@ -9929,11 +10041,11 @@
       </c>
       <c r="G371" s="7">
         <f t="shared" si="10"/>
-        <v>2.7751314173868891E-2</v>
+        <v>9.2504380579562975E-3</v>
       </c>
       <c r="H371" s="7">
         <f t="shared" si="11"/>
-        <v>2.4677928011640895E-2</v>
+        <v>8.2259760038802983E-3</v>
       </c>
       <c r="J371">
         <v>1</v>
@@ -9945,11 +10057,11 @@
       </c>
       <c r="G372" s="7">
         <f t="shared" si="10"/>
-        <v>2.7602314098490347E-2</v>
+        <v>9.2007713661634485E-3</v>
       </c>
       <c r="H372" s="7">
         <f t="shared" si="11"/>
-        <v>2.4545429308664764E-2</v>
+        <v>8.1818097695549215E-3</v>
       </c>
       <c r="J372">
         <v>1</v>
@@ -9961,11 +10073,11 @@
       </c>
       <c r="G373" s="7">
         <f t="shared" si="10"/>
-        <v>2.7454510807994655E-2</v>
+        <v>9.1515036026648851E-3</v>
       </c>
       <c r="H373" s="7">
         <f t="shared" si="11"/>
-        <v>2.4413994849745668E-2</v>
+        <v>8.1379982832485553E-3</v>
       </c>
       <c r="J373">
         <v>1</v>
@@ -9977,11 +10089,11 @@
       </c>
       <c r="G374" s="7">
         <f t="shared" si="10"/>
-        <v>2.7307891519670908E-2</v>
+        <v>9.1026305065569704E-3</v>
       </c>
       <c r="H374" s="7">
         <f t="shared" si="11"/>
-        <v>2.428361326782482E-2</v>
+        <v>8.0945377559416068E-3</v>
       </c>
       <c r="J374">
         <v>1</v>
@@ -9993,11 +10105,11 @@
       </c>
       <c r="G375" s="7">
         <f t="shared" si="10"/>
-        <v>2.7162443621016802E-2</v>
+        <v>9.0541478736722684E-3</v>
       </c>
       <c r="H375" s="7">
         <f t="shared" si="11"/>
-        <v>2.4154273347201882E-2</v>
+        <v>8.0514244490672935E-3</v>
       </c>
       <c r="J375">
         <v>1</v>
@@ -10009,11 +10121,11 @@
       </c>
       <c r="G376" s="7">
         <f t="shared" si="10"/>
-        <v>2.7018154667026142E-2</v>
+        <v>9.0060515556753817E-3</v>
       </c>
       <c r="H376" s="7">
         <f t="shared" si="11"/>
-        <v>2.4025964021122854E-2</v>
+        <v>8.0086546737076179E-3</v>
       </c>
       <c r="J376">
         <v>1</v>
@@ -10025,11 +10137,11 @@
       </c>
       <c r="G377" s="7">
         <f t="shared" si="10"/>
-        <v>2.687501237752667E-2</v>
+        <v>8.9583374591755572E-3</v>
       </c>
       <c r="H377" s="7">
         <f t="shared" si="11"/>
-        <v>2.3898674369412749E-2</v>
+        <v>7.966224789804249E-3</v>
       </c>
       <c r="J377">
         <v>1</v>
@@ -10041,11 +10153,11 @@
       </c>
       <c r="G378" s="7">
         <f t="shared" si="10"/>
-        <v>2.6733004634567119E-2</v>
+        <v>8.9110015448557057E-3</v>
       </c>
       <c r="H378" s="7">
         <f t="shared" si="11"/>
-        <v>2.3772393616152014E-2</v>
+        <v>7.9241312053840041E-3</v>
       </c>
       <c r="J378">
         <v>1</v>
@@ -10057,11 +10169,11 @@
       </c>
       <c r="G379" s="7">
         <f t="shared" si="10"/>
-        <v>2.6592119479852464E-2</v>
+        <v>8.8640398266174886E-3</v>
       </c>
       <c r="H379" s="7">
         <f t="shared" si="11"/>
-        <v>2.3647111127395832E-2</v>
+        <v>7.8823703757986106E-3</v>
       </c>
       <c r="J379">
         <v>1</v>
@@ -10073,11 +10185,11 @@
       </c>
       <c r="G380" s="7">
         <f t="shared" si="10"/>
-        <v>2.6452345112226373E-2</v>
+        <v>8.8174483707421248E-3</v>
       </c>
       <c r="H380" s="7">
         <f t="shared" si="11"/>
-        <v>2.3522816408935349E-2</v>
+        <v>7.8409388029784498E-3</v>
       </c>
       <c r="J380">
         <v>1</v>
@@ -10089,11 +10201,11 @@
       </c>
       <c r="G381" s="7">
         <f t="shared" si="10"/>
-        <v>2.63136698851998E-2</v>
+        <v>8.7712232950666012E-3</v>
       </c>
       <c r="H381" s="7">
         <f t="shared" si="11"/>
-        <v>2.3399499104100031E-2</v>
+        <v>7.7998330347000102E-3</v>
       </c>
       <c r="J381">
         <v>1</v>
@@ -10105,11 +10217,11 @@
       </c>
       <c r="G382" s="7">
         <f t="shared" si="10"/>
-        <v>2.6176082304524877E-2</v>
+        <v>8.7253607681749591E-3</v>
       </c>
       <c r="H382" s="7">
         <f t="shared" si="11"/>
-        <v>2.3277148991600181E-2</v>
+        <v>7.759049663866726E-3</v>
       </c>
       <c r="J382">
         <v>1</v>
@@ -10121,11 +10233,11 @@
       </c>
       <c r="G383" s="7">
         <f t="shared" si="10"/>
-        <v>2.6039571025813033E-2</v>
+        <v>8.6798570086043438E-3</v>
       </c>
       <c r="H383" s="7">
         <f t="shared" si="11"/>
-        <v>2.3155755983408875E-2</v>
+        <v>7.7185853278029584E-3</v>
       </c>
       <c r="J383">
         <v>1</v>
@@ -10137,11 +10249,11 @@
       </c>
       <c r="G384" s="7">
         <f t="shared" si="10"/>
-        <v>2.5904124852196508E-2</v>
+        <v>8.6347082840655034E-3</v>
       </c>
       <c r="H384" s="7">
         <f t="shared" si="11"/>
-        <v>2.3035310122682461E-2</v>
+        <v>7.6784367075608193E-3</v>
       </c>
       <c r="J384">
         <v>1</v>
@@ -10153,11 +10265,11 @@
       </c>
       <c r="G385" s="7">
         <f t="shared" si="10"/>
-        <v>2.5769732732032303E-2</v>
+        <v>8.5899109106774337E-3</v>
       </c>
       <c r="H385" s="7">
         <f t="shared" si="11"/>
-        <v>2.291580158171877E-2</v>
+        <v>7.6386005272395894E-3</v>
       </c>
       <c r="J385">
         <v>1</v>
@@ -10169,11 +10281,11 @@
       </c>
       <c r="G386" s="7">
         <f t="shared" si="10"/>
-        <v>2.563638375664775E-2</v>
+        <v>8.5454612522159173E-3</v>
       </c>
       <c r="H386" s="7">
         <f t="shared" si="11"/>
-        <v>2.2797220659952381E-2</v>
+        <v>7.59907355331746E-3</v>
       </c>
       <c r="J386">
         <v>1</v>
@@ -10185,11 +10297,11 @@
       </c>
       <c r="G387" s="7">
         <f t="shared" ref="G387:G401" si="12">($C$3*$C$12)/(4*F387*F387*PI())</f>
-        <v>2.550406715812677E-2</v>
+        <v>8.5013557193755907E-3</v>
       </c>
       <c r="H387" s="7">
         <f t="shared" ref="H387:H401" si="13">($C$3*$C$14)/(4*F387*F387*PI())</f>
-        <v>2.2679557781986024E-2</v>
+        <v>7.5598525939953413E-3</v>
       </c>
       <c r="J387">
         <v>1</v>
@@ -10201,11 +10313,11 @@
       </c>
       <c r="G388" s="7">
         <f t="shared" si="12"/>
-        <v>2.5372772307136041E-2</v>
+        <v>8.4575907690453457E-3</v>
       </c>
       <c r="H388" s="7">
         <f t="shared" si="13"/>
-        <v>2.2562803495657511E-2</v>
+        <v>7.5209344985525039E-3</v>
       </c>
       <c r="J388">
         <v>1</v>
@@ -10217,11 +10329,11 @@
       </c>
       <c r="G389" s="7">
         <f t="shared" si="12"/>
-        <v>2.5242488710790229E-2</v>
+        <v>8.4141629035967436E-3</v>
       </c>
       <c r="H389" s="7">
         <f t="shared" si="13"/>
-        <v>2.2446948470141385E-2</v>
+        <v>7.4823161567137949E-3</v>
       </c>
       <c r="J389">
         <v>1</v>
@@ -10233,11 +10345,11 @@
       </c>
       <c r="G390" s="7">
         <f t="shared" si="12"/>
-        <v>2.5113206010555479E-2</v>
+        <v>8.3710686701851597E-3</v>
       </c>
       <c r="H390" s="7">
         <f t="shared" si="13"/>
-        <v>2.2331983494084579E-2</v>
+        <v>7.4439944980281931E-3</v>
       </c>
       <c r="J390">
         <v>1</v>
@@ -10249,11 +10361,11 @@
       </c>
       <c r="G391" s="7">
         <f t="shared" si="12"/>
-        <v>2.4984913980190399E-2</v>
+        <v>8.3283046600634656E-3</v>
       </c>
       <c r="H391" s="7">
         <f t="shared" si="13"/>
-        <v>2.2217899473775452E-2</v>
+        <v>7.4059664912584835E-3</v>
       </c>
       <c r="J391">
         <v>1</v>
@@ -10265,11 +10377,11 @@
       </c>
       <c r="G392" s="7">
         <f t="shared" si="12"/>
-        <v>2.4857602523723762E-2</v>
+        <v>8.2858675079079212E-3</v>
       </c>
       <c r="H392" s="7">
         <f t="shared" si="13"/>
-        <v>2.2104687431345433E-2</v>
+        <v>7.3682291437818107E-3</v>
       </c>
       <c r="J392">
         <v>1</v>
@@ -10281,11 +10393,11 @@
       </c>
       <c r="G393" s="7">
         <f t="shared" si="12"/>
-        <v>2.4731261673468188E-2</v>
+        <v>8.2437538911560634E-3</v>
       </c>
       <c r="H393" s="7">
         <f t="shared" si="13"/>
-        <v>2.1992338503002706E-2</v>
+        <v>7.3307795010009013E-3</v>
       </c>
       <c r="J393">
         <v>1</v>
@@ -10297,11 +10409,11 @@
       </c>
       <c r="G394" s="7">
         <f t="shared" si="12"/>
-        <v>2.4605881588069055E-2</v>
+        <v>8.2019605293563516E-3</v>
       </c>
       <c r="H394" s="7">
         <f t="shared" si="13"/>
-        <v>2.1880843937297178E-2</v>
+        <v>7.2936146457657251E-3</v>
       </c>
       <c r="J394">
         <v>1</v>
@@ -10313,11 +10425,11 @@
       </c>
       <c r="G395" s="7">
         <f t="shared" si="12"/>
-        <v>2.4481452550587972E-2</v>
+        <v>8.1604841835293228E-3</v>
       </c>
       <c r="H395" s="7">
         <f t="shared" si="13"/>
-        <v>2.1770195093416211E-2</v>
+        <v>7.2567316978054035E-3</v>
       </c>
       <c r="J395">
         <v>1</v>
@@ -10329,11 +10441,11 @@
       </c>
       <c r="G396" s="7">
         <f t="shared" si="12"/>
-        <v>2.435796496662004E-2</v>
+        <v>8.1193216555400134E-3</v>
       </c>
       <c r="H396" s="7">
         <f t="shared" si="13"/>
-        <v>2.1660383439510413E-2</v>
+        <v>7.2201278131701369E-3</v>
       </c>
       <c r="J396">
         <v>1</v>
@@ -10345,11 +10457,11 @@
       </c>
       <c r="G397" s="7">
         <f t="shared" si="12"/>
-        <v>2.4235409362444327E-2</v>
+        <v>8.0784697874814425E-3</v>
       </c>
       <c r="H397" s="7">
         <f t="shared" si="13"/>
-        <v>2.1551400551048889E-2</v>
+        <v>7.1838001836829635E-3</v>
       </c>
       <c r="J397">
         <v>1</v>
@@ -10361,11 +10473,11 @@
       </c>
       <c r="G398" s="7">
         <f t="shared" si="12"/>
-        <v>2.4113776383206789E-2</v>
+        <v>8.0379254610689291E-3</v>
       </c>
       <c r="H398" s="7">
         <f t="shared" si="13"/>
-        <v>2.1443238109203459E-2</v>
+        <v>7.147746036401152E-3</v>
       </c>
       <c r="J398">
         <v>1</v>
@@ -10377,11 +10489,11 @@
       </c>
       <c r="G399" s="7">
         <f t="shared" si="12"/>
-        <v>2.3993056791135031E-2</v>
+        <v>7.9976855970450098E-3</v>
       </c>
       <c r="H399" s="7">
         <f t="shared" si="13"/>
-        <v>2.1335887899261091E-2</v>
+        <v>7.1119626330870293E-3</v>
       </c>
       <c r="J399">
         <v>1</v>
@@ -10393,11 +10505,11 @@
       </c>
       <c r="G400" s="7">
         <f t="shared" si="12"/>
-        <v>2.3873241463784303E-2</v>
+        <v>7.9577471545947669E-3</v>
       </c>
       <c r="H400" s="7">
         <f t="shared" si="13"/>
-        <v>2.1229341809064155E-2</v>
+        <v>7.076447269688051E-3</v>
       </c>
       <c r="J400">
         <v>1</v>
@@ -10409,11 +10521,11 @@
       </c>
       <c r="G401" s="7">
         <f t="shared" si="12"/>
-        <v>2.375432139231403E-2</v>
+        <v>7.9181071307713423E-3</v>
       </c>
       <c r="H401" s="7">
         <f t="shared" si="13"/>
-        <v>2.1123591827477844E-2</v>
+        <v>7.0411972758259471E-3</v>
       </c>
       <c r="J401">
         <v>1</v>
